--- a/Calculations gfa.xlsx
+++ b/Calculations gfa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://securitywindowshutt-my.sharepoint.com/personal/rob_hyrons_swsuk_co_uk/Documents/SWS product dev/Projects/P190 - Industrial EVO/Calculators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="8_{A844E0BA-A576-434A-9D5B-F754D63831E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55435A32-D665-4E36-AFCD-3FDF2BF8D045}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="8_{A844E0BA-A576-434A-9D5B-F754D63831E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05E32CBE-853B-4F3D-BFA6-35DFAC86F771}"/>
   <bookViews>
-    <workbookView xWindow="3870" yWindow="1140" windowWidth="21300" windowHeight="15120" tabRatio="758" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10000" yWindow="690" windowWidth="20440" windowHeight="20720" tabRatio="758" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -1068,9 +1068,6 @@
     <t>77t with tripel chamber rubber</t>
   </si>
   <si>
-    <t>75mm  22swg, Solid 10.2kg/sqm</t>
-  </si>
-  <si>
     <t>75mm Wind  22swg Solid 10.2kg/sqm</t>
   </si>
   <si>
@@ -1339,6 +1336,9 @@
   </si>
   <si>
     <t>5" 6 swg</t>
+  </si>
+  <si>
+    <t>a75mm  22swg, Solid 10.2kg/sqm</t>
   </si>
 </sst>
 </file>
@@ -3847,10 +3847,10 @@
         <v>97</v>
       </c>
       <c r="H1" s="57" t="s">
+        <v>234</v>
+      </c>
+      <c r="I1" s="58" t="s">
         <v>235</v>
-      </c>
-      <c r="I1" s="58" t="s">
-        <v>236</v>
       </c>
       <c r="J1" s="7"/>
     </row>
@@ -3871,7 +3871,7 @@
         <v>70</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -3894,7 +3894,7 @@
         <v>70</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -3997,7 +3997,7 @@
     </row>
     <row r="8" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B8" s="9">
         <v>1943</v>
@@ -4020,7 +4020,7 @@
     </row>
     <row r="9" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B9" s="9">
         <v>3503</v>
@@ -4058,7 +4058,7 @@
         <v>44</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H10">
         <v>10</v>
@@ -4084,7 +4084,7 @@
         <v>200</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -4204,7 +4204,7 @@
         <v>200</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H16">
         <v>10</v>
@@ -4251,7 +4251,7 @@
         <v>145</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>147</v>
@@ -4520,7 +4520,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="40" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B16" s="6">
         <v>135</v>
@@ -4541,7 +4541,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="40" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B17" s="6">
         <v>180</v>
@@ -4562,7 +4562,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="40" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B18" s="6">
         <v>205</v>
@@ -4583,7 +4583,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="40" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B19" s="6">
         <v>250</v>
@@ -4604,7 +4604,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B20" s="6">
         <v>300</v>
@@ -4625,7 +4625,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="40" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B21" s="6">
         <v>350</v>
@@ -4707,8 +4707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E91FF3-79AA-48A9-9F88-C48DFFEF60AE}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4748,18 +4748,18 @@
         <v>172</v>
       </c>
       <c r="I1" s="61" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J1" s="62" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K1" s="61" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="43" t="s">
-        <v>207</v>
+        <v>297</v>
       </c>
       <c r="B2" s="5">
         <v>10.199999999999999</v>
@@ -4789,7 +4789,7 @@
     </row>
     <row r="3" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="49" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B3" s="23">
         <v>10.199999999999999</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="4" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="43" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B4" s="5">
         <v>12.7</v>
@@ -4841,7 +4841,7 @@
     </row>
     <row r="5" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="49" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B5" s="23">
         <v>12.7</v>
@@ -4867,7 +4867,7 @@
     </row>
     <row r="6" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="43" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B6" s="4">
         <v>16.899999999999999</v>
@@ -4893,7 +4893,7 @@
     </row>
     <row r="7" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="49" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B7" s="24">
         <v>16.899999999999999</v>
@@ -4929,7 +4929,7 @@
     </row>
     <row r="9" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="43" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B9" s="5">
         <v>8.3000000000000007</v>
@@ -4955,7 +4955,7 @@
     </row>
     <row r="10" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="49" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B10" s="23">
         <v>8.3000000000000007</v>
@@ -4981,7 +4981,7 @@
     </row>
     <row r="11" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B11" s="5">
         <v>10.5</v>
@@ -5007,7 +5007,7 @@
     </row>
     <row r="12" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="49" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B12" s="23">
         <v>10.5</v>
@@ -5033,7 +5033,7 @@
     </row>
     <row r="13" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="43" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B13" s="5">
         <v>14</v>
@@ -5059,7 +5059,7 @@
     </row>
     <row r="14" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B14" s="23">
         <v>14</v>
@@ -5097,7 +5097,7 @@
     </row>
     <row r="16" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="43" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B16" s="5">
         <v>7.5</v>
@@ -5123,7 +5123,7 @@
     </row>
     <row r="17" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B17" s="23">
         <v>7.5</v>
@@ -5149,7 +5149,7 @@
     </row>
     <row r="18" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B18" s="5">
         <v>9.6999999999999993</v>
@@ -5175,7 +5175,7 @@
     </row>
     <row r="19" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="49" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B19" s="23">
         <v>9.6999999999999993</v>
@@ -5211,7 +5211,7 @@
     </row>
     <row r="21" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B21" s="13">
         <v>11.4</v>
@@ -5245,7 +5245,7 @@
     </row>
     <row r="23" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="43" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B23" s="5">
         <v>11.9</v>
@@ -5271,7 +5271,7 @@
     </row>
     <row r="24" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="43" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B24" s="5">
         <v>13.3</v>
@@ -5297,7 +5297,7 @@
     </row>
     <row r="25" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="43" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B25" s="5">
         <v>12</v>
@@ -5335,7 +5335,7 @@
     </row>
     <row r="27" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="43" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B27" s="5">
         <v>22</v>
@@ -5612,7 +5612,7 @@
         <v>131</v>
       </c>
       <c r="D1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E1" t="s">
         <v>132</v>
@@ -5721,7 +5721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DB295D-7881-4D5C-8380-F1C84A7F5934}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -5741,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>58</v>
@@ -5762,27 +5762,27 @@
         <v>37</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J1" s="15" t="s">
         <v>111</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L1" s="63" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D2" s="15">
         <v>60</v>
@@ -5808,13 +5808,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>284</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>285</v>
       </c>
       <c r="D3" s="15">
         <v>70</v>
@@ -5840,13 +5840,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D4" s="15">
         <v>70</v>
@@ -5875,7 +5875,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>61</v>
@@ -5911,7 +5911,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>60</v>
@@ -5944,13 +5944,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D7" s="15">
         <v>127</v>
@@ -5983,10 +5983,10 @@
         <v>160</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D8" s="34">
         <v>127</v>
@@ -6019,10 +6019,10 @@
         <v>11</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D9" s="33">
         <v>139</v>
@@ -6055,7 +6055,7 @@
         <v>159</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>59</v>
@@ -6091,10 +6091,10 @@
         <v>158</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D11" s="33">
         <v>168</v>
@@ -6127,7 +6127,7 @@
         <v>157</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>62</v>
@@ -6163,7 +6163,7 @@
         <v>155</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>156</v>
@@ -6199,7 +6199,7 @@
         <v>87</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>85</v>
@@ -6235,7 +6235,7 @@
         <v>86</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C15" s="34"/>
       <c r="D15" s="35">
@@ -6269,7 +6269,7 @@
         <v>108</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C16" s="34"/>
       <c r="D16" s="35">
@@ -6303,7 +6303,7 @@
         <v>109</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C17" s="34"/>
       <c r="D17" s="35">
@@ -6403,7 +6403,7 @@
         <v>55</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M1" s="11" t="s">
         <v>110</v>
@@ -6415,7 +6415,7 @@
         <v>12</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
@@ -6700,10 +6700,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C11" s="1">
         <f>D10+0.01</f>
@@ -6739,10 +6739,10 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C12" s="1">
         <f>D11+0.01</f>
@@ -7917,10 +7917,10 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C48" s="2">
         <v>0</v>
@@ -7946,10 +7946,10 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C49" s="2">
         <v>15.01</v>
@@ -7975,10 +7975,10 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>264</v>
       </c>
       <c r="C50" s="2">
         <v>62.01</v>
@@ -8227,7 +8227,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B58"/>
       <c r="C58" s="2"/>
@@ -8236,7 +8236,7 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B59"/>
       <c r="C59" s="2"/>
@@ -8289,7 +8289,7 @@
     </row>
     <row r="62" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="67" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B62" s="67" t="s">
         <v>98</v>
@@ -8555,10 +8555,10 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
+        <v>266</v>
+      </c>
+      <c r="B68" t="s">
         <v>267</v>
-      </c>
-      <c r="B68" t="s">
-        <v>268</v>
       </c>
       <c r="C68" s="1">
         <f t="shared" si="3"/>
@@ -8642,10 +8642,10 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B70" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C70" s="1">
         <f t="shared" si="3"/>
@@ -8726,7 +8726,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B72" t="s">
         <v>98</v>
@@ -9041,7 +9041,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>98</v>
@@ -9083,7 +9083,7 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>98</v>
@@ -9125,7 +9125,7 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>98</v>
@@ -9167,7 +9167,7 @@
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>98</v>
@@ -9266,10 +9266,10 @@
         <v>117</v>
       </c>
       <c r="K2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -10057,7 +10057,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B32">
         <v>12</v>
@@ -10066,7 +10066,7 @@
         <v>48</v>
       </c>
       <c r="E32" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F32">
         <v>150</v>
@@ -10081,7 +10081,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B33">
         <v>12</v>
@@ -10090,7 +10090,7 @@
         <v>57</v>
       </c>
       <c r="E33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F33">
         <v>150</v>
@@ -10105,7 +10105,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F34">
         <v>150</v>
@@ -10120,7 +10120,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F35">
         <v>150</v>
@@ -10135,7 +10135,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F36">
         <v>150</v>
@@ -10372,28 +10372,28 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B2" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>247</v>
-      </c>
       <c r="F2" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G2" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>260</v>
-      </c>
       <c r="I2" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
@@ -10452,7 +10452,7 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C5" s="6">
         <v>12</v>
@@ -10464,7 +10464,7 @@
         <v>57</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G5" s="6">
         <v>22400</v>
@@ -10479,7 +10479,7 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C6" s="6">
         <v>18</v>
@@ -10491,7 +10491,7 @@
         <v>57</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G6" s="6">
         <v>22400</v>
@@ -10506,7 +10506,7 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C7" s="6">
         <v>12</v>
@@ -10518,7 +10518,7 @@
         <v>57</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G7" s="6">
         <v>29000</v>
@@ -10533,7 +10533,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C8" s="6">
         <v>15</v>
@@ -10545,7 +10545,7 @@
         <v>57</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G8" s="6">
         <v>29000</v>
@@ -10560,7 +10560,7 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C9" s="6">
         <v>15</v>
@@ -10572,7 +10572,7 @@
         <v>57</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G9" s="6">
         <v>60000</v>
@@ -10586,7 +10586,7 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C10" s="6">
         <v>15</v>
@@ -10598,7 +10598,7 @@
         <v>57</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G10" s="6">
         <v>95000</v>

--- a/Calculations gfa.xlsx
+++ b/Calculations gfa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://securitywindowshutt-my.sharepoint.com/personal/rob_hyrons_swsuk_co_uk/Documents/SWS product dev/Projects/P190 - Industrial EVO/Calculators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="8_{A844E0BA-A576-434A-9D5B-F754D63831E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05E32CBE-853B-4F3D-BFA6-35DFAC86F771}"/>
+  <xr:revisionPtr revIDLastSave="119" documentId="8_{A844E0BA-A576-434A-9D5B-F754D63831E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBDE5F67-1B98-440E-B7F0-C1E06D45E58F}"/>
   <bookViews>
-    <workbookView xWindow="10000" yWindow="690" windowWidth="20440" windowHeight="20720" tabRatio="758" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="1000" windowWidth="25330" windowHeight="20720" tabRatio="758" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -148,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{B4A9A93F-A582-4CD4-93A9-668BE5D144DA}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{B4A9A93F-A582-4CD4-93A9-668BE5D144DA}">
       <text>
         <r>
           <rPr>
@@ -172,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{9F54BE93-34A6-4DCD-BA0B-00B82197A062}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{9F54BE93-34A6-4DCD-BA0B-00B82197A062}">
       <text>
         <r>
           <rPr>
@@ -445,7 +445,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="299">
   <si>
     <t>Name</t>
   </si>
@@ -840,9 +840,6 @@
     <t>Width</t>
   </si>
   <si>
-    <t xml:space="preserve">Penertation </t>
-  </si>
-  <si>
     <t>Brush front</t>
   </si>
   <si>
@@ -1338,7 +1335,13 @@
     <t>5" 6 swg</t>
   </si>
   <si>
-    <t>a75mm  22swg, Solid 10.2kg/sqm</t>
+    <t>vision percentage</t>
+  </si>
+  <si>
+    <t>75mm  22swg, Solid 10.2kg/sqm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penetration </t>
   </si>
 </sst>
 </file>
@@ -1559,7 +1562,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1772,6 +1775,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1 2" xfId="1" xr:uid="{4B6C72F7-C4CA-450E-9C13-94CEF72F8B8D}"/>
@@ -1844,13 +1859,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>69953</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>542361</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>469900</xdr:rowOff>
@@ -1888,13 +1903,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>567658</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
@@ -1932,13 +1947,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>82550</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>554958</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>501650</xdr:rowOff>
@@ -1976,13 +1991,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>153306</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>1815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>529157</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>478065</xdr:rowOff>
@@ -2020,13 +2035,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>574641</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>482600</xdr:rowOff>
@@ -2064,13 +2079,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>146050</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>6351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>521901</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>482601</xdr:rowOff>
@@ -2108,13 +2123,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>141765</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>12701</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>490964</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>495301</xdr:rowOff>
@@ -2152,13 +2167,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>55307</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>66571</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>572637</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>430161</xdr:rowOff>
@@ -2196,13 +2211,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>45884</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>51004</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>563214</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>414594</xdr:rowOff>
@@ -2240,13 +2255,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>44655</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>62066</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>561985</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>425656</xdr:rowOff>
@@ -2284,13 +2299,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>45474</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>54692</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>562804</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>418282</xdr:rowOff>
@@ -2328,13 +2343,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>71892</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>29723</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>559339</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>472436</xdr:rowOff>
@@ -2372,13 +2387,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>74054</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>31885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>561501</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>474598</xdr:rowOff>
@@ -2416,13 +2431,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>78918</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>34047</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>566365</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>476760</xdr:rowOff>
@@ -2460,13 +2475,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>84720</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>43233</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>512293</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>474738</xdr:rowOff>
@@ -2504,13 +2519,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>82551</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>25401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>533401</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>476251</xdr:rowOff>
@@ -2548,13 +2563,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>488950</xdr:rowOff>
@@ -2592,13 +2607,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>546100</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>476250</xdr:rowOff>
@@ -2636,13 +2651,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>86448</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>558799</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>462888</xdr:rowOff>
@@ -2680,13 +2695,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>92798</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>565149</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>469238</xdr:rowOff>
@@ -2724,13 +2739,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>99148</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>571499</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>475588</xdr:rowOff>
@@ -3755,12 +3770,12 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.35">
@@ -3847,10 +3862,10 @@
         <v>97</v>
       </c>
       <c r="H1" s="57" t="s">
+        <v>233</v>
+      </c>
+      <c r="I1" s="58" t="s">
         <v>234</v>
-      </c>
-      <c r="I1" s="58" t="s">
-        <v>235</v>
       </c>
       <c r="J1" s="7"/>
     </row>
@@ -3871,7 +3886,7 @@
         <v>70</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -3894,7 +3909,7 @@
         <v>70</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -3902,7 +3917,7 @@
     </row>
     <row r="4" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B4" s="9">
         <v>332</v>
@@ -3928,7 +3943,7 @@
     </row>
     <row r="5" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B5" s="9">
         <v>552</v>
@@ -3951,7 +3966,7 @@
     </row>
     <row r="6" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B6" s="9">
         <v>599</v>
@@ -3974,7 +3989,7 @@
     </row>
     <row r="7" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B7" s="9">
         <v>1063</v>
@@ -3997,7 +4012,7 @@
     </row>
     <row r="8" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B8" s="9">
         <v>1943</v>
@@ -4020,7 +4035,7 @@
     </row>
     <row r="9" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B9" s="9">
         <v>3503</v>
@@ -4058,7 +4073,7 @@
         <v>44</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H10">
         <v>10</v>
@@ -4084,7 +4099,7 @@
         <v>200</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -4204,7 +4219,7 @@
         <v>200</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H16">
         <v>10</v>
@@ -4221,7 +4236,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4239,22 +4254,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>138</v>
-      </c>
       <c r="E1" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -4267,7 +4282,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3" s="6">
         <v>300</v>
@@ -4276,7 +4291,7 @@
         <v>500</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E3" s="6">
         <v>3</v>
@@ -4289,7 +4304,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B4" s="6">
         <v>350</v>
@@ -4298,7 +4313,7 @@
         <v>450</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E4" s="6">
         <v>3</v>
@@ -4311,7 +4326,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B5" s="6">
         <v>400</v>
@@ -4320,7 +4335,7 @@
         <v>550</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E5" s="6">
         <v>4</v>
@@ -4333,7 +4348,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B6" s="6">
         <v>450</v>
@@ -4342,7 +4357,7 @@
         <v>550</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E6" s="6">
         <v>4</v>
@@ -4363,7 +4378,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B8" s="6">
         <v>300</v>
@@ -4372,7 +4387,7 @@
         <v>700</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E8" s="6">
         <v>6</v>
@@ -4385,7 +4400,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B9" s="6">
         <v>350</v>
@@ -4394,7 +4409,7 @@
         <v>650</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E9" s="6">
         <v>6</v>
@@ -4407,7 +4422,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B10" s="6">
         <v>400</v>
@@ -4416,7 +4431,7 @@
         <v>1200</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E10" s="6">
         <v>8</v>
@@ -4429,7 +4444,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B11" s="6">
         <v>450</v>
@@ -4438,7 +4453,7 @@
         <v>1100</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E11" s="6">
         <v>8</v>
@@ -4451,7 +4466,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="40" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B12" s="6">
         <v>500</v>
@@ -4460,7 +4475,7 @@
         <v>2500</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E12" s="6">
         <v>10</v>
@@ -4473,7 +4488,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B13" s="6">
         <v>550</v>
@@ -4482,7 +4497,7 @@
         <v>2350</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E13" s="6">
         <v>10</v>
@@ -4494,22 +4509,22 @@
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="B14" s="6">
+      <c r="A14" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" s="74">
         <v>600</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="74">
         <v>2200</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E14" s="6">
+      <c r="D14" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="74">
         <v>10</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="74">
         <f t="shared" si="0"/>
         <v>550</v>
       </c>
@@ -4520,7 +4535,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="40" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B16" s="6">
         <v>135</v>
@@ -4529,7 +4544,7 @@
         <v>50</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E16" s="6">
         <v>10</v>
@@ -4541,7 +4556,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="40" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B17" s="6">
         <v>180</v>
@@ -4550,7 +4565,7 @@
         <v>50</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E17" s="6">
         <v>10</v>
@@ -4562,7 +4577,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="40" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B18" s="6">
         <v>205</v>
@@ -4571,7 +4586,7 @@
         <v>50</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E18" s="6">
         <v>10</v>
@@ -4583,7 +4598,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="40" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B19" s="6">
         <v>250</v>
@@ -4592,7 +4607,7 @@
         <v>50</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E19" s="6">
         <v>10</v>
@@ -4604,7 +4619,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="40" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B20" s="6">
         <v>300</v>
@@ -4613,7 +4628,7 @@
         <v>50</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E20" s="6">
         <v>10</v>
@@ -4625,7 +4640,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B21" s="6">
         <v>350</v>
@@ -4634,7 +4649,7 @@
         <v>50</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E21" s="6">
         <v>10</v>
@@ -4670,7 +4685,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C1" t="s">
         <v>130</v>
@@ -4678,7 +4693,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B2">
         <v>1650</v>
@@ -4689,7 +4704,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B3">
         <v>1875</v>
@@ -4705,10 +4720,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E91FF3-79AA-48A9-9F88-C48DFFEF60AE}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4717,12 +4732,12 @@
     <col min="3" max="3" width="14.1796875" customWidth="1"/>
     <col min="5" max="5" width="10.26953125" customWidth="1"/>
     <col min="6" max="6" width="11.453125" customWidth="1"/>
-    <col min="8" max="8" width="10" style="6" customWidth="1"/>
-    <col min="9" max="9" width="14.26953125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="12.81640625" style="6" customWidth="1"/>
+    <col min="8" max="9" width="10" style="6" customWidth="1"/>
+    <col min="10" max="10" width="14.26953125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="12.81640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="39.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="39.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -4733,10 +4748,10 @@
         <v>35</v>
       </c>
       <c r="D1" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="47" t="s">
         <v>161</v>
-      </c>
-      <c r="E1" s="47" t="s">
-        <v>162</v>
       </c>
       <c r="F1" s="47" t="s">
         <v>7</v>
@@ -4745,19 +4760,22 @@
         <v>8</v>
       </c>
       <c r="H1" s="52" t="s">
-        <v>172</v>
-      </c>
-      <c r="I1" s="61" t="s">
-        <v>238</v>
-      </c>
-      <c r="J1" s="62" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="72" t="s">
+        <v>296</v>
+      </c>
+      <c r="J1" s="61" t="s">
         <v>237</v>
       </c>
-      <c r="K1" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K1" s="62" t="s">
+        <v>236</v>
+      </c>
+      <c r="L1" s="61" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="43" t="s">
         <v>297</v>
       </c>
@@ -4781,15 +4799,18 @@
         <v>9000</v>
       </c>
       <c r="I2" s="59">
+        <v>0</v>
+      </c>
+      <c r="J2" s="59">
         <v>338635.97690000001</v>
       </c>
-      <c r="J2" s="59">
+      <c r="K2" s="59">
         <v>190000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="49" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B3" s="23">
         <v>10.199999999999999</v>
@@ -4810,12 +4831,15 @@
       <c r="H3" s="23">
         <v>9000</v>
       </c>
-      <c r="I3" s="60"/>
+      <c r="I3" s="60">
+        <v>0</v>
+      </c>
       <c r="J3" s="60"/>
-    </row>
-    <row r="4" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K3" s="60"/>
+    </row>
+    <row r="4" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="43" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B4" s="5">
         <v>12.7</v>
@@ -4836,12 +4860,15 @@
       <c r="H4" s="5">
         <v>9000</v>
       </c>
-      <c r="I4" s="59"/>
+      <c r="I4" s="59">
+        <v>0</v>
+      </c>
       <c r="J4" s="59"/>
-    </row>
-    <row r="5" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K4" s="59"/>
+    </row>
+    <row r="5" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="49" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B5" s="23">
         <v>12.7</v>
@@ -4862,15 +4889,18 @@
       <c r="H5" s="23">
         <v>9000</v>
       </c>
-      <c r="I5" s="60"/>
+      <c r="I5" s="60">
+        <v>0</v>
+      </c>
       <c r="J5" s="60"/>
-    </row>
-    <row r="6" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K5" s="60"/>
+    </row>
+    <row r="6" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B6" s="4">
-        <v>16.899999999999999</v>
+        <v>16</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5">
@@ -4888,15 +4918,18 @@
       <c r="H6" s="5">
         <v>9000</v>
       </c>
-      <c r="I6" s="59"/>
+      <c r="I6" s="59">
+        <v>0</v>
+      </c>
       <c r="J6" s="59"/>
-    </row>
-    <row r="7" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K6" s="59"/>
+    </row>
+    <row r="7" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="49" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B7" s="24">
-        <v>16.899999999999999</v>
+        <v>16</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="23">
@@ -4914,10 +4947,13 @@
       <c r="H7" s="23">
         <v>9000</v>
       </c>
-      <c r="I7" s="60"/>
+      <c r="I7" s="60">
+        <v>0</v>
+      </c>
       <c r="J7" s="60"/>
-    </row>
-    <row r="8" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K7" s="60"/>
+    </row>
+    <row r="8" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="43"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -4926,10 +4962,11 @@
       <c r="F8" s="4"/>
       <c r="G8" s="44"/>
       <c r="H8" s="51"/>
-    </row>
-    <row r="9" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I8" s="71"/>
+    </row>
+    <row r="9" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="43" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B9" s="5">
         <v>8.3000000000000007</v>
@@ -4950,12 +4987,15 @@
       <c r="H9" s="5">
         <v>9000</v>
       </c>
-      <c r="I9" s="59"/>
+      <c r="I9" s="59">
+        <v>30</v>
+      </c>
       <c r="J9" s="59"/>
-    </row>
-    <row r="10" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K9" s="59"/>
+    </row>
+    <row r="10" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="49" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B10" s="23">
         <v>8.3000000000000007</v>
@@ -4976,12 +5016,15 @@
       <c r="H10" s="23">
         <v>9000</v>
       </c>
-      <c r="I10" s="60"/>
+      <c r="I10" s="60">
+        <v>30</v>
+      </c>
       <c r="J10" s="60"/>
-    </row>
-    <row r="11" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K10" s="60"/>
+    </row>
+    <row r="11" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="43" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B11" s="5">
         <v>10.5</v>
@@ -5002,12 +5045,15 @@
       <c r="H11" s="5">
         <v>9000</v>
       </c>
-      <c r="I11" s="59"/>
+      <c r="I11" s="59">
+        <v>30</v>
+      </c>
       <c r="J11" s="59"/>
-    </row>
-    <row r="12" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K11" s="59"/>
+    </row>
+    <row r="12" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="49" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B12" s="23">
         <v>10.5</v>
@@ -5028,12 +5074,15 @@
       <c r="H12" s="23">
         <v>9000</v>
       </c>
-      <c r="I12" s="60"/>
+      <c r="I12" s="60">
+        <v>30</v>
+      </c>
       <c r="J12" s="60"/>
-    </row>
-    <row r="13" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K12" s="60"/>
+    </row>
+    <row r="13" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="43" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B13" s="5">
         <v>14</v>
@@ -5054,12 +5103,15 @@
       <c r="H13" s="5">
         <v>9000</v>
       </c>
-      <c r="I13" s="59"/>
+      <c r="I13" s="59">
+        <v>30</v>
+      </c>
       <c r="J13" s="59"/>
-    </row>
-    <row r="14" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K13" s="59"/>
+    </row>
+    <row r="14" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="49" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B14" s="23">
         <v>14</v>
@@ -5080,10 +5132,13 @@
       <c r="H14" s="23">
         <v>9000</v>
       </c>
-      <c r="I14" s="60"/>
+      <c r="I14" s="60">
+        <v>30</v>
+      </c>
       <c r="J14" s="60"/>
-    </row>
-    <row r="15" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K14" s="60"/>
+    </row>
+    <row r="15" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="43"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -5094,10 +5149,11 @@
       <c r="H15" s="5"/>
       <c r="I15" s="59"/>
       <c r="J15" s="59"/>
-    </row>
-    <row r="16" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K15" s="59"/>
+    </row>
+    <row r="16" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="43" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B16" s="5">
         <v>7.5</v>
@@ -5118,12 +5174,15 @@
       <c r="H16" s="5">
         <v>9000</v>
       </c>
-      <c r="I16" s="59"/>
+      <c r="I16" s="59">
+        <v>25</v>
+      </c>
       <c r="J16" s="59"/>
-    </row>
-    <row r="17" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K16" s="59"/>
+    </row>
+    <row r="17" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B17" s="23">
         <v>7.5</v>
@@ -5144,12 +5203,15 @@
       <c r="H17" s="23">
         <v>9000</v>
       </c>
-      <c r="I17" s="60"/>
+      <c r="I17" s="60">
+        <v>25</v>
+      </c>
       <c r="J17" s="60"/>
-    </row>
-    <row r="18" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K17" s="60"/>
+    </row>
+    <row r="18" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="43" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B18" s="5">
         <v>9.6999999999999993</v>
@@ -5170,12 +5232,15 @@
       <c r="H18" s="5">
         <v>9000</v>
       </c>
-      <c r="I18" s="59"/>
+      <c r="I18" s="59">
+        <v>25</v>
+      </c>
       <c r="J18" s="59"/>
-    </row>
-    <row r="19" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K18" s="59"/>
+    </row>
+    <row r="19" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="49" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B19" s="23">
         <v>9.6999999999999993</v>
@@ -5196,10 +5261,13 @@
       <c r="H19" s="23">
         <v>9000</v>
       </c>
-      <c r="I19" s="60"/>
+      <c r="I19" s="60">
+        <v>25</v>
+      </c>
       <c r="J19" s="60"/>
-    </row>
-    <row r="20" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K19" s="60"/>
+    </row>
+    <row r="20" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="43"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -5208,10 +5276,11 @@
       <c r="F20" s="5"/>
       <c r="G20" s="44"/>
       <c r="H20" s="51"/>
-    </row>
-    <row r="21" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I20" s="71"/>
+    </row>
+    <row r="21" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B21" s="13">
         <v>11.4</v>
@@ -5232,8 +5301,11 @@
       <c r="H21" s="51">
         <v>6000</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I21" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -5242,10 +5314,11 @@
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
       <c r="H22" s="51"/>
-    </row>
-    <row r="23" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I22" s="71"/>
+    </row>
+    <row r="23" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B23" s="5">
         <v>11.9</v>
@@ -5266,12 +5339,15 @@
       <c r="H23" s="5">
         <v>9000</v>
       </c>
-      <c r="I23" s="59"/>
+      <c r="I23" s="59">
+        <v>0</v>
+      </c>
       <c r="J23" s="59"/>
-    </row>
-    <row r="24" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K23" s="59"/>
+    </row>
+    <row r="24" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="43" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B24" s="5">
         <v>13.3</v>
@@ -5292,12 +5368,15 @@
       <c r="H24" s="5">
         <v>9000</v>
       </c>
-      <c r="I24" s="59"/>
+      <c r="I24" s="59">
+        <v>0</v>
+      </c>
       <c r="J24" s="59"/>
-    </row>
-    <row r="25" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K24" s="59"/>
+    </row>
+    <row r="25" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="43" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B25" s="5">
         <v>12</v>
@@ -5320,8 +5399,9 @@
       </c>
       <c r="I25" s="59"/>
       <c r="J25" s="59"/>
-    </row>
-    <row r="26" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K25" s="59"/>
+    </row>
+    <row r="26" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="43"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -5332,10 +5412,11 @@
       <c r="H26" s="5"/>
       <c r="I26" s="59"/>
       <c r="J26" s="59"/>
-    </row>
-    <row r="27" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K26" s="59"/>
+    </row>
+    <row r="27" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="43" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B27" s="5">
         <v>22</v>
@@ -5358,10 +5439,13 @@
       <c r="H27" s="5">
         <v>9000</v>
       </c>
-      <c r="I27" s="59"/>
+      <c r="I27" s="59">
+        <v>0</v>
+      </c>
       <c r="J27" s="59"/>
-    </row>
-    <row r="28" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K27" s="59"/>
+    </row>
+    <row r="28" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="43"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -5370,8 +5454,9 @@
       <c r="F28" s="4"/>
       <c r="G28" s="44"/>
       <c r="H28" s="51"/>
-    </row>
-    <row r="29" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I28" s="71"/>
+    </row>
+    <row r="29" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="43"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -5380,8 +5465,9 @@
       <c r="F29" s="5"/>
       <c r="G29" s="44"/>
       <c r="H29" s="51"/>
-    </row>
-    <row r="30" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I29" s="71"/>
+    </row>
+    <row r="30" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="43"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -5390,8 +5476,9 @@
       <c r="F30" s="5"/>
       <c r="G30" s="44"/>
       <c r="H30" s="51"/>
-    </row>
-    <row r="31" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I30" s="71"/>
+    </row>
+    <row r="31" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="43"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -5400,8 +5487,9 @@
       <c r="F31" s="5"/>
       <c r="G31" s="44"/>
       <c r="H31" s="51"/>
-    </row>
-    <row r="32" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I31" s="71"/>
+    </row>
+    <row r="32" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="43"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -5410,8 +5498,9 @@
       <c r="F32" s="5"/>
       <c r="G32" s="44"/>
       <c r="H32" s="51"/>
-    </row>
-    <row r="33" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I32" s="71"/>
+    </row>
+    <row r="33" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="43"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -5420,8 +5509,9 @@
       <c r="F33" s="5"/>
       <c r="G33" s="44"/>
       <c r="H33" s="51"/>
-    </row>
-    <row r="34" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I33" s="71"/>
+    </row>
+    <row r="34" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="43"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -5430,6 +5520,7 @@
       <c r="F34" s="5"/>
       <c r="G34" s="44"/>
       <c r="H34" s="51"/>
+      <c r="I34" s="71"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5539,7 +5630,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B8" s="27">
         <v>1.1000000000000001</v>
@@ -5589,7 +5680,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5609,21 +5700,21 @@
         <v>130</v>
       </c>
       <c r="C1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E1" t="s">
         <v>131</v>
       </c>
-      <c r="D1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>132</v>
-      </c>
-      <c r="F1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B3">
         <v>65</v>
@@ -5639,7 +5730,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -5655,7 +5746,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B5">
         <v>65</v>
@@ -5671,7 +5762,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -5687,17 +5778,17 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B10">
         <v>60</v>
@@ -5705,7 +5796,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B11">
         <v>70</v>
@@ -5741,7 +5832,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>58</v>
@@ -5762,27 +5853,27 @@
         <v>37</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J1" s="15" t="s">
         <v>111</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L1" s="63" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D2" s="15">
         <v>60</v>
@@ -5808,13 +5899,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>283</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>284</v>
       </c>
       <c r="D3" s="15">
         <v>70</v>
@@ -5840,13 +5931,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D4" s="15">
         <v>70</v>
@@ -5875,7 +5966,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>61</v>
@@ -5911,7 +6002,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>60</v>
@@ -5944,13 +6035,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D7" s="15">
         <v>127</v>
@@ -5980,13 +6071,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D8" s="34">
         <v>127</v>
@@ -6019,10 +6110,10 @@
         <v>11</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D9" s="33">
         <v>139</v>
@@ -6052,10 +6143,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>59</v>
@@ -6088,13 +6179,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D11" s="33">
         <v>168</v>
@@ -6124,10 +6215,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>62</v>
@@ -6160,13 +6251,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>155</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>156</v>
       </c>
       <c r="D13" s="16">
         <v>193</v>
@@ -6199,7 +6290,7 @@
         <v>87</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>85</v>
@@ -6235,7 +6326,7 @@
         <v>86</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C15" s="34"/>
       <c r="D15" s="35">
@@ -6269,7 +6360,7 @@
         <v>108</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C16" s="34"/>
       <c r="D16" s="35">
@@ -6303,7 +6394,7 @@
         <v>109</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C17" s="34"/>
       <c r="D17" s="35">
@@ -6335,7 +6426,7 @@
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C24" s="39"/>
       <c r="D24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -6403,19 +6494,19 @@
         <v>55</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M1" s="11" t="s">
         <v>110</v>
       </c>
       <c r="N1" s="53" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O1" s="11" t="s">
         <v>12</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
@@ -6700,10 +6791,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C11" s="1">
         <f>D10+0.01</f>
@@ -6739,10 +6830,10 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C12" s="1">
         <f>D11+0.01</f>
@@ -6778,7 +6869,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>113</v>
@@ -6816,7 +6907,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>113</v>
@@ -6855,7 +6946,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>113</v>
@@ -6894,7 +6985,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>113</v>
@@ -6933,7 +7024,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>113</v>
@@ -6972,7 +7063,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>113</v>
@@ -7011,7 +7102,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>113</v>
@@ -7050,7 +7141,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>113</v>
@@ -7089,7 +7180,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>113</v>
@@ -7128,7 +7219,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>113</v>
@@ -7167,7 +7258,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>113</v>
@@ -7206,7 +7297,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>113</v>
@@ -7245,7 +7336,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>113</v>
@@ -7360,7 +7451,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>44</v>
@@ -7917,10 +8008,10 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C48" s="2">
         <v>0</v>
@@ -7946,10 +8037,10 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C49" s="2">
         <v>15.01</v>
@@ -7975,10 +8066,10 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="C50" s="2">
         <v>62.01</v>
@@ -8139,7 +8230,7 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B56" t="s">
         <v>98</v>
@@ -8183,7 +8274,7 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B57" t="s">
         <v>98</v>
@@ -8227,7 +8318,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B58"/>
       <c r="C58" s="2"/>
@@ -8236,7 +8327,7 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B59"/>
       <c r="C59" s="2"/>
@@ -8245,7 +8336,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B60" t="s">
         <v>98</v>
@@ -8289,7 +8380,7 @@
     </row>
     <row r="62" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="67" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B62" s="67" t="s">
         <v>98</v>
@@ -8555,10 +8646,10 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
+        <v>265</v>
+      </c>
+      <c r="B68" t="s">
         <v>266</v>
-      </c>
-      <c r="B68" t="s">
-        <v>267</v>
       </c>
       <c r="C68" s="1">
         <f t="shared" si="3"/>
@@ -8642,10 +8733,10 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B70" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C70" s="1">
         <f t="shared" si="3"/>
@@ -8726,7 +8817,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B72" t="s">
         <v>98</v>
@@ -8861,7 +8952,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B75" t="s">
         <v>98</v>
@@ -8906,7 +8997,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B76" t="s">
         <v>98</v>
@@ -8951,7 +9042,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B77" t="s">
         <v>98</v>
@@ -8996,7 +9087,7 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B78" t="s">
         <v>98</v>
@@ -9041,7 +9132,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>98</v>
@@ -9083,7 +9174,7 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>98</v>
@@ -9125,7 +9216,7 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>98</v>
@@ -9167,7 +9258,7 @@
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>98</v>
@@ -9266,10 +9357,10 @@
         <v>117</v>
       </c>
       <c r="K2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -10057,7 +10148,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B32">
         <v>12</v>
@@ -10066,7 +10157,7 @@
         <v>48</v>
       </c>
       <c r="E32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F32">
         <v>150</v>
@@ -10081,7 +10172,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B33">
         <v>12</v>
@@ -10090,7 +10181,7 @@
         <v>57</v>
       </c>
       <c r="E33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F33">
         <v>150</v>
@@ -10105,7 +10196,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F34">
         <v>150</v>
@@ -10120,7 +10211,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F35">
         <v>150</v>
@@ -10135,7 +10226,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F36">
         <v>150</v>
@@ -10372,28 +10463,28 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B2" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>246</v>
-      </c>
       <c r="F2" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G2" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>259</v>
-      </c>
       <c r="I2" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
@@ -10452,7 +10543,7 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C5" s="6">
         <v>12</v>
@@ -10464,7 +10555,7 @@
         <v>57</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G5" s="6">
         <v>22400</v>
@@ -10479,7 +10570,7 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C6" s="6">
         <v>18</v>
@@ -10491,7 +10582,7 @@
         <v>57</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G6" s="6">
         <v>22400</v>
@@ -10506,7 +10597,7 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C7" s="6">
         <v>12</v>
@@ -10518,7 +10609,7 @@
         <v>57</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G7" s="6">
         <v>29000</v>
@@ -10533,7 +10624,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C8" s="6">
         <v>15</v>
@@ -10545,7 +10636,7 @@
         <v>57</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G8" s="6">
         <v>29000</v>
@@ -10560,7 +10651,7 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C9" s="6">
         <v>15</v>
@@ -10572,7 +10663,7 @@
         <v>57</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G9" s="6">
         <v>60000</v>
@@ -10586,7 +10677,7 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C10" s="6">
         <v>15</v>
@@ -10598,7 +10689,7 @@
         <v>57</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G10" s="6">
         <v>95000</v>
@@ -10659,7 +10750,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
@@ -10677,7 +10768,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B4" t="s">
         <v>79</v>
@@ -10698,7 +10789,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
@@ -10716,7 +10807,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B7" t="s">
         <v>79</v>
@@ -10734,7 +10825,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8" t="s">
         <v>80</v>
@@ -10752,10 +10843,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" t="s">
         <v>176</v>
-      </c>
-      <c r="B9" t="s">
-        <v>177</v>
       </c>
       <c r="C9">
         <v>32800</v>

--- a/Calculations gfa.xlsx
+++ b/Calculations gfa.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://securitywindowshutt-my.sharepoint.com/personal/rob_hyrons_swsuk_co_uk/Documents/SWS product dev/Projects/P190 - Industrial EVO/Calculators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="119" documentId="8_{A844E0BA-A576-434A-9D5B-F754D63831E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBDE5F67-1B98-440E-B7F0-C1E06D45E58F}"/>
+  <xr:revisionPtr revIDLastSave="179" documentId="8_{A844E0BA-A576-434A-9D5B-F754D63831E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0605DFC-28B1-4BBB-9427-693526DE3EA2}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1000" windowWidth="25330" windowHeight="20720" tabRatio="758" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13680" yWindow="1980" windowWidth="24210" windowHeight="18310" tabRatio="758" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
     <sheet name="Lath" sheetId="7" r:id="rId2"/>
-    <sheet name="Bottom lath" sheetId="9" r:id="rId3"/>
-    <sheet name="Guides" sheetId="12" r:id="rId4"/>
-    <sheet name="Axles" sheetId="6" r:id="rId5"/>
-    <sheet name="Motors" sheetId="5" r:id="rId6"/>
-    <sheet name="Chaindrive" sheetId="11" r:id="rId7"/>
-    <sheet name="Chain" sheetId="15" r:id="rId8"/>
-    <sheet name="Bearings" sheetId="10" r:id="rId9"/>
-    <sheet name="SafetyB" sheetId="8" r:id="rId10"/>
-    <sheet name="Endplate" sheetId="13" r:id="rId11"/>
-    <sheet name="Wicket doors" sheetId="14" r:id="rId12"/>
+    <sheet name="Endlock" sheetId="16" r:id="rId3"/>
+    <sheet name="Bottom lath" sheetId="9" r:id="rId4"/>
+    <sheet name="Guides" sheetId="12" r:id="rId5"/>
+    <sheet name="Axles" sheetId="6" r:id="rId6"/>
+    <sheet name="Motors" sheetId="5" r:id="rId7"/>
+    <sheet name="Chaindrive" sheetId="11" r:id="rId8"/>
+    <sheet name="Chain" sheetId="15" r:id="rId9"/>
+    <sheet name="Bearings" sheetId="10" r:id="rId10"/>
+    <sheet name="SafetyB" sheetId="8" r:id="rId11"/>
+    <sheet name="Endplate" sheetId="13" r:id="rId12"/>
+    <sheet name="Wicket doors" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -206,6 +207,64 @@
     <author>robert hyrons</author>
   </authors>
   <commentList>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{2C9B7025-8986-4E9D-B882-6667505A4E88}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>robert hyrons:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+How far the end protrudes past the lath </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{44B232F7-8F27-46C6-A094-F71BAE6B943E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>robert hyrons:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+need to confirm this info</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>robert hyrons</author>
+  </authors>
+  <commentList>
     <comment ref="G1" authorId="0" shapeId="0" xr:uid="{B6CAEEEC-3965-48AC-ABDB-90025E3B76F3}">
       <text>
         <r>
@@ -235,7 +294,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>robert hyrons</author>
@@ -317,7 +376,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>robert hyrons</author>
@@ -352,7 +411,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>robert hyrons</author>
@@ -386,7 +445,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>robert hyrons</author>
@@ -445,7 +504,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="313">
   <si>
     <t>Name</t>
   </si>
@@ -1342,6 +1401,48 @@
   </si>
   <si>
     <t xml:space="preserve">Penetration </t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>associated lath</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>75mm plastic</t>
+  </si>
+  <si>
+    <t>75mm</t>
+  </si>
+  <si>
+    <t>75mm cast</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>steel</t>
+  </si>
+  <si>
+    <t>weight in grams</t>
+  </si>
+  <si>
+    <t>offset in mm</t>
+  </si>
+  <si>
+    <t>75mm wind</t>
+  </si>
+  <si>
+    <t>77t</t>
+  </si>
+  <si>
+    <t>77t plastic</t>
+  </si>
+  <si>
+    <t>95mm</t>
   </si>
 </sst>
 </file>
@@ -1352,7 +1453,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1471,6 +1572,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1562,7 +1676,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1775,12 +1889,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3821,6 +3929,158 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91673066-48CE-40A8-80D4-43FC435ADD39}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3">
+        <v>5900</v>
+      </c>
+      <c r="D3" s="25">
+        <f>C3*0.1019716213</f>
+        <v>601.63256566999996</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4">
+        <v>10800</v>
+      </c>
+      <c r="D4" s="25">
+        <f t="shared" ref="D4" si="0">C4*0.1019716213</f>
+        <v>1101.29351004</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6">
+        <v>11250</v>
+      </c>
+      <c r="D6" s="25">
+        <f>C6*0.1019716213</f>
+        <v>1147.1807396249999</v>
+      </c>
+      <c r="E6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7">
+        <v>18100</v>
+      </c>
+      <c r="D7" s="25">
+        <f t="shared" ref="D7:D9" si="1">C7*0.1019716213</f>
+        <v>1845.6863455299999</v>
+      </c>
+      <c r="E7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8">
+        <v>29200</v>
+      </c>
+      <c r="D8" s="25">
+        <f t="shared" si="1"/>
+        <v>2977.5713419599997</v>
+      </c>
+      <c r="E8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9">
+        <v>32800</v>
+      </c>
+      <c r="D9" s="25">
+        <f t="shared" si="1"/>
+        <v>3344.6691786399997</v>
+      </c>
+      <c r="E9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0484E2-9992-4491-920F-B8AE57D8A0EE}">
   <dimension ref="A1:J16"/>
   <sheetViews>
@@ -4231,7 +4491,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63386739-1836-4135-BDCC-F0CD02A919B6}">
   <dimension ref="A1:G21"/>
   <sheetViews>
@@ -4509,22 +4769,22 @@
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="71" t="s">
         <v>151</v>
       </c>
-      <c r="B14" s="74">
+      <c r="B14" s="72">
         <v>600</v>
       </c>
-      <c r="C14" s="74">
+      <c r="C14" s="72">
         <v>2200</v>
       </c>
-      <c r="D14" s="74" t="s">
+      <c r="D14" s="72" t="s">
         <v>140</v>
       </c>
-      <c r="E14" s="74">
+      <c r="E14" s="72">
         <v>10</v>
       </c>
-      <c r="F14" s="74">
+      <c r="F14" s="72">
         <f t="shared" si="0"/>
         <v>550</v>
       </c>
@@ -4666,7 +4926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5897A5-8278-44A3-89B0-43E5A8B043EB}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -4722,8 +4982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E91FF3-79AA-48A9-9F88-C48DFFEF60AE}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4762,7 +5022,7 @@
       <c r="H1" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="I1" s="72" t="s">
+      <c r="I1" s="61" t="s">
         <v>296</v>
       </c>
       <c r="J1" s="61" t="s">
@@ -4962,7 +5222,6 @@
       <c r="F8" s="4"/>
       <c r="G8" s="44"/>
       <c r="H8" s="51"/>
-      <c r="I8" s="71"/>
     </row>
     <row r="9" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="43" t="s">
@@ -5276,7 +5535,6 @@
       <c r="F20" s="5"/>
       <c r="G20" s="44"/>
       <c r="H20" s="51"/>
-      <c r="I20" s="71"/>
     </row>
     <row r="21" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="43" t="s">
@@ -5301,7 +5559,7 @@
       <c r="H21" s="51">
         <v>6000</v>
       </c>
-      <c r="I21" s="71">
+      <c r="I21" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5314,7 +5572,6 @@
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
       <c r="H22" s="51"/>
-      <c r="I22" s="71"/>
     </row>
     <row r="23" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="43" t="s">
@@ -5454,7 +5711,6 @@
       <c r="F28" s="4"/>
       <c r="G28" s="44"/>
       <c r="H28" s="51"/>
-      <c r="I28" s="71"/>
     </row>
     <row r="29" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="43"/>
@@ -5465,7 +5721,6 @@
       <c r="F29" s="5"/>
       <c r="G29" s="44"/>
       <c r="H29" s="51"/>
-      <c r="I29" s="71"/>
     </row>
     <row r="30" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="43"/>
@@ -5476,7 +5731,6 @@
       <c r="F30" s="5"/>
       <c r="G30" s="44"/>
       <c r="H30" s="51"/>
-      <c r="I30" s="71"/>
     </row>
     <row r="31" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="43"/>
@@ -5487,7 +5741,6 @@
       <c r="F31" s="5"/>
       <c r="G31" s="44"/>
       <c r="H31" s="51"/>
-      <c r="I31" s="71"/>
     </row>
     <row r="32" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="43"/>
@@ -5498,9 +5751,8 @@
       <c r="F32" s="5"/>
       <c r="G32" s="44"/>
       <c r="H32" s="51"/>
-      <c r="I32" s="71"/>
-    </row>
-    <row r="33" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="43"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -5509,9 +5761,8 @@
       <c r="F33" s="5"/>
       <c r="G33" s="44"/>
       <c r="H33" s="51"/>
-      <c r="I33" s="71"/>
-    </row>
-    <row r="34" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="43"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -5520,7 +5771,6 @@
       <c r="F34" s="5"/>
       <c r="G34" s="44"/>
       <c r="H34" s="51"/>
-      <c r="I34" s="71"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5530,6 +5780,131 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A45B228-839B-4CA5-9448-9CA1774CB22C}">
+  <dimension ref="B1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="12.6328125" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" customWidth="1"/>
+    <col min="5" max="5" width="14" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E3" s="6">
+        <v>20</v>
+      </c>
+      <c r="F3" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D4" t="s">
+        <v>306</v>
+      </c>
+      <c r="E4" s="6">
+        <v>60</v>
+      </c>
+      <c r="F4" s="6">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E5" s="6">
+        <v>235</v>
+      </c>
+      <c r="F5" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E7" s="6">
+        <v>10</v>
+      </c>
+      <c r="F7" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C9" t="s">
+        <v>312</v>
+      </c>
+      <c r="D9" t="s">
+        <v>305</v>
+      </c>
+      <c r="E9" s="72">
+        <v>20</v>
+      </c>
+      <c r="F9" s="72">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB485315-044F-4FB0-A3DD-44B741CAB625}">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -5675,7 +6050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0CC1CC-64D0-4115-AE5E-AF959282EFAA}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -5808,7 +6183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DB295D-7881-4D5C-8380-F1C84A7F5934}">
   <dimension ref="A1:L24"/>
   <sheetViews>
@@ -6436,12 +6811,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB77DDB-B6D9-4CBA-9145-50EF6FDCE517}">
   <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
@@ -9303,7 +9678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1E18F3-2DFA-476D-A4F8-F41E93C21C92}">
   <dimension ref="A2:L43"/>
   <sheetViews>
@@ -10440,7 +10815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BBB0E4-3072-46AD-B687-93FC8399DD89}">
   <dimension ref="A2:I18"/>
   <sheetViews>
@@ -10712,156 +11087,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91673066-48CE-40A8-80D4-43FC435ADD39}">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3">
-        <v>5900</v>
-      </c>
-      <c r="D3" s="25">
-        <f>C3*0.1019716213</f>
-        <v>601.63256566999996</v>
-      </c>
-      <c r="E3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4">
-        <v>10800</v>
-      </c>
-      <c r="D4" s="25">
-        <f t="shared" ref="D4" si="0">C4*0.1019716213</f>
-        <v>1101.29351004</v>
-      </c>
-      <c r="E4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D5" s="25"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6">
-        <v>11250</v>
-      </c>
-      <c r="D6" s="25">
-        <f>C6*0.1019716213</f>
-        <v>1147.1807396249999</v>
-      </c>
-      <c r="E6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>173</v>
-      </c>
-      <c r="B7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7">
-        <v>18100</v>
-      </c>
-      <c r="D7" s="25">
-        <f t="shared" ref="D7:D9" si="1">C7*0.1019716213</f>
-        <v>1845.6863455299999</v>
-      </c>
-      <c r="E7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>174</v>
-      </c>
-      <c r="B8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8">
-        <v>29200</v>
-      </c>
-      <c r="D8" s="25">
-        <f t="shared" si="1"/>
-        <v>2977.5713419599997</v>
-      </c>
-      <c r="E8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>175</v>
-      </c>
-      <c r="B9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C9">
-        <v>32800</v>
-      </c>
-      <c r="D9" s="25">
-        <f t="shared" si="1"/>
-        <v>3344.6691786399997</v>
-      </c>
-      <c r="E9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Calculations gfa.xlsx
+++ b/Calculations gfa.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://securitywindowshutt-my.sharepoint.com/personal/rob_hyrons_swsuk_co_uk/Documents/SWS product dev/Projects/P190 - Industrial EVO/Calculators/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\SWS_logic_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="179" documentId="8_{A844E0BA-A576-434A-9D5B-F754D63831E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0605DFC-28B1-4BBB-9427-693526DE3EA2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8A86FE-929E-4D35-82F2-11E61DAD748E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13680" yWindow="1980" windowWidth="24210" windowHeight="18310" tabRatio="758" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="1710" windowWidth="25330" windowHeight="20720" tabRatio="758" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -231,7 +231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{44B232F7-8F27-46C6-A094-F71BAE6B943E}">
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{44B232F7-8F27-46C6-A094-F71BAE6B943E}">
       <text>
         <r>
           <rPr>
@@ -5781,10 +5781,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A45B228-839B-4CA5-9448-9CA1774CB22C}">
-  <dimension ref="B1:F9"/>
+  <dimension ref="B1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B6" sqref="B6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5813,26 +5813,43 @@
         <v>308</v>
       </c>
     </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E2" s="6">
+        <v>20</v>
+      </c>
+      <c r="F2" s="6">
+        <v>10</v>
+      </c>
+    </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C3" t="s">
         <v>303</v>
       </c>
       <c r="D3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E3" s="6">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F3" s="6">
-        <v>10</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C4" t="s">
         <v>303</v>
@@ -5841,60 +5858,43 @@
         <v>306</v>
       </c>
       <c r="E4" s="6">
-        <v>60</v>
+        <v>235</v>
       </c>
       <c r="F4" s="6">
-        <v>7.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C5" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="D5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E5" s="6">
-        <v>235</v>
+        <v>10</v>
       </c>
       <c r="F5" s="6">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>311</v>
-      </c>
-      <c r="C7" t="s">
-        <v>310</v>
-      </c>
-      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C6" t="s">
+        <v>312</v>
+      </c>
+      <c r="D6" t="s">
         <v>305</v>
       </c>
-      <c r="E7" s="6">
-        <v>10</v>
-      </c>
-      <c r="F7" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>312</v>
-      </c>
-      <c r="C9" t="s">
-        <v>312</v>
-      </c>
-      <c r="D9" t="s">
-        <v>305</v>
-      </c>
-      <c r="E9" s="72">
+      <c r="E6" s="72">
         <v>20</v>
       </c>
-      <c r="F9" s="72">
+      <c r="F6" s="72">
         <v>10</v>
       </c>
     </row>

--- a/Calculations gfa.xlsx
+++ b/Calculations gfa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\SWS_logic_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8A86FE-929E-4D35-82F2-11E61DAD748E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B4B076-E624-4320-9640-56E209098A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="1710" windowWidth="25330" windowHeight="20720" tabRatio="758" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4010" yWindow="1930" windowWidth="25330" windowHeight="16730" tabRatio="758" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -207,7 +207,7 @@
     <author>robert hyrons</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{2C9B7025-8986-4E9D-B882-6667505A4E88}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{2C9B7025-8986-4E9D-B882-6667505A4E88}">
       <text>
         <r>
           <rPr>
@@ -231,7 +231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{44B232F7-8F27-46C6-A094-F71BAE6B943E}">
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{44B232F7-8F27-46C6-A094-F71BAE6B943E}">
       <text>
         <r>
           <rPr>
@@ -5781,120 +5781,120 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A45B228-839B-4CA5-9448-9CA1774CB22C}">
-  <dimension ref="B1:F6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:F6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.6328125" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" customWidth="1"/>
-    <col min="5" max="5" width="14" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.81640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15.90625" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" customWidth="1"/>
+    <col min="4" max="4" width="14" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>299</v>
+      </c>
       <c r="B1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D1" t="s">
         <v>301</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>307</v>
+      </c>
       <c r="E1" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="F1" s="6" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>302</v>
+      </c>
       <c r="B2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D2" s="6">
+        <v>20</v>
+      </c>
+      <c r="E2" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B3" t="s">
         <v>303</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D3" s="6">
+        <v>60</v>
+      </c>
+      <c r="E3" s="6">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D4" s="6">
+        <v>235</v>
+      </c>
+      <c r="E4" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C5" t="s">
         <v>305</v>
       </c>
-      <c r="E2" s="6">
-        <v>20</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="D5" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>304</v>
-      </c>
-      <c r="C3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D3" t="s">
-        <v>306</v>
-      </c>
-      <c r="E3" s="6">
-        <v>60</v>
-      </c>
-      <c r="F3" s="6">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>309</v>
-      </c>
-      <c r="C4" t="s">
-        <v>303</v>
-      </c>
-      <c r="D4" t="s">
-        <v>306</v>
-      </c>
-      <c r="E4" s="6">
-        <v>235</v>
-      </c>
-      <c r="F4" s="6">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>311</v>
-      </c>
-      <c r="C5" t="s">
-        <v>310</v>
-      </c>
-      <c r="D5" t="s">
-        <v>305</v>
-      </c>
       <c r="E5" s="6">
-        <v>10</v>
-      </c>
-      <c r="F5" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>312</v>
+      </c>
       <c r="B6" t="s">
         <v>312</v>
       </c>
       <c r="C6" t="s">
-        <v>312</v>
-      </c>
-      <c r="D6" t="s">
         <v>305</v>
       </c>
+      <c r="D6" s="72">
+        <v>20</v>
+      </c>
       <c r="E6" s="72">
-        <v>20</v>
-      </c>
-      <c r="F6" s="72">
         <v>10</v>
       </c>
     </row>

--- a/Calculations gfa.xlsx
+++ b/Calculations gfa.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\SWS_logic_calculator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://securitywindowshutt-my.sharepoint.com/personal/rob_hyrons_swsuk_co_uk/Documents/SWS product dev/Projects/P190 - Industrial EVO/Calculators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B4B076-E624-4320-9640-56E209098A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{7D8A86FE-929E-4D35-82F2-11E61DAD748E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D247419-CC66-431D-B498-81977096FFC5}"/>
   <bookViews>
-    <workbookView xWindow="4010" yWindow="1930" windowWidth="25330" windowHeight="16730" tabRatio="758" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5970" yWindow="4180" windowWidth="25330" windowHeight="16730" tabRatio="758" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -207,7 +207,7 @@
     <author>robert hyrons</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{2C9B7025-8986-4E9D-B882-6667505A4E88}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{2C9B7025-8986-4E9D-B882-6667505A4E88}">
       <text>
         <r>
           <rPr>
@@ -231,7 +231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{44B232F7-8F27-46C6-A094-F71BAE6B943E}">
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{44B232F7-8F27-46C6-A094-F71BAE6B943E}">
       <text>
         <r>
           <rPr>
@@ -504,7 +504,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="313">
   <si>
     <t>Name</t>
   </si>
@@ -965,9 +965,6 @@
     <t>Industrial  300</t>
   </si>
   <si>
-    <t>Alumnium</t>
-  </si>
-  <si>
     <t>193 x6.3</t>
   </si>
   <si>
@@ -1443,6 +1440,9 @@
   </si>
   <si>
     <t>95mm</t>
+  </si>
+  <si>
+    <t>Aluminium</t>
   </si>
 </sst>
 </file>
@@ -3964,7 +3964,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
@@ -3982,7 +3982,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B4" t="s">
         <v>79</v>
@@ -4003,7 +4003,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
@@ -4021,7 +4021,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B7" t="s">
         <v>79</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B8" t="s">
         <v>80</v>
@@ -4057,10 +4057,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" t="s">
         <v>175</v>
-      </c>
-      <c r="B9" t="s">
-        <v>176</v>
       </c>
       <c r="C9">
         <v>32800</v>
@@ -4084,7 +4084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0484E2-9992-4491-920F-B8AE57D8A0EE}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -4122,10 +4122,10 @@
         <v>97</v>
       </c>
       <c r="H1" s="57" t="s">
+        <v>232</v>
+      </c>
+      <c r="I1" s="58" t="s">
         <v>233</v>
-      </c>
-      <c r="I1" s="58" t="s">
-        <v>234</v>
       </c>
       <c r="J1" s="7"/>
     </row>
@@ -4146,7 +4146,7 @@
         <v>70</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -4169,7 +4169,7 @@
         <v>70</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -4177,7 +4177,7 @@
     </row>
     <row r="4" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B4" s="9">
         <v>332</v>
@@ -4203,7 +4203,7 @@
     </row>
     <row r="5" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B5" s="9">
         <v>552</v>
@@ -4226,7 +4226,7 @@
     </row>
     <row r="6" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B6" s="9">
         <v>599</v>
@@ -4249,7 +4249,7 @@
     </row>
     <row r="7" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B7" s="9">
         <v>1063</v>
@@ -4272,7 +4272,7 @@
     </row>
     <row r="8" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B8" s="9">
         <v>1943</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="9" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B9" s="9">
         <v>3503</v>
@@ -4333,7 +4333,7 @@
         <v>44</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H10">
         <v>10</v>
@@ -4359,7 +4359,7 @@
         <v>200</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -4479,7 +4479,7 @@
         <v>200</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H16">
         <v>10</v>
@@ -4495,8 +4495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63386739-1836-4135-BDCC-F0CD02A919B6}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4526,7 +4526,7 @@
         <v>144</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>146</v>
@@ -4795,7 +4795,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="40" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B16" s="6">
         <v>135</v>
@@ -4804,7 +4804,7 @@
         <v>50</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>153</v>
+        <v>312</v>
       </c>
       <c r="E16" s="6">
         <v>10</v>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="40" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B17" s="6">
         <v>180</v>
@@ -4825,7 +4825,7 @@
         <v>50</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>153</v>
+        <v>312</v>
       </c>
       <c r="E17" s="6">
         <v>10</v>
@@ -4837,7 +4837,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="40" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B18" s="6">
         <v>205</v>
@@ -4846,7 +4846,7 @@
         <v>50</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>153</v>
+        <v>312</v>
       </c>
       <c r="E18" s="6">
         <v>10</v>
@@ -4858,7 +4858,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="40" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B19" s="6">
         <v>250</v>
@@ -4867,7 +4867,7 @@
         <v>50</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>153</v>
+        <v>312</v>
       </c>
       <c r="E19" s="6">
         <v>10</v>
@@ -4879,7 +4879,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="40" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B20" s="6">
         <v>300</v>
@@ -4888,7 +4888,7 @@
         <v>50</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>153</v>
+        <v>312</v>
       </c>
       <c r="E20" s="6">
         <v>10</v>
@@ -4900,7 +4900,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="40" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B21" s="6">
         <v>350</v>
@@ -4909,7 +4909,7 @@
         <v>50</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>153</v>
+        <v>312</v>
       </c>
       <c r="E21" s="6">
         <v>10</v>
@@ -4945,7 +4945,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C1" t="s">
         <v>130</v>
@@ -4953,7 +4953,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B2">
         <v>1650</v>
@@ -4964,7 +4964,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B3">
         <v>1875</v>
@@ -5008,10 +5008,10 @@
         <v>35</v>
       </c>
       <c r="D1" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="47" t="s">
         <v>160</v>
-      </c>
-      <c r="E1" s="47" t="s">
-        <v>161</v>
       </c>
       <c r="F1" s="47" t="s">
         <v>7</v>
@@ -5020,24 +5020,24 @@
         <v>8</v>
       </c>
       <c r="H1" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I1" s="61" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J1" s="61" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K1" s="62" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L1" s="61" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="43" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B2" s="5">
         <v>10.199999999999999</v>
@@ -5070,7 +5070,7 @@
     </row>
     <row r="3" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="49" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B3" s="23">
         <v>10.199999999999999</v>
@@ -5099,7 +5099,7 @@
     </row>
     <row r="4" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B4" s="5">
         <v>12.7</v>
@@ -5128,7 +5128,7 @@
     </row>
     <row r="5" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="49" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B5" s="23">
         <v>12.7</v>
@@ -5157,7 +5157,7 @@
     </row>
     <row r="6" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B6" s="4">
         <v>16</v>
@@ -5186,7 +5186,7 @@
     </row>
     <row r="7" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="49" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B7" s="24">
         <v>16</v>
@@ -5225,7 +5225,7 @@
     </row>
     <row r="9" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="43" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B9" s="5">
         <v>8.3000000000000007</v>
@@ -5254,7 +5254,7 @@
     </row>
     <row r="10" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="49" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B10" s="23">
         <v>8.3000000000000007</v>
@@ -5283,7 +5283,7 @@
     </row>
     <row r="11" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="43" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B11" s="5">
         <v>10.5</v>
@@ -5312,7 +5312,7 @@
     </row>
     <row r="12" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="49" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B12" s="23">
         <v>10.5</v>
@@ -5341,7 +5341,7 @@
     </row>
     <row r="13" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B13" s="5">
         <v>14</v>
@@ -5370,7 +5370,7 @@
     </row>
     <row r="14" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="49" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B14" s="23">
         <v>14</v>
@@ -5412,7 +5412,7 @@
     </row>
     <row r="16" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="43" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B16" s="5">
         <v>7.5</v>
@@ -5441,7 +5441,7 @@
     </row>
     <row r="17" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="49" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B17" s="23">
         <v>7.5</v>
@@ -5470,7 +5470,7 @@
     </row>
     <row r="18" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="43" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B18" s="5">
         <v>9.6999999999999993</v>
@@ -5499,7 +5499,7 @@
     </row>
     <row r="19" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B19" s="23">
         <v>9.6999999999999993</v>
@@ -5538,7 +5538,7 @@
     </row>
     <row r="21" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B21" s="13">
         <v>11.4</v>
@@ -5575,7 +5575,7 @@
     </row>
     <row r="23" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B23" s="5">
         <v>11.9</v>
@@ -5604,7 +5604,7 @@
     </row>
     <row r="24" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B24" s="5">
         <v>13.3</v>
@@ -5633,7 +5633,7 @@
     </row>
     <row r="25" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="43" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B25" s="5">
         <v>12</v>
@@ -5673,7 +5673,7 @@
     </row>
     <row r="27" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="43" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B27" s="5">
         <v>22</v>
@@ -5781,120 +5781,120 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A45B228-839B-4CA5-9448-9CA1774CB22C}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="B1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.90625" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" customWidth="1"/>
-    <col min="4" max="4" width="14" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.81640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" customWidth="1"/>
+    <col min="5" max="5" width="14" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1" t="s">
         <v>299</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>300</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
         <v>301</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>302</v>
       </c>
-      <c r="B2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="D2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E2" s="6">
         <v>20</v>
       </c>
-      <c r="E2" s="6">
+      <c r="F2" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>304</v>
-      </c>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>303</v>
       </c>
       <c r="C3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D3" s="6">
+        <v>302</v>
+      </c>
+      <c r="D3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E3" s="6">
         <v>60</v>
       </c>
-      <c r="E3" s="6">
+      <c r="F3" s="6">
         <v>7.5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>309</v>
-      </c>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C4" t="s">
-        <v>306</v>
-      </c>
-      <c r="D4" s="6">
+        <v>302</v>
+      </c>
+      <c r="D4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E4" s="6">
         <v>235</v>
       </c>
-      <c r="E4" s="6">
+      <c r="F4" s="6">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>311</v>
-      </c>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>310</v>
       </c>
       <c r="C5" t="s">
-        <v>305</v>
-      </c>
-      <c r="D5" s="6">
+        <v>309</v>
+      </c>
+      <c r="D5" t="s">
+        <v>304</v>
+      </c>
+      <c r="E5" s="6">
         <v>10</v>
       </c>
-      <c r="E5" s="6">
+      <c r="F5" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>312</v>
-      </c>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C6" t="s">
-        <v>305</v>
-      </c>
-      <c r="D6" s="72">
+        <v>311</v>
+      </c>
+      <c r="D6" t="s">
+        <v>304</v>
+      </c>
+      <c r="E6" s="72">
         <v>20</v>
       </c>
-      <c r="E6" s="72">
+      <c r="F6" s="72">
         <v>10</v>
       </c>
     </row>
@@ -6005,7 +6005,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B8" s="27">
         <v>1.1000000000000001</v>
@@ -6052,129 +6052,157 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0CC1CC-64D0-4115-AE5E-AF959282EFAA}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.1796875" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="6"/>
+    <col min="3" max="3" width="12.1796875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" style="6" customWidth="1"/>
     <col min="6" max="6" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="C1" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" t="s">
         <v>131</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B3">
+        <v>161</v>
+      </c>
+      <c r="B3" s="6">
         <v>65</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="6">
         <f>B3-9</f>
         <v>56</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="6">
         <f>C3-10</f>
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E3" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B4">
+        <v>162</v>
+      </c>
+      <c r="B4" s="6">
         <v>100</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <f t="shared" ref="C4:C6" si="0">B4-9</f>
         <v>91</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="6">
         <f t="shared" ref="D4:D6" si="1">C4-10</f>
         <v>81</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E4" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B5">
+        <v>163</v>
+      </c>
+      <c r="B5" s="6">
         <v>65</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="6">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E5" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B6">
+        <v>164</v>
+      </c>
+      <c r="B6" s="6">
         <v>100</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="6">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E6" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="E9" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="B10" s="6">
+        <v>60</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>168</v>
       </c>
-      <c r="B10">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>169</v>
-      </c>
-      <c r="B11">
+      <c r="B11" s="6">
         <v>70</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -6207,7 +6235,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>58</v>
@@ -6228,27 +6256,27 @@
         <v>37</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J1" s="15" t="s">
         <v>111</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L1" s="63" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D2" s="15">
         <v>60</v>
@@ -6274,13 +6302,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>282</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>283</v>
       </c>
       <c r="D3" s="15">
         <v>70</v>
@@ -6306,13 +6334,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D4" s="15">
         <v>70</v>
@@ -6341,7 +6369,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>61</v>
@@ -6377,7 +6405,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>60</v>
@@ -6410,13 +6438,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D7" s="15">
         <v>127</v>
@@ -6446,13 +6474,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D8" s="34">
         <v>127</v>
@@ -6485,10 +6513,10 @@
         <v>11</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D9" s="33">
         <v>139</v>
@@ -6518,10 +6546,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>59</v>
@@ -6554,13 +6582,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D11" s="33">
         <v>168</v>
@@ -6590,10 +6618,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>62</v>
@@ -6626,13 +6654,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>154</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>155</v>
       </c>
       <c r="D13" s="16">
         <v>193</v>
@@ -6665,7 +6693,7 @@
         <v>87</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>85</v>
@@ -6701,7 +6729,7 @@
         <v>86</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C15" s="34"/>
       <c r="D15" s="35">
@@ -6735,7 +6763,7 @@
         <v>108</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C16" s="34"/>
       <c r="D16" s="35">
@@ -6769,7 +6797,7 @@
         <v>109</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C17" s="34"/>
       <c r="D17" s="35">
@@ -6869,19 +6897,19 @@
         <v>55</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M1" s="11" t="s">
         <v>110</v>
       </c>
       <c r="N1" s="53" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O1" s="11" t="s">
         <v>12</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
@@ -7166,10 +7194,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C11" s="1">
         <f>D10+0.01</f>
@@ -7205,10 +7233,10 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C12" s="1">
         <f>D11+0.01</f>
@@ -7244,7 +7272,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>113</v>
@@ -7282,7 +7310,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>113</v>
@@ -7321,7 +7349,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>113</v>
@@ -7360,7 +7388,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>113</v>
@@ -7399,7 +7427,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>113</v>
@@ -7438,7 +7466,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>113</v>
@@ -7477,7 +7505,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>113</v>
@@ -7516,7 +7544,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>113</v>
@@ -7555,7 +7583,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>113</v>
@@ -7594,7 +7622,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>113</v>
@@ -7633,7 +7661,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>113</v>
@@ -7672,7 +7700,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>113</v>
@@ -7711,7 +7739,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>113</v>
@@ -7826,7 +7854,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>44</v>
@@ -8383,10 +8411,10 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C48" s="2">
         <v>0</v>
@@ -8412,10 +8440,10 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C49" s="2">
         <v>15.01</v>
@@ -8441,10 +8469,10 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>262</v>
       </c>
       <c r="C50" s="2">
         <v>62.01</v>
@@ -8605,7 +8633,7 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B56" t="s">
         <v>98</v>
@@ -8649,7 +8677,7 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B57" t="s">
         <v>98</v>
@@ -8693,7 +8721,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B58"/>
       <c r="C58" s="2"/>
@@ -8702,7 +8730,7 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B59"/>
       <c r="C59" s="2"/>
@@ -8711,7 +8739,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B60" t="s">
         <v>98</v>
@@ -8755,7 +8783,7 @@
     </row>
     <row r="62" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="67" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B62" s="67" t="s">
         <v>98</v>
@@ -9021,10 +9049,10 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
+        <v>264</v>
+      </c>
+      <c r="B68" t="s">
         <v>265</v>
-      </c>
-      <c r="B68" t="s">
-        <v>266</v>
       </c>
       <c r="C68" s="1">
         <f t="shared" si="3"/>
@@ -9108,10 +9136,10 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B70" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C70" s="1">
         <f t="shared" si="3"/>
@@ -9192,7 +9220,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B72" t="s">
         <v>98</v>
@@ -9327,7 +9355,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B75" t="s">
         <v>98</v>
@@ -9372,7 +9400,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B76" t="s">
         <v>98</v>
@@ -9417,7 +9445,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B77" t="s">
         <v>98</v>
@@ -9462,7 +9490,7 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B78" t="s">
         <v>98</v>
@@ -9507,7 +9535,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>98</v>
@@ -9549,7 +9577,7 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>98</v>
@@ -9591,7 +9619,7 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>98</v>
@@ -9633,7 +9661,7 @@
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>98</v>
@@ -9682,7 +9710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1E18F3-2DFA-476D-A4F8-F41E93C21C92}">
   <dimension ref="A2:L43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
@@ -9732,10 +9760,10 @@
         <v>117</v>
       </c>
       <c r="K2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -10523,7 +10551,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B32">
         <v>12</v>
@@ -10532,7 +10560,7 @@
         <v>48</v>
       </c>
       <c r="E32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F32">
         <v>150</v>
@@ -10547,7 +10575,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B33">
         <v>12</v>
@@ -10556,7 +10584,7 @@
         <v>57</v>
       </c>
       <c r="E33" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F33">
         <v>150</v>
@@ -10571,7 +10599,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F34">
         <v>150</v>
@@ -10586,7 +10614,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F35">
         <v>150</v>
@@ -10601,7 +10629,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F36">
         <v>150</v>
@@ -10838,28 +10866,28 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B2" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>245</v>
-      </c>
       <c r="F2" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G2" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>258</v>
-      </c>
       <c r="I2" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
@@ -10918,7 +10946,7 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="64" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C5" s="6">
         <v>12</v>
@@ -10930,7 +10958,7 @@
         <v>57</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G5" s="6">
         <v>22400</v>
@@ -10945,7 +10973,7 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="64" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C6" s="6">
         <v>18</v>
@@ -10957,7 +10985,7 @@
         <v>57</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G6" s="6">
         <v>22400</v>
@@ -10972,7 +11000,7 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C7" s="6">
         <v>12</v>
@@ -10984,7 +11012,7 @@
         <v>57</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G7" s="6">
         <v>29000</v>
@@ -10999,7 +11027,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C8" s="6">
         <v>15</v>
@@ -11011,7 +11039,7 @@
         <v>57</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G8" s="6">
         <v>29000</v>
@@ -11026,7 +11054,7 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C9" s="6">
         <v>15</v>
@@ -11038,7 +11066,7 @@
         <v>57</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G9" s="6">
         <v>60000</v>
@@ -11052,7 +11080,7 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C10" s="6">
         <v>15</v>
@@ -11064,7 +11092,7 @@
         <v>57</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G10" s="6">
         <v>95000</v>

--- a/Calculations gfa.xlsx
+++ b/Calculations gfa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://securitywindowshutt-my.sharepoint.com/personal/rob_hyrons_swsuk_co_uk/Documents/SWS product dev/Projects/P190 - Industrial EVO/Calculators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{7D8A86FE-929E-4D35-82F2-11E61DAD748E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D247419-CC66-431D-B498-81977096FFC5}"/>
+  <xr:revisionPtr revIDLastSave="197" documentId="13_ncr:1_{7D8A86FE-929E-4D35-82F2-11E61DAD748E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B602C82-D08C-4B4B-AF3E-3DFA6070325D}"/>
   <bookViews>
-    <workbookView xWindow="5970" yWindow="4180" windowWidth="25330" windowHeight="16730" tabRatio="758" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1220" yWindow="2310" windowWidth="19630" windowHeight="19470" tabRatio="758" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -73,7 +73,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-if curtain build by lath is selected then this information is used to calulate total curtain weight</t>
+if curtain build by lath is selected then this information is used to calculate total curtain weight</t>
         </r>
       </text>
     </comment>
@@ -145,7 +145,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-this is the effective thickness to calulate the roll diameter</t>
+this is the effective thickness to calculate the roll diameter</t>
         </r>
       </text>
     </comment>
@@ -504,7 +504,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="343">
   <si>
     <t>Name</t>
   </si>
@@ -1151,21 +1151,9 @@
     <t>75mm 18swg, Perforated 14kg/sqm</t>
   </si>
   <si>
-    <t>75mm 22 swg Brickbond 7.5kg/sqm</t>
-  </si>
-  <si>
     <t>75mm Wind 18swg, Perforated 14kg/sqm</t>
   </si>
   <si>
-    <t>75mm Wind 22swg Brickbond 7.5kg/sqm</t>
-  </si>
-  <si>
-    <t>75mm  20swg, Brickbond 9.7kg/sqm</t>
-  </si>
-  <si>
-    <t>75mm Wind  20swg, Brickbond 9.7kg/sqm</t>
-  </si>
-  <si>
     <t>77t  11.4 kgs/sqm</t>
   </si>
   <si>
@@ -1175,9 +1163,6 @@
     <t>95mm  WM95 13.3kg.sqm</t>
   </si>
   <si>
-    <t>100mm Glav  Insulated 22kg/sqm</t>
-  </si>
-  <si>
     <t>TA5 - RD</t>
   </si>
   <si>
@@ -1443,6 +1428,111 @@
   </si>
   <si>
     <t>Aluminium</t>
+  </si>
+  <si>
+    <t>100mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to confirm</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Endlock type</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>CD150</t>
+  </si>
+  <si>
+    <t>CD38</t>
+  </si>
+  <si>
+    <t>CD38 perforated</t>
+  </si>
+  <si>
+    <t>CD38 punched</t>
+  </si>
+  <si>
+    <t>75mm 22 swg Brick bond 7.5kg/sqm</t>
+  </si>
+  <si>
+    <t>75mm Wind 22swg Brick bond 7.5kg/sqm</t>
+  </si>
+  <si>
+    <t>75mm  20swg, Brick bond 9.7kg/sqm</t>
+  </si>
+  <si>
+    <t>75mm Wind  20swg, Brick bond 9.7kg/sqm</t>
+  </si>
+  <si>
+    <t>100mm Galv  Insulated 22kg/sqm</t>
+  </si>
+  <si>
+    <t>CD38 punched &amp; glazed</t>
+  </si>
+  <si>
+    <t>CD60</t>
+  </si>
+  <si>
+    <t>CD80 solid</t>
+  </si>
+  <si>
+    <t>CD80 puched</t>
+  </si>
+  <si>
+    <t>CD80 punched and glazed</t>
+  </si>
+  <si>
+    <t>CD90</t>
+  </si>
+  <si>
+    <t>CD77</t>
+  </si>
+  <si>
+    <t>Insulation value</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Product group</t>
+  </si>
+  <si>
+    <t>Securodoor</t>
+  </si>
+  <si>
+    <t>SecuroShield</t>
+  </si>
+  <si>
+    <t>SecuroGlide</t>
+  </si>
+  <si>
+    <t>AEG/X + REINFORCING ANGLE</t>
+  </si>
+  <si>
+    <t>AEG/R+BOTTOM SLAT HANDLE</t>
+  </si>
+  <si>
+    <t>AEG/R + RUBBER SEAL</t>
+  </si>
+  <si>
+    <t>AEG/DW</t>
+  </si>
+  <si>
+    <t>UPH140</t>
+  </si>
+  <si>
+    <t>UPH240</t>
+  </si>
+  <si>
+    <t>UPH250</t>
   </si>
 </sst>
 </file>
@@ -1453,7 +1543,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1585,6 +1675,13 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1676,7 +1773,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1895,6 +1992,18 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1 2" xfId="1" xr:uid="{4B6C72F7-C4CA-450E-9C13-94CEF72F8B8D}"/>
@@ -2881,6 +2990,490 @@
         <a:xfrm>
           <a:off x="7611198" y="6648450"/>
           <a:ext cx="472351" cy="424788"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>83039</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>24424</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>510612</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>455929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80F42B83-44FC-473C-912C-E34FE4298D11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10189308" y="19831539"/>
+          <a:ext cx="427573" cy="431505"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>185987</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>585669</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4CD1269-63DC-D4CD-006D-787FC68ADC9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10288837" y="18954750"/>
+          <a:ext cx="399682" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>25924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>543578</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>463550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0CA49C7-B136-3526-B04C-B19A22ADB94D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10210800" y="17405874"/>
+          <a:ext cx="435628" cy="437626"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>32274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>530878</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>469900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03FAC597-C576-4196-BEA0-8E28404D3CB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10198100" y="17920224"/>
+          <a:ext cx="435628" cy="437626"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>530878</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>476250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7CD81D8-E8C8-422D-9AAD-86FE1C8B07E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10198100" y="18434574"/>
+          <a:ext cx="435628" cy="437626"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>104865</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476486</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>489229</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{056C712F-2E77-E287-344C-4E233C6262C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10207715" y="16922750"/>
+          <a:ext cx="371621" cy="438429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>30719</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542733</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>444705</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC2B5700-FF61-2BA9-9469-28B7902D330B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10133569" y="16408400"/>
+          <a:ext cx="512014" cy="400255"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>550114</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>451055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A19CFCE5-347F-4E8F-B166-236837EE2266}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10140950" y="15906750"/>
+          <a:ext cx="512014" cy="400255"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>60714</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>546099</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>440464</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5E91152-232B-92B8-ED43-B378A5CB7D86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10163564" y="15436850"/>
+          <a:ext cx="485385" cy="351564"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>51802</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>508223</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>470102</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFA50369-FDE4-425F-BB8B-A32A47BCC48C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10154652" y="14897100"/>
+          <a:ext cx="456421" cy="412952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>508001</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>476702</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E1DB9D3-7CB9-5D5F-EED6-8406E475747E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10236201" y="14351000"/>
+          <a:ext cx="374650" cy="457652"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4122,10 +4715,10 @@
         <v>97</v>
       </c>
       <c r="H1" s="57" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="I1" s="58" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J1" s="7"/>
     </row>
@@ -4146,7 +4739,7 @@
         <v>70</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -4169,7 +4762,7 @@
         <v>70</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -4272,7 +4865,7 @@
     </row>
     <row r="8" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B8" s="9">
         <v>1943</v>
@@ -4295,7 +4888,7 @@
     </row>
     <row r="9" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B9" s="9">
         <v>3503</v>
@@ -4333,7 +4926,7 @@
         <v>44</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H10">
         <v>10</v>
@@ -4359,7 +4952,7 @@
         <v>200</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -4479,7 +5072,7 @@
         <v>200</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H16">
         <v>10</v>
@@ -4495,7 +5088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63386739-1836-4135-BDCC-F0CD02A919B6}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16:D21"/>
     </sheetView>
   </sheetViews>
@@ -4526,7 +5119,7 @@
         <v>144</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>146</v>
@@ -4795,7 +5388,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="40" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B16" s="6">
         <v>135</v>
@@ -4804,7 +5397,7 @@
         <v>50</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E16" s="6">
         <v>10</v>
@@ -4816,7 +5409,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="40" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B17" s="6">
         <v>180</v>
@@ -4825,7 +5418,7 @@
         <v>50</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E17" s="6">
         <v>10</v>
@@ -4837,7 +5430,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="40" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B18" s="6">
         <v>205</v>
@@ -4846,7 +5439,7 @@
         <v>50</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E18" s="6">
         <v>10</v>
@@ -4858,7 +5451,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="40" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B19" s="6">
         <v>250</v>
@@ -4867,7 +5460,7 @@
         <v>50</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E19" s="6">
         <v>10</v>
@@ -4879,7 +5472,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="40" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B20" s="6">
         <v>300</v>
@@ -4888,7 +5481,7 @@
         <v>50</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E20" s="6">
         <v>10</v>
@@ -4900,7 +5493,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="40" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B21" s="6">
         <v>350</v>
@@ -4909,7 +5502,7 @@
         <v>50</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E21" s="6">
         <v>10</v>
@@ -4980,24 +5573,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E91FF3-79AA-48A9-9F88-C48DFFEF60AE}">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:P213"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="35.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="6"/>
     <col min="3" max="3" width="14.1796875" customWidth="1"/>
     <col min="5" max="5" width="10.26953125" customWidth="1"/>
     <col min="6" max="6" width="11.453125" customWidth="1"/>
     <col min="8" max="9" width="10" style="6" customWidth="1"/>
     <col min="10" max="10" width="14.26953125" style="6" customWidth="1"/>
     <col min="11" max="11" width="12.81640625" style="6" customWidth="1"/>
+    <col min="13" max="14" width="8.7265625" style="6"/>
+    <col min="15" max="15" width="10.08984375" style="6" customWidth="1"/>
+    <col min="16" max="16" width="10.7265625" style="76" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="39.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -5023,21 +5621,33 @@
         <v>170</v>
       </c>
       <c r="I1" s="61" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="J1" s="61" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="K1" s="62" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="L1" s="61" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+        <v>222</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="O1" s="73" t="s">
+        <v>329</v>
+      </c>
+      <c r="P1" s="74" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="43" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B2" s="5">
         <v>10.199999999999999</v>
@@ -5067,8 +5677,20 @@
       <c r="K2" s="59">
         <v>190000</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M2" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="P2" s="75" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="49" t="s">
         <v>205</v>
       </c>
@@ -5096,8 +5718,20 @@
       </c>
       <c r="J3" s="60"/>
       <c r="K3" s="60"/>
-    </row>
-    <row r="4" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="P3" s="75" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="43" t="s">
         <v>209</v>
       </c>
@@ -5125,8 +5759,20 @@
       </c>
       <c r="J4" s="59"/>
       <c r="K4" s="59"/>
-    </row>
-    <row r="5" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M4" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="P4" s="75" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="49" t="s">
         <v>206</v>
       </c>
@@ -5154,8 +5800,20 @@
       </c>
       <c r="J5" s="60"/>
       <c r="K5" s="60"/>
-    </row>
-    <row r="6" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="P5" s="75" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="43" t="s">
         <v>208</v>
       </c>
@@ -5183,8 +5841,20 @@
       </c>
       <c r="J6" s="59"/>
       <c r="K6" s="59"/>
-    </row>
-    <row r="7" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M6" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="P6" s="75" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="49" t="s">
         <v>207</v>
       </c>
@@ -5212,8 +5882,20 @@
       </c>
       <c r="J7" s="60"/>
       <c r="K7" s="60"/>
-    </row>
-    <row r="8" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="P7" s="75" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="43"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -5223,7 +5905,7 @@
       <c r="G8" s="44"/>
       <c r="H8" s="51"/>
     </row>
-    <row r="9" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="43" t="s">
         <v>210</v>
       </c>
@@ -5251,8 +5933,20 @@
       </c>
       <c r="J9" s="59"/>
       <c r="K9" s="59"/>
-    </row>
-    <row r="10" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M9" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="P9" s="75" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="49" t="s">
         <v>211</v>
       </c>
@@ -5280,8 +5974,20 @@
       </c>
       <c r="J10" s="60"/>
       <c r="K10" s="60"/>
-    </row>
-    <row r="11" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="P10" s="75" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="43" t="s">
         <v>212</v>
       </c>
@@ -5309,8 +6015,20 @@
       </c>
       <c r="J11" s="59"/>
       <c r="K11" s="59"/>
-    </row>
-    <row r="12" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M11" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="P11" s="75" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="49" t="s">
         <v>213</v>
       </c>
@@ -5338,8 +6056,20 @@
       </c>
       <c r="J12" s="60"/>
       <c r="K12" s="60"/>
-    </row>
-    <row r="13" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="P12" s="75" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="43" t="s">
         <v>214</v>
       </c>
@@ -5367,10 +6097,22 @@
       </c>
       <c r="J13" s="59"/>
       <c r="K13" s="59"/>
-    </row>
-    <row r="14" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M13" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="P13" s="75" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="49" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B14" s="23">
         <v>14</v>
@@ -5396,8 +6138,20 @@
       </c>
       <c r="J14" s="60"/>
       <c r="K14" s="60"/>
-    </row>
-    <row r="15" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="P14" s="75" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="43"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -5410,9 +6164,9 @@
       <c r="J15" s="59"/>
       <c r="K15" s="59"/>
     </row>
-    <row r="16" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="43" t="s">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="B16" s="5">
         <v>7.5</v>
@@ -5438,10 +6192,22 @@
       </c>
       <c r="J16" s="59"/>
       <c r="K16" s="59"/>
-    </row>
-    <row r="17" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M16" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="P16" s="75" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="49" t="s">
-        <v>217</v>
+        <v>318</v>
       </c>
       <c r="B17" s="23">
         <v>7.5</v>
@@ -5467,10 +6233,22 @@
       </c>
       <c r="J17" s="60"/>
       <c r="K17" s="60"/>
-    </row>
-    <row r="18" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="P17" s="75" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="43" t="s">
-        <v>218</v>
+        <v>319</v>
       </c>
       <c r="B18" s="5">
         <v>9.6999999999999993</v>
@@ -5496,10 +6274,22 @@
       </c>
       <c r="J18" s="59"/>
       <c r="K18" s="59"/>
-    </row>
-    <row r="19" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M18" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="P18" s="75" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="49" t="s">
-        <v>219</v>
+        <v>320</v>
       </c>
       <c r="B19" s="23">
         <v>9.6999999999999993</v>
@@ -5525,8 +6315,20 @@
       </c>
       <c r="J19" s="60"/>
       <c r="K19" s="60"/>
-    </row>
-    <row r="20" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="P19" s="75" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="43"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -5536,11 +6338,11 @@
       <c r="G20" s="44"/>
       <c r="H20" s="51"/>
     </row>
-    <row r="21" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="B21" s="13">
+        <v>216</v>
+      </c>
+      <c r="B21" s="51">
         <v>11.4</v>
       </c>
       <c r="C21" s="13"/>
@@ -5562,10 +6364,22 @@
       <c r="I21" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M21" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="P21" s="75" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
@@ -5573,9 +6387,9 @@
       <c r="G22" s="13"/>
       <c r="H22" s="51"/>
     </row>
-    <row r="23" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="43" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B23" s="5">
         <v>11.9</v>
@@ -5601,10 +6415,22 @@
       </c>
       <c r="J23" s="59"/>
       <c r="K23" s="59"/>
-    </row>
-    <row r="24" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M23" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="P23" s="75" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="43" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B24" s="5">
         <v>13.3</v>
@@ -5630,10 +6456,22 @@
       </c>
       <c r="J24" s="59"/>
       <c r="K24" s="59"/>
-    </row>
-    <row r="25" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M24" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="P24" s="75" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="43" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B25" s="5">
         <v>12</v>
@@ -5657,8 +6495,20 @@
       <c r="I25" s="59"/>
       <c r="J25" s="59"/>
       <c r="K25" s="59"/>
-    </row>
-    <row r="26" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M25" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="P25" s="75" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="43"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -5671,9 +6521,9 @@
       <c r="J26" s="59"/>
       <c r="K26" s="59"/>
     </row>
-    <row r="27" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="43" t="s">
-        <v>223</v>
+        <v>321</v>
       </c>
       <c r="B27" s="5">
         <v>22</v>
@@ -5701,8 +6551,20 @@
       </c>
       <c r="J27" s="59"/>
       <c r="K27" s="59"/>
-    </row>
-    <row r="28" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M27" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="P27" s="75" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="43"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -5712,66 +6574,563 @@
       <c r="G28" s="44"/>
       <c r="H28" s="51"/>
     </row>
-    <row r="29" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="43"/>
-      <c r="B29" s="5"/>
+    <row r="29" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="43" t="s">
+        <v>313</v>
+      </c>
+      <c r="B29" s="5">
+        <v>4</v>
+      </c>
       <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="44"/>
+      <c r="D29" s="5">
+        <v>40</v>
+      </c>
+      <c r="E29" s="5">
+        <v>42</v>
+      </c>
+      <c r="F29" s="5">
+        <v>9</v>
+      </c>
+      <c r="G29" s="44">
+        <v>10</v>
+      </c>
       <c r="H29" s="51"/>
-    </row>
-    <row r="30" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="43"/>
-      <c r="B30" s="5"/>
+      <c r="M29" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="P29" s="75" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="B30" s="5">
+        <v>8</v>
+      </c>
       <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="44"/>
+      <c r="D30" s="5">
+        <v>36</v>
+      </c>
+      <c r="E30" s="5">
+        <v>38</v>
+      </c>
+      <c r="F30" s="5">
+        <v>9</v>
+      </c>
+      <c r="G30" s="44">
+        <v>10</v>
+      </c>
       <c r="H30" s="51"/>
-    </row>
-    <row r="31" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="43"/>
-      <c r="B31" s="5"/>
+      <c r="M30" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="P30" s="75" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="B31" s="5">
+        <v>6.5</v>
+      </c>
       <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="44"/>
+      <c r="D31" s="5">
+        <v>36</v>
+      </c>
+      <c r="E31" s="5">
+        <v>38</v>
+      </c>
+      <c r="F31" s="5">
+        <v>9</v>
+      </c>
+      <c r="G31" s="44">
+        <v>10</v>
+      </c>
       <c r="H31" s="51"/>
-    </row>
-    <row r="32" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="43"/>
-      <c r="B32" s="5"/>
+      <c r="M31" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="P31" s="75" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="43" t="s">
+        <v>316</v>
+      </c>
+      <c r="B32" s="5">
+        <v>6.5</v>
+      </c>
       <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="44"/>
+      <c r="D32" s="5">
+        <v>36</v>
+      </c>
+      <c r="E32" s="5">
+        <v>38</v>
+      </c>
+      <c r="F32" s="5">
+        <v>9</v>
+      </c>
+      <c r="G32" s="44">
+        <v>10</v>
+      </c>
       <c r="H32" s="51"/>
-    </row>
-    <row r="33" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="43"/>
-      <c r="B33" s="5"/>
+      <c r="M32" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="P32" s="75" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="43" t="s">
+        <v>322</v>
+      </c>
+      <c r="B33" s="5">
+        <v>7.5</v>
+      </c>
       <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="44"/>
+      <c r="D33" s="5">
+        <v>36</v>
+      </c>
+      <c r="E33" s="5">
+        <v>38</v>
+      </c>
+      <c r="F33" s="5">
+        <v>9</v>
+      </c>
+      <c r="G33" s="44">
+        <v>10</v>
+      </c>
       <c r="H33" s="51"/>
-    </row>
-    <row r="34" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="43"/>
-      <c r="B34" s="5"/>
+      <c r="M33" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="P33" s="75" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="43" t="s">
+        <v>323</v>
+      </c>
+      <c r="B34" s="5">
+        <v>9</v>
+      </c>
       <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="44"/>
+      <c r="D34" s="5">
+        <v>55</v>
+      </c>
+      <c r="E34" s="5">
+        <v>59</v>
+      </c>
+      <c r="F34" s="5">
+        <v>15</v>
+      </c>
+      <c r="G34" s="44">
+        <v>10</v>
+      </c>
       <c r="H34" s="51"/>
-    </row>
+      <c r="M34" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="P34" s="75" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="43" t="s">
+        <v>324</v>
+      </c>
+      <c r="B35" s="51">
+        <v>9.25</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13">
+        <v>77.3</v>
+      </c>
+      <c r="E35" s="13">
+        <v>79</v>
+      </c>
+      <c r="F35" s="13">
+        <v>19</v>
+      </c>
+      <c r="G35" s="13">
+        <v>10</v>
+      </c>
+      <c r="H35" s="51"/>
+      <c r="M35" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="P35" s="75" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="43" t="s">
+        <v>325</v>
+      </c>
+      <c r="B36" s="51">
+        <v>7</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13">
+        <v>77.3</v>
+      </c>
+      <c r="E36" s="13">
+        <v>79</v>
+      </c>
+      <c r="F36" s="13">
+        <v>19</v>
+      </c>
+      <c r="G36" s="13">
+        <v>10</v>
+      </c>
+      <c r="H36" s="51"/>
+      <c r="M36" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="P36" s="75" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="43" t="s">
+        <v>326</v>
+      </c>
+      <c r="B37" s="51">
+        <v>8</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13">
+        <v>77.3</v>
+      </c>
+      <c r="E37" s="13">
+        <v>79</v>
+      </c>
+      <c r="F37" s="13">
+        <v>19</v>
+      </c>
+      <c r="G37" s="13">
+        <v>10</v>
+      </c>
+      <c r="H37" s="51"/>
+      <c r="M37" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="P37" s="75" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="43" t="s">
+        <v>327</v>
+      </c>
+      <c r="B38" s="51">
+        <v>7</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13">
+        <v>88</v>
+      </c>
+      <c r="E38" s="13">
+        <v>90</v>
+      </c>
+      <c r="F38" s="13">
+        <v>27</v>
+      </c>
+      <c r="G38" s="13">
+        <v>10</v>
+      </c>
+      <c r="H38" s="51"/>
+      <c r="M38" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="O38" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="P38" s="75" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="13"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="51"/>
+    </row>
+    <row r="40" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="43" t="s">
+        <v>328</v>
+      </c>
+      <c r="B40" s="51">
+        <v>5</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13">
+        <v>77</v>
+      </c>
+      <c r="E40" s="13">
+        <v>79</v>
+      </c>
+      <c r="F40" s="13">
+        <v>21</v>
+      </c>
+      <c r="G40" s="13">
+        <v>10</v>
+      </c>
+      <c r="H40" s="51"/>
+      <c r="M40" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="O40" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="P40" s="75" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="68" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="76" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="77" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="80" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="81" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="82" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="83" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="84" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="85" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="86" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="87" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="88" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="89" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="90" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="91" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="92" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="93" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="94" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="95" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="96" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="97" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="98" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="99" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="100" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="101" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="102" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="103" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="104" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="105" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="106" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="107" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="108" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="109" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="110" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="111" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="112" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="113" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="114" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="115" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="116" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="117" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="118" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="119" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="120" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="121" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="122" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="123" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="124" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="125" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="126" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="127" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="128" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="129" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="130" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="131" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="132" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="133" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="134" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="135" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="136" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="137" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="138" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="139" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="140" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="141" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="142" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="143" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="144" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="145" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="146" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="147" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="148" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="149" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="150" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="151" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="152" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="153" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="154" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="155" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="156" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="157" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="158" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="159" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="160" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="161" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="162" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="163" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="164" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="165" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="166" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="167" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="168" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="169" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="170" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="171" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="172" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="173" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="174" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="175" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="176" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="177" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="178" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="179" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="180" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="181" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="182" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="183" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="184" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="185" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="186" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="187" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="188" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="189" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="190" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="191" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="192" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="193" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="194" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="195" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="196" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="197" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="198" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="199" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="200" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="201" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="202" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="203" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="204" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="205" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="206" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="207" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="208" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="209" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="210" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="211" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="212" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="213" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5781,10 +7140,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A45B228-839B-4CA5-9448-9CA1774CB22C}">
-  <dimension ref="B1:F6"/>
+  <dimension ref="B1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:F6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5796,32 +7155,35 @@
     <col min="6" max="6" width="15.81640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="G1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D2" t="s">
         <v>299</v>
-      </c>
-      <c r="D1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D2" t="s">
-        <v>304</v>
       </c>
       <c r="E2" s="6">
         <v>20</v>
@@ -5829,16 +7191,19 @@
       <c r="F2" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C3" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D3" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E3" s="6">
         <v>60</v>
@@ -5846,16 +7211,19 @@
       <c r="F3" s="6">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C4" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D4" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E4" s="6">
         <v>235</v>
@@ -5863,16 +7231,19 @@
       <c r="F4" s="6">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C5" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D5" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E5" s="6">
         <v>10</v>
@@ -5880,22 +7251,54 @@
       <c r="F5" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C6" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D6" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E6" s="72">
         <v>20</v>
       </c>
       <c r="F6" s="72">
         <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E7" s="72">
+        <v>30</v>
+      </c>
+      <c r="F7" s="72">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E11" s="72"/>
+      <c r="F11" s="6" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -5906,15 +7309,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB485315-044F-4FB0-A3DD-44B741CAB625}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.81640625" customWidth="1"/>
+    <col min="1" max="1" width="33.453125" customWidth="1"/>
     <col min="2" max="2" width="24.54296875" customWidth="1"/>
     <col min="4" max="4" width="9.81640625" customWidth="1"/>
   </cols>
@@ -6045,6 +7448,50 @@
         <v>50</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="78" t="s">
+        <v>338</v>
+      </c>
+      <c r="C12">
+        <v>58</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="77" t="s">
+        <v>337</v>
+      </c>
+      <c r="C13">
+        <v>65</v>
+      </c>
+      <c r="D13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="77" t="s">
+        <v>336</v>
+      </c>
+      <c r="C14">
+        <v>96</v>
+      </c>
+      <c r="D14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>339</v>
+      </c>
+      <c r="C15">
+        <v>114</v>
+      </c>
+      <c r="D15">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6052,10 +7499,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0CC1CC-64D0-4115-AE5E-AF959282EFAA}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6076,10 +7523,10 @@
         <v>130</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>137</v>
@@ -6171,16 +7618,24 @@
       <c r="A8" t="s">
         <v>165</v>
       </c>
+      <c r="C8" s="6">
+        <f>17-5</f>
+        <v>12</v>
+      </c>
       <c r="E8" s="6" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>166</v>
       </c>
+      <c r="C9" s="6">
+        <f>25-5</f>
+        <v>20</v>
+      </c>
       <c r="E9" s="6" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -6190,8 +7645,12 @@
       <c r="B10" s="6">
         <v>60</v>
       </c>
+      <c r="C10" s="6">
+        <f>31-7</f>
+        <v>24</v>
+      </c>
       <c r="E10" s="6" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -6201,8 +7660,54 @@
       <c r="B11" s="6">
         <v>70</v>
       </c>
+      <c r="C11" s="6">
+        <f>42-5</f>
+        <v>37</v>
+      </c>
       <c r="E11" s="6" t="s">
-        <v>312</v>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>340</v>
+      </c>
+      <c r="B12" s="6">
+        <v>60</v>
+      </c>
+      <c r="C12" s="6">
+        <v>27</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>341</v>
+      </c>
+      <c r="B13" s="6">
+        <v>75</v>
+      </c>
+      <c r="C13" s="6">
+        <v>32</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>342</v>
+      </c>
+      <c r="B14" s="6">
+        <v>90</v>
+      </c>
+      <c r="C14" s="6">
+        <v>57</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -6235,7 +7740,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>58</v>
@@ -6256,27 +7761,27 @@
         <v>37</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="J1" s="15" t="s">
         <v>111</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="L1" s="63" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>278</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>283</v>
       </c>
       <c r="D2" s="15">
         <v>60</v>
@@ -6302,13 +7807,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D3" s="15">
         <v>70</v>
@@ -6334,13 +7839,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D4" s="15">
         <v>70</v>
@@ -6369,7 +7874,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>61</v>
@@ -6405,7 +7910,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>60</v>
@@ -6438,13 +7943,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D7" s="15">
         <v>127</v>
@@ -6477,10 +7982,10 @@
         <v>158</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D8" s="34">
         <v>127</v>
@@ -6513,10 +8018,10 @@
         <v>11</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D9" s="33">
         <v>139</v>
@@ -6549,7 +8054,7 @@
         <v>157</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>59</v>
@@ -6585,10 +8090,10 @@
         <v>156</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D11" s="33">
         <v>168</v>
@@ -6621,7 +8126,7 @@
         <v>155</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>62</v>
@@ -6657,7 +8162,7 @@
         <v>153</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>154</v>
@@ -6693,7 +8198,7 @@
         <v>87</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>85</v>
@@ -6729,7 +8234,7 @@
         <v>86</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C15" s="34"/>
       <c r="D15" s="35">
@@ -6763,7 +8268,7 @@
         <v>108</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C16" s="34"/>
       <c r="D16" s="35">
@@ -6797,7 +8302,7 @@
         <v>109</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C17" s="34"/>
       <c r="D17" s="35">
@@ -6897,7 +8402,7 @@
         <v>55</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M1" s="11" t="s">
         <v>110</v>
@@ -6909,7 +8414,7 @@
         <v>12</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
@@ -7194,10 +8699,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C11" s="1">
         <f>D10+0.01</f>
@@ -7233,10 +8738,10 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C12" s="1">
         <f>D11+0.01</f>
@@ -8411,10 +9916,10 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C48" s="2">
         <v>0</v>
@@ -8440,10 +9945,10 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C49" s="2">
         <v>15.01</v>
@@ -8469,10 +9974,10 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C50" s="2">
         <v>62.01</v>
@@ -8721,7 +10226,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B58"/>
       <c r="C58" s="2"/>
@@ -8730,7 +10235,7 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B59"/>
       <c r="C59" s="2"/>
@@ -8783,7 +10288,7 @@
     </row>
     <row r="62" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="67" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B62" s="67" t="s">
         <v>98</v>
@@ -9049,10 +10554,10 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B68" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C68" s="1">
         <f t="shared" si="3"/>
@@ -9136,10 +10641,10 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B70" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C70" s="1">
         <f t="shared" si="3"/>
@@ -9220,7 +10725,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B72" t="s">
         <v>98</v>
@@ -9535,7 +11040,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>98</v>
@@ -9577,7 +11082,7 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>98</v>
@@ -9619,7 +11124,7 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>98</v>
@@ -9661,7 +11166,7 @@
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>98</v>
@@ -9760,10 +11265,10 @@
         <v>117</v>
       </c>
       <c r="K2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="L2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -10551,7 +12056,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B32">
         <v>12</v>
@@ -10560,7 +12065,7 @@
         <v>48</v>
       </c>
       <c r="E32" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F32">
         <v>150</v>
@@ -10575,7 +12080,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B33">
         <v>12</v>
@@ -10584,7 +12089,7 @@
         <v>57</v>
       </c>
       <c r="E33" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F33">
         <v>150</v>
@@ -10599,7 +12104,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F34">
         <v>150</v>
@@ -10614,7 +12119,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F35">
         <v>150</v>
@@ -10629,7 +12134,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F36">
         <v>150</v>
@@ -10866,28 +12371,28 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B2" s="9" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
@@ -10946,7 +12451,7 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="64" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C5" s="6">
         <v>12</v>
@@ -10958,7 +12463,7 @@
         <v>57</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G5" s="6">
         <v>22400</v>
@@ -10973,7 +12478,7 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="64" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C6" s="6">
         <v>18</v>
@@ -10985,7 +12490,7 @@
         <v>57</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G6" s="6">
         <v>22400</v>
@@ -11000,7 +12505,7 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C7" s="6">
         <v>12</v>
@@ -11012,7 +12517,7 @@
         <v>57</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G7" s="6">
         <v>29000</v>
@@ -11027,7 +12532,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C8" s="6">
         <v>15</v>
@@ -11039,7 +12544,7 @@
         <v>57</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G8" s="6">
         <v>29000</v>
@@ -11054,7 +12559,7 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C9" s="6">
         <v>15</v>
@@ -11066,7 +12571,7 @@
         <v>57</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G9" s="6">
         <v>60000</v>
@@ -11080,7 +12585,7 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C10" s="6">
         <v>15</v>
@@ -11092,7 +12597,7 @@
         <v>57</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G10" s="6">
         <v>95000</v>

--- a/Calculations gfa.xlsx
+++ b/Calculations gfa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://securitywindowshutt-my.sharepoint.com/personal/rob_hyrons_swsuk_co_uk/Documents/SWS product dev/Projects/P190 - Industrial EVO/Calculators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="197" documentId="13_ncr:1_{7D8A86FE-929E-4D35-82F2-11E61DAD748E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B602C82-D08C-4B4B-AF3E-3DFA6070325D}"/>
+  <xr:revisionPtr revIDLastSave="199" documentId="13_ncr:1_{7D8A86FE-929E-4D35-82F2-11E61DAD748E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{902CB09B-0047-41F7-8AE9-4F54DA8DD860}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="2310" windowWidth="19630" windowHeight="19470" tabRatio="758" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16650" yWindow="1210" windowWidth="21470" windowHeight="19470" tabRatio="758" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -1412,9 +1412,6 @@
     <t>weight in grams</t>
   </si>
   <si>
-    <t>offset in mm</t>
-  </si>
-  <si>
     <t>75mm wind</t>
   </si>
   <si>
@@ -1533,6 +1530,9 @@
   </si>
   <si>
     <t>UPH250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end lock offset </t>
   </si>
 </sst>
 </file>
@@ -1773,7 +1773,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2002,8 +2002,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1 2" xfId="1" xr:uid="{4B6C72F7-C4CA-450E-9C13-94CEF72F8B8D}"/>
@@ -5397,7 +5395,7 @@
         <v>50</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E16" s="6">
         <v>10</v>
@@ -5418,7 +5416,7 @@
         <v>50</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E17" s="6">
         <v>10</v>
@@ -5439,7 +5437,7 @@
         <v>50</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E18" s="6">
         <v>10</v>
@@ -5460,7 +5458,7 @@
         <v>50</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E19" s="6">
         <v>10</v>
@@ -5481,7 +5479,7 @@
         <v>50</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E20" s="6">
         <v>10</v>
@@ -5502,7 +5500,7 @@
         <v>50</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E21" s="6">
         <v>10</v>
@@ -5633,16 +5631,16 @@
         <v>222</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>137</v>
       </c>
       <c r="O1" s="73" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P1" s="74" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -5684,10 +5682,10 @@
         <v>140</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P2" s="75" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -5725,10 +5723,10 @@
         <v>140</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P3" s="75" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -5766,10 +5764,10 @@
         <v>140</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P4" s="75" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -5807,10 +5805,10 @@
         <v>140</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P5" s="75" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -5848,10 +5846,10 @@
         <v>140</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P6" s="75" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -5889,10 +5887,10 @@
         <v>140</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P7" s="75" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -5940,10 +5938,10 @@
         <v>140</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P9" s="75" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -5981,10 +5979,10 @@
         <v>140</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P10" s="75" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6022,10 +6020,10 @@
         <v>140</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P11" s="75" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6063,10 +6061,10 @@
         <v>140</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P12" s="75" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6104,10 +6102,10 @@
         <v>140</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P13" s="75" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6145,10 +6143,10 @@
         <v>140</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P14" s="75" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6166,7 +6164,7 @@
     </row>
     <row r="16" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="43" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B16" s="5">
         <v>7.5</v>
@@ -6199,15 +6197,15 @@
         <v>140</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P16" s="75" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="49" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B17" s="23">
         <v>7.5</v>
@@ -6240,15 +6238,15 @@
         <v>140</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P17" s="75" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="43" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B18" s="5">
         <v>9.6999999999999993</v>
@@ -6281,15 +6279,15 @@
         <v>140</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P18" s="75" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="49" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B19" s="23">
         <v>9.6999999999999993</v>
@@ -6322,10 +6320,10 @@
         <v>140</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P19" s="75" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6371,10 +6369,10 @@
         <v>140</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P21" s="75" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6422,10 +6420,10 @@
         <v>140</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P23" s="75" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6463,10 +6461,10 @@
         <v>140</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P24" s="75" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6502,10 +6500,10 @@
         <v>140</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P25" s="75" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6523,7 +6521,7 @@
     </row>
     <row r="27" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="43" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B27" s="5">
         <v>22</v>
@@ -6558,10 +6556,10 @@
         <v>140</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P27" s="75" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6576,7 +6574,7 @@
     </row>
     <row r="29" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="43" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B29" s="5">
         <v>4</v>
@@ -6599,18 +6597,18 @@
         <v>112</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P29" s="75" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="43" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B30" s="5">
         <v>8</v>
@@ -6633,18 +6631,18 @@
         <v>112</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P30" s="75" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="43" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B31" s="5">
         <v>6.5</v>
@@ -6667,18 +6665,18 @@
         <v>112</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P31" s="75" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="43" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B32" s="5">
         <v>6.5</v>
@@ -6701,18 +6699,18 @@
         <v>112</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P32" s="75" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="43" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B33" s="5">
         <v>7.5</v>
@@ -6735,18 +6733,18 @@
         <v>112</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P33" s="75" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="43" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B34" s="5">
         <v>9</v>
@@ -6769,18 +6767,18 @@
         <v>112</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P34" s="75" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="43" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B35" s="51">
         <v>9.25</v>
@@ -6803,18 +6801,18 @@
         <v>112</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P35" s="75" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="43" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B36" s="51">
         <v>7</v>
@@ -6837,18 +6835,18 @@
         <v>112</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P36" s="75" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="43" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B37" s="51">
         <v>8</v>
@@ -6871,18 +6869,18 @@
         <v>112</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P37" s="75" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="43" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B38" s="51">
         <v>7</v>
@@ -6905,13 +6903,13 @@
         <v>112</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O38" s="6" t="s">
         <v>57</v>
       </c>
       <c r="P38" s="75" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6926,7 +6924,7 @@
     </row>
     <row r="40" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="43" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B40" s="51">
         <v>5</v>
@@ -6949,13 +6947,13 @@
         <v>112</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O40" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P40" s="75" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7142,8 +7140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A45B228-839B-4CA5-9448-9CA1774CB22C}">
   <dimension ref="B1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7169,10 +7167,10 @@
         <v>301</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>302</v>
+        <v>342</v>
       </c>
       <c r="G1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
@@ -7192,7 +7190,7 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.35">
@@ -7212,12 +7210,12 @@
         <v>7.5</v>
       </c>
       <c r="G3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C4" t="s">
         <v>297</v>
@@ -7232,15 +7230,15 @@
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D5" t="s">
         <v>299</v>
@@ -7252,15 +7250,15 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D6" t="s">
         <v>299</v>
@@ -7272,15 +7270,15 @@
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D7" t="s">
         <v>299</v>
@@ -7292,13 +7290,13 @@
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E11" s="72"/>
       <c r="F11" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -7449,8 +7447,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="78" t="s">
-        <v>338</v>
+      <c r="A12" s="76" t="s">
+        <v>337</v>
       </c>
       <c r="C12">
         <v>58</v>
@@ -7460,8 +7458,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="77" t="s">
-        <v>337</v>
+      <c r="A13" t="s">
+        <v>336</v>
       </c>
       <c r="C13">
         <v>65</v>
@@ -7471,8 +7469,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="77" t="s">
-        <v>336</v>
+      <c r="A14" t="s">
+        <v>335</v>
       </c>
       <c r="C14">
         <v>96</v>
@@ -7483,7 +7481,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C15">
         <v>114</v>
@@ -7501,7 +7499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0CC1CC-64D0-4115-AE5E-AF959282EFAA}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
@@ -7623,7 +7621,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -7635,7 +7633,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -7650,7 +7648,7 @@
         <v>24</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -7665,12 +7663,12 @@
         <v>37</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B12" s="6">
         <v>60</v>
@@ -7679,12 +7677,12 @@
         <v>27</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B13" s="6">
         <v>75</v>
@@ -7693,12 +7691,12 @@
         <v>32</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B14" s="6">
         <v>90</v>
@@ -7707,7 +7705,7 @@
         <v>57</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/Calculations gfa.xlsx
+++ b/Calculations gfa.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://securitywindowshutt-my.sharepoint.com/personal/rob_hyrons_swsuk_co_uk/Documents/SWS product dev/Projects/P190 - Industrial EVO/Calculators/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\SWS_logic_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="199" documentId="13_ncr:1_{7D8A86FE-929E-4D35-82F2-11E61DAD748E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{902CB09B-0047-41F7-8AE9-4F54DA8DD860}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE70020F-5A0A-4B72-A8B9-CF714DD22627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16650" yWindow="1210" windowWidth="21470" windowHeight="19470" tabRatio="758" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="1700" windowWidth="23250" windowHeight="18780" tabRatio="758" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -215,7 +215,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>robert hyrons:</t>
         </r>
@@ -224,7 +224,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 How far the end protrudes past the lath </t>
@@ -239,7 +239,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>robert hyrons:</t>
         </r>
@@ -248,7 +248,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 need to confirm this info</t>
@@ -504,7 +504,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="343">
   <si>
     <t>Name</t>
   </si>
@@ -1543,7 +1543,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1661,19 +1661,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1995,13 +1982,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1 2" xfId="1" xr:uid="{4B6C72F7-C4CA-450E-9C13-94CEF72F8B8D}"/>
@@ -5575,7 +5562,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T5" sqref="T5"/>
+      <selection pane="bottomLeft" activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5648,7 +5635,7 @@
         <v>291</v>
       </c>
       <c r="B2" s="5">
-        <v>10.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5">
@@ -5693,7 +5680,7 @@
         <v>205</v>
       </c>
       <c r="B3" s="23">
-        <v>10.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23">
@@ -5734,7 +5721,7 @@
         <v>209</v>
       </c>
       <c r="B4" s="5">
-        <v>12.7</v>
+        <v>11.68</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5">
@@ -5775,7 +5762,7 @@
         <v>206</v>
       </c>
       <c r="B5" s="23">
-        <v>12.7</v>
+        <v>11.68</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="23">
@@ -5816,7 +5803,7 @@
         <v>208</v>
       </c>
       <c r="B6" s="4">
-        <v>16</v>
+        <v>15.31</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5">
@@ -5857,7 +5844,7 @@
         <v>207</v>
       </c>
       <c r="B7" s="24">
-        <v>16</v>
+        <v>13.51</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="23">
@@ -6419,8 +6406,8 @@
       <c r="N23" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="O23" s="6" t="s">
-        <v>330</v>
+      <c r="O23" s="6">
+        <v>3.2</v>
       </c>
       <c r="P23" s="75" t="s">
         <v>332</v>
@@ -6460,8 +6447,8 @@
       <c r="N24" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="O24" s="6" t="s">
-        <v>330</v>
+      <c r="O24" s="6">
+        <v>3.2</v>
       </c>
       <c r="P24" s="75" t="s">
         <v>332</v>
@@ -6555,8 +6542,8 @@
       <c r="N27" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="O27" s="6" t="s">
-        <v>330</v>
+      <c r="O27" s="6">
+        <v>4.3</v>
       </c>
       <c r="P27" s="75" t="s">
         <v>332</v>
@@ -7140,7 +7127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A45B228-839B-4CA5-9448-9CA1774CB22C}">
   <dimension ref="B1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -7309,7 +7296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB485315-044F-4FB0-A3DD-44B741CAB625}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>

--- a/Calculations gfa.xlsx
+++ b/Calculations gfa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\SWS_logic_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE70020F-5A0A-4B72-A8B9-CF714DD22627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F75FE66-4941-4DB3-9BD3-20295EA82E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="1700" windowWidth="23250" windowHeight="18780" tabRatio="758" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13220" yWindow="2520" windowWidth="19810" windowHeight="18780" tabRatio="758" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -1121,21 +1121,6 @@
     <t>77t with tripel chamber rubber</t>
   </si>
   <si>
-    <t>75mm Wind  22swg Solid 10.2kg/sqm</t>
-  </si>
-  <si>
-    <t>75mm Wind 20swg Solid 12.7kg/sqm</t>
-  </si>
-  <si>
-    <t>75mm Wind  18swg Solid 16.9kg/sqm</t>
-  </si>
-  <si>
-    <t>75mm 18swg, Solid 16.9kg/sqm</t>
-  </si>
-  <si>
-    <t>75mm 20swg, Solid 12.7kg/sqm</t>
-  </si>
-  <si>
     <t>75mm 22swg, Perforated 8.3kg/sqm</t>
   </si>
   <si>
@@ -1379,9 +1364,6 @@
     <t>vision percentage</t>
   </si>
   <si>
-    <t>75mm  22swg, Solid 10.2kg/sqm</t>
-  </si>
-  <si>
     <t xml:space="preserve">Penetration </t>
   </si>
   <si>
@@ -1533,6 +1515,24 @@
   </si>
   <si>
     <t xml:space="preserve">end lock offset </t>
+  </si>
+  <si>
+    <t>75mm  22swg, Solid 9.2kg/sqm</t>
+  </si>
+  <si>
+    <t>75mm Wind  22swg Solid 9.2kg/sqm</t>
+  </si>
+  <si>
+    <t>75mm 20swg, Solid 11.68kg/sqm</t>
+  </si>
+  <si>
+    <t>75mm Wind 20swg Solid 11.68kg/sqm</t>
+  </si>
+  <si>
+    <t>75mm 18swg, Solid 15.31kg/sqm</t>
+  </si>
+  <si>
+    <t>75mm Wind  18swg Solid 15.31kg/sqm</t>
   </si>
 </sst>
 </file>
@@ -4700,10 +4700,10 @@
         <v>97</v>
       </c>
       <c r="H1" s="57" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="I1" s="58" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="J1" s="7"/>
     </row>
@@ -4724,7 +4724,7 @@
         <v>70</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -4747,7 +4747,7 @@
         <v>70</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -4850,7 +4850,7 @@
     </row>
     <row r="8" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B8" s="9">
         <v>1943</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="9" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B9" s="9">
         <v>3503</v>
@@ -4911,7 +4911,7 @@
         <v>44</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H10">
         <v>10</v>
@@ -4937,7 +4937,7 @@
         <v>200</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -5057,7 +5057,7 @@
         <v>200</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H16">
         <v>10</v>
@@ -5104,7 +5104,7 @@
         <v>144</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>146</v>
@@ -5373,7 +5373,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="40" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B16" s="6">
         <v>135</v>
@@ -5382,7 +5382,7 @@
         <v>50</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E16" s="6">
         <v>10</v>
@@ -5394,7 +5394,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="40" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B17" s="6">
         <v>180</v>
@@ -5403,7 +5403,7 @@
         <v>50</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E17" s="6">
         <v>10</v>
@@ -5415,7 +5415,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="40" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B18" s="6">
         <v>205</v>
@@ -5424,7 +5424,7 @@
         <v>50</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E18" s="6">
         <v>10</v>
@@ -5436,7 +5436,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="40" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B19" s="6">
         <v>250</v>
@@ -5445,7 +5445,7 @@
         <v>50</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E19" s="6">
         <v>10</v>
@@ -5457,7 +5457,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="40" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B20" s="6">
         <v>300</v>
@@ -5466,7 +5466,7 @@
         <v>50</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E20" s="6">
         <v>10</v>
@@ -5478,7 +5478,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="40" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B21" s="6">
         <v>350</v>
@@ -5487,7 +5487,7 @@
         <v>50</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E21" s="6">
         <v>10</v>
@@ -5560,9 +5560,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E91FF3-79AA-48A9-9F88-C48DFFEF60AE}">
   <dimension ref="A1:P213"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P26" sqref="P26"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5606,33 +5606,33 @@
         <v>170</v>
       </c>
       <c r="I1" s="61" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="J1" s="61" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="K1" s="62" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="L1" s="61" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>137</v>
       </c>
       <c r="O1" s="73" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="P1" s="74" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="43" t="s">
-        <v>291</v>
+        <v>337</v>
       </c>
       <c r="B2" s="5">
         <v>9.1999999999999993</v>
@@ -5669,15 +5669,15 @@
         <v>140</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="P2" s="75" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="49" t="s">
-        <v>205</v>
+        <v>338</v>
       </c>
       <c r="B3" s="23">
         <v>9.1999999999999993</v>
@@ -5710,15 +5710,15 @@
         <v>140</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="P3" s="75" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="43" t="s">
-        <v>209</v>
+        <v>339</v>
       </c>
       <c r="B4" s="5">
         <v>11.68</v>
@@ -5751,15 +5751,15 @@
         <v>140</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="P4" s="75" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="49" t="s">
-        <v>206</v>
+        <v>340</v>
       </c>
       <c r="B5" s="23">
         <v>11.68</v>
@@ -5792,15 +5792,15 @@
         <v>140</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="P5" s="75" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="43" t="s">
-        <v>208</v>
+        <v>341</v>
       </c>
       <c r="B6" s="4">
         <v>15.31</v>
@@ -5833,15 +5833,15 @@
         <v>140</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="P6" s="75" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="49" t="s">
-        <v>207</v>
+        <v>342</v>
       </c>
       <c r="B7" s="24">
         <v>13.51</v>
@@ -5874,10 +5874,10 @@
         <v>140</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="P7" s="75" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -5892,7 +5892,7 @@
     </row>
     <row r="9" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="43" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B9" s="5">
         <v>8.3000000000000007</v>
@@ -5925,15 +5925,15 @@
         <v>140</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="P9" s="75" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="49" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B10" s="23">
         <v>8.3000000000000007</v>
@@ -5966,15 +5966,15 @@
         <v>140</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="P10" s="75" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="43" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B11" s="5">
         <v>10.5</v>
@@ -6007,15 +6007,15 @@
         <v>140</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="P11" s="75" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="49" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B12" s="23">
         <v>10.5</v>
@@ -6048,15 +6048,15 @@
         <v>140</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="P12" s="75" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="43" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B13" s="5">
         <v>14</v>
@@ -6089,15 +6089,15 @@
         <v>140</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="P13" s="75" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="49" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B14" s="23">
         <v>14</v>
@@ -6130,10 +6130,10 @@
         <v>140</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="P14" s="75" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6151,7 +6151,7 @@
     </row>
     <row r="16" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="43" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B16" s="5">
         <v>7.5</v>
@@ -6184,15 +6184,15 @@
         <v>140</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="P16" s="75" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="49" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B17" s="23">
         <v>7.5</v>
@@ -6225,15 +6225,15 @@
         <v>140</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="P17" s="75" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="43" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B18" s="5">
         <v>9.6999999999999993</v>
@@ -6266,15 +6266,15 @@
         <v>140</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="P18" s="75" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="49" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B19" s="23">
         <v>9.6999999999999993</v>
@@ -6307,10 +6307,10 @@
         <v>140</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="P19" s="75" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6325,7 +6325,7 @@
     </row>
     <row r="21" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="43" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B21" s="51">
         <v>11.4</v>
@@ -6356,10 +6356,10 @@
         <v>140</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="P21" s="75" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6374,7 +6374,7 @@
     </row>
     <row r="23" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="43" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B23" s="5">
         <v>11.9</v>
@@ -6410,12 +6410,12 @@
         <v>3.2</v>
       </c>
       <c r="P23" s="75" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="43" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B24" s="5">
         <v>13.3</v>
@@ -6451,12 +6451,12 @@
         <v>3.2</v>
       </c>
       <c r="P24" s="75" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="43" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B25" s="5">
         <v>12</v>
@@ -6487,10 +6487,10 @@
         <v>140</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="P25" s="75" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6508,7 +6508,7 @@
     </row>
     <row r="27" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="43" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B27" s="5">
         <v>22</v>
@@ -6546,7 +6546,7 @@
         <v>4.3</v>
       </c>
       <c r="P27" s="75" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6561,7 +6561,7 @@
     </row>
     <row r="29" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="43" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B29" s="5">
         <v>4</v>
@@ -6584,18 +6584,18 @@
         <v>112</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="P29" s="75" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="43" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B30" s="5">
         <v>8</v>
@@ -6618,18 +6618,18 @@
         <v>112</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="P30" s="75" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="43" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B31" s="5">
         <v>6.5</v>
@@ -6652,18 +6652,18 @@
         <v>112</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="P31" s="75" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="43" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B32" s="5">
         <v>6.5</v>
@@ -6686,18 +6686,18 @@
         <v>112</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="P32" s="75" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="43" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B33" s="5">
         <v>7.5</v>
@@ -6720,18 +6720,18 @@
         <v>112</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="P33" s="75" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="43" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B34" s="5">
         <v>9</v>
@@ -6754,18 +6754,18 @@
         <v>112</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="P34" s="75" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="43" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B35" s="51">
         <v>9.25</v>
@@ -6788,18 +6788,18 @@
         <v>112</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="P35" s="75" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="43" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B36" s="51">
         <v>7</v>
@@ -6822,18 +6822,18 @@
         <v>112</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="P36" s="75" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="43" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B37" s="51">
         <v>8</v>
@@ -6856,18 +6856,18 @@
         <v>112</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="P37" s="75" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="43" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B38" s="51">
         <v>7</v>
@@ -6890,13 +6890,13 @@
         <v>112</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="O38" s="6" t="s">
         <v>57</v>
       </c>
       <c r="P38" s="75" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6911,7 +6911,7 @@
     </row>
     <row r="40" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="43" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B40" s="51">
         <v>5</v>
@@ -6934,13 +6934,13 @@
         <v>112</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="O40" s="6" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="P40" s="75" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7142,33 +7142,33 @@
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>301</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E2" s="6">
         <v>20</v>
@@ -7177,18 +7177,18 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C3" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D3" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E3" s="6">
         <v>60</v>
@@ -7197,18 +7197,18 @@
         <v>7.5</v>
       </c>
       <c r="G3" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C4" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D4" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E4" s="6">
         <v>235</v>
@@ -7217,18 +7217,18 @@
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C5" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D5" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E5" s="6">
         <v>10</v>
@@ -7237,18 +7237,18 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C6" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D6" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E6" s="72">
         <v>20</v>
@@ -7257,18 +7257,18 @@
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E7" s="72">
         <v>30</v>
@@ -7277,13 +7277,13 @@
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E11" s="72"/>
       <c r="F11" s="6" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -7296,7 +7296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB485315-044F-4FB0-A3DD-44B741CAB625}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -7435,7 +7435,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="76" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C12">
         <v>58</v>
@@ -7446,7 +7446,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C13">
         <v>65</v>
@@ -7457,7 +7457,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C14">
         <v>96</v>
@@ -7468,7 +7468,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C15">
         <v>114</v>
@@ -7508,10 +7508,10 @@
         <v>130</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>137</v>
@@ -7608,7 +7608,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -7620,7 +7620,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -7635,7 +7635,7 @@
         <v>24</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -7650,12 +7650,12 @@
         <v>37</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B12" s="6">
         <v>60</v>
@@ -7664,12 +7664,12 @@
         <v>27</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B13" s="6">
         <v>75</v>
@@ -7678,12 +7678,12 @@
         <v>32</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B14" s="6">
         <v>90</v>
@@ -7692,7 +7692,7 @@
         <v>57</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -7725,7 +7725,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>58</v>
@@ -7746,27 +7746,27 @@
         <v>37</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="J1" s="15" t="s">
         <v>111</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="L1" s="63" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>273</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>278</v>
       </c>
       <c r="D2" s="15">
         <v>60</v>
@@ -7792,13 +7792,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D3" s="15">
         <v>70</v>
@@ -7824,13 +7824,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D4" s="15">
         <v>70</v>
@@ -7859,7 +7859,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>61</v>
@@ -7895,7 +7895,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>60</v>
@@ -7928,13 +7928,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D7" s="15">
         <v>127</v>
@@ -7967,10 +7967,10 @@
         <v>158</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D8" s="34">
         <v>127</v>
@@ -8003,10 +8003,10 @@
         <v>11</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D9" s="33">
         <v>139</v>
@@ -8039,7 +8039,7 @@
         <v>157</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>59</v>
@@ -8075,10 +8075,10 @@
         <v>156</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D11" s="33">
         <v>168</v>
@@ -8111,7 +8111,7 @@
         <v>155</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>62</v>
@@ -8147,7 +8147,7 @@
         <v>153</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>154</v>
@@ -8183,7 +8183,7 @@
         <v>87</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>85</v>
@@ -8219,7 +8219,7 @@
         <v>86</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C15" s="34"/>
       <c r="D15" s="35">
@@ -8253,7 +8253,7 @@
         <v>108</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C16" s="34"/>
       <c r="D16" s="35">
@@ -8287,7 +8287,7 @@
         <v>109</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C17" s="34"/>
       <c r="D17" s="35">
@@ -8387,7 +8387,7 @@
         <v>55</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="M1" s="11" t="s">
         <v>110</v>
@@ -8399,7 +8399,7 @@
         <v>12</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
@@ -8684,10 +8684,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C11" s="1">
         <f>D10+0.01</f>
@@ -8723,10 +8723,10 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C12" s="1">
         <f>D11+0.01</f>
@@ -9901,10 +9901,10 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C48" s="2">
         <v>0</v>
@@ -9930,10 +9930,10 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C49" s="2">
         <v>15.01</v>
@@ -9959,10 +9959,10 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C50" s="2">
         <v>62.01</v>
@@ -10211,7 +10211,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B58"/>
       <c r="C58" s="2"/>
@@ -10220,7 +10220,7 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B59"/>
       <c r="C59" s="2"/>
@@ -10273,7 +10273,7 @@
     </row>
     <row r="62" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="67" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B62" s="67" t="s">
         <v>98</v>
@@ -10539,10 +10539,10 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B68" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C68" s="1">
         <f t="shared" si="3"/>
@@ -10626,10 +10626,10 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B70" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C70" s="1">
         <f t="shared" si="3"/>
@@ -10710,7 +10710,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B72" t="s">
         <v>98</v>
@@ -11025,7 +11025,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>98</v>
@@ -11067,7 +11067,7 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>98</v>
@@ -11109,7 +11109,7 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>98</v>
@@ -11151,7 +11151,7 @@
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>98</v>
@@ -11250,10 +11250,10 @@
         <v>117</v>
       </c>
       <c r="K2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="L2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -12041,7 +12041,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B32">
         <v>12</v>
@@ -12050,7 +12050,7 @@
         <v>48</v>
       </c>
       <c r="E32" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F32">
         <v>150</v>
@@ -12065,7 +12065,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B33">
         <v>12</v>
@@ -12074,7 +12074,7 @@
         <v>57</v>
       </c>
       <c r="E33" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F33">
         <v>150</v>
@@ -12089,7 +12089,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F34">
         <v>150</v>
@@ -12104,7 +12104,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F35">
         <v>150</v>
@@ -12119,7 +12119,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F36">
         <v>150</v>
@@ -12356,28 +12356,28 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B2" s="9" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
@@ -12436,7 +12436,7 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="64" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C5" s="6">
         <v>12</v>
@@ -12448,7 +12448,7 @@
         <v>57</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G5" s="6">
         <v>22400</v>
@@ -12463,7 +12463,7 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="64" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C6" s="6">
         <v>18</v>
@@ -12475,7 +12475,7 @@
         <v>57</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G6" s="6">
         <v>22400</v>
@@ -12490,7 +12490,7 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C7" s="6">
         <v>12</v>
@@ -12502,7 +12502,7 @@
         <v>57</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G7" s="6">
         <v>29000</v>
@@ -12517,7 +12517,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C8" s="6">
         <v>15</v>
@@ -12529,7 +12529,7 @@
         <v>57</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G8" s="6">
         <v>29000</v>
@@ -12544,7 +12544,7 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C9" s="6">
         <v>15</v>
@@ -12556,7 +12556,7 @@
         <v>57</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G9" s="6">
         <v>60000</v>
@@ -12570,7 +12570,7 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C10" s="6">
         <v>15</v>
@@ -12582,7 +12582,7 @@
         <v>57</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G10" s="6">
         <v>95000</v>

--- a/Calculations gfa.xlsx
+++ b/Calculations gfa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\SWS_logic_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F75FE66-4941-4DB3-9BD3-20295EA82E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87758A0-FDD2-4B6A-9D5A-ABB698EFE6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13220" yWindow="2520" windowWidth="19810" windowHeight="18780" tabRatio="758" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13220" yWindow="2520" windowWidth="19660" windowHeight="18780" tabRatio="758" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -5562,7 +5562,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5635,7 +5635,7 @@
         <v>337</v>
       </c>
       <c r="B2" s="5">
-        <v>9.1999999999999993</v>
+        <v>1</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5">

--- a/Calculations gfa.xlsx
+++ b/Calculations gfa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\SWS_logic_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87758A0-FDD2-4B6A-9D5A-ABB698EFE6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F30578-17C5-4B1B-AAD9-5ED74E7AC995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13220" yWindow="2520" windowWidth="19660" windowHeight="18780" tabRatio="758" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13220" yWindow="2520" windowWidth="13760" windowHeight="18780" tabRatio="758" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -5562,7 +5562,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5635,7 +5635,7 @@
         <v>337</v>
       </c>
       <c r="B2" s="5">
-        <v>1</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5">

--- a/Calculations gfa.xlsx
+++ b/Calculations gfa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\SWS_logic_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F30578-17C5-4B1B-AAD9-5ED74E7AC995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B8699A-39C6-434A-8D7A-0AF09E5C70C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13220" yWindow="2520" windowWidth="13760" windowHeight="18780" tabRatio="758" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13290" yWindow="870" windowWidth="24830" windowHeight="18780" tabRatio="758" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -504,7 +504,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="347">
   <si>
     <t>Name</t>
   </si>
@@ -1533,6 +1533,18 @@
   </si>
   <si>
     <t>75mm Wind  18swg Solid 15.31kg/sqm</t>
+  </si>
+  <si>
+    <t>MWF05-14-12</t>
+  </si>
+  <si>
+    <t>MWF20-22-12</t>
+  </si>
+  <si>
+    <t>MWF30-28-12</t>
+  </si>
+  <si>
+    <t>MWF30-38-12</t>
   </si>
 </sst>
 </file>
@@ -5560,7 +5572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E91FF3-79AA-48A9-9F88-C48DFFEF60AE}">
   <dimension ref="A1:P213"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
@@ -8331,11 +8343,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB77DDB-B6D9-4CBA-9145-50EF6FDCE517}">
-  <dimension ref="A1:P83"/>
+  <dimension ref="A1:P88"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9901,1290 +9913,1409 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>248</v>
+        <v>343</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>251</v>
+        <v>44</v>
       </c>
       <c r="C48" s="2">
         <v>0</v>
       </c>
       <c r="D48" s="1">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="E48" s="1">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F48" s="1">
         <v>230</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J48" s="1">
-        <v>25.4</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>56</v>
+        <v>23</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>249</v>
+        <v>344</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>251</v>
+        <v>44</v>
       </c>
       <c r="C49" s="2">
-        <v>15.01</v>
+        <v>140.01</v>
       </c>
       <c r="D49" s="1">
-        <v>62</v>
+        <v>220</v>
       </c>
       <c r="E49" s="1">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F49" s="1">
         <v>230</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J49" s="1">
-        <v>25.4</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>250</v>
+        <v>345</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C50" s="2">
-        <v>62.01</v>
+        <v>44</v>
+      </c>
+      <c r="C50" s="1">
+        <v>220.01</v>
       </c>
       <c r="D50" s="1">
-        <v>95</v>
+        <v>280</v>
       </c>
       <c r="E50" s="1">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F50" s="1">
         <v>230</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J50" s="1">
-        <v>25.4</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>56</v>
+        <v>23</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C51" s="2"/>
+      <c r="A51" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="2">
+        <v>280.01</v>
+      </c>
+      <c r="D51" s="1">
+        <v>380</v>
+      </c>
+      <c r="E51" s="1">
+        <v>12</v>
+      </c>
+      <c r="F51" s="1">
+        <v>230</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B53" t="s">
-        <v>98</v>
+        <v>248</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>251</v>
       </c>
       <c r="C53" s="2">
         <v>0</v>
       </c>
       <c r="D53" s="1">
+        <v>15</v>
+      </c>
+      <c r="E53" s="1">
+        <v>34</v>
+      </c>
+      <c r="F53" s="1">
+        <v>230</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J53" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C54" s="2">
+        <v>15.01</v>
+      </c>
+      <c r="D54" s="1">
+        <v>62</v>
+      </c>
+      <c r="E54" s="1">
+        <v>34</v>
+      </c>
+      <c r="F54" s="1">
+        <v>230</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J54" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C55" s="2">
+        <v>62.01</v>
+      </c>
+      <c r="D55" s="1">
+        <v>95</v>
+      </c>
+      <c r="E55" s="1">
+        <v>22</v>
+      </c>
+      <c r="F55" s="1">
+        <v>230</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J55" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B58" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1">
         <v>270</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E58" s="1">
         <f>24/3</f>
         <v>8</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F58" s="1">
         <v>240</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G58" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="H58" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="I58" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J53" s="1">
+      <c r="J58" s="1">
         <v>25.4</v>
       </c>
-      <c r="K53" s="1" t="s">
+      <c r="K58" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N53">
+      <c r="N58">
         <v>450</v>
       </c>
-      <c r="P53">
+      <c r="P58">
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B59" t="s">
         <v>98</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C59" s="2">
         <v>0</v>
       </c>
-      <c r="D54" s="38">
+      <c r="D59" s="38">
         <f>Chaindrive!G23</f>
         <v>270</v>
       </c>
-      <c r="E54" s="37">
+      <c r="E59" s="37">
         <f>Chaindrive!I23</f>
         <v>10.666666666666666</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F59" s="1">
         <v>415</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="H59" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="I59" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J54" s="1">
+      <c r="J59" s="1">
         <v>25.4</v>
       </c>
-      <c r="K54" s="1" t="s">
+      <c r="K59" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N54">
+      <c r="N59">
         <v>370</v>
       </c>
-      <c r="P54">
+      <c r="P59">
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A55" s="3" t="s">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B60" t="s">
         <v>98</v>
       </c>
-      <c r="C55" s="2">
-        <f>D54+0.01</f>
+      <c r="C60" s="2">
+        <f>D59+0.01</f>
         <v>270.01</v>
       </c>
-      <c r="D55" s="38">
+      <c r="D60" s="38">
         <f>Chaindrive!G22</f>
         <v>342</v>
       </c>
-      <c r="E55" s="37">
+      <c r="E60" s="37">
         <f>Chaindrive!I22</f>
         <v>8.4210526315789469</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F60" s="1">
         <v>415</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="H60" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="I60" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J55" s="1">
+      <c r="J60" s="1">
         <v>25.4</v>
       </c>
-      <c r="K55" s="1" t="s">
+      <c r="K60" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N55">
+      <c r="N60">
         <v>370</v>
       </c>
-      <c r="P55">
+      <c r="P60">
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>169</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B61" t="s">
         <v>98</v>
       </c>
-      <c r="C56" s="2">
-        <f>D55+0.01</f>
+      <c r="C61" s="2">
+        <f>D60+0.01</f>
         <v>342.01</v>
       </c>
-      <c r="D56" s="38">
+      <c r="D61" s="38">
         <f>Chaindrive!G21</f>
         <v>427.5</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E61" s="2">
         <f>Chaindrive!I21</f>
         <v>6.7368421052631575</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F61" s="1">
         <v>415</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G61" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="H61" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="I61" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J56" s="1">
+      <c r="J61" s="1">
         <v>25.4</v>
       </c>
-      <c r="K56" s="1" t="s">
+      <c r="K61" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N56">
+      <c r="N61">
         <v>370</v>
       </c>
-      <c r="P56">
+      <c r="P61">
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>179</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B62" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="2">
-        <f>D56+0.01</f>
+      <c r="C62" s="2">
+        <f>D61+0.01</f>
         <v>427.51</v>
       </c>
-      <c r="D57" s="38">
+      <c r="D62" s="38">
         <f>Chaindrive!G28</f>
         <v>665</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E62" s="2">
         <f>Chaindrive!I28</f>
         <v>4.6315789473684212</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F62" s="1">
         <v>415</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G62" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="H62" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="I62" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J57" s="1">
+      <c r="J62" s="1">
         <v>25.4</v>
       </c>
-      <c r="K57" s="1" t="s">
+      <c r="K62" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N57">
+      <c r="N62">
         <v>450</v>
       </c>
-      <c r="P57">
+      <c r="P62">
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A58" s="3" t="s">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B58"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A59" s="3" t="s">
+      <c r="B63"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B59"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+      <c r="B64"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>180</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B65" t="s">
         <v>98</v>
       </c>
-      <c r="C60" s="2">
-        <f>D57+0.01</f>
+      <c r="C65" s="2">
+        <f>D62+0.01</f>
         <v>665.01</v>
       </c>
-      <c r="D60" s="38">
+      <c r="D65" s="38">
         <f>Chaindrive!G38</f>
         <v>880</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E65" s="1">
         <f>Chaindrive!I38</f>
         <v>6</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F65" s="1">
         <v>415</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="G65" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="H65" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="I65" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J60" s="1">
+      <c r="J65" s="1">
         <v>25.4</v>
       </c>
-      <c r="K60" s="1" t="s">
+      <c r="K65" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N60">
+      <c r="N65">
         <v>450</v>
       </c>
-      <c r="P60">
+      <c r="P65">
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="67" t="s">
+    <row r="67" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="67" t="s">
         <v>253</v>
       </c>
-      <c r="B62" s="67" t="s">
+      <c r="B67" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="C62" s="68">
-        <f t="shared" ref="C62:C63" si="2">D61+0.01</f>
+      <c r="C67" s="68">
+        <f t="shared" ref="C67:C68" si="2">D66+0.01</f>
         <v>0.01</v>
       </c>
-      <c r="D62" s="68">
+      <c r="D67" s="68">
         <v>100</v>
       </c>
-      <c r="E62" s="68">
+      <c r="E67" s="68">
         <v>15</v>
       </c>
-      <c r="F62" s="68">
+      <c r="F67" s="68">
         <v>415</v>
       </c>
-      <c r="G62" s="68" t="s">
+      <c r="G67" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="H62" s="68" t="s">
+      <c r="H67" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="I62" s="68" t="s">
+      <c r="I67" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="J62" s="68">
+      <c r="J67" s="68">
         <v>30</v>
       </c>
-      <c r="K62" s="68" t="s">
+      <c r="K67" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="L62" s="68">
+      <c r="L67" s="68">
         <v>8</v>
       </c>
-      <c r="M62" s="68"/>
-      <c r="O62" s="68"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+      <c r="M67" s="68"/>
+      <c r="O67" s="68"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>39</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B68" t="s">
         <v>98</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C68" s="1">
         <f t="shared" si="2"/>
         <v>100.01</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D68" s="6">
         <v>170</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E68" s="6">
         <v>15</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F68" s="1">
         <v>415</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="G68" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="H68" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I63" s="1" t="s">
+      <c r="I68" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J63" s="1">
+      <c r="J68" s="1">
         <v>30</v>
       </c>
-      <c r="K63" s="1" t="s">
+      <c r="K68" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L63" s="1">
+      <c r="L68" s="1">
         <v>8</v>
       </c>
-      <c r="N63">
+      <c r="N68">
         <v>400</v>
       </c>
-      <c r="P63">
+      <c r="P68">
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>40</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B69" t="s">
         <v>98</v>
       </c>
-      <c r="C64" s="1">
-        <f>D63+0.01</f>
+      <c r="C69" s="1">
+        <f>D68+0.01</f>
         <v>170.01</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D69" s="6">
         <v>250</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E69" s="6">
         <v>15</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F69" s="1">
         <v>415</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="G69" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="H69" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="I69" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J64" s="1">
+      <c r="J69" s="1">
         <v>30</v>
       </c>
-      <c r="K64" s="1" t="s">
+      <c r="K69" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L64" s="1">
+      <c r="L69" s="1">
         <v>8</v>
       </c>
-      <c r="N64">
+      <c r="N69">
         <v>750</v>
       </c>
-      <c r="P64">
+      <c r="P69">
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>41</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B70" t="s">
         <v>98</v>
       </c>
-      <c r="C65" s="1">
-        <f t="shared" ref="C65:C73" si="3">D64+0.01</f>
+      <c r="C70" s="1">
+        <f t="shared" ref="C70:C78" si="3">D69+0.01</f>
         <v>250.01</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D70" s="6">
         <v>350</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E70" s="6">
         <v>15</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F70" s="1">
         <v>415</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G70" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="H70" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I65" s="1" t="s">
+      <c r="I70" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J65" s="1">
+      <c r="J70" s="1">
         <v>40</v>
       </c>
-      <c r="K65" s="1" t="s">
+      <c r="K70" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L65" s="1">
+      <c r="L70" s="1">
         <v>9</v>
       </c>
-      <c r="N65">
+      <c r="N70">
         <v>850</v>
       </c>
-      <c r="P65">
+      <c r="P70">
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>42</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B71" t="s">
         <v>98</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C71" s="1">
         <f t="shared" si="3"/>
         <v>350.01</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D71" s="6">
         <v>450</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E71" s="6">
         <v>15</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F71" s="1">
         <v>415</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="G71" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="H71" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I66" s="1" t="s">
+      <c r="I71" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J66" s="1">
+      <c r="J71" s="1">
         <v>40</v>
       </c>
-      <c r="K66" s="1" t="s">
+      <c r="K71" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L66" s="1">
+      <c r="L71" s="1">
         <v>9</v>
       </c>
-      <c r="N66">
+      <c r="N71">
         <v>1100</v>
       </c>
-      <c r="P66">
+      <c r="P71">
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
         <v>43</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B72" t="s">
         <v>98</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C72" s="1">
         <f t="shared" si="3"/>
         <v>450.01</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D72" s="6">
         <v>550</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E72" s="6">
         <v>15</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F72" s="1">
         <v>415</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="G72" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H67" s="1" t="s">
+      <c r="H72" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I67" s="1" t="s">
+      <c r="I72" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J67" s="1">
+      <c r="J72" s="1">
         <v>40</v>
       </c>
-      <c r="K67" s="1" t="s">
+      <c r="K72" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L67" s="1">
+      <c r="L72" s="1">
         <v>9</v>
       </c>
-      <c r="N67">
+      <c r="N72">
         <v>1100</v>
       </c>
-      <c r="P67">
+      <c r="P72">
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>254</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B73" t="s">
         <v>255</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C73" s="1">
         <f t="shared" si="3"/>
         <v>550.01</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D73" s="6">
         <v>650</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E73" s="6">
         <v>15</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F73" s="1">
         <v>415</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="G73" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H68" s="1" t="s">
+      <c r="H73" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I68" s="1" t="s">
+      <c r="I73" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J68" s="1">
+      <c r="J73" s="1">
         <v>40</v>
       </c>
-      <c r="K68" s="1" t="s">
+      <c r="K73" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L68" s="1">
+      <c r="L73" s="1">
         <v>9</v>
       </c>
-      <c r="P68">
+      <c r="P73">
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>127</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B74" t="s">
         <v>98</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C74" s="1">
         <f t="shared" si="3"/>
         <v>650.01</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D74" s="6">
         <v>750</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E74" s="6">
         <v>15</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F74" s="1">
         <v>415</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="G74" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H69" s="1" t="s">
+      <c r="H74" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I69" s="1" t="s">
+      <c r="I74" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J69" s="1">
+      <c r="J74" s="1">
         <v>55</v>
       </c>
-      <c r="K69" s="1" t="s">
+      <c r="K74" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L69" s="1">
+      <c r="L74" s="1">
         <v>9</v>
       </c>
-      <c r="N69">
+      <c r="N74">
         <v>1100</v>
       </c>
-      <c r="P69">
+      <c r="P74">
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>256</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B75" t="s">
         <v>255</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C75" s="1">
         <f t="shared" si="3"/>
         <v>750.01</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D75" s="6">
         <v>850</v>
       </c>
-      <c r="E70" s="6">
+      <c r="E75" s="6">
         <v>10</v>
       </c>
-      <c r="F70" s="1">
+      <c r="F75" s="1">
         <v>415</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="G75" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H70" s="1" t="s">
+      <c r="H75" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I70" s="1" t="s">
+      <c r="I75" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J70" s="1">
+      <c r="J75" s="1">
         <v>55</v>
       </c>
-      <c r="K70" s="1" t="s">
+      <c r="K75" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L70" s="1">
+      <c r="L75" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
         <v>38</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B76" t="s">
         <v>98</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C76" s="1">
         <f t="shared" si="3"/>
         <v>850.01</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D76" s="6">
         <v>1000</v>
       </c>
-      <c r="E71" s="6">
+      <c r="E76" s="6">
         <v>10</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F76" s="1">
         <v>415</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="G76" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H71" s="1" t="s">
+      <c r="H76" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I71" s="1" t="s">
+      <c r="I76" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J71" s="1">
+      <c r="J76" s="1">
         <v>55</v>
       </c>
-      <c r="K71" s="1" t="s">
+      <c r="K76" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L71" s="1">
+      <c r="L76" s="1">
         <v>7</v>
       </c>
-      <c r="N71">
+      <c r="N76">
         <v>1300</v>
       </c>
-      <c r="P71">
+      <c r="P76">
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>257</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B77" t="s">
         <v>98</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C77" s="1">
         <f t="shared" si="3"/>
         <v>1000.01</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D77" s="6">
         <v>1400</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E77" s="6">
         <v>7</v>
       </c>
-      <c r="F72" s="1">
+      <c r="F77" s="1">
         <v>415</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="G77" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H72" s="1" t="s">
+      <c r="H77" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I72" s="1" t="s">
+      <c r="I77" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J72" s="1">
+      <c r="J77" s="1">
         <v>55</v>
       </c>
-      <c r="K72" s="1" t="s">
+      <c r="K77" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L72" s="1">
+      <c r="L77" s="1">
         <v>7</v>
       </c>
-      <c r="N72">
+      <c r="N77">
         <v>1100</v>
       </c>
-      <c r="P72">
+      <c r="P77">
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
         <v>128</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B78" t="s">
         <v>98</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C78" s="1">
         <f t="shared" si="3"/>
         <v>1400.01</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D78" s="6">
         <v>1800</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E78" s="6">
         <v>6</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F78" s="1">
         <v>415</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="G78" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H73" s="1" t="s">
+      <c r="H78" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I73" s="1" t="s">
+      <c r="I78" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J73" s="1">
+      <c r="J78" s="1">
         <v>60</v>
       </c>
-      <c r="K73" s="1" t="s">
+      <c r="K78" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L73" s="1">
+      <c r="L78" s="1">
         <v>7</v>
       </c>
-      <c r="N73">
+      <c r="N78">
         <v>1300</v>
       </c>
-      <c r="P73">
+      <c r="P78">
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
         <v>129</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B79" t="s">
         <v>98</v>
       </c>
-      <c r="C74" s="1">
-        <f t="shared" ref="C74:C77" si="4">D73+0.01</f>
+      <c r="C79" s="1">
+        <f t="shared" ref="C79:C82" si="4">D78+0.01</f>
         <v>1800.01</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D79" s="1">
         <v>2600</v>
       </c>
-      <c r="E74" s="1">
+      <c r="E79" s="1">
         <v>5</v>
       </c>
-      <c r="F74" s="1">
+      <c r="F79" s="1">
         <v>415</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="G79" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="H79" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I74" s="1" t="s">
+      <c r="I79" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J74" s="1">
+      <c r="J79" s="1">
         <v>80</v>
       </c>
-      <c r="K74" s="1" t="s">
+      <c r="K79" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L74" s="1">
+      <c r="L79" s="1">
         <v>9</v>
       </c>
-      <c r="N74">
+      <c r="N79">
         <v>1500</v>
       </c>
-      <c r="P74">
+      <c r="P79">
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
         <v>181</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B80" t="s">
         <v>98</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C80" s="1">
         <f t="shared" si="4"/>
         <v>2600.0100000000002</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D80" s="1">
         <v>3600</v>
       </c>
-      <c r="E75" s="1">
+      <c r="E80" s="1">
         <v>5</v>
       </c>
-      <c r="F75" s="1">
+      <c r="F80" s="1">
         <v>415</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="G80" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H75" s="1" t="s">
+      <c r="H80" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I75" s="1" t="s">
+      <c r="I80" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J75" s="1">
+      <c r="J80" s="1">
         <v>80</v>
       </c>
-      <c r="K75" s="1" t="s">
+      <c r="K80" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L75" s="1">
+      <c r="L80" s="1">
         <v>9</v>
       </c>
-      <c r="N75">
+      <c r="N80">
         <v>3000</v>
       </c>
-      <c r="P75">
+      <c r="P80">
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
         <v>182</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B81" t="s">
         <v>98</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C81" s="1">
         <f t="shared" si="4"/>
         <v>3600.01</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D81" s="1">
         <v>3600</v>
       </c>
-      <c r="E76" s="1">
+      <c r="E81" s="1">
         <v>9</v>
       </c>
-      <c r="F76" s="1">
+      <c r="F81" s="1">
         <v>415</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="G81" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="H81" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I76" s="1" t="s">
+      <c r="I81" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J76" s="1">
+      <c r="J81" s="1">
         <v>80</v>
       </c>
-      <c r="K76" s="1" t="s">
+      <c r="K81" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L76" s="1">
+      <c r="L81" s="1">
         <v>9</v>
       </c>
-      <c r="N76">
+      <c r="N81">
         <v>3000</v>
       </c>
-      <c r="P76">
+      <c r="P81">
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
         <v>183</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B82" t="s">
         <v>98</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C82" s="1">
         <f t="shared" si="4"/>
         <v>3600.01</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D82" s="1">
         <v>4800</v>
       </c>
-      <c r="E77" s="1">
+      <c r="E82" s="1">
         <v>9</v>
       </c>
-      <c r="F77" s="1">
+      <c r="F82" s="1">
         <v>415</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="G82" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H77" s="1" t="s">
+      <c r="H82" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I77" s="1" t="s">
+      <c r="I82" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J77" s="1">
+      <c r="J82" s="1">
         <v>100</v>
       </c>
-      <c r="K77" s="1" t="s">
+      <c r="K82" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L77" s="1">
+      <c r="L82" s="1">
         <v>10</v>
       </c>
-      <c r="N77">
+      <c r="N82">
         <v>3000</v>
       </c>
-      <c r="P77">
+      <c r="P82">
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
         <v>184</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B83" t="s">
         <v>98</v>
       </c>
-      <c r="C78" s="1">
-        <f t="shared" ref="C78:C83" si="5">D77+0.01</f>
+      <c r="C83" s="1">
+        <f t="shared" ref="C83:C88" si="5">D82+0.01</f>
         <v>4800.01</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D83" s="1">
         <v>5000</v>
       </c>
-      <c r="E78" s="1">
+      <c r="E83" s="1">
         <v>5</v>
       </c>
-      <c r="F78" s="1">
+      <c r="F83" s="1">
         <v>415</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="G83" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H78" s="1" t="s">
+      <c r="H83" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I78" s="1" t="s">
+      <c r="I83" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J78" s="1">
+      <c r="J83" s="1">
         <v>101</v>
       </c>
-      <c r="K78" s="1" t="s">
+      <c r="K83" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L78" s="1">
+      <c r="L83" s="1">
         <v>9</v>
       </c>
-      <c r="N78">
+      <c r="N83">
         <v>2500</v>
       </c>
-      <c r="P78">
+      <c r="P83">
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A80" s="3" t="s">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A85" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B85" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C85" s="1">
         <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D85" s="1">
         <v>170</v>
       </c>
-      <c r="E80" s="1">
+      <c r="E85" s="1">
         <v>10</v>
       </c>
-      <c r="F80" s="1">
+      <c r="F85" s="1">
         <v>230</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="G85" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H80" s="1" t="s">
+      <c r="H85" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I80" s="1" t="s">
+      <c r="I85" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J80" s="1">
+      <c r="J85" s="1">
         <v>30</v>
       </c>
-      <c r="K80" s="1" t="s">
+      <c r="K85" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L80" s="1">
+      <c r="L85" s="1">
         <v>8</v>
       </c>
-      <c r="N80" s="1"/>
-      <c r="O80"/>
-      <c r="P80" s="1"/>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A81" s="3" t="s">
+      <c r="N85" s="1"/>
+      <c r="O85"/>
+      <c r="P85" s="1"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A86" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B86" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C86" s="1">
         <f t="shared" si="5"/>
         <v>170.01</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D86" s="1">
         <v>250</v>
       </c>
-      <c r="E81" s="1">
+      <c r="E86" s="1">
         <v>10</v>
       </c>
-      <c r="F81" s="1">
+      <c r="F86" s="1">
         <v>230</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="G86" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H81" s="1" t="s">
+      <c r="H86" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I81" s="1" t="s">
+      <c r="I86" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J81" s="1">
+      <c r="J86" s="1">
         <v>30</v>
       </c>
-      <c r="K81" s="1" t="s">
+      <c r="K86" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L81" s="1">
+      <c r="L86" s="1">
         <v>8</v>
       </c>
-      <c r="N81" s="1"/>
-      <c r="O81"/>
-      <c r="P81" s="1"/>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A82" s="3" t="s">
+      <c r="N86" s="1"/>
+      <c r="O86"/>
+      <c r="P86" s="1"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A87" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B87" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C87" s="1">
         <f t="shared" si="5"/>
         <v>250.01</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D87" s="1">
         <v>250</v>
       </c>
-      <c r="E82" s="1">
+      <c r="E87" s="1">
         <v>15</v>
       </c>
-      <c r="F82" s="1">
+      <c r="F87" s="1">
         <v>230</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="G87" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H82" s="1" t="s">
+      <c r="H87" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I82" s="1" t="s">
+      <c r="I87" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J82" s="1">
+      <c r="J87" s="1">
         <v>30</v>
       </c>
-      <c r="K82" s="1" t="s">
+      <c r="K87" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L82" s="1">
+      <c r="L87" s="1">
         <v>7</v>
       </c>
-      <c r="N82" s="1"/>
-      <c r="O82"/>
-      <c r="P82" s="1"/>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A83" s="3" t="s">
+      <c r="N87" s="1"/>
+      <c r="O87"/>
+      <c r="P87" s="1"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A88" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B88" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C88" s="1">
         <f t="shared" si="5"/>
         <v>250.01</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D88" s="1">
         <v>450</v>
       </c>
-      <c r="E83" s="1">
+      <c r="E88" s="1">
         <v>7</v>
       </c>
-      <c r="F83" s="1">
+      <c r="F88" s="1">
         <v>230</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="G88" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H83" s="1" t="s">
+      <c r="H88" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I83" s="1" t="s">
+      <c r="I88" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J83" s="1">
+      <c r="J88" s="1">
         <v>40</v>
       </c>
-      <c r="K83" s="1" t="s">
+      <c r="K88" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L83" s="1">
+      <c r="L88" s="1">
         <v>5</v>
       </c>
     </row>

--- a/Calculations gfa.xlsx
+++ b/Calculations gfa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\SWS_logic_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B8699A-39C6-434A-8D7A-0AF09E5C70C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C897F0-ECC8-4751-8407-A5F2F85FD78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13290" yWindow="870" windowWidth="24830" windowHeight="18780" tabRatio="758" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11680" yWindow="1270" windowWidth="23760" windowHeight="18780" tabRatio="758" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -504,12 +504,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="346">
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Votage</t>
   </si>
   <si>
     <t>NRG 50</t>
@@ -4468,12 +4465,12 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.35">
@@ -4537,27 +4534,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
         <v>76</v>
       </c>
-      <c r="D1" t="s">
-        <v>77</v>
-      </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3">
         <v>5900</v>
@@ -4567,15 +4564,15 @@
         <v>601.63256566999996</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4">
         <v>10800</v>
@@ -4585,7 +4582,7 @@
         <v>1101.29351004</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -4593,10 +4590,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6">
         <v>11250</v>
@@ -4606,15 +4603,15 @@
         <v>1147.1807396249999</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7">
         <v>18100</v>
@@ -4624,15 +4621,15 @@
         <v>1845.6863455299999</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8">
         <v>29200</v>
@@ -4642,15 +4639,15 @@
         <v>2977.5713419599997</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" t="s">
         <v>174</v>
-      </c>
-      <c r="B9" t="s">
-        <v>175</v>
       </c>
       <c r="C9">
         <v>32800</v>
@@ -4660,7 +4657,7 @@
         <v>3344.6691786399997</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -4694,34 +4691,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="D1" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="E1" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="54" t="s">
-        <v>51</v>
-      </c>
       <c r="F1" s="55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G1" s="56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H1" s="57" t="s">
+        <v>221</v>
+      </c>
+      <c r="I1" s="58" t="s">
         <v>222</v>
-      </c>
-      <c r="I1" s="58" t="s">
-        <v>223</v>
       </c>
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="9">
         <v>95</v>
@@ -4733,10 +4730,10 @@
         <v>22</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -4744,7 +4741,7 @@
     </row>
     <row r="3" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="9">
         <v>147</v>
@@ -4756,10 +4753,10 @@
         <v>22</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -4767,7 +4764,7 @@
     </row>
     <row r="4" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B4" s="9">
         <v>332</v>
@@ -4779,7 +4776,7 @@
         <v>22</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F4" s="9">
         <v>480</v>
@@ -4793,7 +4790,7 @@
     </row>
     <row r="5" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B5" s="9">
         <v>552</v>
@@ -4805,7 +4802,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G5" s="9">
         <v>40</v>
@@ -4816,7 +4813,7 @@
     </row>
     <row r="6" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B6" s="9">
         <v>599</v>
@@ -4828,7 +4825,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G6" s="9">
         <v>40</v>
@@ -4839,7 +4836,7 @@
     </row>
     <row r="7" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B7" s="9">
         <v>1063</v>
@@ -4851,7 +4848,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G7" s="9">
         <v>50</v>
@@ -4862,7 +4859,7 @@
     </row>
     <row r="8" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B8" s="9">
         <v>1943</v>
@@ -4874,7 +4871,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G8" s="9">
         <v>65</v>
@@ -4885,7 +4882,7 @@
     </row>
     <row r="9" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B9" s="9">
         <v>3503</v>
@@ -4897,7 +4894,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G9" s="9">
         <v>80</v>
@@ -4908,7 +4905,7 @@
     </row>
     <row r="10" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="9">
         <v>130</v>
@@ -4920,10 +4917,10 @@
         <v>22</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H10">
         <v>10</v>
@@ -4931,7 +4928,7 @@
     </row>
     <row r="11" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="9">
         <v>145</v>
@@ -4943,13 +4940,13 @@
         <v>22</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" s="9">
         <v>200</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -4957,7 +4954,7 @@
     </row>
     <row r="12" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="9">
         <v>332</v>
@@ -4969,7 +4966,7 @@
         <v>22</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" s="9">
         <v>460</v>
@@ -4983,7 +4980,7 @@
     </row>
     <row r="13" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="9">
         <v>542</v>
@@ -4995,7 +4992,7 @@
         <v>22</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G13" s="9">
         <v>40</v>
@@ -5008,7 +5005,7 @@
     </row>
     <row r="14" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="9">
         <v>1000</v>
@@ -5020,7 +5017,7 @@
         <v>12</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G14" s="9">
         <v>50</v>
@@ -5031,7 +5028,7 @@
     </row>
     <row r="15" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="9">
         <v>1063</v>
@@ -5043,7 +5040,7 @@
         <v>18</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H15">
         <v>10</v>
@@ -5051,7 +5048,7 @@
     </row>
     <row r="16" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" s="9">
         <v>145</v>
@@ -5063,13 +5060,13 @@
         <v>22</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F16" s="9">
         <v>200</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H16">
         <v>10</v>
@@ -5104,22 +5101,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>137</v>
-      </c>
       <c r="E1" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -5132,7 +5129,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" s="6">
         <v>300</v>
@@ -5141,7 +5138,7 @@
         <v>500</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E3" s="6">
         <v>3</v>
@@ -5154,7 +5151,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" s="6">
         <v>350</v>
@@ -5163,7 +5160,7 @@
         <v>450</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E4" s="6">
         <v>3</v>
@@ -5176,7 +5173,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" s="6">
         <v>400</v>
@@ -5185,7 +5182,7 @@
         <v>550</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E5" s="6">
         <v>4</v>
@@ -5198,7 +5195,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B6" s="6">
         <v>450</v>
@@ -5207,7 +5204,7 @@
         <v>550</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E6" s="6">
         <v>4</v>
@@ -5228,7 +5225,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B8" s="6">
         <v>300</v>
@@ -5237,7 +5234,7 @@
         <v>700</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E8" s="6">
         <v>6</v>
@@ -5250,7 +5247,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B9" s="6">
         <v>350</v>
@@ -5259,7 +5256,7 @@
         <v>650</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E9" s="6">
         <v>6</v>
@@ -5272,7 +5269,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B10" s="6">
         <v>400</v>
@@ -5281,7 +5278,7 @@
         <v>1200</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E10" s="6">
         <v>8</v>
@@ -5294,7 +5291,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B11" s="6">
         <v>450</v>
@@ -5303,7 +5300,7 @@
         <v>1100</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E11" s="6">
         <v>8</v>
@@ -5316,7 +5313,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B12" s="6">
         <v>500</v>
@@ -5325,7 +5322,7 @@
         <v>2500</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E12" s="6">
         <v>10</v>
@@ -5338,7 +5335,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="40" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B13" s="6">
         <v>550</v>
@@ -5347,7 +5344,7 @@
         <v>2350</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E13" s="6">
         <v>10</v>
@@ -5360,7 +5357,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="71" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B14" s="72">
         <v>600</v>
@@ -5369,7 +5366,7 @@
         <v>2200</v>
       </c>
       <c r="D14" s="72" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E14" s="72">
         <v>10</v>
@@ -5385,7 +5382,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B16" s="6">
         <v>135</v>
@@ -5394,7 +5391,7 @@
         <v>50</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E16" s="6">
         <v>10</v>
@@ -5406,7 +5403,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B17" s="6">
         <v>180</v>
@@ -5415,7 +5412,7 @@
         <v>50</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E17" s="6">
         <v>10</v>
@@ -5427,7 +5424,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="40" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B18" s="6">
         <v>205</v>
@@ -5436,7 +5433,7 @@
         <v>50</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E18" s="6">
         <v>10</v>
@@ -5448,7 +5445,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="40" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B19" s="6">
         <v>250</v>
@@ -5457,7 +5454,7 @@
         <v>50</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E19" s="6">
         <v>10</v>
@@ -5469,7 +5466,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="40" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B20" s="6">
         <v>300</v>
@@ -5478,7 +5475,7 @@
         <v>50</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E20" s="6">
         <v>10</v>
@@ -5490,7 +5487,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="40" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B21" s="6">
         <v>350</v>
@@ -5499,7 +5496,7 @@
         <v>50</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E21" s="6">
         <v>10</v>
@@ -5535,15 +5532,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B2">
         <v>1650</v>
@@ -5554,7 +5551,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B3">
         <v>1875</v>
@@ -5597,54 +5594,54 @@
         <v>0</v>
       </c>
       <c r="B1" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="E1" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="F1" s="47" t="s">
+      <c r="G1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="48" t="s">
-        <v>8</v>
-      </c>
       <c r="H1" s="52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I1" s="61" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J1" s="61" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K1" s="62" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L1" s="61" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O1" s="73" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P1" s="74" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="43" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B2" s="5">
         <v>9.1999999999999993</v>
@@ -5675,21 +5672,21 @@
         <v>190000</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P2" s="75" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="49" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B3" s="23">
         <v>9.1999999999999993</v>
@@ -5716,21 +5713,21 @@
       <c r="J3" s="60"/>
       <c r="K3" s="60"/>
       <c r="M3" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P3" s="75" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="43" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B4" s="5">
         <v>11.68</v>
@@ -5757,21 +5754,21 @@
       <c r="J4" s="59"/>
       <c r="K4" s="59"/>
       <c r="M4" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P4" s="75" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="49" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B5" s="23">
         <v>11.68</v>
@@ -5798,21 +5795,21 @@
       <c r="J5" s="60"/>
       <c r="K5" s="60"/>
       <c r="M5" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P5" s="75" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="43" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B6" s="4">
         <v>15.31</v>
@@ -5839,21 +5836,21 @@
       <c r="J6" s="59"/>
       <c r="K6" s="59"/>
       <c r="M6" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P6" s="75" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="49" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B7" s="24">
         <v>13.51</v>
@@ -5880,16 +5877,16 @@
       <c r="J7" s="60"/>
       <c r="K7" s="60"/>
       <c r="M7" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P7" s="75" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -5904,7 +5901,7 @@
     </row>
     <row r="9" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="43" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B9" s="5">
         <v>8.3000000000000007</v>
@@ -5931,21 +5928,21 @@
       <c r="J9" s="59"/>
       <c r="K9" s="59"/>
       <c r="M9" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P9" s="75" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="49" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B10" s="23">
         <v>8.3000000000000007</v>
@@ -5972,21 +5969,21 @@
       <c r="J10" s="60"/>
       <c r="K10" s="60"/>
       <c r="M10" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P10" s="75" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B11" s="5">
         <v>10.5</v>
@@ -6013,21 +6010,21 @@
       <c r="J11" s="59"/>
       <c r="K11" s="59"/>
       <c r="M11" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P11" s="75" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="49" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B12" s="23">
         <v>10.5</v>
@@ -6054,21 +6051,21 @@
       <c r="J12" s="60"/>
       <c r="K12" s="60"/>
       <c r="M12" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P12" s="75" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B13" s="5">
         <v>14</v>
@@ -6095,21 +6092,21 @@
       <c r="J13" s="59"/>
       <c r="K13" s="59"/>
       <c r="M13" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P13" s="75" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="49" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B14" s="23">
         <v>14</v>
@@ -6136,16 +6133,16 @@
       <c r="J14" s="60"/>
       <c r="K14" s="60"/>
       <c r="M14" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P14" s="75" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6163,7 +6160,7 @@
     </row>
     <row r="16" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="43" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B16" s="5">
         <v>7.5</v>
@@ -6190,21 +6187,21 @@
       <c r="J16" s="59"/>
       <c r="K16" s="59"/>
       <c r="M16" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P16" s="75" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="49" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B17" s="23">
         <v>7.5</v>
@@ -6231,21 +6228,21 @@
       <c r="J17" s="60"/>
       <c r="K17" s="60"/>
       <c r="M17" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P17" s="75" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="43" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B18" s="5">
         <v>9.6999999999999993</v>
@@ -6272,21 +6269,21 @@
       <c r="J18" s="59"/>
       <c r="K18" s="59"/>
       <c r="M18" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P18" s="75" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="49" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B19" s="23">
         <v>9.6999999999999993</v>
@@ -6313,16 +6310,16 @@
       <c r="J19" s="60"/>
       <c r="K19" s="60"/>
       <c r="M19" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P19" s="75" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6337,7 +6334,7 @@
     </row>
     <row r="21" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="43" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B21" s="51">
         <v>11.4</v>
@@ -6362,16 +6359,16 @@
         <v>0</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P21" s="75" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6386,7 +6383,7 @@
     </row>
     <row r="23" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="43" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B23" s="5">
         <v>11.9</v>
@@ -6413,21 +6410,21 @@
       <c r="J23" s="59"/>
       <c r="K23" s="59"/>
       <c r="M23" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O23" s="6">
         <v>3.2</v>
       </c>
       <c r="P23" s="75" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="43" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B24" s="5">
         <v>13.3</v>
@@ -6454,21 +6451,21 @@
       <c r="J24" s="59"/>
       <c r="K24" s="59"/>
       <c r="M24" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O24" s="6">
         <v>3.2</v>
       </c>
       <c r="P24" s="75" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="43" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B25" s="5">
         <v>12</v>
@@ -6493,16 +6490,16 @@
       <c r="J25" s="59"/>
       <c r="K25" s="59"/>
       <c r="M25" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P25" s="75" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6520,7 +6517,7 @@
     </row>
     <row r="27" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="43" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B27" s="5">
         <v>22</v>
@@ -6549,16 +6546,16 @@
       <c r="J27" s="59"/>
       <c r="K27" s="59"/>
       <c r="M27" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O27" s="6">
         <v>4.3</v>
       </c>
       <c r="P27" s="75" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6573,7 +6570,7 @@
     </row>
     <row r="29" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="43" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B29" s="5">
         <v>4</v>
@@ -6593,21 +6590,21 @@
       </c>
       <c r="H29" s="51"/>
       <c r="M29" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P29" s="75" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="43" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B30" s="5">
         <v>8</v>
@@ -6627,21 +6624,21 @@
       </c>
       <c r="H30" s="51"/>
       <c r="M30" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P30" s="75" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="43" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B31" s="5">
         <v>6.5</v>
@@ -6661,21 +6658,21 @@
       </c>
       <c r="H31" s="51"/>
       <c r="M31" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P31" s="75" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="43" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B32" s="5">
         <v>6.5</v>
@@ -6695,21 +6692,21 @@
       </c>
       <c r="H32" s="51"/>
       <c r="M32" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P32" s="75" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="43" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B33" s="5">
         <v>7.5</v>
@@ -6729,21 +6726,21 @@
       </c>
       <c r="H33" s="51"/>
       <c r="M33" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P33" s="75" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="43" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B34" s="5">
         <v>9</v>
@@ -6763,21 +6760,21 @@
       </c>
       <c r="H34" s="51"/>
       <c r="M34" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P34" s="75" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="43" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B35" s="51">
         <v>9.25</v>
@@ -6797,21 +6794,21 @@
       </c>
       <c r="H35" s="51"/>
       <c r="M35" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P35" s="75" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="43" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B36" s="51">
         <v>7</v>
@@ -6831,21 +6828,21 @@
       </c>
       <c r="H36" s="51"/>
       <c r="M36" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P36" s="75" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="43" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B37" s="51">
         <v>8</v>
@@ -6865,21 +6862,21 @@
       </c>
       <c r="H37" s="51"/>
       <c r="M37" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P37" s="75" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="43" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B38" s="51">
         <v>7</v>
@@ -6899,16 +6896,16 @@
       </c>
       <c r="H38" s="51"/>
       <c r="M38" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O38" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P38" s="75" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6923,7 +6920,7 @@
     </row>
     <row r="40" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="43" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B40" s="51">
         <v>5</v>
@@ -6943,16 +6940,16 @@
       </c>
       <c r="H40" s="51"/>
       <c r="M40" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O40" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P40" s="75" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7154,33 +7151,33 @@
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1" t="s">
         <v>287</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>288</v>
       </c>
-      <c r="D1" t="s">
-        <v>289</v>
-      </c>
       <c r="E1" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C2" t="s">
         <v>290</v>
       </c>
-      <c r="C2" t="s">
-        <v>291</v>
-      </c>
       <c r="D2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E2" s="6">
         <v>20</v>
@@ -7189,18 +7186,18 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E3" s="6">
         <v>60</v>
@@ -7209,18 +7206,18 @@
         <v>7.5</v>
       </c>
       <c r="G3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E4" s="6">
         <v>235</v>
@@ -7229,18 +7226,18 @@
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E5" s="6">
         <v>10</v>
@@ -7249,18 +7246,18 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E6" s="72">
         <v>20</v>
@@ -7269,18 +7266,18 @@
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E7" s="72">
         <v>30</v>
@@ -7289,13 +7286,13 @@
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E11" s="72"/>
       <c r="F11" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -7321,21 +7318,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="23" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>65</v>
-      </c>
       <c r="C1" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="31" t="s">
         <v>94</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="27">
         <v>3.2</v>
@@ -7349,7 +7346,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="27">
         <v>4</v>
@@ -7363,7 +7360,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="27">
         <v>4.2</v>
@@ -7377,7 +7374,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="27">
         <v>2.1</v>
@@ -7391,7 +7388,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="27">
         <v>2.9</v>
@@ -7405,7 +7402,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B8" s="27">
         <v>1.1000000000000001</v>
@@ -7419,7 +7416,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="29">
         <v>1.2</v>
@@ -7433,7 +7430,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" s="30">
         <v>1.5</v>
@@ -7447,7 +7444,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="76" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C12">
         <v>58</v>
@@ -7458,7 +7455,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C13">
         <v>65</v>
@@ -7469,7 +7466,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C14">
         <v>96</v>
@@ -7480,7 +7477,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C15">
         <v>114</v>
@@ -7517,27 +7514,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>131</v>
-      </c>
-      <c r="G1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B3" s="6">
         <v>65</v>
@@ -7551,12 +7548,12 @@
         <v>46</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B4" s="6">
         <v>100</v>
@@ -7570,12 +7567,12 @@
         <v>81</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B5" s="6">
         <v>65</v>
@@ -7589,12 +7586,12 @@
         <v>46</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B6" s="6">
         <v>100</v>
@@ -7608,36 +7605,36 @@
         <v>81</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C8" s="6">
         <f>17-5</f>
         <v>12</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C9" s="6">
         <f>25-5</f>
         <v>20</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B10" s="6">
         <v>60</v>
@@ -7647,12 +7644,12 @@
         <v>24</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B11" s="6">
         <v>70</v>
@@ -7662,12 +7659,12 @@
         <v>37</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B12" s="6">
         <v>60</v>
@@ -7676,12 +7673,12 @@
         <v>27</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B13" s="6">
         <v>75</v>
@@ -7690,12 +7687,12 @@
         <v>32</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B14" s="6">
         <v>90</v>
@@ -7704,7 +7701,7 @@
         <v>57</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -7737,48 +7734,48 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>14</v>
-      </c>
       <c r="F1" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="15" t="s">
-        <v>37</v>
-      </c>
       <c r="I1" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="J1" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>270</v>
-      </c>
       <c r="L1" s="63" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D2" s="15">
         <v>60</v>
@@ -7798,19 +7795,19 @@
       </c>
       <c r="I2" s="15"/>
       <c r="J2" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>271</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>272</v>
       </c>
       <c r="D3" s="15">
         <v>70</v>
@@ -7830,19 +7827,19 @@
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K3" s="15"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D4" s="15">
         <v>70</v>
@@ -7862,19 +7859,19 @@
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K4" s="15"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="33">
         <v>102</v>
@@ -7894,7 +7891,7 @@
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K5" s="15"/>
       <c r="L5">
@@ -7904,13 +7901,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="33">
         <v>102</v>
@@ -7930,7 +7927,7 @@
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K6" s="15"/>
       <c r="L6">
@@ -7940,13 +7937,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D7" s="15">
         <v>127</v>
@@ -7966,7 +7963,7 @@
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K7" s="15"/>
       <c r="L7">
@@ -7976,13 +7973,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D8" s="34">
         <v>127</v>
@@ -8002,7 +7999,7 @@
       </c>
       <c r="I8" s="34"/>
       <c r="J8" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K8" s="34"/>
       <c r="L8">
@@ -8012,13 +8009,13 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D9" s="33">
         <v>139</v>
@@ -8038,7 +8035,7 @@
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K9" s="15"/>
       <c r="L9">
@@ -8048,13 +8045,13 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="33">
         <v>139</v>
@@ -8074,7 +8071,7 @@
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K10" s="15"/>
       <c r="L10">
@@ -8084,13 +8081,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D11" s="33">
         <v>168</v>
@@ -8110,7 +8107,7 @@
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K11" s="15"/>
       <c r="L11">
@@ -8120,13 +8117,13 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="41">
         <v>193</v>
@@ -8146,7 +8143,7 @@
       </c>
       <c r="I12" s="42"/>
       <c r="J12" s="42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K12" s="42"/>
       <c r="L12">
@@ -8156,13 +8153,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>153</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>154</v>
       </c>
       <c r="D13" s="16">
         <v>193</v>
@@ -8182,7 +8179,7 @@
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K13" s="15"/>
       <c r="L13">
@@ -8192,13 +8189,13 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" s="33">
         <v>219</v>
@@ -8218,7 +8215,7 @@
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K14" s="15"/>
       <c r="L14">
@@ -8228,10 +8225,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C15" s="34"/>
       <c r="D15" s="35">
@@ -8252,7 +8249,7 @@
       </c>
       <c r="I15" s="34"/>
       <c r="J15" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K15" s="34"/>
       <c r="L15">
@@ -8262,10 +8259,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C16" s="34"/>
       <c r="D16" s="35">
@@ -8286,7 +8283,7 @@
       </c>
       <c r="I16" s="34"/>
       <c r="J16" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K16" s="34"/>
       <c r="L16">
@@ -8296,10 +8293,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C17" s="34"/>
       <c r="D17" s="35">
@@ -8320,7 +8317,7 @@
       </c>
       <c r="I17" s="34"/>
       <c r="J17" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K17" s="34"/>
       <c r="L17">
@@ -8331,7 +8328,7 @@
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C24" s="39"/>
       <c r="D24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -8347,7 +8344,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8369,57 +8366,57 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="11" t="s">
-        <v>34</v>
-      </c>
       <c r="J1" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N1" s="53" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -8434,16 +8431,16 @@
         <v>230</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I3" s="1">
         <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N3">
         <v>310</v>
@@ -8451,10 +8448,10 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -8469,16 +8466,16 @@
         <v>230</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4" s="1">
         <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>310</v>
@@ -8486,10 +8483,10 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1">
         <v>50.01</v>
@@ -8504,16 +8501,16 @@
         <v>230</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5" s="1">
         <v>59</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>345</v>
@@ -8521,10 +8518,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="1">
         <v>50.01</v>
@@ -8539,16 +8536,16 @@
         <v>230</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="1">
         <v>59</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>345</v>
@@ -8556,10 +8553,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1">
         <v>100.01</v>
@@ -8574,16 +8571,16 @@
         <v>230</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7" s="1">
         <v>59</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N7">
         <v>390</v>
@@ -8591,10 +8588,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1">
         <v>100.01</v>
@@ -8609,16 +8606,16 @@
         <v>230</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8" s="1">
         <v>59</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N8">
         <v>390</v>
@@ -8626,10 +8623,10 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1">
         <v>150.01</v>
@@ -8644,16 +8641,16 @@
         <v>230</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="1">
         <v>92</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N9">
         <v>570</v>
@@ -8661,10 +8658,10 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="1">
         <v>230.01</v>
@@ -8679,16 +8676,16 @@
         <v>230</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I10" s="1">
         <v>92</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N10">
         <v>670</v>
@@ -8696,10 +8693,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11" s="1">
         <f>D10+0.01</f>
@@ -8715,7 +8712,7 @@
         <v>230</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H11" s="1">
         <v>85</v>
@@ -8724,10 +8721,10 @@
         <v>89</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N11">
         <v>1200</v>
@@ -8735,10 +8732,10 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C12" s="1">
         <f>D11+0.01</f>
@@ -8754,7 +8751,7 @@
         <v>230</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H12" s="1">
         <v>83</v>
@@ -8763,10 +8760,10 @@
         <v>89</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N12">
         <v>920</v>
@@ -8774,10 +8771,10 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -8792,16 +8789,16 @@
         <v>230</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I14" s="1">
         <v>48</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M14" s="1">
         <v>2.44</v>
@@ -8812,10 +8809,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C15" s="1">
         <f>D14+0.01</f>
@@ -8831,16 +8828,16 @@
         <v>230</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I15" s="1">
         <v>48</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M15" s="1">
         <v>2.76</v>
@@ -8851,10 +8848,10 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" ref="C16:C26" si="0">D15+0.01</f>
@@ -8870,16 +8867,16 @@
         <v>230</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I16" s="1">
         <v>48</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M16" s="1">
         <v>3.09</v>
@@ -8890,10 +8887,10 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="0"/>
@@ -8909,16 +8906,16 @@
         <v>230</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I17" s="1">
         <v>48</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M17" s="1">
         <v>3.38</v>
@@ -8929,10 +8926,10 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="0"/>
@@ -8948,16 +8945,16 @@
         <v>230</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I18" s="1">
         <v>48</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M18" s="1">
         <v>3.38</v>
@@ -8968,10 +8965,10 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="0"/>
@@ -8987,16 +8984,16 @@
         <v>230</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I19" s="1">
         <v>48</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M19" s="1">
         <v>3.09</v>
@@ -9007,10 +9004,10 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="0"/>
@@ -9026,16 +9023,16 @@
         <v>230</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I20" s="1">
         <v>60</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M20" s="1">
         <v>4.17</v>
@@ -9046,10 +9043,10 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="0"/>
@@ -9065,16 +9062,16 @@
         <v>230</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I21" s="1">
         <v>60</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M21" s="1">
         <v>3.92</v>
@@ -9085,10 +9082,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="0"/>
@@ -9104,16 +9101,16 @@
         <v>230</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I22" s="1">
         <v>60</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M22" s="1">
         <v>4.59</v>
@@ -9124,10 +9121,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="0"/>
@@ -9143,16 +9140,16 @@
         <v>230</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I23" s="1">
         <v>60</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M23" s="1">
         <v>4.1900000000000004</v>
@@ -9163,10 +9160,10 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="0"/>
@@ -9182,16 +9179,16 @@
         <v>230</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I24" s="1">
         <v>60</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M24" s="1">
         <v>4.45</v>
@@ -9202,10 +9199,10 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="0"/>
@@ -9221,16 +9218,16 @@
         <v>230</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I25" s="1">
         <v>60</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M25" s="1">
         <v>4.68</v>
@@ -9241,10 +9238,10 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="0"/>
@@ -9260,16 +9257,16 @@
         <v>230</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I26" s="1">
         <v>60</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M26" s="1">
         <v>4.45</v>
@@ -9280,10 +9277,10 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" s="2">
         <v>0</v>
@@ -9298,19 +9295,19 @@
         <v>415</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J29" s="1">
         <v>30</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N29">
         <v>900</v>
@@ -9318,10 +9315,10 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" s="2">
         <v>170.01</v>
@@ -9336,19 +9333,19 @@
         <v>415</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J30" s="1">
         <v>40</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N30">
         <v>900</v>
@@ -9356,10 +9353,10 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="2">
         <v>170.01</v>
@@ -9374,19 +9371,19 @@
         <v>230</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J31" s="1">
         <v>40</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N31">
         <v>900</v>
@@ -9394,10 +9391,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" s="2">
         <v>260.01</v>
@@ -9412,19 +9409,19 @@
         <v>415</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J32" s="1">
         <v>40</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N32">
         <v>900</v>
@@ -9432,10 +9429,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" s="2">
         <v>351.01</v>
@@ -9450,19 +9447,19 @@
         <v>415</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J33" s="1">
         <v>40</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N33">
         <v>900</v>
@@ -9470,10 +9467,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" s="2">
         <v>500.01</v>
@@ -9488,19 +9485,19 @@
         <v>415</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J34" s="1">
         <v>55</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N34">
         <v>1800</v>
@@ -9508,10 +9505,10 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" s="2">
         <v>650.01</v>
@@ -9526,19 +9523,19 @@
         <v>415</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J35" s="1">
         <v>55</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N35">
         <v>1800</v>
@@ -9546,10 +9543,10 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" s="2">
         <v>750.01</v>
@@ -9564,19 +9561,19 @@
         <v>415</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J36" s="1">
         <v>55</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N36">
         <v>2500</v>
@@ -9587,10 +9584,10 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C38" s="2">
         <v>0</v>
@@ -9605,27 +9602,27 @@
         <v>415</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J38" s="1">
         <v>30</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C39" s="2">
         <f t="shared" ref="C39:C46" si="1">D38+0.01</f>
@@ -9641,27 +9638,27 @@
         <v>415</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J39" s="1">
         <v>30</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C40" s="2">
         <f t="shared" si="1"/>
@@ -9677,27 +9674,27 @@
         <v>415</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J40" s="1">
         <v>30</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="2">
         <f t="shared" si="1"/>
@@ -9713,27 +9710,27 @@
         <v>415</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J41" s="1">
         <v>40</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C42" s="2">
         <f t="shared" si="1"/>
@@ -9749,27 +9746,27 @@
         <v>415</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J42" s="1">
         <v>40</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C43" s="2">
         <f t="shared" si="1"/>
@@ -9785,27 +9782,27 @@
         <v>415</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J43" s="1">
         <v>55</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C44" s="2">
         <f t="shared" si="1"/>
@@ -9821,27 +9818,27 @@
         <v>415</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J44" s="1">
         <v>55</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C45" s="2">
         <f t="shared" si="1"/>
@@ -9857,27 +9854,27 @@
         <v>415</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J45" s="1">
         <v>55</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C46" s="2">
         <f t="shared" si="1"/>
@@ -9893,19 +9890,19 @@
         <v>415</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J46" s="1">
         <v>55</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
@@ -9913,10 +9910,10 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C48" s="2">
         <v>0</v>
@@ -9931,21 +9928,21 @@
         <v>230</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C49" s="2">
         <v>140.01</v>
@@ -9960,21 +9957,21 @@
         <v>230</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C50" s="1">
         <v>220.01</v>
@@ -9989,21 +9986,21 @@
         <v>230</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C51" s="2">
         <v>280.01</v>
@@ -10018,13 +10015,13 @@
         <v>230</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.35">
@@ -10032,10 +10029,10 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C53" s="2">
         <v>0</v>
@@ -10050,21 +10047,21 @@
         <v>230</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J53" s="1">
         <v>25.4</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C54" s="2">
         <v>15.01</v>
@@ -10079,21 +10076,21 @@
         <v>230</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J54" s="1">
         <v>25.4</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="C55" s="2">
         <v>62.01</v>
@@ -10108,13 +10105,13 @@
         <v>230</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J55" s="1">
         <v>25.4</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.35">
@@ -10125,10 +10122,10 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C58" s="2">
         <v>0</v>
@@ -10144,19 +10141,19 @@
         <v>240</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J58" s="1">
         <v>25.4</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N58">
         <v>450</v>
@@ -10167,10 +10164,10 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C59" s="2">
         <v>0</v>
@@ -10187,19 +10184,19 @@
         <v>415</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J59" s="1">
         <v>25.4</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N59">
         <v>370</v>
@@ -10210,10 +10207,10 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B60" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C60" s="2">
         <f>D59+0.01</f>
@@ -10231,19 +10228,19 @@
         <v>415</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J60" s="1">
         <v>25.4</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N60">
         <v>370</v>
@@ -10254,10 +10251,10 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B61" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C61" s="2">
         <f>D60+0.01</f>
@@ -10275,19 +10272,19 @@
         <v>415</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J61" s="1">
         <v>25.4</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N61">
         <v>370</v>
@@ -10298,10 +10295,10 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C62" s="2">
         <f>D61+0.01</f>
@@ -10319,19 +10316,19 @@
         <v>415</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J62" s="1">
         <v>25.4</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N62">
         <v>450</v>
@@ -10342,7 +10339,7 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B63"/>
       <c r="C63" s="2"/>
@@ -10351,7 +10348,7 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B64"/>
       <c r="C64" s="2"/>
@@ -10360,10 +10357,10 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B65" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C65" s="2">
         <f>D62+0.01</f>
@@ -10381,19 +10378,19 @@
         <v>415</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J65" s="1">
         <v>25.4</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N65">
         <v>450</v>
@@ -10404,10 +10401,10 @@
     </row>
     <row r="67" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="67" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B67" s="67" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C67" s="68">
         <f t="shared" ref="C67:C68" si="2">D66+0.01</f>
@@ -10423,19 +10420,19 @@
         <v>415</v>
       </c>
       <c r="G67" s="68" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H67" s="68" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I67" s="68" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J67" s="68">
         <v>30</v>
       </c>
       <c r="K67" s="68" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L67" s="68">
         <v>8</v>
@@ -10445,10 +10442,10 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B68" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C68" s="1">
         <f t="shared" si="2"/>
@@ -10464,19 +10461,19 @@
         <v>415</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J68" s="1">
         <v>30</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L68" s="1">
         <v>8</v>
@@ -10490,10 +10487,10 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B69" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C69" s="1">
         <f>D68+0.01</f>
@@ -10509,19 +10506,19 @@
         <v>415</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J69" s="1">
         <v>30</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L69" s="1">
         <v>8</v>
@@ -10535,10 +10532,10 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C70" s="1">
         <f t="shared" ref="C70:C78" si="3">D69+0.01</f>
@@ -10554,19 +10551,19 @@
         <v>415</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J70" s="1">
         <v>40</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L70" s="1">
         <v>9</v>
@@ -10580,10 +10577,10 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B71" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C71" s="1">
         <f t="shared" si="3"/>
@@ -10599,19 +10596,19 @@
         <v>415</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J71" s="1">
         <v>40</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L71" s="1">
         <v>9</v>
@@ -10625,10 +10622,10 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B72" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C72" s="1">
         <f t="shared" si="3"/>
@@ -10644,19 +10641,19 @@
         <v>415</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J72" s="1">
         <v>40</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L72" s="1">
         <v>9</v>
@@ -10670,10 +10667,10 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
+        <v>253</v>
+      </c>
+      <c r="B73" t="s">
         <v>254</v>
-      </c>
-      <c r="B73" t="s">
-        <v>255</v>
       </c>
       <c r="C73" s="1">
         <f t="shared" si="3"/>
@@ -10689,19 +10686,19 @@
         <v>415</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J73" s="1">
         <v>40</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L73" s="1">
         <v>9</v>
@@ -10712,10 +10709,10 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B74" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C74" s="1">
         <f t="shared" si="3"/>
@@ -10731,19 +10728,19 @@
         <v>415</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J74" s="1">
         <v>55</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L74" s="1">
         <v>9</v>
@@ -10757,10 +10754,10 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B75" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C75" s="1">
         <f t="shared" si="3"/>
@@ -10776,19 +10773,19 @@
         <v>415</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J75" s="1">
         <v>55</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L75" s="1">
         <v>7</v>
@@ -10796,10 +10793,10 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B76" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C76" s="1">
         <f t="shared" si="3"/>
@@ -10815,19 +10812,19 @@
         <v>415</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J76" s="1">
         <v>55</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L76" s="1">
         <v>7</v>
@@ -10841,10 +10838,10 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B77" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C77" s="1">
         <f t="shared" si="3"/>
@@ -10860,19 +10857,19 @@
         <v>415</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J77" s="1">
         <v>55</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L77" s="1">
         <v>7</v>
@@ -10886,10 +10883,10 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B78" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C78" s="1">
         <f t="shared" si="3"/>
@@ -10905,19 +10902,19 @@
         <v>415</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J78" s="1">
         <v>60</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L78" s="1">
         <v>7</v>
@@ -10931,10 +10928,10 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B79" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C79" s="1">
         <f t="shared" ref="C79:C82" si="4">D78+0.01</f>
@@ -10950,19 +10947,19 @@
         <v>415</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J79" s="1">
         <v>80</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L79" s="1">
         <v>9</v>
@@ -10976,10 +10973,10 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B80" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C80" s="1">
         <f t="shared" si="4"/>
@@ -10995,19 +10992,19 @@
         <v>415</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J80" s="1">
         <v>80</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L80" s="1">
         <v>9</v>
@@ -11021,10 +11018,10 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B81" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C81" s="1">
         <f t="shared" si="4"/>
@@ -11040,19 +11037,19 @@
         <v>415</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J81" s="1">
         <v>80</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L81" s="1">
         <v>9</v>
@@ -11066,10 +11063,10 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C82" s="1">
         <f t="shared" si="4"/>
@@ -11085,19 +11082,19 @@
         <v>415</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J82" s="1">
         <v>100</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L82" s="1">
         <v>10</v>
@@ -11111,10 +11108,10 @@
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B83" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C83" s="1">
         <f t="shared" ref="C83:C88" si="5">D82+0.01</f>
@@ -11130,19 +11127,19 @@
         <v>415</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J83" s="1">
         <v>101</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L83" s="1">
         <v>9</v>
@@ -11156,10 +11153,10 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C85" s="1">
         <f t="shared" si="5"/>
@@ -11175,19 +11172,19 @@
         <v>230</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J85" s="1">
         <v>30</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L85" s="1">
         <v>8</v>
@@ -11198,10 +11195,10 @@
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C86" s="1">
         <f t="shared" si="5"/>
@@ -11217,19 +11214,19 @@
         <v>230</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J86" s="1">
         <v>30</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L86" s="1">
         <v>8</v>
@@ -11240,10 +11237,10 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C87" s="1">
         <f t="shared" si="5"/>
@@ -11259,19 +11256,19 @@
         <v>230</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J87" s="1">
         <v>30</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L87" s="1">
         <v>7</v>
@@ -11282,10 +11279,10 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C88" s="1">
         <f t="shared" si="5"/>
@@ -11301,19 +11298,19 @@
         <v>230</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J88" s="1">
         <v>40</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L88" s="1">
         <v>5</v>
@@ -11351,45 +11348,45 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" t="s">
         <v>89</v>
       </c>
-      <c r="C2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>90</v>
       </c>
-      <c r="E2" t="s">
-        <v>91</v>
-      </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
         <v>115</v>
       </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>116</v>
       </c>
-      <c r="J2" t="s">
-        <v>117</v>
-      </c>
       <c r="K2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B4">
         <v>12</v>
@@ -11421,7 +11418,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B5">
         <v>15</v>
@@ -11453,7 +11450,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B6">
         <v>19</v>
@@ -11485,7 +11482,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7">
         <v>12</v>
@@ -11517,7 +11514,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8">
         <v>15</v>
@@ -11549,7 +11546,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B9">
         <v>19</v>
@@ -11562,7 +11559,7 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F9">
         <v>70</v>
@@ -11584,7 +11581,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B11">
         <v>12</v>
@@ -11616,7 +11613,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B12">
         <v>15</v>
@@ -11648,7 +11645,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B13">
         <v>19</v>
@@ -11680,7 +11677,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B14">
         <v>12</v>
@@ -11712,7 +11709,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B15">
         <v>15</v>
@@ -11744,7 +11741,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B16">
         <v>19</v>
@@ -11757,7 +11754,7 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F16">
         <v>90</v>
@@ -11779,7 +11776,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B18">
         <v>12</v>
@@ -11811,7 +11808,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B19">
         <v>15</v>
@@ -11843,7 +11840,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -11875,7 +11872,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B21">
         <v>12</v>
@@ -11907,7 +11904,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B22">
         <v>15</v>
@@ -11939,7 +11936,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B23">
         <v>19</v>
@@ -11952,7 +11949,7 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F23">
         <v>90</v>
@@ -11974,7 +11971,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B25">
         <v>12</v>
@@ -12006,7 +12003,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B26">
         <v>15</v>
@@ -12038,7 +12035,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B27">
         <v>19</v>
@@ -12070,7 +12067,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B28">
         <v>12</v>
@@ -12102,7 +12099,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B29">
         <v>15</v>
@@ -12134,7 +12131,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B30">
         <v>19</v>
@@ -12147,7 +12144,7 @@
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F30">
         <v>140</v>
@@ -12172,7 +12169,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B32">
         <v>12</v>
@@ -12181,7 +12178,7 @@
         <v>48</v>
       </c>
       <c r="E32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F32">
         <v>150</v>
@@ -12196,7 +12193,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B33">
         <v>12</v>
@@ -12205,7 +12202,7 @@
         <v>57</v>
       </c>
       <c r="E33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F33">
         <v>150</v>
@@ -12220,7 +12217,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F34">
         <v>150</v>
@@ -12235,7 +12232,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F35">
         <v>150</v>
@@ -12250,7 +12247,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F36">
         <v>150</v>
@@ -12265,7 +12262,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B38">
         <v>12</v>
@@ -12297,7 +12294,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B39">
         <v>15</v>
@@ -12329,7 +12326,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B40">
         <v>19</v>
@@ -12361,7 +12358,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B41">
         <v>12</v>
@@ -12393,7 +12390,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B42">
         <v>15</v>
@@ -12425,7 +12422,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B43">
         <v>19</v>
@@ -12438,7 +12435,7 @@
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F43">
         <v>220</v>
@@ -12487,33 +12484,33 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B2" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>234</v>
-      </c>
       <c r="F2" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G2" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>247</v>
-      </c>
       <c r="I2" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="6">
         <v>15</v>
@@ -12540,7 +12537,7 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="6">
         <v>19</v>
@@ -12567,7 +12564,7 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="64" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C5" s="6">
         <v>12</v>
@@ -12579,7 +12576,7 @@
         <v>57</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G5" s="6">
         <v>22400</v>
@@ -12594,7 +12591,7 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="64" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C6" s="6">
         <v>18</v>
@@ -12606,7 +12603,7 @@
         <v>57</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G6" s="6">
         <v>22400</v>
@@ -12621,7 +12618,7 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C7" s="6">
         <v>12</v>
@@ -12633,7 +12630,7 @@
         <v>57</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G7" s="6">
         <v>29000</v>
@@ -12648,7 +12645,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C8" s="6">
         <v>15</v>
@@ -12660,7 +12657,7 @@
         <v>57</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G8" s="6">
         <v>29000</v>
@@ -12675,7 +12672,7 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C9" s="6">
         <v>15</v>
@@ -12687,7 +12684,7 @@
         <v>57</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G9" s="6">
         <v>60000</v>
@@ -12701,7 +12698,7 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C10" s="6">
         <v>15</v>
@@ -12713,7 +12710,7 @@
         <v>57</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G10" s="6">
         <v>95000</v>

--- a/Calculations gfa.xlsx
+++ b/Calculations gfa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\SWS_logic_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C897F0-ECC8-4751-8407-A5F2F85FD78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4943860-45D8-4C64-AB63-0B0A699D06D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11680" yWindow="1270" windowWidth="23760" windowHeight="18780" tabRatio="758" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13420" yWindow="1100" windowWidth="23760" windowHeight="18780" tabRatio="758" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -504,7 +504,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="347">
   <si>
     <t>Name</t>
   </si>
@@ -1542,6 +1542,9 @@
   </si>
   <si>
     <t>MWF30-38-12</t>
+  </si>
+  <si>
+    <t>Ratio</t>
   </si>
 </sst>
 </file>
@@ -8343,7 +8346,7 @@
   <dimension ref="A1:P88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -11328,7 +11331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1E18F3-2DFA-476D-A4F8-F41E93C21C92}">
   <dimension ref="A2:L43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
@@ -12463,10 +12466,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BBB0E4-3072-46AD-B687-93FC8399DD89}">
-  <dimension ref="A2:I18"/>
+  <dimension ref="A2:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12480,9 +12483,10 @@
     <col min="7" max="7" width="20.26953125" style="6" customWidth="1"/>
     <col min="8" max="8" width="15.54296875" style="6" customWidth="1"/>
     <col min="9" max="9" width="18.54296875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="9" t="s">
         <v>231</v>
       </c>
@@ -12507,8 +12511,11 @@
       <c r="I2" s="9" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J2" s="9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>91</v>
       </c>
@@ -12534,8 +12541,12 @@
       <c r="I3" s="6">
         <v>18000</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J3" s="6">
+        <f>E3/C3</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="s">
         <v>91</v>
       </c>
@@ -12561,8 +12572,12 @@
       <c r="I4" s="6">
         <v>18000</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J4" s="6">
+        <f t="shared" ref="J4:J10" si="0">E4/C4</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="64" t="s">
         <v>234</v>
       </c>
@@ -12588,8 +12603,12 @@
       <c r="I5" s="6">
         <v>22400</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J5" s="6">
+        <f t="shared" si="0"/>
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6" s="64" t="s">
         <v>234</v>
       </c>
@@ -12615,8 +12634,12 @@
       <c r="I6" s="6">
         <v>22400</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J6" s="6">
+        <f t="shared" si="0"/>
+        <v>3.1666666666666665</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
         <v>237</v>
       </c>
@@ -12642,8 +12665,12 @@
       <c r="I7" s="6">
         <v>29000</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J7" s="6">
+        <f t="shared" si="0"/>
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>237</v>
       </c>
@@ -12669,8 +12696,12 @@
       <c r="I8" s="6">
         <v>29000</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J8" s="6">
+        <f t="shared" si="0"/>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
         <v>239</v>
       </c>
@@ -12695,8 +12726,12 @@
       <c r="I9" s="6">
         <v>60000</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J9" s="6">
+        <f t="shared" si="0"/>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
         <v>241</v>
       </c>
@@ -12722,8 +12757,12 @@
       <c r="I10" s="6">
         <v>95000</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J10" s="6">
+        <f t="shared" si="0"/>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="65"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.35">

--- a/Calculations gfa.xlsx
+++ b/Calculations gfa.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\SWS_logic_calculator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robh\Documents\GitHub\SWS_logic_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4943860-45D8-4C64-AB63-0B0A699D06D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7612D4-D732-4A86-A767-06A5B23B08AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13420" yWindow="1100" windowWidth="23760" windowHeight="18780" tabRatio="758" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="880" windowWidth="25520" windowHeight="15120" tabRatio="758" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -27,6 +27,9 @@
     <sheet name="Endplate" sheetId="13" r:id="rId12"/>
     <sheet name="Wicket doors" sheetId="14" r:id="rId13"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Motors!$A$1:$P$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1421,12 +1424,6 @@
     <t>Main</t>
   </si>
   <si>
-    <t>CD150</t>
-  </si>
-  <si>
-    <t>CD38</t>
-  </si>
-  <si>
     <t>CD38 perforated</t>
   </si>
   <si>
@@ -1451,9 +1448,6 @@
     <t>CD38 punched &amp; glazed</t>
   </si>
   <si>
-    <t>CD60</t>
-  </si>
-  <si>
     <t>CD80 solid</t>
   </si>
   <si>
@@ -1463,12 +1457,6 @@
     <t>CD80 punched and glazed</t>
   </si>
   <si>
-    <t>CD90</t>
-  </si>
-  <si>
-    <t>CD77</t>
-  </si>
-  <si>
     <t>Insulation value</t>
   </si>
   <si>
@@ -1545,13 +1533,29 @@
   </si>
   <si>
     <t>Ratio</t>
+  </si>
+  <si>
+    <t>CD77 5 Kgs/m2</t>
+  </si>
+  <si>
+    <t>CD90 7 Kgs/m2</t>
+  </si>
+  <si>
+    <t>CD60 9 Kgs/m2</t>
+  </si>
+  <si>
+    <t>CD38 8 Kgs/m2</t>
+  </si>
+  <si>
+    <t>CD150 4 Kgs/m2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
@@ -1772,7 +1776,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2001,6 +2005,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1 2" xfId="1" xr:uid="{4B6C72F7-C4CA-450E-9C13-94CEF72F8B8D}"/>
@@ -5573,8 +5585,8 @@
   <dimension ref="A1:P213"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5636,15 +5648,15 @@
         <v>136</v>
       </c>
       <c r="O1" s="73" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="P1" s="74" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="43" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B2" s="5">
         <v>9.1999999999999993</v>
@@ -5681,15 +5693,15 @@
         <v>139</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P2" s="75" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="49" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B3" s="23">
         <v>9.1999999999999993</v>
@@ -5722,15 +5734,15 @@
         <v>139</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P3" s="75" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="43" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B4" s="5">
         <v>11.68</v>
@@ -5763,15 +5775,15 @@
         <v>139</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P4" s="75" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="49" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B5" s="23">
         <v>11.68</v>
@@ -5804,15 +5816,15 @@
         <v>139</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P5" s="75" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="43" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B6" s="4">
         <v>15.31</v>
@@ -5845,15 +5857,15 @@
         <v>139</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P6" s="75" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="49" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B7" s="24">
         <v>13.51</v>
@@ -5886,10 +5898,10 @@
         <v>139</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P7" s="75" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -5937,10 +5949,10 @@
         <v>139</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P9" s="75" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -5978,10 +5990,10 @@
         <v>139</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P10" s="75" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6019,10 +6031,10 @@
         <v>139</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P11" s="75" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6060,10 +6072,10 @@
         <v>139</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P12" s="75" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6101,10 +6113,10 @@
         <v>139</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P13" s="75" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6142,10 +6154,10 @@
         <v>139</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P14" s="75" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6163,7 +6175,7 @@
     </row>
     <row r="16" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="43" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B16" s="5">
         <v>7.5</v>
@@ -6196,15 +6208,15 @@
         <v>139</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P16" s="75" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="49" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B17" s="23">
         <v>7.5</v>
@@ -6237,15 +6249,15 @@
         <v>139</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P17" s="75" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="43" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B18" s="5">
         <v>9.6999999999999993</v>
@@ -6278,15 +6290,15 @@
         <v>139</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P18" s="75" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="49" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B19" s="23">
         <v>9.6999999999999993</v>
@@ -6319,10 +6331,10 @@
         <v>139</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P19" s="75" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6368,10 +6380,10 @@
         <v>139</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="P21" s="75" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6422,7 +6434,7 @@
         <v>3.2</v>
       </c>
       <c r="P23" s="75" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6463,7 +6475,7 @@
         <v>3.2</v>
       </c>
       <c r="P24" s="75" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6499,10 +6511,10 @@
         <v>139</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="P25" s="75" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6520,7 +6532,7 @@
     </row>
     <row r="27" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="43" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B27" s="5">
         <v>22</v>
@@ -6558,7 +6570,7 @@
         <v>4.3</v>
       </c>
       <c r="P27" s="75" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6573,7 +6585,7 @@
     </row>
     <row r="29" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="43" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="B29" s="5">
         <v>4</v>
@@ -6599,15 +6611,15 @@
         <v>299</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="P29" s="75" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="43" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="B30" s="5">
         <v>8</v>
@@ -6633,15 +6645,15 @@
         <v>299</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="P30" s="75" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="43" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B31" s="5">
         <v>6.5</v>
@@ -6667,15 +6679,15 @@
         <v>299</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="P31" s="75" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="43" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B32" s="5">
         <v>6.5</v>
@@ -6701,15 +6713,15 @@
         <v>299</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="P32" s="75" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="43" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B33" s="5">
         <v>7.5</v>
@@ -6735,15 +6747,15 @@
         <v>299</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="P33" s="75" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="43" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="B34" s="5">
         <v>9</v>
@@ -6769,15 +6781,15 @@
         <v>299</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="P34" s="75" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="43" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B35" s="51">
         <v>9.25</v>
@@ -6803,15 +6815,15 @@
         <v>299</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="P35" s="75" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="43" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B36" s="51">
         <v>7</v>
@@ -6837,15 +6849,15 @@
         <v>299</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="P36" s="75" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="43" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B37" s="51">
         <v>8</v>
@@ -6871,15 +6883,15 @@
         <v>299</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="P37" s="75" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="43" t="s">
-        <v>319</v>
+        <v>343</v>
       </c>
       <c r="B38" s="51">
         <v>7</v>
@@ -6908,7 +6920,7 @@
         <v>56</v>
       </c>
       <c r="P38" s="75" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6923,7 +6935,7 @@
     </row>
     <row r="40" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="43" t="s">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="B40" s="51">
         <v>5</v>
@@ -6949,10 +6961,10 @@
         <v>299</v>
       </c>
       <c r="O40" s="6" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="P40" s="75" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7140,7 +7152,7 @@
   <dimension ref="B1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7166,7 +7178,7 @@
         <v>294</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G1" t="s">
         <v>303</v>
@@ -7447,7 +7459,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="76" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C12">
         <v>58</v>
@@ -7458,7 +7470,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C13">
         <v>65</v>
@@ -7469,7 +7481,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C14">
         <v>96</v>
@@ -7480,7 +7492,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C15">
         <v>114</v>
@@ -7667,7 +7679,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B12" s="6">
         <v>60</v>
@@ -7681,7 +7693,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B13" s="6">
         <v>75</v>
@@ -7695,7 +7707,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B14" s="6">
         <v>90</v>
@@ -8343,11 +8355,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB77DDB-B6D9-4CBA-9145-50EF6FDCE517}">
-  <dimension ref="A1:P88"/>
+  <dimension ref="A1:R89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9913,7 +9925,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>43</v>
@@ -9942,7 +9954,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>43</v>
@@ -9971,7 +9983,7 @@
     </row>
     <row r="50" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>43</v>
@@ -10000,7 +10012,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>43</v>
@@ -10141,7 +10153,7 @@
         <v>8</v>
       </c>
       <c r="F58" s="1">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>113</v>
@@ -10358,7 +10370,7 @@
       <c r="D64" s="38"/>
       <c r="E64" s="2"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>179</v>
       </c>
@@ -10402,7 +10414,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:18" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="67" t="s">
         <v>252</v>
       </c>
@@ -10442,8 +10454,11 @@
       </c>
       <c r="M67" s="68"/>
       <c r="O67" s="68"/>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R67" s="79">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>38</v>
       </c>
@@ -10487,8 +10502,11 @@
       <c r="P68">
         <v>20</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R68" s="80">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>39</v>
       </c>
@@ -10532,8 +10550,11 @@
       <c r="P69">
         <v>20</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R69" s="80">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>40</v>
       </c>
@@ -10577,8 +10598,11 @@
       <c r="P70">
         <v>20</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R70" s="80">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>41</v>
       </c>
@@ -10623,7 +10647,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>42</v>
       </c>
@@ -10668,7 +10692,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>253</v>
       </c>
@@ -10710,52 +10734,54 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+    <row r="74" spans="1:18" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="68">
         <f t="shared" si="3"/>
         <v>650.01</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D74" s="77">
         <v>750</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E74" s="77">
         <v>15</v>
       </c>
-      <c r="F74" s="1">
+      <c r="F74" s="68">
         <v>415</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="G74" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="H74" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="I74" s="1" t="s">
+      <c r="I74" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="J74" s="1">
+      <c r="J74" s="68">
         <v>55</v>
       </c>
-      <c r="K74" s="1" t="s">
+      <c r="K74" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="L74" s="1">
+      <c r="L74" s="68">
         <v>9</v>
       </c>
-      <c r="N74">
+      <c r="M74" s="68"/>
+      <c r="N74" s="69">
         <v>1100</v>
       </c>
-      <c r="P74">
+      <c r="O74" s="68"/>
+      <c r="P74" s="69">
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>255</v>
       </c>
@@ -10794,7 +10820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>37</v>
       </c>
@@ -10839,7 +10865,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>256</v>
       </c>
@@ -10884,331 +10910,301 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+    <row r="78" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="78">
         <f t="shared" si="3"/>
         <v>1400.01</v>
       </c>
-      <c r="D78" s="6">
+      <c r="D78" s="72">
         <v>1800</v>
       </c>
-      <c r="E78" s="6">
+      <c r="E78" s="72">
         <v>6</v>
       </c>
-      <c r="F78" s="1">
+      <c r="F78" s="78">
         <v>415</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="G78" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="H78" s="1" t="s">
+      <c r="H78" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="I78" s="1" t="s">
+      <c r="I78" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="J78" s="1">
+      <c r="J78" s="78">
         <v>60</v>
       </c>
-      <c r="K78" s="1" t="s">
+      <c r="K78" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="L78" s="1">
+      <c r="L78" s="78">
         <v>7</v>
       </c>
-      <c r="N78">
+      <c r="M78" s="78"/>
+      <c r="N78" s="39">
         <v>1300</v>
       </c>
-      <c r="P78">
+      <c r="O78" s="78"/>
+      <c r="P78" s="39">
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+    <row r="79" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79" s="78">
         <f t="shared" ref="C79:C82" si="4">D78+0.01</f>
         <v>1800.01</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D79" s="78">
         <v>2600</v>
       </c>
-      <c r="E79" s="1">
+      <c r="E79" s="78">
         <v>5</v>
       </c>
-      <c r="F79" s="1">
+      <c r="F79" s="78">
         <v>415</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="G79" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="H79" s="1" t="s">
+      <c r="H79" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="I79" s="1" t="s">
+      <c r="I79" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="J79" s="1">
+      <c r="J79" s="78">
         <v>80</v>
       </c>
-      <c r="K79" s="1" t="s">
+      <c r="K79" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="L79" s="1">
+      <c r="L79" s="78">
         <v>9</v>
       </c>
-      <c r="N79">
+      <c r="M79" s="78"/>
+      <c r="N79" s="39">
         <v>1500</v>
       </c>
-      <c r="P79">
+      <c r="O79" s="78"/>
+      <c r="P79" s="39">
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+    <row r="80" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80" s="78">
         <f t="shared" si="4"/>
         <v>2600.0100000000002</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80" s="78">
         <v>3600</v>
       </c>
-      <c r="E80" s="1">
+      <c r="E80" s="78">
         <v>5</v>
       </c>
-      <c r="F80" s="1">
+      <c r="F80" s="78">
         <v>415</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="G80" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="H80" s="1" t="s">
+      <c r="H80" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="I80" s="1" t="s">
+      <c r="I80" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="J80" s="1">
+      <c r="J80" s="78">
         <v>80</v>
       </c>
-      <c r="K80" s="1" t="s">
+      <c r="K80" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="L80" s="1">
+      <c r="L80" s="78">
         <v>9</v>
       </c>
-      <c r="N80">
+      <c r="M80" s="78"/>
+      <c r="N80" s="39">
         <v>3000</v>
       </c>
-      <c r="P80">
+      <c r="O80" s="78"/>
+      <c r="P80" s="39">
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+    <row r="81" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81" s="78">
         <f t="shared" si="4"/>
         <v>3600.01</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81" s="78">
         <v>3600</v>
       </c>
-      <c r="E81" s="1">
+      <c r="E81" s="78">
         <v>9</v>
       </c>
-      <c r="F81" s="1">
+      <c r="F81" s="78">
         <v>415</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="G81" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="H81" s="1" t="s">
+      <c r="H81" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="I81" s="1" t="s">
+      <c r="I81" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="J81" s="1">
+      <c r="J81" s="78">
         <v>80</v>
       </c>
-      <c r="K81" s="1" t="s">
+      <c r="K81" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="L81" s="1">
+      <c r="L81" s="78">
         <v>9</v>
       </c>
-      <c r="N81">
+      <c r="M81" s="78"/>
+      <c r="N81" s="39">
         <v>3000</v>
       </c>
-      <c r="P81">
+      <c r="O81" s="78"/>
+      <c r="P81" s="39">
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+    <row r="82" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="78">
         <f t="shared" si="4"/>
         <v>3600.01</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D82" s="78">
         <v>4800</v>
       </c>
-      <c r="E82" s="1">
+      <c r="E82" s="78">
         <v>9</v>
       </c>
-      <c r="F82" s="1">
+      <c r="F82" s="78">
         <v>415</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="G82" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="H82" s="1" t="s">
+      <c r="H82" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="I82" s="1" t="s">
+      <c r="I82" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="J82" s="1">
+      <c r="J82" s="78">
         <v>100</v>
       </c>
-      <c r="K82" s="1" t="s">
+      <c r="K82" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="L82" s="1">
+      <c r="L82" s="78">
         <v>10</v>
       </c>
-      <c r="N82">
+      <c r="M82" s="78"/>
+      <c r="N82" s="39">
         <v>3000</v>
       </c>
-      <c r="P82">
+      <c r="O82" s="78"/>
+      <c r="P82" s="39">
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
+    <row r="83" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="C83" s="1">
-        <f t="shared" ref="C83:C88" si="5">D82+0.01</f>
+      <c r="C83" s="78">
+        <f t="shared" ref="C83" si="5">D82+0.01</f>
         <v>4800.01</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D83" s="78">
         <v>5000</v>
       </c>
-      <c r="E83" s="1">
+      <c r="E83" s="78">
         <v>5</v>
       </c>
-      <c r="F83" s="1">
+      <c r="F83" s="78">
         <v>415</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="G83" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="H83" s="1" t="s">
+      <c r="H83" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="I83" s="1" t="s">
+      <c r="I83" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="J83" s="1">
+      <c r="J83" s="78">
         <v>101</v>
       </c>
-      <c r="K83" s="1" t="s">
+      <c r="K83" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="L83" s="1">
+      <c r="L83" s="78">
         <v>9</v>
       </c>
-      <c r="N83">
+      <c r="M83" s="78"/>
+      <c r="N83" s="39">
         <v>2500</v>
       </c>
-      <c r="P83">
+      <c r="O83" s="78"/>
+      <c r="P83" s="39">
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A85" s="3" t="s">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A86" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C85" s="1">
-        <f t="shared" si="5"/>
-        <v>0.01</v>
-      </c>
-      <c r="D85" s="1">
-        <v>170</v>
-      </c>
-      <c r="E85" s="1">
-        <v>10</v>
-      </c>
-      <c r="F85" s="1">
-        <v>230</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J85" s="1">
-        <v>30</v>
-      </c>
-      <c r="K85" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L85" s="1">
-        <v>8</v>
-      </c>
-      <c r="N85" s="1"/>
-      <c r="O85"/>
-      <c r="P85" s="1"/>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A86" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C86" s="1">
-        <f t="shared" si="5"/>
-        <v>170.01</v>
+        <f>D84+0.01</f>
+        <v>0.01</v>
       </c>
       <c r="D86" s="1">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="E86" s="1">
         <v>10</v>
@@ -11237,23 +11233,26 @@
       <c r="N86" s="1"/>
       <c r="O86"/>
       <c r="P86" s="1"/>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R86">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C87" s="1">
-        <f t="shared" si="5"/>
-        <v>250.01</v>
+        <f>D86+0.01</f>
+        <v>170.01</v>
       </c>
       <c r="D87" s="1">
         <v>250</v>
       </c>
       <c r="E87" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F87" s="1">
         <v>230</v>
@@ -11274,28 +11273,31 @@
         <v>56</v>
       </c>
       <c r="L87" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N87" s="1"/>
       <c r="O87"/>
       <c r="P87" s="1"/>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R87">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C88" s="1">
-        <f t="shared" si="5"/>
+        <f>D87+0.01</f>
         <v>250.01</v>
       </c>
       <c r="D88" s="1">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="E88" s="1">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F88" s="1">
         <v>230</v>
@@ -11310,16 +11312,61 @@
         <v>95</v>
       </c>
       <c r="J88" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K88" s="1" t="s">
         <v>56</v>
       </c>
       <c r="L88" s="1">
+        <v>7</v>
+      </c>
+      <c r="N88" s="1"/>
+      <c r="O88"/>
+      <c r="P88" s="1"/>
+    </row>
+    <row r="89" spans="1:18" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="67" t="s">
+        <v>260</v>
+      </c>
+      <c r="B89" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="C89" s="68">
+        <f>D88+0.01</f>
+        <v>250.01</v>
+      </c>
+      <c r="D89" s="68">
+        <v>450</v>
+      </c>
+      <c r="E89" s="68">
+        <v>7</v>
+      </c>
+      <c r="F89" s="68">
+        <v>230</v>
+      </c>
+      <c r="G89" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="H89" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="I89" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="J89" s="68">
+        <v>40</v>
+      </c>
+      <c r="K89" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="L89" s="68">
         <v>5</v>
       </c>
+      <c r="M89" s="68"/>
+      <c r="O89" s="68"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:P1" xr:uid="{5FB77DDB-B6D9-4CBA-9145-50EF6FDCE517}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -12512,7 +12559,7 @@
         <v>281</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">

--- a/Calculations gfa.xlsx
+++ b/Calculations gfa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robh\Documents\GitHub\SWS_logic_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7612D4-D732-4A86-A767-06A5B23B08AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9145258-0AB5-42B3-A92E-477CDE1CC1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="880" windowWidth="25520" windowHeight="15120" tabRatio="758" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="760" windowWidth="25520" windowHeight="15120" tabRatio="758" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -507,7 +507,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="348">
   <si>
     <t>Name</t>
   </si>
@@ -1548,6 +1548,9 @@
   </si>
   <si>
     <t>CD150 4 Kgs/m2</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
   </si>
 </sst>
 </file>
@@ -8381,7 +8384,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>50</v>
+        <v>347</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>30</v>

--- a/Calculations gfa.xlsx
+++ b/Calculations gfa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robh\Documents\GitHub\SWS_logic_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9145258-0AB5-42B3-A92E-477CDE1CC1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7718D84-FA87-41CF-BD97-7F472D55E8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="760" windowWidth="25520" windowHeight="15120" tabRatio="758" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="880" windowWidth="25520" windowHeight="15120" tabRatio="758" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -8361,8 +8361,8 @@
   <dimension ref="A1:R89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B72" sqref="B72:B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10700,7 +10700,7 @@
         <v>253</v>
       </c>
       <c r="B73" t="s">
-        <v>254</v>
+        <v>97</v>
       </c>
       <c r="C73" s="1">
         <f t="shared" si="3"/>

--- a/Calculations gfa.xlsx
+++ b/Calculations gfa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robh\Documents\GitHub\SWS_logic_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7718D84-FA87-41CF-BD97-7F472D55E8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4825E7F5-6EE3-408A-8D76-123493189038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="880" windowWidth="25520" windowHeight="15120" tabRatio="758" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -507,7 +507,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="347">
   <si>
     <t>Name</t>
   </si>
@@ -1269,9 +1269,6 @@
   </si>
   <si>
     <t>GA65/15GD</t>
-  </si>
-  <si>
-    <t>GfA</t>
   </si>
   <si>
     <t>GA85/10GD</t>
@@ -5400,7 +5397,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B16" s="6">
         <v>135</v>
@@ -5409,7 +5406,7 @@
         <v>50</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E16" s="6">
         <v>10</v>
@@ -5421,7 +5418,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B17" s="6">
         <v>180</v>
@@ -5430,7 +5427,7 @@
         <v>50</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E17" s="6">
         <v>10</v>
@@ -5442,7 +5439,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B18" s="6">
         <v>205</v>
@@ -5451,7 +5448,7 @@
         <v>50</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E18" s="6">
         <v>10</v>
@@ -5463,7 +5460,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="40" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B19" s="6">
         <v>250</v>
@@ -5472,7 +5469,7 @@
         <v>50</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E19" s="6">
         <v>10</v>
@@ -5484,7 +5481,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="40" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B20" s="6">
         <v>300</v>
@@ -5493,7 +5490,7 @@
         <v>50</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E20" s="6">
         <v>10</v>
@@ -5505,7 +5502,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="40" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B21" s="6">
         <v>350</v>
@@ -5514,7 +5511,7 @@
         <v>50</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E21" s="6">
         <v>10</v>
@@ -5633,7 +5630,7 @@
         <v>169</v>
       </c>
       <c r="I1" s="61" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J1" s="61" t="s">
         <v>225</v>
@@ -5645,21 +5642,21 @@
         <v>216</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>136</v>
       </c>
       <c r="O1" s="73" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P1" s="74" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="43" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B2" s="5">
         <v>9.1999999999999993</v>
@@ -5696,15 +5693,15 @@
         <v>139</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P2" s="75" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="49" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B3" s="23">
         <v>9.1999999999999993</v>
@@ -5737,15 +5734,15 @@
         <v>139</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P3" s="75" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="43" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B4" s="5">
         <v>11.68</v>
@@ -5778,15 +5775,15 @@
         <v>139</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P4" s="75" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="49" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B5" s="23">
         <v>11.68</v>
@@ -5819,15 +5816,15 @@
         <v>139</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P5" s="75" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="43" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B6" s="4">
         <v>15.31</v>
@@ -5860,15 +5857,15 @@
         <v>139</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P6" s="75" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="49" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B7" s="24">
         <v>13.51</v>
@@ -5901,10 +5898,10 @@
         <v>139</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P7" s="75" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -5952,10 +5949,10 @@
         <v>139</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P9" s="75" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -5993,10 +5990,10 @@
         <v>139</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P10" s="75" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6034,10 +6031,10 @@
         <v>139</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P11" s="75" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6075,10 +6072,10 @@
         <v>139</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P12" s="75" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6116,10 +6113,10 @@
         <v>139</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P13" s="75" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6157,10 +6154,10 @@
         <v>139</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P14" s="75" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6178,7 +6175,7 @@
     </row>
     <row r="16" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="43" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B16" s="5">
         <v>7.5</v>
@@ -6211,15 +6208,15 @@
         <v>139</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P16" s="75" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="49" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B17" s="23">
         <v>7.5</v>
@@ -6252,15 +6249,15 @@
         <v>139</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P17" s="75" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="43" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B18" s="5">
         <v>9.6999999999999993</v>
@@ -6293,15 +6290,15 @@
         <v>139</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P18" s="75" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="49" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B19" s="23">
         <v>9.6999999999999993</v>
@@ -6334,10 +6331,10 @@
         <v>139</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P19" s="75" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6383,10 +6380,10 @@
         <v>139</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P21" s="75" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6437,7 +6434,7 @@
         <v>3.2</v>
       </c>
       <c r="P23" s="75" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6478,7 +6475,7 @@
         <v>3.2</v>
       </c>
       <c r="P24" s="75" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6514,10 +6511,10 @@
         <v>139</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P25" s="75" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6535,7 +6532,7 @@
     </row>
     <row r="27" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="43" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B27" s="5">
         <v>22</v>
@@ -6573,7 +6570,7 @@
         <v>4.3</v>
       </c>
       <c r="P27" s="75" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6588,7 +6585,7 @@
     </row>
     <row r="29" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B29" s="5">
         <v>4</v>
@@ -6611,18 +6608,18 @@
         <v>111</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P29" s="75" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="43" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B30" s="5">
         <v>8</v>
@@ -6645,18 +6642,18 @@
         <v>111</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P30" s="75" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="43" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B31" s="5">
         <v>6.5</v>
@@ -6679,18 +6676,18 @@
         <v>111</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P31" s="75" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="43" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B32" s="5">
         <v>6.5</v>
@@ -6713,18 +6710,18 @@
         <v>111</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P32" s="75" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="43" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B33" s="5">
         <v>7.5</v>
@@ -6747,18 +6744,18 @@
         <v>111</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P33" s="75" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="43" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B34" s="5">
         <v>9</v>
@@ -6781,18 +6778,18 @@
         <v>111</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P34" s="75" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="43" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B35" s="51">
         <v>9.25</v>
@@ -6815,18 +6812,18 @@
         <v>111</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P35" s="75" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="43" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B36" s="51">
         <v>7</v>
@@ -6849,18 +6846,18 @@
         <v>111</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P36" s="75" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="43" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B37" s="51">
         <v>8</v>
@@ -6883,18 +6880,18 @@
         <v>111</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P37" s="75" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="43" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B38" s="51">
         <v>7</v>
@@ -6917,13 +6914,13 @@
         <v>111</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O38" s="6" t="s">
         <v>56</v>
       </c>
       <c r="P38" s="75" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6938,7 +6935,7 @@
     </row>
     <row r="40" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="43" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B40" s="51">
         <v>5</v>
@@ -6961,13 +6958,13 @@
         <v>111</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O40" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P40" s="75" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7169,33 +7166,33 @@
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" t="s">
         <v>286</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>287</v>
       </c>
-      <c r="D1" t="s">
-        <v>288</v>
-      </c>
       <c r="E1" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2" t="s">
         <v>289</v>
       </c>
-      <c r="C2" t="s">
-        <v>290</v>
-      </c>
       <c r="D2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E2" s="6">
         <v>20</v>
@@ -7204,18 +7201,18 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E3" s="6">
         <v>60</v>
@@ -7224,18 +7221,18 @@
         <v>7.5</v>
       </c>
       <c r="G3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E4" s="6">
         <v>235</v>
@@ -7244,18 +7241,18 @@
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E5" s="6">
         <v>10</v>
@@ -7264,18 +7261,18 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E6" s="72">
         <v>20</v>
@@ -7284,18 +7281,18 @@
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E7" s="72">
         <v>30</v>
@@ -7304,13 +7301,13 @@
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E11" s="72"/>
       <c r="F11" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -7462,7 +7459,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="76" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C12">
         <v>58</v>
@@ -7473,7 +7470,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C13">
         <v>65</v>
@@ -7484,7 +7481,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C14">
         <v>96</v>
@@ -7495,7 +7492,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C15">
         <v>114</v>
@@ -7535,7 +7532,7 @@
         <v>129</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>226</v>
@@ -7635,7 +7632,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -7647,7 +7644,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -7662,7 +7659,7 @@
         <v>24</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -7677,12 +7674,12 @@
         <v>37</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B12" s="6">
         <v>60</v>
@@ -7691,12 +7688,12 @@
         <v>27</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B13" s="6">
         <v>75</v>
@@ -7705,12 +7702,12 @@
         <v>32</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B14" s="6">
         <v>90</v>
@@ -7719,7 +7716,7 @@
         <v>57</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -7752,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>57</v>
@@ -7773,13 +7770,13 @@
         <v>36</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J1" s="15" t="s">
         <v>110</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L1" s="63" t="s">
         <v>229</v>
@@ -7787,13 +7784,13 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D2" s="15">
         <v>60</v>
@@ -7819,13 +7816,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>270</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>271</v>
       </c>
       <c r="D3" s="15">
         <v>70</v>
@@ -7851,13 +7848,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D4" s="15">
         <v>70</v>
@@ -7886,7 +7883,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>60</v>
@@ -7922,7 +7919,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>59</v>
@@ -7958,10 +7955,10 @@
         <v>230</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D7" s="15">
         <v>127</v>
@@ -7994,10 +7991,10 @@
         <v>157</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D8" s="34">
         <v>127</v>
@@ -8030,7 +8027,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>228</v>
@@ -8066,7 +8063,7 @@
         <v>156</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>58</v>
@@ -8102,7 +8099,7 @@
         <v>155</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>227</v>
@@ -8138,7 +8135,7 @@
         <v>154</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>61</v>
@@ -8174,7 +8171,7 @@
         <v>152</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>153</v>
@@ -8210,7 +8207,7 @@
         <v>86</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>84</v>
@@ -8246,7 +8243,7 @@
         <v>85</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C15" s="34"/>
       <c r="D15" s="35">
@@ -8280,7 +8277,7 @@
         <v>107</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C16" s="34"/>
       <c r="D16" s="35">
@@ -8314,7 +8311,7 @@
         <v>108</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C17" s="34"/>
       <c r="D17" s="35">
@@ -8361,8 +8358,8 @@
   <dimension ref="A1:R89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B72" sqref="B72:B73"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B76" sqref="B75:B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8384,7 +8381,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>30</v>
@@ -8414,7 +8411,7 @@
         <v>54</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M1" s="11" t="s">
         <v>109</v>
@@ -9928,7 +9925,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>43</v>
@@ -9957,7 +9954,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>43</v>
@@ -9986,7 +9983,7 @@
     </row>
     <row r="50" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>43</v>
@@ -10015,7 +10012,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>43</v>
@@ -10357,7 +10354,7 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B63"/>
       <c r="C63" s="2"/>
@@ -10366,7 +10363,7 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B64"/>
       <c r="C64" s="2"/>
@@ -10786,10 +10783,10 @@
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B75" t="s">
-        <v>254</v>
+        <v>97</v>
       </c>
       <c r="C75" s="1">
         <f t="shared" si="3"/>
@@ -10870,7 +10867,7 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B77" t="s">
         <v>97</v>
@@ -11197,7 +11194,7 @@
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>97</v>
@@ -11242,7 +11239,7 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>97</v>
@@ -11287,7 +11284,7 @@
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>97</v>
@@ -11329,7 +11326,7 @@
     </row>
     <row r="89" spans="1:18" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="67" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B89" s="67" t="s">
         <v>97</v>
@@ -12222,7 +12219,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B32">
         <v>12</v>
@@ -12246,7 +12243,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B33">
         <v>12</v>
@@ -12270,7 +12267,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F34">
         <v>150</v>
@@ -12285,7 +12282,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F35">
         <v>150</v>
@@ -12300,7 +12297,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F36">
         <v>150</v>
@@ -12559,10 +12556,10 @@
         <v>246</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">

--- a/Calculations gfa.xlsx
+++ b/Calculations gfa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robh\Documents\GitHub\SWS_logic_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4825E7F5-6EE3-408A-8D76-123493189038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669A5B3A-561A-4990-951D-E7122BA54D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="880" windowWidth="25520" windowHeight="15120" tabRatio="758" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="880" windowWidth="14810" windowHeight="15120" tabRatio="758" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -1499,24 +1499,6 @@
     <t xml:space="preserve">end lock offset </t>
   </si>
   <si>
-    <t>75mm  22swg, Solid 9.2kg/sqm</t>
-  </si>
-  <si>
-    <t>75mm Wind  22swg Solid 9.2kg/sqm</t>
-  </si>
-  <si>
-    <t>75mm 20swg, Solid 11.68kg/sqm</t>
-  </si>
-  <si>
-    <t>75mm Wind 20swg Solid 11.68kg/sqm</t>
-  </si>
-  <si>
-    <t>75mm 18swg, Solid 15.31kg/sqm</t>
-  </si>
-  <si>
-    <t>75mm Wind  18swg Solid 15.31kg/sqm</t>
-  </si>
-  <si>
     <t>MWF05-14-12</t>
   </si>
   <si>
@@ -1548,6 +1530,24 @@
   </si>
   <si>
     <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>75mm 20swg, Solid 12.1kg/sqm</t>
+  </si>
+  <si>
+    <t>75mm Wind 20swg Solid 12.1kg/sqm</t>
+  </si>
+  <si>
+    <t>75mm  22swg, Solid 9.4kg/sqm</t>
+  </si>
+  <si>
+    <t>75mm Wind  22swg Solid 9.4kg/sqm</t>
+  </si>
+  <si>
+    <t>75mm 18swg, Solid 16.1kg/sqm</t>
+  </si>
+  <si>
+    <t>75mm Wind  18swg Solid 16.1kg/sqm</t>
   </si>
 </sst>
 </file>
@@ -5584,9 +5584,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E91FF3-79AA-48A9-9F88-C48DFFEF60AE}">
   <dimension ref="A1:P213"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5656,10 +5656,10 @@
     </row>
     <row r="2" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="43" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="B2" s="5">
-        <v>9.1999999999999993</v>
+        <v>9.4</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5">
@@ -5701,10 +5701,10 @@
     </row>
     <row r="3" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="49" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="B3" s="23">
-        <v>9.1999999999999993</v>
+        <v>9.4</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23">
@@ -5742,10 +5742,10 @@
     </row>
     <row r="4" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="43" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="B4" s="5">
-        <v>11.68</v>
+        <v>12.1</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5">
@@ -5783,10 +5783,10 @@
     </row>
     <row r="5" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="49" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="B5" s="23">
-        <v>11.68</v>
+        <v>12.1</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="23">
@@ -5824,10 +5824,10 @@
     </row>
     <row r="6" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="43" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="B6" s="4">
-        <v>15.31</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5">
@@ -5865,10 +5865,10 @@
     </row>
     <row r="7" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="49" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="B7" s="24">
-        <v>13.51</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="23">
@@ -6585,7 +6585,7 @@
     </row>
     <row r="29" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="43" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B29" s="5">
         <v>4</v>
@@ -6619,7 +6619,7 @@
     </row>
     <row r="30" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="43" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B30" s="5">
         <v>8</v>
@@ -6755,7 +6755,7 @@
     </row>
     <row r="34" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="43" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B34" s="5">
         <v>9</v>
@@ -6891,7 +6891,7 @@
     </row>
     <row r="38" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="43" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B38" s="51">
         <v>7</v>
@@ -6935,7 +6935,7 @@
     </row>
     <row r="40" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="43" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B40" s="51">
         <v>5</v>
@@ -8357,7 +8357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB77DDB-B6D9-4CBA-9145-50EF6FDCE517}">
   <dimension ref="A1:R89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B76" sqref="B75:B76"/>
     </sheetView>
@@ -8381,7 +8381,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>30</v>
@@ -9925,7 +9925,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>43</v>
@@ -9954,7 +9954,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>43</v>
@@ -9983,7 +9983,7 @@
     </row>
     <row r="50" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>43</v>
@@ -10012,7 +10012,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>43</v>
@@ -12559,7 +12559,7 @@
         <v>280</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">

--- a/Calculations gfa.xlsx
+++ b/Calculations gfa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robh\Documents\GitHub\SWS_logic_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669A5B3A-561A-4990-951D-E7122BA54D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F8F1B3-FF8A-42B1-8637-2C5C71A1955A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="880" windowWidth="14810" windowHeight="15120" tabRatio="758" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="440" windowWidth="23540" windowHeight="15120" tabRatio="758" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -265,6 +265,40 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Rob Hyrons</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{E228288C-211F-475A-BEA2-831A05E3FED9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rob Hyrons:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This is the measurment from the opening edge of the guide to the back of the end lock, so the endlock thickness will effect he curtain cut width, endlock sizes are in the endlock tab.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>robert hyrons</author>
   </authors>
   <commentList>
@@ -297,7 +331,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>robert hyrons</author>
@@ -379,7 +413,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>robert hyrons</author>
@@ -414,7 +448,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>robert hyrons</author>
@@ -448,7 +482,7 @@
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>robert hyrons</author>
@@ -507,7 +541,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="349">
   <si>
     <t>Name</t>
   </si>
@@ -968,9 +1002,6 @@
     <t>193 x6.3</t>
   </si>
   <si>
-    <t>8 5/8th" 3swg</t>
-  </si>
-  <si>
     <t>193 x4.8</t>
   </si>
   <si>
@@ -1538,16 +1569,25 @@
     <t>75mm Wind 20swg Solid 12.1kg/sqm</t>
   </si>
   <si>
-    <t>75mm  22swg, Solid 9.4kg/sqm</t>
-  </si>
-  <si>
-    <t>75mm Wind  22swg Solid 9.4kg/sqm</t>
-  </si>
-  <si>
-    <t>75mm 18swg, Solid 16.1kg/sqm</t>
-  </si>
-  <si>
-    <t>75mm Wind  18swg Solid 16.1kg/sqm</t>
+    <t>7 5/8th" 3swg</t>
+  </si>
+  <si>
+    <t>9" 4swg</t>
+  </si>
+  <si>
+    <t>Any cell in red is to be checked</t>
+  </si>
+  <si>
+    <t>75mm  22swg, Solid 9.3kg/sqm</t>
+  </si>
+  <si>
+    <t>75mm Wind  22swg Solid 9.3kg/sqm</t>
+  </si>
+  <si>
+    <t>75mm 18swg, Solid 16 kg/sqm</t>
+  </si>
+  <si>
+    <t>75mm Wind  18swg Solid 16 kg/sqm</t>
   </si>
 </sst>
 </file>
@@ -1559,7 +1599,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1685,8 +1725,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1735,6 +1788,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1776,7 +1835,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2013,6 +2072,20 @@
     </xf>
     <xf numFmtId="6" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1 2" xfId="1" xr:uid="{4B6C72F7-C4CA-450E-9C13-94CEF72F8B8D}"/>
@@ -2033,55 +2106,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1611569</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>83108</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58B78874-C390-4A19-A2DA-4DC297D30A8D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="2216150"/>
-          <a:ext cx="1535369" cy="2470708"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3494,7 +3518,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4469,7 +4493,7 @@
   <dimension ref="B2:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4488,6 +4512,11 @@
         <v>134</v>
       </c>
     </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B7" s="39" t="s">
+        <v>344</v>
+      </c>
+    </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="18"/>
     </row>
@@ -4526,7 +4555,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4566,7 +4594,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B3" t="s">
         <v>74</v>
@@ -4584,7 +4612,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s">
         <v>78</v>
@@ -4605,7 +4633,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B6" t="s">
         <v>74</v>
@@ -4623,7 +4651,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B7" t="s">
         <v>78</v>
@@ -4641,7 +4669,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B8" t="s">
         <v>79</v>
@@ -4659,10 +4687,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" t="s">
         <v>173</v>
-      </c>
-      <c r="B9" t="s">
-        <v>174</v>
       </c>
       <c r="C9">
         <v>32800</v>
@@ -4724,10 +4752,10 @@
         <v>96</v>
       </c>
       <c r="H1" s="57" t="s">
+        <v>220</v>
+      </c>
+      <c r="I1" s="58" t="s">
         <v>221</v>
-      </c>
-      <c r="I1" s="58" t="s">
-        <v>222</v>
       </c>
       <c r="J1" s="7"/>
     </row>
@@ -4748,7 +4776,7 @@
         <v>69</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -4771,7 +4799,7 @@
         <v>69</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -4779,7 +4807,7 @@
     </row>
     <row r="4" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B4" s="9">
         <v>332</v>
@@ -4805,7 +4833,7 @@
     </row>
     <row r="5" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B5" s="9">
         <v>552</v>
@@ -4828,7 +4856,7 @@
     </row>
     <row r="6" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B6" s="9">
         <v>599</v>
@@ -4851,7 +4879,7 @@
     </row>
     <row r="7" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B7" s="9">
         <v>1063</v>
@@ -4874,7 +4902,7 @@
     </row>
     <row r="8" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B8" s="9">
         <v>1943</v>
@@ -4897,7 +4925,7 @@
     </row>
     <row r="9" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B9" s="9">
         <v>3503</v>
@@ -4935,7 +4963,7 @@
         <v>43</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H10">
         <v>10</v>
@@ -4961,7 +4989,7 @@
         <v>200</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -5081,7 +5109,7 @@
         <v>200</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H16">
         <v>10</v>
@@ -5128,7 +5156,7 @@
         <v>143</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>145</v>
@@ -5397,7 +5425,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="40" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B16" s="6">
         <v>135</v>
@@ -5406,7 +5434,7 @@
         <v>50</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E16" s="6">
         <v>10</v>
@@ -5418,7 +5446,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B17" s="6">
         <v>180</v>
@@ -5427,7 +5455,7 @@
         <v>50</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E17" s="6">
         <v>10</v>
@@ -5439,7 +5467,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B18" s="6">
         <v>205</v>
@@ -5448,7 +5476,7 @@
         <v>50</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E18" s="6">
         <v>10</v>
@@ -5460,7 +5488,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B19" s="6">
         <v>250</v>
@@ -5469,7 +5497,7 @@
         <v>50</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E19" s="6">
         <v>10</v>
@@ -5481,7 +5509,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="40" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B20" s="6">
         <v>300</v>
@@ -5490,7 +5518,7 @@
         <v>50</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E20" s="6">
         <v>10</v>
@@ -5502,7 +5530,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="40" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B21" s="6">
         <v>350</v>
@@ -5511,7 +5539,7 @@
         <v>50</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E21" s="6">
         <v>10</v>
@@ -5547,7 +5575,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C1" t="s">
         <v>129</v>
@@ -5555,7 +5583,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2">
         <v>1650</v>
@@ -5566,7 +5594,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B3">
         <v>1875</v>
@@ -5584,9 +5612,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E91FF3-79AA-48A9-9F88-C48DFFEF60AE}">
   <dimension ref="A1:P213"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5615,10 +5643,10 @@
         <v>34</v>
       </c>
       <c r="D1" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="47" t="s">
         <v>158</v>
-      </c>
-      <c r="E1" s="47" t="s">
-        <v>159</v>
       </c>
       <c r="F1" s="47" t="s">
         <v>6</v>
@@ -5627,39 +5655,39 @@
         <v>7</v>
       </c>
       <c r="H1" s="52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I1" s="61" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J1" s="61" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K1" s="62" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L1" s="61" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>136</v>
       </c>
       <c r="O1" s="73" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P1" s="74" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="43" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B2" s="5">
-        <v>9.4</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5">
@@ -5693,18 +5721,18 @@
         <v>139</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P2" s="75" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="49" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B3" s="23">
-        <v>9.4</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23">
@@ -5734,15 +5762,15 @@
         <v>139</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P3" s="75" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="43" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B4" s="5">
         <v>12.1</v>
@@ -5775,15 +5803,15 @@
         <v>139</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P4" s="75" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="49" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B5" s="23">
         <v>12.1</v>
@@ -5816,18 +5844,18 @@
         <v>139</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P5" s="75" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="43" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B6" s="4">
-        <v>16.100000000000001</v>
+        <v>16</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5">
@@ -5857,18 +5885,18 @@
         <v>139</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P6" s="75" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="49" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B7" s="24">
-        <v>16.100000000000001</v>
+        <v>16</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="23">
@@ -5898,10 +5926,10 @@
         <v>139</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P7" s="75" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -5916,7 +5944,7 @@
     </row>
     <row r="9" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="43" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B9" s="5">
         <v>8.3000000000000007</v>
@@ -5949,15 +5977,15 @@
         <v>139</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P9" s="75" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="49" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B10" s="23">
         <v>8.3000000000000007</v>
@@ -5990,15 +6018,15 @@
         <v>139</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P10" s="75" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="43" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B11" s="5">
         <v>10.5</v>
@@ -6031,15 +6059,15 @@
         <v>139</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P11" s="75" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="49" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B12" s="23">
         <v>10.5</v>
@@ -6072,15 +6100,15 @@
         <v>139</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P12" s="75" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B13" s="5">
         <v>14</v>
@@ -6113,15 +6141,15 @@
         <v>139</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P13" s="75" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="49" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B14" s="23">
         <v>14</v>
@@ -6154,10 +6182,10 @@
         <v>139</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P14" s="75" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6175,7 +6203,7 @@
     </row>
     <row r="16" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="43" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B16" s="5">
         <v>7.5</v>
@@ -6208,15 +6236,15 @@
         <v>139</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P16" s="75" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="49" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B17" s="23">
         <v>7.5</v>
@@ -6249,15 +6277,15 @@
         <v>139</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P17" s="75" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="43" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B18" s="5">
         <v>9.6999999999999993</v>
@@ -6290,15 +6318,15 @@
         <v>139</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P18" s="75" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="49" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B19" s="23">
         <v>9.6999999999999993</v>
@@ -6331,10 +6359,10 @@
         <v>139</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P19" s="75" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6349,7 +6377,7 @@
     </row>
     <row r="21" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="51">
         <v>11.4</v>
@@ -6380,10 +6408,10 @@
         <v>139</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P21" s="75" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6398,7 +6426,7 @@
     </row>
     <row r="23" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="43" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B23" s="5">
         <v>11.9</v>
@@ -6434,12 +6462,12 @@
         <v>3.2</v>
       </c>
       <c r="P23" s="75" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="43" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B24" s="5">
         <v>13.3</v>
@@ -6475,12 +6503,12 @@
         <v>3.2</v>
       </c>
       <c r="P24" s="75" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="43" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B25" s="5">
         <v>12</v>
@@ -6511,10 +6539,10 @@
         <v>139</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P25" s="75" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6532,7 +6560,7 @@
     </row>
     <row r="27" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="43" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B27" s="5">
         <v>22</v>
@@ -6570,7 +6598,7 @@
         <v>4.3</v>
       </c>
       <c r="P27" s="75" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6585,22 +6613,22 @@
     </row>
     <row r="29" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="43" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B29" s="5">
         <v>4</v>
       </c>
       <c r="C29" s="5"/>
-      <c r="D29" s="5">
+      <c r="D29" s="81">
         <v>40</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="81">
         <v>42</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="81">
         <v>9</v>
       </c>
-      <c r="G29" s="44">
+      <c r="G29" s="83">
         <v>10</v>
       </c>
       <c r="H29" s="51"/>
@@ -6608,33 +6636,33 @@
         <v>111</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P29" s="75" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="43" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B30" s="5">
         <v>8</v>
       </c>
       <c r="C30" s="5"/>
-      <c r="D30" s="5">
+      <c r="D30" s="81">
         <v>36</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="81">
         <v>38</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="81">
         <v>9</v>
       </c>
-      <c r="G30" s="44">
+      <c r="G30" s="83">
         <v>10</v>
       </c>
       <c r="H30" s="51"/>
@@ -6642,33 +6670,33 @@
         <v>111</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P30" s="75" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="43" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B31" s="5">
         <v>6.5</v>
       </c>
       <c r="C31" s="5"/>
-      <c r="D31" s="5">
+      <c r="D31" s="81">
         <v>36</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="81">
         <v>38</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="81">
         <v>9</v>
       </c>
-      <c r="G31" s="44">
+      <c r="G31" s="83">
         <v>10</v>
       </c>
       <c r="H31" s="51"/>
@@ -6676,33 +6704,33 @@
         <v>111</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P31" s="75" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="43" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B32" s="5">
         <v>6.5</v>
       </c>
       <c r="C32" s="5"/>
-      <c r="D32" s="5">
+      <c r="D32" s="81">
         <v>36</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="81">
         <v>38</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="81">
         <v>9</v>
       </c>
-      <c r="G32" s="44">
+      <c r="G32" s="83">
         <v>10</v>
       </c>
       <c r="H32" s="51"/>
@@ -6710,33 +6738,33 @@
         <v>111</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P32" s="75" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="43" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B33" s="5">
         <v>7.5</v>
       </c>
       <c r="C33" s="5"/>
-      <c r="D33" s="5">
+      <c r="D33" s="81">
         <v>36</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="81">
         <v>38</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="81">
         <v>9</v>
       </c>
-      <c r="G33" s="44">
+      <c r="G33" s="83">
         <v>10</v>
       </c>
       <c r="H33" s="51"/>
@@ -6744,33 +6772,33 @@
         <v>111</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P33" s="75" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="43" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B34" s="5">
         <v>9</v>
       </c>
       <c r="C34" s="5"/>
-      <c r="D34" s="5">
+      <c r="D34" s="81">
         <v>55</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="81">
         <v>59</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="81">
         <v>15</v>
       </c>
-      <c r="G34" s="44">
+      <c r="G34" s="83">
         <v>10</v>
       </c>
       <c r="H34" s="51"/>
@@ -6778,33 +6806,33 @@
         <v>111</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P34" s="75" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="43" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B35" s="51">
         <v>9.25</v>
       </c>
       <c r="C35" s="13"/>
-      <c r="D35" s="13">
+      <c r="D35" s="82">
         <v>77.3</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="82">
         <v>79</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="82">
         <v>19</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="82">
         <v>10</v>
       </c>
       <c r="H35" s="51"/>
@@ -6812,33 +6840,33 @@
         <v>111</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P35" s="75" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="43" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B36" s="51">
         <v>7</v>
       </c>
       <c r="C36" s="13"/>
-      <c r="D36" s="13">
+      <c r="D36" s="82">
         <v>77.3</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="82">
         <v>79</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="82">
         <v>19</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G36" s="82">
         <v>10</v>
       </c>
       <c r="H36" s="51"/>
@@ -6846,33 +6874,33 @@
         <v>111</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P36" s="75" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="43" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B37" s="51">
         <v>8</v>
       </c>
       <c r="C37" s="13"/>
-      <c r="D37" s="13">
+      <c r="D37" s="82">
         <v>77.3</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="82">
         <v>79</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="82">
         <v>19</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G37" s="82">
         <v>10</v>
       </c>
       <c r="H37" s="51"/>
@@ -6880,33 +6908,33 @@
         <v>111</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P37" s="75" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="43" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B38" s="51">
         <v>7</v>
       </c>
       <c r="C38" s="13"/>
-      <c r="D38" s="13">
+      <c r="D38" s="82">
         <v>88</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="82">
         <v>90</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="82">
         <v>27</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G38" s="82">
         <v>10</v>
       </c>
       <c r="H38" s="51"/>
@@ -6914,43 +6942,43 @@
         <v>111</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O38" s="6" t="s">
         <v>56</v>
       </c>
       <c r="P38" s="75" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="13"/>
       <c r="B39" s="51"/>
       <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="82"/>
       <c r="H39" s="51"/>
     </row>
     <row r="40" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="43" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B40" s="51">
         <v>5</v>
       </c>
       <c r="C40" s="13"/>
-      <c r="D40" s="13">
+      <c r="D40" s="82">
         <v>77</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E40" s="82">
         <v>79</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F40" s="82">
         <v>21</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G40" s="82">
         <v>10</v>
       </c>
       <c r="H40" s="51"/>
@@ -6958,16 +6986,19 @@
         <v>111</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O40" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P40" s="75" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+    </row>
     <row r="42" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="43" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="44" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7166,33 +7197,33 @@
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" t="s">
         <v>285</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>286</v>
       </c>
-      <c r="D1" t="s">
-        <v>287</v>
-      </c>
       <c r="E1" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" t="s">
         <v>288</v>
       </c>
-      <c r="C2" t="s">
-        <v>289</v>
-      </c>
       <c r="D2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E2" s="6">
         <v>20</v>
@@ -7201,18 +7232,18 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E3" s="6">
         <v>60</v>
@@ -7221,18 +7252,18 @@
         <v>7.5</v>
       </c>
       <c r="G3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E4" s="6">
         <v>235</v>
@@ -7241,18 +7272,18 @@
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E5" s="6">
         <v>10</v>
@@ -7261,18 +7292,18 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E6" s="72">
         <v>20</v>
@@ -7281,18 +7312,18 @@
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E7" s="72">
         <v>30</v>
@@ -7301,13 +7332,13 @@
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E11" s="72"/>
       <c r="F11" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -7321,7 +7352,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7417,7 +7448,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B8" s="27">
         <v>1.1000000000000001</v>
@@ -7459,7 +7490,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="76" t="s">
-        <v>324</v>
+        <v>323</v>
+      </c>
+      <c r="B12" s="39">
+        <v>1</v>
       </c>
       <c r="C12">
         <v>58</v>
@@ -7470,7 +7504,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>323</v>
+        <v>322</v>
+      </c>
+      <c r="B13" s="39">
+        <v>1.5</v>
       </c>
       <c r="C13">
         <v>65</v>
@@ -7481,7 +7518,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>322</v>
+        <v>321</v>
+      </c>
+      <c r="B14" s="39">
+        <v>2.5</v>
       </c>
       <c r="C14">
         <v>96</v>
@@ -7492,7 +7532,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>325</v>
+        <v>324</v>
+      </c>
+      <c r="B15" s="39">
+        <v>2</v>
       </c>
       <c r="C15">
         <v>114</v>
@@ -7507,11 +7550,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0CC1CC-64D0-4115-AE5E-AF959282EFAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0CC1CC-64D0-4115-AE5E-AF959282EFAA}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7532,10 +7575,10 @@
         <v>129</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>136</v>
@@ -7549,7 +7592,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B3" s="6">
         <v>65</v>
@@ -7568,7 +7611,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B4" s="6">
         <v>100</v>
@@ -7587,7 +7630,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B5" s="6">
         <v>65</v>
@@ -7606,7 +7649,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B6" s="6">
         <v>100</v>
@@ -7625,31 +7668,31 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C8" s="6">
         <f>17-5</f>
         <v>12</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C9" s="6">
         <f>25-5</f>
         <v>20</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B10" s="6">
         <v>60</v>
@@ -7659,12 +7702,12 @@
         <v>24</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B11" s="6">
         <v>70</v>
@@ -7674,12 +7717,12 @@
         <v>37</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B12" s="6">
         <v>60</v>
@@ -7688,12 +7731,12 @@
         <v>27</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B13" s="6">
         <v>75</v>
@@ -7702,12 +7745,12 @@
         <v>32</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B14" s="6">
         <v>90</v>
@@ -7716,12 +7759,13 @@
         <v>57</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7730,7 +7774,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7749,7 +7793,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>57</v>
@@ -7770,27 +7814,27 @@
         <v>36</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J1" s="15" t="s">
         <v>110</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L1" s="63" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D2" s="15">
         <v>60</v>
@@ -7816,13 +7860,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>269</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>270</v>
       </c>
       <c r="D3" s="15">
         <v>70</v>
@@ -7848,13 +7892,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D4" s="15">
         <v>70</v>
@@ -7883,7 +7927,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>60</v>
@@ -7919,7 +7963,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>59</v>
@@ -7952,13 +7996,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D7" s="15">
         <v>127</v>
@@ -7988,13 +8032,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D8" s="34">
         <v>127</v>
@@ -8027,10 +8071,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D9" s="33">
         <v>139</v>
@@ -8060,10 +8104,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>58</v>
@@ -8096,13 +8140,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D11" s="33">
         <v>168</v>
@@ -8132,10 +8176,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="41" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>61</v>
@@ -8171,10 +8215,10 @@
         <v>152</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>153</v>
+        <v>342</v>
       </c>
       <c r="D13" s="16">
         <v>193</v>
@@ -8207,7 +8251,7 @@
         <v>86</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>84</v>
@@ -8243,9 +8287,11 @@
         <v>85</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>265</v>
-      </c>
-      <c r="C15" s="34"/>
+        <v>264</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>343</v>
+      </c>
       <c r="D15" s="35">
         <v>229</v>
       </c>
@@ -8277,7 +8323,7 @@
         <v>107</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C16" s="34"/>
       <c r="D16" s="35">
@@ -8311,7 +8357,7 @@
         <v>108</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C17" s="34"/>
       <c r="D17" s="35">
@@ -8355,11 +8401,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB77DDB-B6D9-4CBA-9145-50EF6FDCE517}">
-  <dimension ref="A1:R89"/>
+  <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B76" sqref="B75:B76"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8373,6 +8419,7 @@
     <col min="8" max="8" width="12.1796875" style="1" customWidth="1"/>
     <col min="9" max="10" width="14.1796875" style="1" customWidth="1"/>
     <col min="11" max="13" width="19.453125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.54296875" customWidth="1"/>
     <col min="15" max="15" width="19.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8381,7 +8428,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>30</v>
@@ -8411,19 +8458,19 @@
         <v>54</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M1" s="11" t="s">
         <v>109</v>
       </c>
       <c r="N1" s="53" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O1" s="11" t="s">
         <v>11</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
@@ -8457,8 +8504,14 @@
       <c r="K3" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="M3" s="78">
+        <v>3</v>
+      </c>
       <c r="N3">
         <v>310</v>
+      </c>
+      <c r="P3">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
@@ -8492,8 +8545,14 @@
       <c r="K4" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="M4" s="78">
+        <v>3.3</v>
+      </c>
       <c r="N4">
         <v>310</v>
+      </c>
+      <c r="P4">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
@@ -8527,8 +8586,14 @@
       <c r="K5" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="M5" s="78">
+        <v>5</v>
+      </c>
       <c r="N5">
         <v>345</v>
+      </c>
+      <c r="P5">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
@@ -8562,8 +8627,14 @@
       <c r="K6" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="M6" s="78">
+        <v>5.2</v>
+      </c>
       <c r="N6">
         <v>345</v>
+      </c>
+      <c r="P6">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
@@ -8597,8 +8668,14 @@
       <c r="K7" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="M7" s="78">
+        <v>8</v>
+      </c>
       <c r="N7">
         <v>390</v>
+      </c>
+      <c r="P7">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
@@ -8632,8 +8709,14 @@
       <c r="K8" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="M8" s="78">
+        <v>8.3000000000000007</v>
+      </c>
       <c r="N8">
         <v>390</v>
+      </c>
+      <c r="P8">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
@@ -8667,8 +8750,14 @@
       <c r="K9" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="M9" s="78">
+        <v>12</v>
+      </c>
       <c r="N9">
         <v>570</v>
+      </c>
+      <c r="P9">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
@@ -8702,65 +8791,35 @@
       <c r="K10" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="M10" s="78">
+        <v>14</v>
+      </c>
       <c r="N10">
         <v>670</v>
       </c>
+      <c r="P10">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="M11" s="78"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="1">
+      <c r="B12" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" s="1">
         <f>D10+0.01</f>
         <v>350.01</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D12" s="1">
         <v>450</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E12" s="1">
         <v>8</v>
-      </c>
-      <c r="F11" s="1">
-        <v>230</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="1">
-        <v>85</v>
-      </c>
-      <c r="I11" s="1">
-        <v>89</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N11">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C12" s="1">
-        <f>D11+0.01</f>
-        <v>450.01</v>
-      </c>
-      <c r="D12" s="1">
-        <v>600</v>
-      </c>
-      <c r="E12" s="1">
-        <v>9</v>
       </c>
       <c r="F12" s="1">
         <v>230</v>
@@ -8769,7 +8828,7 @@
         <v>21</v>
       </c>
       <c r="H12" s="1">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I12" s="1">
         <v>89</v>
@@ -8780,61 +8839,67 @@
       <c r="K12" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="M12" s="78">
+        <v>16</v>
+      </c>
       <c r="N12">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" s="1">
+        <f>D12+0.01</f>
+        <v>450.01</v>
+      </c>
+      <c r="D13" s="1">
+        <v>600</v>
+      </c>
+      <c r="E13" s="1">
+        <v>9</v>
+      </c>
+      <c r="F13" s="1">
+        <v>230</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="1">
+        <v>83</v>
+      </c>
+      <c r="I13" s="1">
+        <v>89</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M13" s="78">
+        <v>19</v>
+      </c>
+      <c r="N13">
         <v>920</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>10</v>
-      </c>
-      <c r="E14" s="1">
-        <v>17</v>
-      </c>
-      <c r="F14" s="1">
-        <v>230</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="1">
-        <v>48</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M14" s="1">
-        <v>2.44</v>
-      </c>
-      <c r="N14">
-        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>112</v>
       </c>
       <c r="C15" s="1">
-        <f>D14+0.01</f>
-        <v>10.01</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E15" s="1">
         <v>17</v>
@@ -8855,25 +8920,25 @@
         <v>55</v>
       </c>
       <c r="M15" s="1">
-        <v>2.76</v>
+        <v>2.44</v>
       </c>
       <c r="N15">
-        <v>160</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>112</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" ref="C16:C26" si="0">D15+0.01</f>
-        <v>20.010000000000002</v>
+        <f>D15+0.01</f>
+        <v>10.01</v>
       </c>
       <c r="D16" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E16" s="1">
         <v>17</v>
@@ -8894,452 +8959,453 @@
         <v>55</v>
       </c>
       <c r="M16" s="1">
-        <v>3.09</v>
+        <v>2.76</v>
       </c>
       <c r="N16">
-        <v>240</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>112</v>
       </c>
       <c r="C17" s="1">
+        <f t="shared" ref="C17:C27" si="0">D16+0.01</f>
+        <v>20.010000000000002</v>
+      </c>
+      <c r="D17" s="1">
+        <v>25</v>
+      </c>
+      <c r="E17" s="1">
+        <v>17</v>
+      </c>
+      <c r="F17" s="1">
+        <v>230</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="1">
+        <v>48</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M17" s="1">
+        <v>3.09</v>
+      </c>
+      <c r="N17">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="1">
         <f t="shared" si="0"/>
         <v>25.01</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D18" s="1">
         <v>35</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E18" s="1">
         <v>17</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F18" s="1">
         <v>230</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I18" s="1">
         <v>48</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M18" s="1">
         <v>3.38</v>
       </c>
-      <c r="N17">
+      <c r="N18">
         <v>270</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B18" s="3" t="s">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C19" s="1">
         <f t="shared" si="0"/>
         <v>35.01</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D19" s="1">
         <v>40</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E19" s="1">
         <v>17</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F19" s="1">
         <v>230</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I19" s="1">
         <v>48</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M19" s="1">
         <v>3.38</v>
       </c>
-      <c r="N18">
+      <c r="N19">
         <v>270</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B19" s="3" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C20" s="1">
         <f t="shared" si="0"/>
         <v>40.01</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D20" s="1">
         <v>50</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E20" s="1">
         <v>12</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F20" s="1">
         <v>230</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I20" s="1">
         <v>48</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M20" s="1">
         <v>3.09</v>
       </c>
-      <c r="N19">
+      <c r="N20">
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B20" s="3" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C21" s="1">
         <f t="shared" si="0"/>
         <v>50.01</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D21" s="1">
         <v>55</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E21" s="1">
         <v>17</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F21" s="1">
         <v>230</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I21" s="1">
         <v>60</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M21" s="1">
         <v>4.17</v>
       </c>
-      <c r="N20">
+      <c r="N21">
         <v>320</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B21" s="3" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C22" s="1">
         <f t="shared" si="0"/>
         <v>55.01</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D22" s="1">
         <v>60</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E22" s="1">
         <v>12</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F22" s="1">
         <v>230</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I22" s="1">
         <v>60</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M22" s="1">
         <v>3.92</v>
       </c>
-      <c r="N21">
+      <c r="N22">
         <v>280</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B22" s="3" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C23" s="1">
         <f t="shared" si="0"/>
         <v>60.01</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D23" s="1">
         <v>70</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E23" s="1">
         <v>17</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F23" s="1">
         <v>230</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I23" s="1">
         <v>60</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M23" s="1">
         <v>4.59</v>
       </c>
-      <c r="N22">
+      <c r="N23">
         <v>410</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B23" s="3" t="s">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C24" s="1">
         <f t="shared" si="0"/>
         <v>70.010000000000005</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D24" s="1">
         <v>80</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E24" s="1">
         <v>12</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F24" s="1">
         <v>230</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I24" s="1">
         <v>60</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M24" s="1">
         <v>4.1900000000000004</v>
       </c>
-      <c r="N23">
+      <c r="N24">
         <v>320</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B24" s="3" t="s">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C25" s="1">
         <f t="shared" si="0"/>
         <v>80.010000000000005</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D25" s="1">
         <v>85</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E25" s="1">
         <v>17</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F25" s="1">
         <v>230</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I25" s="1">
         <v>60</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J25" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M25" s="1">
         <v>4.45</v>
       </c>
-      <c r="N24">
+      <c r="N25">
         <v>450</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B25" s="3" t="s">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C26" s="1">
         <f t="shared" si="0"/>
         <v>85.01</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D26" s="1">
         <v>100</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E26" s="1">
         <v>12</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F26" s="1">
         <v>230</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I26" s="1">
         <v>60</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J26" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="K26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M26" s="1">
         <v>4.68</v>
       </c>
-      <c r="N25">
+      <c r="N26">
         <v>410</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B26" s="3" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C27" s="1">
         <f t="shared" si="0"/>
         <v>100.01</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D27" s="1">
         <v>120</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E27" s="1">
         <v>12</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F27" s="1">
         <v>230</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I27" s="1">
         <v>60</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J27" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="K27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M27" s="1">
         <v>4.45</v>
       </c>
-      <c r="N26">
+      <c r="N27">
         <v>450</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0</v>
-      </c>
-      <c r="D29" s="2">
-        <v>170</v>
-      </c>
-      <c r="E29" s="1">
-        <v>12</v>
-      </c>
-      <c r="F29" s="1">
-        <v>415</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J29" s="1">
-        <v>30</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N29">
-        <v>900</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C30" s="2">
-        <v>170.01</v>
+        <v>0</v>
       </c>
       <c r="D30" s="2">
-        <v>260</v>
+        <v>170</v>
       </c>
       <c r="E30" s="1">
         <v>12</v>
@@ -9357,7 +9423,7 @@
         <v>95</v>
       </c>
       <c r="J30" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>56</v>
@@ -9368,7 +9434,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>198</v>
+        <v>24</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -9377,13 +9443,13 @@
         <v>170.01</v>
       </c>
       <c r="D31" s="2">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="E31" s="1">
         <v>12</v>
       </c>
       <c r="F31" s="1">
-        <v>230</v>
+        <v>415</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>22</v>
@@ -9406,22 +9472,22 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>25</v>
+        <v>197</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C32" s="2">
-        <v>260.01</v>
+        <v>170.01</v>
       </c>
       <c r="D32" s="2">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="E32" s="1">
         <v>12</v>
       </c>
       <c r="F32" s="1">
-        <v>415</v>
+        <v>230</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>22</v>
@@ -9444,16 +9510,16 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C33" s="2">
-        <v>351.01</v>
+        <v>260.01</v>
       </c>
       <c r="D33" s="2">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="E33" s="1">
         <v>12</v>
@@ -9482,16 +9548,16 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C34" s="2">
-        <v>500.01</v>
+        <v>351.01</v>
       </c>
       <c r="D34" s="2">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="E34" s="1">
         <v>12</v>
@@ -9509,27 +9575,27 @@
         <v>95</v>
       </c>
       <c r="J34" s="1">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>56</v>
       </c>
       <c r="N34">
-        <v>1800</v>
+        <v>900</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C35" s="2">
-        <v>650.01</v>
+        <v>500.01</v>
       </c>
       <c r="D35" s="2">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="E35" s="1">
         <v>12</v>
@@ -9558,19 +9624,19 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C36" s="2">
-        <v>750.01</v>
+        <v>650.01</v>
       </c>
       <c r="D36" s="2">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="E36" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F36" s="1">
         <v>415</v>
@@ -9591,60 +9657,62 @@
         <v>56</v>
       </c>
       <c r="N36">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="2">
+        <v>750.01</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E37" s="1">
+        <v>9</v>
+      </c>
+      <c r="F37" s="1">
+        <v>415</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J37" s="1">
+        <v>55</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N37">
         <v>2500</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C37" s="2"/>
-    </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="2">
-        <v>0</v>
-      </c>
-      <c r="D38" s="1">
-        <v>140</v>
-      </c>
-      <c r="E38" s="1">
-        <v>12</v>
-      </c>
-      <c r="F38" s="1">
-        <v>415</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J38" s="1">
-        <v>30</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C39" s="2">
-        <f t="shared" ref="C39:C46" si="1">D38+0.01</f>
-        <v>140.01</v>
+        <v>0</v>
       </c>
       <c r="D39" s="1">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="E39" s="1">
         <v>12</v>
@@ -9670,300 +9738,307 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C40" s="2">
+        <f t="shared" ref="C40:C47" si="1">D39+0.01</f>
+        <v>140.01</v>
+      </c>
+      <c r="D40" s="1">
+        <v>220</v>
+      </c>
+      <c r="E40" s="1">
+        <v>12</v>
+      </c>
+      <c r="F40" s="1">
+        <v>415</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J40" s="1">
+        <v>30</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="2">
         <f t="shared" si="1"/>
         <v>220.01</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D41" s="1">
         <v>300</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E41" s="1">
         <v>12</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F41" s="1">
         <v>415</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I41" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J40" s="1">
+      <c r="J41" s="1">
         <v>30</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="K41" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C42" s="2">
         <f t="shared" si="1"/>
         <v>300.01</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D42" s="1">
         <v>420</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E42" s="1">
         <v>12</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F42" s="1">
         <v>415</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J42" s="1">
         <v>40</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="K42" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B43" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C43" s="2">
         <f t="shared" si="1"/>
         <v>420.01</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D43" s="1">
         <v>500</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E43" s="1">
         <v>12</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F43" s="1">
         <v>415</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J42" s="1">
+      <c r="J43" s="1">
         <v>40</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="K43" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A43" s="3" t="s">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C44" s="2">
         <f t="shared" si="1"/>
         <v>500.01</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D44" s="1">
         <v>1000</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E44" s="1">
         <v>9</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F44" s="1">
         <v>415</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I44" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J44" s="1">
         <v>55</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="K44" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C45" s="2">
         <f t="shared" si="1"/>
         <v>1000.01</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D45" s="1">
         <v>1400</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E45" s="1">
         <v>9</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F45" s="1">
         <v>415</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I45" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J44" s="1">
+      <c r="J45" s="1">
         <v>55</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="K45" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C46" s="2">
         <f t="shared" si="1"/>
         <v>1400.01</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D46" s="1">
         <v>1650</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E46" s="1">
         <v>8</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F46" s="1">
         <v>415</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J46" s="1">
         <v>55</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="K46" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C47" s="2">
         <f t="shared" si="1"/>
         <v>1650.01</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D47" s="1">
         <v>2000</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E47" s="1">
         <v>8</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F47" s="1">
         <v>415</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="I47" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J47" s="1">
         <v>55</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="K47" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C47" s="2"/>
-    </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A48" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C48" s="2">
-        <v>0</v>
-      </c>
-      <c r="D48" s="1">
-        <v>140</v>
-      </c>
-      <c r="E48" s="1">
-        <v>12</v>
-      </c>
-      <c r="F48" s="1">
-        <v>230</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="C48" s="2"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C49" s="2">
-        <v>140.01</v>
+        <v>0</v>
       </c>
       <c r="D49" s="1">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="E49" s="1">
         <v>12</v>
@@ -9981,18 +10056,18 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="1">
-        <v>220.01</v>
+      <c r="C50" s="2">
+        <v>140.01</v>
       </c>
       <c r="D50" s="1">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="E50" s="1">
         <v>12</v>
@@ -10010,18 +10085,18 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="2">
-        <v>280.01</v>
+      <c r="C51" s="1">
+        <v>220.01</v>
       </c>
       <c r="D51" s="1">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="E51" s="1">
         <v>12</v>
@@ -10040,49 +10115,49 @@
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C52" s="2"/>
+      <c r="A52" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" s="2">
+        <v>280.01</v>
+      </c>
+      <c r="D52" s="1">
+        <v>380</v>
+      </c>
+      <c r="E52" s="1">
+        <v>12</v>
+      </c>
+      <c r="F52" s="1">
+        <v>230</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A53" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C53" s="2">
-        <v>0</v>
-      </c>
-      <c r="D53" s="1">
-        <v>15</v>
-      </c>
-      <c r="E53" s="1">
-        <v>34</v>
-      </c>
-      <c r="F53" s="1">
-        <v>230</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J53" s="1">
-        <v>25.4</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C54" s="2">
-        <v>15.01</v>
+        <v>0</v>
       </c>
       <c r="D54" s="1">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="E54" s="1">
         <v>34</v>
@@ -10102,19 +10177,19 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>250</v>
-      </c>
       <c r="C55" s="2">
-        <v>62.01</v>
+        <v>15.01</v>
       </c>
       <c r="D55" s="1">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="E55" s="1">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F55" s="1">
         <v>230</v>
@@ -10130,240 +10205,260 @@
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C56" s="2"/>
+      <c r="A56" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C56" s="2">
+        <v>62.01</v>
+      </c>
+      <c r="D56" s="1">
+        <v>95</v>
+      </c>
+      <c r="E56" s="1">
+        <v>22</v>
+      </c>
+      <c r="F56" s="1">
+        <v>230</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J56" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C57" s="2"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A58" s="3" t="s">
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>97</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C59" s="2">
         <v>0</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D59" s="1">
         <v>270</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E59" s="1">
         <f>24/3</f>
         <v>8</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F59" s="1">
         <v>230</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="H59" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="I59" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J58" s="1">
+      <c r="J59" s="1">
         <v>25.4</v>
       </c>
-      <c r="K58" s="1" t="s">
+      <c r="K59" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="N58">
+      <c r="N59">
         <v>450</v>
       </c>
-      <c r="P58">
+      <c r="P59">
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A59" s="3" t="s">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>97</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C60" s="2">
         <v>0</v>
       </c>
-      <c r="D59" s="38">
+      <c r="D60" s="38">
         <f>Chaindrive!G23</f>
         <v>270</v>
       </c>
-      <c r="E59" s="37">
+      <c r="E60" s="37">
         <f>Chaindrive!I23</f>
         <v>10.666666666666666</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F60" s="1">
         <v>415</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="H60" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I59" s="1" t="s">
+      <c r="I60" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J59" s="1">
+      <c r="J60" s="1">
         <v>25.4</v>
       </c>
-      <c r="K59" s="1" t="s">
+      <c r="K60" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="N59">
+      <c r="N60">
         <v>370</v>
       </c>
-      <c r="P59">
+      <c r="P60">
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A60" s="3" t="s">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>97</v>
       </c>
-      <c r="C60" s="2">
-        <f>D59+0.01</f>
+      <c r="C61" s="2">
+        <f>D60+0.01</f>
         <v>270.01</v>
       </c>
-      <c r="D60" s="38">
+      <c r="D61" s="38">
         <f>Chaindrive!G22</f>
         <v>342</v>
       </c>
-      <c r="E60" s="37">
+      <c r="E61" s="37">
         <f>Chaindrive!I22</f>
         <v>8.4210526315789469</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F61" s="1">
         <v>415</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="G61" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="H61" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="I61" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J60" s="1">
+      <c r="J61" s="1">
         <v>25.4</v>
       </c>
-      <c r="K60" s="1" t="s">
+      <c r="K61" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="N60">
+      <c r="N61">
         <v>370</v>
       </c>
-      <c r="P60">
+      <c r="P61">
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>168</v>
-      </c>
-      <c r="B61" t="s">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>167</v>
+      </c>
+      <c r="B62" t="s">
         <v>97</v>
       </c>
-      <c r="C61" s="2">
-        <f>D60+0.01</f>
+      <c r="C62" s="2">
+        <f>D61+0.01</f>
         <v>342.01</v>
       </c>
-      <c r="D61" s="38">
+      <c r="D62" s="38">
         <f>Chaindrive!G21</f>
         <v>427.5</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E62" s="2">
         <f>Chaindrive!I21</f>
         <v>6.7368421052631575</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F62" s="1">
         <v>415</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G62" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="H62" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="I62" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J61" s="1">
+      <c r="J62" s="1">
         <v>25.4</v>
       </c>
-      <c r="K61" s="1" t="s">
+      <c r="K62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="N61">
+      <c r="N62">
         <v>370</v>
       </c>
-      <c r="P61">
+      <c r="P62">
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>178</v>
-      </c>
-      <c r="B62" t="s">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>177</v>
+      </c>
+      <c r="B63" t="s">
         <v>97</v>
       </c>
-      <c r="C62" s="2">
-        <f>D61+0.01</f>
+      <c r="C63" s="2">
+        <f>D62+0.01</f>
         <v>427.51</v>
       </c>
-      <c r="D62" s="38">
+      <c r="D63" s="38">
         <f>Chaindrive!G28</f>
         <v>665</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E63" s="2">
         <f>Chaindrive!I28</f>
         <v>4.6315789473684212</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F63" s="1">
         <v>415</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="H63" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I62" s="1" t="s">
+      <c r="I63" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J62" s="1">
+      <c r="J63" s="1">
         <v>25.4</v>
       </c>
-      <c r="K62" s="1" t="s">
+      <c r="K63" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="N62">
+      <c r="N63">
         <v>450</v>
       </c>
-      <c r="P62">
+      <c r="P63">
         <v>40</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A63" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="B63"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="2"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B64"/>
       <c r="C64" s="2"/>
@@ -10371,154 +10466,115 @@
       <c r="E64" s="2"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>179</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="A65" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B65"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>178</v>
+      </c>
+      <c r="B66" t="s">
         <v>97</v>
       </c>
-      <c r="C65" s="2">
-        <f>D62+0.01</f>
+      <c r="C66" s="2">
+        <f>D63+0.01</f>
         <v>665.01</v>
       </c>
-      <c r="D65" s="38">
-        <f>Chaindrive!G38</f>
+      <c r="D66" s="38">
+        <f>Chaindrive!G39</f>
         <v>880</v>
       </c>
-      <c r="E65" s="1">
-        <f>Chaindrive!I38</f>
+      <c r="E66" s="1">
+        <f>Chaindrive!I39</f>
         <v>6</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F66" s="1">
         <v>415</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="H66" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I65" s="1" t="s">
+      <c r="I66" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J65" s="1">
+      <c r="J66" s="1">
         <v>25.4</v>
       </c>
-      <c r="K65" s="1" t="s">
+      <c r="K66" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="N65">
+      <c r="N66">
         <v>450</v>
       </c>
-      <c r="P65">
+      <c r="P66">
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:18" s="69" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="67" t="s">
-        <v>252</v>
-      </c>
-      <c r="B67" s="67" t="s">
+    <row r="68" spans="1:18" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="67" t="s">
+        <v>251</v>
+      </c>
+      <c r="B68" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="C67" s="68">
-        <f t="shared" ref="C67:C68" si="2">D66+0.01</f>
+      <c r="C68" s="68">
+        <f t="shared" ref="C68:C69" si="2">D67+0.01</f>
         <v>0.01</v>
       </c>
-      <c r="D67" s="68">
+      <c r="D68" s="68">
         <v>100</v>
       </c>
-      <c r="E67" s="68">
+      <c r="E68" s="68">
         <v>15</v>
       </c>
-      <c r="F67" s="68">
+      <c r="F68" s="68">
         <v>415</v>
       </c>
-      <c r="G67" s="68" t="s">
+      <c r="G68" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="H67" s="68" t="s">
+      <c r="H68" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="I67" s="68" t="s">
+      <c r="I68" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="J67" s="68">
+      <c r="J68" s="68">
         <v>30</v>
       </c>
-      <c r="K67" s="68" t="s">
+      <c r="K68" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="L67" s="68">
+      <c r="L68" s="68">
         <v>8</v>
       </c>
-      <c r="M67" s="68"/>
-      <c r="O67" s="68"/>
-      <c r="R67" s="79">
+      <c r="M68" s="68"/>
+      <c r="O68" s="68"/>
+      <c r="R68" s="79">
         <v>266</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>38</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>97</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C69" s="1">
         <f t="shared" si="2"/>
         <v>100.01</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D69" s="6">
         <v>170</v>
-      </c>
-      <c r="E68" s="6">
-        <v>15</v>
-      </c>
-      <c r="F68" s="1">
-        <v>415</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J68" s="1">
-        <v>30</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L68" s="1">
-        <v>8</v>
-      </c>
-      <c r="N68">
-        <v>400</v>
-      </c>
-      <c r="P68">
-        <v>20</v>
-      </c>
-      <c r="R68" s="80">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>39</v>
-      </c>
-      <c r="B69" t="s">
-        <v>97</v>
-      </c>
-      <c r="C69" s="1">
-        <f>D68+0.01</f>
-        <v>170.01</v>
-      </c>
-      <c r="D69" s="6">
-        <v>250</v>
       </c>
       <c r="E69" s="6">
         <v>15</v>
@@ -10545,28 +10601,28 @@
         <v>8</v>
       </c>
       <c r="N69">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="P69">
         <v>20</v>
       </c>
       <c r="R69" s="80">
-        <v>307</v>
+        <v>280</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B70" t="s">
         <v>97</v>
       </c>
       <c r="C70" s="1">
-        <f t="shared" ref="C70:C78" si="3">D69+0.01</f>
-        <v>250.01</v>
+        <f>D69+0.01</f>
+        <v>170.01</v>
       </c>
       <c r="D70" s="6">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="E70" s="6">
         <v>15</v>
@@ -10584,395 +10640,396 @@
         <v>95</v>
       </c>
       <c r="J70" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>56</v>
       </c>
       <c r="L70" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N70">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="P70">
         <v>20</v>
       </c>
       <c r="R70" s="80">
-        <v>383</v>
+        <v>307</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B71" t="s">
         <v>97</v>
       </c>
       <c r="C71" s="1">
+        <f t="shared" ref="C71:C79" si="3">D70+0.01</f>
+        <v>250.01</v>
+      </c>
+      <c r="D71" s="6">
+        <v>350</v>
+      </c>
+      <c r="E71" s="6">
+        <v>15</v>
+      </c>
+      <c r="F71" s="1">
+        <v>415</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J71" s="1">
+        <v>40</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L71" s="1">
+        <v>9</v>
+      </c>
+      <c r="N71">
+        <v>850</v>
+      </c>
+      <c r="P71">
+        <v>20</v>
+      </c>
+      <c r="R71" s="80">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>41</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72" s="1">
         <f t="shared" si="3"/>
         <v>350.01</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D72" s="6">
         <v>450</v>
       </c>
-      <c r="E71" s="6">
+      <c r="E72" s="6">
         <v>15</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F72" s="1">
         <v>415</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="G72" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H71" s="1" t="s">
+      <c r="H72" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I71" s="1" t="s">
+      <c r="I72" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J71" s="1">
+      <c r="J72" s="1">
         <v>40</v>
       </c>
-      <c r="K71" s="1" t="s">
+      <c r="K72" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L71" s="1">
+      <c r="L72" s="1">
         <v>9</v>
       </c>
-      <c r="N71">
+      <c r="N72">
         <v>1100</v>
       </c>
-      <c r="P71">
+      <c r="P72">
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>42</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>97</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C73" s="1">
         <f t="shared" si="3"/>
         <v>450.01</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D73" s="6">
         <v>550</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E73" s="6">
         <v>15</v>
       </c>
-      <c r="F72" s="1">
+      <c r="F73" s="1">
         <v>415</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="G73" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H72" s="1" t="s">
+      <c r="H73" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I72" s="1" t="s">
+      <c r="I73" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J72" s="1">
+      <c r="J73" s="1">
         <v>40</v>
       </c>
-      <c r="K72" s="1" t="s">
+      <c r="K73" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L72" s="1">
+      <c r="L73" s="1">
         <v>9</v>
       </c>
-      <c r="N72">
+      <c r="N73">
         <v>1100</v>
       </c>
-      <c r="P72">
+      <c r="P73">
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>253</v>
-      </c>
-      <c r="B73" t="s">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>252</v>
+      </c>
+      <c r="B74" t="s">
         <v>97</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C74" s="1">
         <f t="shared" si="3"/>
         <v>550.01</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D74" s="6">
         <v>650</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E74" s="6">
         <v>15</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F74" s="1">
         <v>415</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="G74" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H73" s="1" t="s">
+      <c r="H74" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I73" s="1" t="s">
+      <c r="I74" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J73" s="1">
+      <c r="J74" s="1">
         <v>40</v>
       </c>
-      <c r="K73" s="1" t="s">
+      <c r="K74" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L73" s="1">
+      <c r="L74" s="1">
         <v>9</v>
       </c>
-      <c r="P73">
+      <c r="P74">
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:18" s="69" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="69" t="s">
+    <row r="75" spans="1:18" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="B74" s="69" t="s">
+      <c r="B75" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="C74" s="68">
+      <c r="C75" s="68">
         <f t="shared" si="3"/>
         <v>650.01</v>
       </c>
-      <c r="D74" s="77">
+      <c r="D75" s="77">
         <v>750</v>
       </c>
-      <c r="E74" s="77">
+      <c r="E75" s="77">
         <v>15</v>
       </c>
-      <c r="F74" s="68">
+      <c r="F75" s="68">
         <v>415</v>
       </c>
-      <c r="G74" s="68" t="s">
+      <c r="G75" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="H74" s="68" t="s">
+      <c r="H75" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="I74" s="68" t="s">
+      <c r="I75" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="J74" s="68">
+      <c r="J75" s="68">
         <v>55</v>
       </c>
-      <c r="K74" s="68" t="s">
+      <c r="K75" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="L74" s="68">
+      <c r="L75" s="68">
         <v>9</v>
       </c>
-      <c r="M74" s="68"/>
-      <c r="N74" s="69">
+      <c r="M75" s="68"/>
+      <c r="N75" s="69">
         <v>1100</v>
       </c>
-      <c r="O74" s="68"/>
-      <c r="P74" s="69">
+      <c r="O75" s="68"/>
+      <c r="P75" s="69">
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>254</v>
-      </c>
-      <c r="B75" t="s">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>253</v>
+      </c>
+      <c r="B76" t="s">
         <v>97</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C76" s="1">
         <f t="shared" si="3"/>
         <v>750.01</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D76" s="6">
         <v>850</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E76" s="6">
         <v>10</v>
       </c>
-      <c r="F75" s="1">
+      <c r="F76" s="1">
         <v>415</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="G76" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H75" s="1" t="s">
+      <c r="H76" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I75" s="1" t="s">
+      <c r="I76" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J75" s="1">
+      <c r="J76" s="1">
         <v>55</v>
       </c>
-      <c r="K75" s="1" t="s">
+      <c r="K76" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L75" s="1">
+      <c r="L76" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>37</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>97</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C77" s="1">
         <f t="shared" si="3"/>
         <v>850.01</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D77" s="6">
         <v>1000</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E77" s="6">
         <v>10</v>
       </c>
-      <c r="F76" s="1">
+      <c r="F77" s="1">
         <v>415</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="G77" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="H77" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I76" s="1" t="s">
+      <c r="I77" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J76" s="1">
+      <c r="J77" s="1">
         <v>55</v>
       </c>
-      <c r="K76" s="1" t="s">
+      <c r="K77" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L76" s="1">
+      <c r="L77" s="1">
         <v>7</v>
       </c>
-      <c r="N76">
+      <c r="N77">
         <v>1300</v>
       </c>
-      <c r="P76">
+      <c r="P77">
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>255</v>
-      </c>
-      <c r="B77" t="s">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>254</v>
+      </c>
+      <c r="B78" t="s">
         <v>97</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C78" s="1">
         <f t="shared" si="3"/>
         <v>1000.01</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D78" s="6">
         <v>1400</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E78" s="6">
         <v>7</v>
       </c>
-      <c r="F77" s="1">
+      <c r="F78" s="1">
         <v>415</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="G78" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H77" s="1" t="s">
+      <c r="H78" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I77" s="1" t="s">
+      <c r="I78" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J77" s="1">
+      <c r="J78" s="1">
         <v>55</v>
       </c>
-      <c r="K77" s="1" t="s">
+      <c r="K78" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L77" s="1">
+      <c r="L78" s="1">
         <v>7</v>
       </c>
-      <c r="N77">
+      <c r="N78">
         <v>1100</v>
       </c>
-      <c r="P77">
+      <c r="P78">
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="39" t="s">
+    <row r="79" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="B78" s="39" t="s">
+      <c r="B79" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="C78" s="78">
+      <c r="C79" s="78">
         <f t="shared" si="3"/>
         <v>1400.01</v>
       </c>
-      <c r="D78" s="72">
+      <c r="D79" s="72">
         <v>1800</v>
       </c>
-      <c r="E78" s="72">
+      <c r="E79" s="72">
         <v>6</v>
-      </c>
-      <c r="F78" s="78">
-        <v>415</v>
-      </c>
-      <c r="G78" s="78" t="s">
-        <v>22</v>
-      </c>
-      <c r="H78" s="78" t="s">
-        <v>95</v>
-      </c>
-      <c r="I78" s="78" t="s">
-        <v>95</v>
-      </c>
-      <c r="J78" s="78">
-        <v>60</v>
-      </c>
-      <c r="K78" s="78" t="s">
-        <v>56</v>
-      </c>
-      <c r="L78" s="78">
-        <v>7</v>
-      </c>
-      <c r="M78" s="78"/>
-      <c r="N78" s="39">
-        <v>1300</v>
-      </c>
-      <c r="O78" s="78"/>
-      <c r="P78" s="39">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="B79" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="C79" s="78">
-        <f t="shared" ref="C79:C82" si="4">D78+0.01</f>
-        <v>1800.01</v>
-      </c>
-      <c r="D79" s="78">
-        <v>2600</v>
-      </c>
-      <c r="E79" s="78">
-        <v>5</v>
       </c>
       <c r="F79" s="78">
         <v>415</v>
@@ -10987,17 +11044,17 @@
         <v>95</v>
       </c>
       <c r="J79" s="78">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K79" s="78" t="s">
         <v>56</v>
       </c>
       <c r="L79" s="78">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M79" s="78"/>
       <c r="N79" s="39">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="O79" s="78"/>
       <c r="P79" s="39">
@@ -11006,17 +11063,17 @@
     </row>
     <row r="80" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="39" t="s">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="B80" s="39" t="s">
         <v>97</v>
       </c>
       <c r="C80" s="78">
-        <f t="shared" si="4"/>
-        <v>2600.0100000000002</v>
+        <f t="shared" ref="C80:C83" si="4">D79+0.01</f>
+        <v>1800.01</v>
       </c>
       <c r="D80" s="78">
-        <v>3600</v>
+        <v>2600</v>
       </c>
       <c r="E80" s="78">
         <v>5</v>
@@ -11044,7 +11101,7 @@
       </c>
       <c r="M80" s="78"/>
       <c r="N80" s="39">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="O80" s="78"/>
       <c r="P80" s="39">
@@ -11053,20 +11110,20 @@
     </row>
     <row r="81" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="39" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B81" s="39" t="s">
         <v>97</v>
       </c>
       <c r="C81" s="78">
         <f t="shared" si="4"/>
-        <v>3600.01</v>
+        <v>2600.0100000000002</v>
       </c>
       <c r="D81" s="78">
         <v>3600</v>
       </c>
       <c r="E81" s="78">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F81" s="78">
         <v>415</v>
@@ -11100,7 +11157,7 @@
     </row>
     <row r="82" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="39" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B82" s="39" t="s">
         <v>97</v>
@@ -11110,7 +11167,7 @@
         <v>3600.01</v>
       </c>
       <c r="D82" s="78">
-        <v>4800</v>
+        <v>3600</v>
       </c>
       <c r="E82" s="78">
         <v>9</v>
@@ -11128,13 +11185,13 @@
         <v>95</v>
       </c>
       <c r="J82" s="78">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K82" s="78" t="s">
         <v>56</v>
       </c>
       <c r="L82" s="78">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M82" s="78"/>
       <c r="N82" s="39">
@@ -11147,20 +11204,20 @@
     </row>
     <row r="83" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="39" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B83" s="39" t="s">
         <v>97</v>
       </c>
       <c r="C83" s="78">
-        <f t="shared" ref="C83" si="5">D82+0.01</f>
-        <v>4800.01</v>
+        <f t="shared" si="4"/>
+        <v>3600.01</v>
       </c>
       <c r="D83" s="78">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="E83" s="78">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F83" s="78">
         <v>415</v>
@@ -11175,81 +11232,83 @@
         <v>95</v>
       </c>
       <c r="J83" s="78">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K83" s="78" t="s">
         <v>56</v>
       </c>
       <c r="L83" s="78">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M83" s="78"/>
       <c r="N83" s="39">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="O83" s="78"/>
       <c r="P83" s="39">
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A86" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B86" s="3" t="s">
+    <row r="84" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="B84" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="C86" s="1">
-        <f>D84+0.01</f>
-        <v>0.01</v>
-      </c>
-      <c r="D86" s="1">
-        <v>170</v>
-      </c>
-      <c r="E86" s="1">
+      <c r="C84" s="78">
+        <f t="shared" ref="C84" si="5">D83+0.01</f>
+        <v>4800.01</v>
+      </c>
+      <c r="D84" s="78">
+        <v>5000</v>
+      </c>
+      <c r="E84" s="78">
+        <v>5</v>
+      </c>
+      <c r="F84" s="78">
+        <v>415</v>
+      </c>
+      <c r="G84" s="78" t="s">
+        <v>22</v>
+      </c>
+      <c r="H84" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="I84" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="J84" s="78">
+        <v>101</v>
+      </c>
+      <c r="K84" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="L84" s="78">
+        <v>9</v>
+      </c>
+      <c r="M84" s="78"/>
+      <c r="N84" s="39">
+        <v>2500</v>
+      </c>
+      <c r="O84" s="78"/>
+      <c r="P84" s="39">
         <v>10</v>
-      </c>
-      <c r="F86" s="1">
-        <v>230</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J86" s="1">
-        <v>30</v>
-      </c>
-      <c r="K86" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L86" s="1">
-        <v>8</v>
-      </c>
-      <c r="N86" s="1"/>
-      <c r="O86"/>
-      <c r="P86" s="1"/>
-      <c r="R86">
-        <v>418</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C87" s="1">
-        <f>D86+0.01</f>
-        <v>170.01</v>
+        <f>D85+0.01</f>
+        <v>0.01</v>
       </c>
       <c r="D87" s="1">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="E87" s="1">
         <v>10</v>
@@ -11279,25 +11338,25 @@
       <c r="O87"/>
       <c r="P87" s="1"/>
       <c r="R87">
-        <v>474</v>
+        <v>418</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C88" s="1">
         <f>D87+0.01</f>
-        <v>250.01</v>
+        <v>170.01</v>
       </c>
       <c r="D88" s="1">
         <v>250</v>
       </c>
       <c r="E88" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F88" s="1">
         <v>230</v>
@@ -11318,52 +11377,97 @@
         <v>56</v>
       </c>
       <c r="L88" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N88" s="1"/>
       <c r="O88"/>
       <c r="P88" s="1"/>
-    </row>
-    <row r="89" spans="1:18" s="69" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="67" t="s">
-        <v>259</v>
-      </c>
-      <c r="B89" s="67" t="s">
+      <c r="R88">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A89" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C89" s="68">
+      <c r="C89" s="1">
         <f>D88+0.01</f>
         <v>250.01</v>
       </c>
-      <c r="D89" s="68">
+      <c r="D89" s="1">
+        <v>250</v>
+      </c>
+      <c r="E89" s="1">
+        <v>15</v>
+      </c>
+      <c r="F89" s="1">
+        <v>230</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J89" s="1">
+        <v>30</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L89" s="1">
+        <v>7</v>
+      </c>
+      <c r="N89" s="1"/>
+      <c r="O89"/>
+      <c r="P89" s="1"/>
+    </row>
+    <row r="90" spans="1:18" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="67" t="s">
+        <v>258</v>
+      </c>
+      <c r="B90" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="C90" s="68">
+        <f>D89+0.01</f>
+        <v>250.01</v>
+      </c>
+      <c r="D90" s="68">
         <v>450</v>
       </c>
-      <c r="E89" s="68">
+      <c r="E90" s="68">
         <v>7</v>
       </c>
-      <c r="F89" s="68">
+      <c r="F90" s="68">
         <v>230</v>
       </c>
-      <c r="G89" s="68" t="s">
+      <c r="G90" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="H89" s="68" t="s">
+      <c r="H90" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="I89" s="68" t="s">
+      <c r="I90" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="J89" s="68">
+      <c r="J90" s="68">
         <v>40</v>
       </c>
-      <c r="K89" s="68" t="s">
+      <c r="K90" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="L89" s="68">
+      <c r="L90" s="68">
         <v>5</v>
       </c>
-      <c r="M89" s="68"/>
-      <c r="O89" s="68"/>
+      <c r="M90" s="68"/>
+      <c r="O90" s="68"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:P1" xr:uid="{5FB77DDB-B6D9-4CBA-9145-50EF6FDCE517}"/>
@@ -11376,10 +11480,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1E18F3-2DFA-476D-A4F8-F41E93C21C92}">
-  <dimension ref="A2:L43"/>
+  <dimension ref="A2:L44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11428,10 +11532,10 @@
         <v>116</v>
       </c>
       <c r="K2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -11448,6 +11552,9 @@
         <f>C4/B4</f>
         <v>4</v>
       </c>
+      <c r="E4" t="s">
+        <v>233</v>
+      </c>
       <c r="F4">
         <v>70</v>
       </c>
@@ -11643,6 +11750,9 @@
         <f>C11/B11</f>
         <v>4</v>
       </c>
+      <c r="E11" t="s">
+        <v>233</v>
+      </c>
       <c r="F11">
         <v>90</v>
       </c>
@@ -11790,37 +11900,37 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" s="84" t="s">
         <v>119</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="84">
         <v>19</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="84">
         <v>57</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="84">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="84">
         <v>90</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="85">
         <f t="shared" si="5"/>
         <v>270</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="84">
         <v>24</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="84">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="84">
         <v>240</v>
       </c>
     </row>
@@ -11838,6 +11948,9 @@
         <f>C18/B18</f>
         <v>4</v>
       </c>
+      <c r="E18" t="s">
+        <v>233</v>
+      </c>
       <c r="F18">
         <v>90</v>
       </c>
@@ -11921,34 +12034,35 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" s="84" t="s">
         <v>120</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="84">
         <v>12</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="84">
         <v>57</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="84">
         <f t="shared" si="7"/>
         <v>4.75</v>
       </c>
-      <c r="F21">
+      <c r="E21" s="84"/>
+      <c r="F21" s="84">
         <v>90</v>
       </c>
-      <c r="G21" s="25">
+      <c r="G21" s="85">
         <f t="shared" si="8"/>
         <v>427.5</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="84">
         <v>32</v>
       </c>
-      <c r="I21" s="36">
+      <c r="I21" s="86">
         <f t="shared" si="9"/>
         <v>6.7368421052631575</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="84">
         <v>415</v>
       </c>
     </row>
@@ -12033,6 +12147,9 @@
         <f>C25/B25</f>
         <v>4</v>
       </c>
+      <c r="E25" t="s">
+        <v>233</v>
+      </c>
       <c r="F25">
         <v>140</v>
       </c>
@@ -12062,14 +12179,14 @@
         <v>48</v>
       </c>
       <c r="D26">
-        <f t="shared" ref="D26:D30" si="10">C26/B26</f>
+        <f t="shared" ref="D26:D37" si="10">C26/B26</f>
         <v>3.2</v>
       </c>
       <c r="F26">
         <v>140</v>
       </c>
       <c r="G26" s="25">
-        <f t="shared" ref="G26:G30" si="11">F26*D26</f>
+        <f t="shared" ref="G26:G31" si="11">F26*D26</f>
         <v>448</v>
       </c>
       <c r="H26">
@@ -12215,11 +12332,14 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="G31" s="25"/>
+      <c r="G31" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B32">
         <v>12</v>
@@ -12227,119 +12347,192 @@
       <c r="C32">
         <v>48</v>
       </c>
+      <c r="D32">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
       <c r="E32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F32">
         <v>150</v>
       </c>
-      <c r="G32" s="25"/>
+      <c r="G32" s="25">
+        <f>F32*D32</f>
+        <v>600</v>
+      </c>
       <c r="H32">
         <v>48</v>
       </c>
+      <c r="I32">
+        <f t="shared" ref="I31:I37" si="13">H32/D32</f>
+        <v>12</v>
+      </c>
       <c r="J32">
         <v>415</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B33">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C33">
-        <v>57</v>
+        <v>48</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="10"/>
+        <v>3.2</v>
       </c>
       <c r="E33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F33">
         <v>150</v>
       </c>
-      <c r="G33" s="25"/>
+      <c r="G33" s="25">
+        <f t="shared" ref="G33:G37" si="14">F33*D33</f>
+        <v>480</v>
+      </c>
       <c r="H33">
         <v>48</v>
       </c>
+      <c r="I33">
+        <f t="shared" si="13"/>
+        <v>15</v>
+      </c>
       <c r="J33">
         <v>415</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>262</v>
+        <v>261</v>
+      </c>
+      <c r="B34">
+        <v>19</v>
+      </c>
+      <c r="C34">
+        <v>48</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="10"/>
+        <v>2.5263157894736841</v>
       </c>
       <c r="F34">
         <v>150</v>
       </c>
-      <c r="G34" s="25"/>
+      <c r="G34" s="25">
+        <f t="shared" si="14"/>
+        <v>378.9473684210526</v>
+      </c>
       <c r="H34">
         <v>48</v>
       </c>
+      <c r="I34">
+        <f t="shared" si="13"/>
+        <v>19</v>
+      </c>
       <c r="J34">
         <v>415</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>262</v>
+        <v>261</v>
+      </c>
+      <c r="B35">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>57</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="10"/>
+        <v>4.75</v>
       </c>
       <c r="F35">
         <v>150</v>
       </c>
-      <c r="G35" s="25"/>
+      <c r="G35" s="25">
+        <f t="shared" si="14"/>
+        <v>712.5</v>
+      </c>
       <c r="H35">
         <v>48</v>
       </c>
+      <c r="I35">
+        <f t="shared" si="13"/>
+        <v>10.105263157894736</v>
+      </c>
       <c r="J35">
         <v>415</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>262</v>
+        <v>261</v>
+      </c>
+      <c r="B36">
+        <v>15</v>
+      </c>
+      <c r="C36">
+        <v>57</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="10"/>
+        <v>3.8</v>
       </c>
       <c r="F36">
         <v>150</v>
       </c>
-      <c r="G36" s="25"/>
+      <c r="G36" s="25">
+        <f t="shared" si="14"/>
+        <v>570</v>
+      </c>
       <c r="H36">
         <v>48</v>
       </c>
+      <c r="I36">
+        <f t="shared" si="13"/>
+        <v>12.631578947368421</v>
+      </c>
       <c r="J36">
         <v>415</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>122</v>
-      </c>
-      <c r="B38">
-        <v>12</v>
-      </c>
-      <c r="C38">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>261</v>
+      </c>
+      <c r="B37">
+        <v>19</v>
+      </c>
+      <c r="C37">
+        <v>57</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37">
+        <v>150</v>
+      </c>
+      <c r="G37" s="25">
+        <f t="shared" si="14"/>
+        <v>450</v>
+      </c>
+      <c r="H37">
         <v>48</v>
       </c>
-      <c r="D38">
-        <f>C38/B38</f>
-        <v>4</v>
-      </c>
-      <c r="F38">
-        <v>220</v>
-      </c>
-      <c r="G38" s="25">
-        <f>F38*D38</f>
-        <v>880</v>
-      </c>
-      <c r="H38">
-        <v>24</v>
-      </c>
-      <c r="I38">
-        <f>H38/D38</f>
-        <v>6</v>
-      </c>
-      <c r="J38">
-        <v>415</v>
+      <c r="I37">
+        <f t="shared" si="13"/>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
@@ -12347,28 +12540,31 @@
         <v>122</v>
       </c>
       <c r="B39">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C39">
         <v>48</v>
       </c>
       <c r="D39">
-        <f t="shared" ref="D39:D43" si="13">C39/B39</f>
-        <v>3.2</v>
+        <f>C39/B39</f>
+        <v>4</v>
+      </c>
+      <c r="E39" t="s">
+        <v>233</v>
       </c>
       <c r="F39">
         <v>220</v>
       </c>
       <c r="G39" s="25">
-        <f t="shared" ref="G39:G43" si="14">F39*D39</f>
-        <v>704</v>
+        <f>F39*D39</f>
+        <v>880</v>
       </c>
       <c r="H39">
         <v>24</v>
       </c>
       <c r="I39">
-        <f t="shared" ref="I39:I42" si="15">H39/D39</f>
-        <v>7.5</v>
+        <f>H39/D39</f>
+        <v>6</v>
       </c>
       <c r="J39">
         <v>415</v>
@@ -12379,28 +12575,28 @@
         <v>122</v>
       </c>
       <c r="B40">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C40">
         <v>48</v>
       </c>
-      <c r="D40" s="36">
-        <f t="shared" si="13"/>
-        <v>2.5263157894736841</v>
+      <c r="D40">
+        <f t="shared" ref="D40:D44" si="15">C40/B40</f>
+        <v>3.2</v>
       </c>
       <c r="F40">
         <v>220</v>
       </c>
       <c r="G40" s="25">
-        <f t="shared" si="14"/>
-        <v>555.78947368421052</v>
+        <f t="shared" ref="G40:G44" si="16">F40*D40</f>
+        <v>704</v>
       </c>
       <c r="H40">
         <v>24</v>
       </c>
       <c r="I40">
-        <f t="shared" si="15"/>
-        <v>9.5</v>
+        <f t="shared" ref="I40:I43" si="17">H40/D40</f>
+        <v>7.5</v>
       </c>
       <c r="J40">
         <v>415</v>
@@ -12411,28 +12607,28 @@
         <v>122</v>
       </c>
       <c r="B41">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C41">
-        <v>57</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="13"/>
-        <v>4.75</v>
+        <v>48</v>
+      </c>
+      <c r="D41" s="36">
+        <f t="shared" si="15"/>
+        <v>2.5263157894736841</v>
       </c>
       <c r="F41">
         <v>220</v>
       </c>
       <c r="G41" s="25">
-        <f t="shared" si="14"/>
-        <v>1045</v>
+        <f t="shared" si="16"/>
+        <v>555.78947368421052</v>
       </c>
       <c r="H41">
         <v>24</v>
       </c>
-      <c r="I41" s="36">
-        <f t="shared" si="15"/>
-        <v>5.0526315789473681</v>
+      <c r="I41">
+        <f t="shared" si="17"/>
+        <v>9.5</v>
       </c>
       <c r="J41">
         <v>415</v>
@@ -12443,28 +12639,28 @@
         <v>122</v>
       </c>
       <c r="B42">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C42">
         <v>57</v>
       </c>
       <c r="D42">
-        <f t="shared" si="13"/>
-        <v>3.8</v>
+        <f t="shared" si="15"/>
+        <v>4.75</v>
       </c>
       <c r="F42">
         <v>220</v>
       </c>
       <c r="G42" s="25">
-        <f t="shared" si="14"/>
-        <v>836</v>
+        <f t="shared" si="16"/>
+        <v>1045</v>
       </c>
       <c r="H42">
         <v>24</v>
       </c>
       <c r="I42" s="36">
-        <f t="shared" si="15"/>
-        <v>6.3157894736842106</v>
+        <f t="shared" si="17"/>
+        <v>5.0526315789473681</v>
       </c>
       <c r="J42">
         <v>415</v>
@@ -12475,33 +12671,65 @@
         <v>122</v>
       </c>
       <c r="B43">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C43">
         <v>57</v>
       </c>
       <c r="D43">
-        <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="E43" t="s">
-        <v>91</v>
+        <f t="shared" si="15"/>
+        <v>3.8</v>
       </c>
       <c r="F43">
         <v>220</v>
       </c>
       <c r="G43" s="25">
-        <f t="shared" si="14"/>
-        <v>660</v>
+        <f t="shared" si="16"/>
+        <v>836</v>
       </c>
       <c r="H43">
         <v>24</v>
       </c>
-      <c r="I43">
-        <f>H43/D43</f>
+      <c r="I43" s="36">
+        <f t="shared" si="17"/>
+        <v>6.3157894736842106</v>
+      </c>
+      <c r="J43">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44">
+        <v>19</v>
+      </c>
+      <c r="C44">
+        <v>57</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="E44" t="s">
+        <v>91</v>
+      </c>
+      <c r="F44">
+        <v>220</v>
+      </c>
+      <c r="G44" s="25">
+        <f t="shared" si="16"/>
+        <v>660</v>
+      </c>
+      <c r="H44">
+        <v>24</v>
+      </c>
+      <c r="I44">
+        <f>H44/D44</f>
         <v>8</v>
       </c>
-      <c r="J43">
+      <c r="J44">
         <v>415</v>
       </c>
     </row>
@@ -12516,7 +12744,7 @@
   <dimension ref="A2:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12535,38 +12763,38 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>233</v>
-      </c>
       <c r="F2" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G2" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>246</v>
-      </c>
       <c r="I2" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="87">
         <v>15</v>
       </c>
       <c r="D3" s="6">
@@ -12597,7 +12825,7 @@
       <c r="B4" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="87">
         <v>19</v>
       </c>
       <c r="D4" s="6">
@@ -12626,7 +12854,7 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="64" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C5" s="6">
         <v>12</v>
@@ -12638,7 +12866,7 @@
         <v>57</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G5" s="6">
         <v>22400</v>
@@ -12657,7 +12885,7 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6" s="64" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C6" s="6">
         <v>18</v>
@@ -12669,7 +12897,7 @@
         <v>57</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G6" s="6">
         <v>22400</v>
@@ -12688,7 +12916,7 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C7" s="6">
         <v>12</v>
@@ -12700,7 +12928,7 @@
         <v>57</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G7" s="6">
         <v>29000</v>
@@ -12719,7 +12947,7 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C8" s="6">
         <v>15</v>
@@ -12731,7 +12959,7 @@
         <v>57</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G8" s="6">
         <v>29000</v>
@@ -12750,7 +12978,7 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C9" s="6">
         <v>15</v>
@@ -12762,7 +12990,7 @@
         <v>57</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G9" s="6">
         <v>60000</v>
@@ -12780,7 +13008,7 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C10" s="6">
         <v>15</v>
@@ -12792,7 +13020,7 @@
         <v>57</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G10" s="6">
         <v>95000</v>

--- a/Calculations gfa.xlsx
+++ b/Calculations gfa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robh\Documents\GitHub\SWS_logic_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F8F1B3-FF8A-42B1-8637-2C5C71A1955A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE5B0E6-222C-451F-939B-0425D3D8CE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="440" windowWidth="23540" windowHeight="15120" tabRatio="758" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="370" yWindow="880" windowWidth="25230" windowHeight="15120" tabRatio="758" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -8404,7 +8404,7 @@
   <dimension ref="A1:R90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
@@ -12365,7 +12365,7 @@
         <v>48</v>
       </c>
       <c r="I32">
-        <f t="shared" ref="I31:I37" si="13">H32/D32</f>
+        <f t="shared" ref="I32:I37" si="13">H32/D32</f>
         <v>12</v>
       </c>
       <c r="J32">

--- a/Calculations gfa.xlsx
+++ b/Calculations gfa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robh\Documents\GitHub\SWS_logic_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE5B0E6-222C-451F-939B-0425D3D8CE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CC667C-ECBA-4305-94CF-7B000177FDC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="370" yWindow="880" windowWidth="25230" windowHeight="15120" tabRatio="758" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="370" yWindow="880" windowWidth="25230" windowHeight="15120" tabRatio="758" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -541,7 +541,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="355">
   <si>
     <t>Name</t>
   </si>
@@ -792,9 +792,6 @@
     <t>L-Rail with wireless-rubber 2.9kg/m</t>
   </si>
   <si>
-    <t>WM95 Rail with wireless-rubber 2.1kg/m</t>
-  </si>
-  <si>
     <t>8 5/8" 4swg</t>
   </si>
   <si>
@@ -1176,9 +1173,6 @@
     <t>95mm  WM95 11.9kg.sqm</t>
   </si>
   <si>
-    <t>95mm  WM95 13.3kg.sqm</t>
-  </si>
-  <si>
     <t>TA5 - RD</t>
   </si>
   <si>
@@ -1588,6 +1582,30 @@
   </si>
   <si>
     <t>75mm Wind  18swg Solid 16 kg/sqm</t>
+  </si>
+  <si>
+    <t>Carrier strip - 0.5kg at 1090mm</t>
+  </si>
+  <si>
+    <t>95mm ins - 5.38kg at 4160mm</t>
+  </si>
+  <si>
+    <t>95mm bottom - 3.38kg at 4091mm</t>
+  </si>
+  <si>
+    <t>95mm  WM95 13.25kg.sqm</t>
+  </si>
+  <si>
+    <t>WM95 Rail with wireless-rubber 1.54kg/m</t>
+  </si>
+  <si>
+    <t>D rubber 1.64</t>
+  </si>
+  <si>
+    <t>GFA 0.72</t>
+  </si>
+  <si>
+    <t>Triple 0.24</t>
   </si>
 </sst>
 </file>
@@ -1599,7 +1617,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1738,6 +1756,12 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1835,7 +1859,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2085,6 +2109,12 @@
     <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4504,17 +4534,17 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B7" s="39" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.35">
@@ -4594,7 +4624,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B3" t="s">
         <v>74</v>
@@ -4612,7 +4642,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B4" t="s">
         <v>78</v>
@@ -4633,7 +4663,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B6" t="s">
         <v>74</v>
@@ -4646,12 +4676,12 @@
         <v>1147.1807396249999</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B7" t="s">
         <v>78</v>
@@ -4664,12 +4694,12 @@
         <v>1845.6863455299999</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B8" t="s">
         <v>79</v>
@@ -4682,15 +4712,15 @@
         <v>2977.5713419599997</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" t="s">
         <v>172</v>
-      </c>
-      <c r="B9" t="s">
-        <v>173</v>
       </c>
       <c r="C9">
         <v>32800</v>
@@ -4700,7 +4730,7 @@
         <v>3344.6691786399997</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -4749,13 +4779,13 @@
         <v>72</v>
       </c>
       <c r="G1" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H1" s="57" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I1" s="58" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J1" s="7"/>
     </row>
@@ -4776,7 +4806,7 @@
         <v>69</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -4799,7 +4829,7 @@
         <v>69</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -4807,7 +4837,7 @@
     </row>
     <row r="4" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B4" s="9">
         <v>332</v>
@@ -4833,7 +4863,7 @@
     </row>
     <row r="5" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B5" s="9">
         <v>552</v>
@@ -4856,7 +4886,7 @@
     </row>
     <row r="6" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B6" s="9">
         <v>599</v>
@@ -4879,7 +4909,7 @@
     </row>
     <row r="7" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B7" s="9">
         <v>1063</v>
@@ -4902,7 +4932,7 @@
     </row>
     <row r="8" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B8" s="9">
         <v>1943</v>
@@ -4925,7 +4955,7 @@
     </row>
     <row r="9" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B9" s="9">
         <v>3503</v>
@@ -4963,7 +4993,7 @@
         <v>43</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H10">
         <v>10</v>
@@ -4989,7 +5019,7 @@
         <v>200</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -5109,7 +5139,7 @@
         <v>200</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H16">
         <v>10</v>
@@ -5144,22 +5174,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>136</v>
-      </c>
       <c r="E1" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -5172,7 +5202,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" s="6">
         <v>300</v>
@@ -5181,7 +5211,7 @@
         <v>500</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E3" s="6">
         <v>3</v>
@@ -5194,7 +5224,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B4" s="6">
         <v>350</v>
@@ -5203,7 +5233,7 @@
         <v>450</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E4" s="6">
         <v>3</v>
@@ -5216,7 +5246,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B5" s="6">
         <v>400</v>
@@ -5225,7 +5255,7 @@
         <v>550</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E5" s="6">
         <v>4</v>
@@ -5238,7 +5268,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B6" s="6">
         <v>450</v>
@@ -5247,7 +5277,7 @@
         <v>550</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E6" s="6">
         <v>4</v>
@@ -5268,7 +5298,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B8" s="6">
         <v>300</v>
@@ -5277,7 +5307,7 @@
         <v>700</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E8" s="6">
         <v>6</v>
@@ -5290,7 +5320,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B9" s="6">
         <v>350</v>
@@ -5299,7 +5329,7 @@
         <v>650</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E9" s="6">
         <v>6</v>
@@ -5312,7 +5342,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B10" s="6">
         <v>400</v>
@@ -5321,7 +5351,7 @@
         <v>1200</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E10" s="6">
         <v>8</v>
@@ -5334,7 +5364,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B11" s="6">
         <v>450</v>
@@ -5343,7 +5373,7 @@
         <v>1100</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E11" s="6">
         <v>8</v>
@@ -5356,7 +5386,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B12" s="6">
         <v>500</v>
@@ -5365,7 +5395,7 @@
         <v>2500</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E12" s="6">
         <v>10</v>
@@ -5378,7 +5408,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B13" s="6">
         <v>550</v>
@@ -5387,7 +5417,7 @@
         <v>2350</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E13" s="6">
         <v>10</v>
@@ -5400,7 +5430,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="71" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B14" s="72">
         <v>600</v>
@@ -5409,7 +5439,7 @@
         <v>2200</v>
       </c>
       <c r="D14" s="72" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E14" s="72">
         <v>10</v>
@@ -5425,7 +5455,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="40" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B16" s="6">
         <v>135</v>
@@ -5434,7 +5464,7 @@
         <v>50</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E16" s="6">
         <v>10</v>
@@ -5446,7 +5476,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="40" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B17" s="6">
         <v>180</v>
@@ -5455,7 +5485,7 @@
         <v>50</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E17" s="6">
         <v>10</v>
@@ -5467,7 +5497,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="40" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B18" s="6">
         <v>205</v>
@@ -5476,7 +5506,7 @@
         <v>50</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E18" s="6">
         <v>10</v>
@@ -5488,7 +5518,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="40" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B19" s="6">
         <v>250</v>
@@ -5497,7 +5527,7 @@
         <v>50</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E19" s="6">
         <v>10</v>
@@ -5509,7 +5539,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="40" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B20" s="6">
         <v>300</v>
@@ -5518,7 +5548,7 @@
         <v>50</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E20" s="6">
         <v>10</v>
@@ -5530,7 +5560,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="40" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B21" s="6">
         <v>350</v>
@@ -5539,7 +5569,7 @@
         <v>50</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E21" s="6">
         <v>10</v>
@@ -5575,15 +5605,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B2">
         <v>1650</v>
@@ -5594,7 +5624,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B3">
         <v>1875</v>
@@ -5613,8 +5643,8 @@
   <dimension ref="A1:P213"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5643,10 +5673,10 @@
         <v>34</v>
       </c>
       <c r="D1" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="47" t="s">
         <v>157</v>
-      </c>
-      <c r="E1" s="47" t="s">
-        <v>158</v>
       </c>
       <c r="F1" s="47" t="s">
         <v>6</v>
@@ -5655,36 +5685,36 @@
         <v>7</v>
       </c>
       <c r="H1" s="52" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I1" s="61" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J1" s="61" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K1" s="62" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="L1" s="61" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O1" s="73" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P1" s="74" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="43" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B2" s="5">
         <v>9.3000000000000007</v>
@@ -5715,21 +5745,21 @@
         <v>190000</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P2" s="75" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="49" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B3" s="23">
         <v>9.3000000000000007</v>
@@ -5759,18 +5789,18 @@
         <v>55</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P3" s="75" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="43" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B4" s="5">
         <v>12.1</v>
@@ -5797,21 +5827,21 @@
       <c r="J4" s="59"/>
       <c r="K4" s="59"/>
       <c r="M4" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P4" s="75" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="49" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B5" s="23">
         <v>12.1</v>
@@ -5841,18 +5871,18 @@
         <v>55</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P5" s="75" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="43" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B6" s="4">
         <v>16</v>
@@ -5879,21 +5909,21 @@
       <c r="J6" s="59"/>
       <c r="K6" s="59"/>
       <c r="M6" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P6" s="75" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="49" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B7" s="24">
         <v>16</v>
@@ -5923,13 +5953,13 @@
         <v>55</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P7" s="75" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -5944,7 +5974,7 @@
     </row>
     <row r="9" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="43" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B9" s="5">
         <v>8.3000000000000007</v>
@@ -5971,21 +6001,21 @@
       <c r="J9" s="59"/>
       <c r="K9" s="59"/>
       <c r="M9" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P9" s="75" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="49" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B10" s="23">
         <v>8.3000000000000007</v>
@@ -6015,18 +6045,18 @@
         <v>55</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P10" s="75" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="43" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B11" s="5">
         <v>10.5</v>
@@ -6053,21 +6083,21 @@
       <c r="J11" s="59"/>
       <c r="K11" s="59"/>
       <c r="M11" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P11" s="75" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="49" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B12" s="23">
         <v>10.5</v>
@@ -6097,18 +6127,18 @@
         <v>55</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P12" s="75" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B13" s="5">
         <v>14</v>
@@ -6135,21 +6165,21 @@
       <c r="J13" s="59"/>
       <c r="K13" s="59"/>
       <c r="M13" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P13" s="75" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="49" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B14" s="23">
         <v>14</v>
@@ -6179,13 +6209,13 @@
         <v>55</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P14" s="75" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6203,7 +6233,7 @@
     </row>
     <row r="16" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="43" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B16" s="5">
         <v>7.5</v>
@@ -6230,21 +6260,21 @@
       <c r="J16" s="59"/>
       <c r="K16" s="59"/>
       <c r="M16" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P16" s="75" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="49" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B17" s="23">
         <v>7.5</v>
@@ -6274,18 +6304,18 @@
         <v>55</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P17" s="75" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="43" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B18" s="5">
         <v>9.6999999999999993</v>
@@ -6312,21 +6342,21 @@
       <c r="J18" s="59"/>
       <c r="K18" s="59"/>
       <c r="M18" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P18" s="75" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="49" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B19" s="23">
         <v>9.6999999999999993</v>
@@ -6356,13 +6386,13 @@
         <v>55</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P19" s="75" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6377,7 +6407,7 @@
     </row>
     <row r="21" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B21" s="51">
         <v>11.4</v>
@@ -6402,16 +6432,16 @@
         <v>0</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O21" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="P21" s="75" t="s">
         <v>316</v>
-      </c>
-      <c r="P21" s="75" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6426,7 +6456,7 @@
     </row>
     <row r="23" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B23" s="5">
         <v>11.9</v>
@@ -6453,24 +6483,24 @@
       <c r="J23" s="59"/>
       <c r="K23" s="59"/>
       <c r="M23" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O23" s="6">
         <v>3.2</v>
       </c>
       <c r="P23" s="75" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="43" t="s">
-        <v>211</v>
+        <v>350</v>
       </c>
       <c r="B24" s="5">
-        <v>13.3</v>
+        <v>13.25</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5">
@@ -6494,21 +6524,21 @@
       <c r="J24" s="59"/>
       <c r="K24" s="59"/>
       <c r="M24" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O24" s="6">
         <v>3.2</v>
       </c>
       <c r="P24" s="75" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="43" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B25" s="5">
         <v>12</v>
@@ -6533,16 +6563,16 @@
       <c r="J25" s="59"/>
       <c r="K25" s="59"/>
       <c r="M25" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O25" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="P25" s="75" t="s">
         <v>316</v>
-      </c>
-      <c r="P25" s="75" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6560,7 +6590,7 @@
     </row>
     <row r="27" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="43" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B27" s="5">
         <v>22</v>
@@ -6589,16 +6619,16 @@
       <c r="J27" s="59"/>
       <c r="K27" s="59"/>
       <c r="M27" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O27" s="6">
         <v>4.3</v>
       </c>
       <c r="P27" s="75" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6613,7 +6643,7 @@
     </row>
     <row r="29" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="43" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B29" s="5">
         <v>4</v>
@@ -6633,21 +6663,21 @@
       </c>
       <c r="H29" s="51"/>
       <c r="M29" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="P29" s="75" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="43" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B30" s="5">
         <v>8</v>
@@ -6667,21 +6697,21 @@
       </c>
       <c r="H30" s="51"/>
       <c r="M30" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="P30" s="75" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="43" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B31" s="5">
         <v>6.5</v>
@@ -6701,21 +6731,21 @@
       </c>
       <c r="H31" s="51"/>
       <c r="M31" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="P31" s="75" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="43" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B32" s="5">
         <v>6.5</v>
@@ -6735,21 +6765,21 @@
       </c>
       <c r="H32" s="51"/>
       <c r="M32" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="P32" s="75" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="43" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B33" s="5">
         <v>7.5</v>
@@ -6769,21 +6799,21 @@
       </c>
       <c r="H33" s="51"/>
       <c r="M33" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="P33" s="75" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="43" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B34" s="5">
         <v>9</v>
@@ -6803,21 +6833,21 @@
       </c>
       <c r="H34" s="51"/>
       <c r="M34" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="P34" s="75" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="43" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B35" s="51">
         <v>9.25</v>
@@ -6837,21 +6867,21 @@
       </c>
       <c r="H35" s="51"/>
       <c r="M35" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="P35" s="75" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="43" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B36" s="51">
         <v>7</v>
@@ -6871,21 +6901,21 @@
       </c>
       <c r="H36" s="51"/>
       <c r="M36" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="P36" s="75" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="43" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B37" s="51">
         <v>8</v>
@@ -6905,21 +6935,21 @@
       </c>
       <c r="H37" s="51"/>
       <c r="M37" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="P37" s="75" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="43" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B38" s="51">
         <v>7</v>
@@ -6939,16 +6969,16 @@
       </c>
       <c r="H38" s="51"/>
       <c r="M38" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O38" s="6" t="s">
         <v>56</v>
       </c>
       <c r="P38" s="75" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -6963,7 +6993,7 @@
     </row>
     <row r="40" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="43" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B40" s="51">
         <v>5</v>
@@ -6983,16 +7013,16 @@
       </c>
       <c r="H40" s="51"/>
       <c r="M40" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O40" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="P40" s="75" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -7197,33 +7227,33 @@
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D1" t="s">
         <v>284</v>
       </c>
-      <c r="C1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D1" t="s">
-        <v>286</v>
-      </c>
       <c r="E1" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2" t="s">
         <v>288</v>
-      </c>
-      <c r="D2" t="s">
-        <v>290</v>
       </c>
       <c r="E2" s="6">
         <v>20</v>
@@ -7232,18 +7262,18 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D3" t="s">
         <v>289</v>
-      </c>
-      <c r="C3" t="s">
-        <v>288</v>
-      </c>
-      <c r="D3" t="s">
-        <v>291</v>
       </c>
       <c r="E3" s="6">
         <v>60</v>
@@ -7252,18 +7282,18 @@
         <v>7.5</v>
       </c>
       <c r="G3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E4" s="6">
         <v>235</v>
@@ -7272,18 +7302,18 @@
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E5" s="6">
         <v>10</v>
@@ -7292,18 +7322,18 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E6" s="72">
         <v>20</v>
@@ -7312,18 +7342,18 @@
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E7" s="72">
         <v>30</v>
@@ -7332,13 +7362,13 @@
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E11" s="72"/>
       <c r="F11" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -7349,10 +7379,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB485315-044F-4FB0-A3DD-44B741CAB625}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7370,10 +7400,10 @@
         <v>64</v>
       </c>
       <c r="C1" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="31" t="s">
         <v>93</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -7395,7 +7425,8 @@
         <v>81</v>
       </c>
       <c r="B4" s="27">
-        <v>4</v>
+        <f>B3+1.64+0.5</f>
+        <v>5.34</v>
       </c>
       <c r="C4">
         <v>90</v>
@@ -7409,7 +7440,8 @@
         <v>80</v>
       </c>
       <c r="B5" s="27">
-        <v>4.2</v>
+        <f>B3+0.72+0.5</f>
+        <v>4.42</v>
       </c>
       <c r="C5">
         <v>110</v>
@@ -7437,7 +7469,8 @@
         <v>82</v>
       </c>
       <c r="B7" s="27">
-        <v>2.9</v>
+        <f>B6+0.72+0.5</f>
+        <v>3.3200000000000003</v>
       </c>
       <c r="C7">
         <v>110</v>
@@ -7448,10 +7481,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B8" s="27">
-        <v>1.1000000000000001</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>112</v>
@@ -7476,10 +7509,11 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="28" t="s">
-        <v>83</v>
+        <v>351</v>
       </c>
       <c r="B10" s="30">
-        <v>1.5</v>
+        <f>0.82+0.72</f>
+        <v>1.54</v>
       </c>
       <c r="C10">
         <v>120</v>
@@ -7490,7 +7524,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="76" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B12" s="39">
         <v>1</v>
@@ -7504,7 +7538,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B13" s="39">
         <v>1.5</v>
@@ -7518,7 +7552,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B14" s="39">
         <v>2.5</v>
@@ -7532,7 +7566,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B15" s="39">
         <v>2</v>
@@ -7544,8 +7578,69 @@
         <v>80</v>
       </c>
     </row>
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.35">
+      <c r="A19" s="89" t="s">
+        <v>347</v>
+      </c>
+      <c r="B19">
+        <v>0.5</v>
+      </c>
+      <c r="C19">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="D19">
+        <f>B19/C19</f>
+        <v>0.4587155963302752</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.35">
+      <c r="A20" s="89" t="s">
+        <v>348</v>
+      </c>
+      <c r="B20">
+        <v>5.38</v>
+      </c>
+      <c r="C20">
+        <v>4.16</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="D20:D21" si="0">B20/C20</f>
+        <v>1.2932692307692306</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.35">
+      <c r="A21" s="89" t="s">
+        <v>349</v>
+      </c>
+      <c r="B21">
+        <v>3.38</v>
+      </c>
+      <c r="C21">
+        <v>4.0910000000000002</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0.82620386213639685</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="88" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="88" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="88" t="s">
+        <v>354</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7572,27 +7667,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>130</v>
-      </c>
-      <c r="G1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B3" s="6">
         <v>65</v>
@@ -7606,12 +7701,12 @@
         <v>46</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B4" s="6">
         <v>100</v>
@@ -7625,12 +7720,12 @@
         <v>81</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B5" s="6">
         <v>65</v>
@@ -7644,12 +7739,12 @@
         <v>46</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B6" s="6">
         <v>100</v>
@@ -7663,36 +7758,36 @@
         <v>81</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C8" s="6">
         <f>17-5</f>
         <v>12</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C9" s="6">
         <f>25-5</f>
         <v>20</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B10" s="6">
         <v>60</v>
@@ -7702,12 +7797,12 @@
         <v>24</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B11" s="6">
         <v>70</v>
@@ -7717,12 +7812,12 @@
         <v>37</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B12" s="6">
         <v>60</v>
@@ -7731,12 +7826,12 @@
         <v>27</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B13" s="6">
         <v>75</v>
@@ -7745,12 +7840,12 @@
         <v>32</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B14" s="6">
         <v>90</v>
@@ -7759,7 +7854,7 @@
         <v>57</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -7793,7 +7888,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>57</v>
@@ -7814,27 +7909,27 @@
         <v>36</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L1" s="63" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D2" s="15">
         <v>60</v>
@@ -7860,13 +7955,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D3" s="15">
         <v>70</v>
@@ -7892,13 +7987,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D4" s="15">
         <v>70</v>
@@ -7927,7 +8022,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>60</v>
@@ -7963,7 +8058,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>59</v>
@@ -7996,13 +8091,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D7" s="15">
         <v>127</v>
@@ -8032,13 +8127,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D8" s="34">
         <v>127</v>
@@ -8058,7 +8153,7 @@
       </c>
       <c r="I8" s="34"/>
       <c r="J8" s="34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K8" s="34"/>
       <c r="L8">
@@ -8071,10 +8166,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D9" s="33">
         <v>139</v>
@@ -8104,10 +8199,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>58</v>
@@ -8140,13 +8235,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D11" s="33">
         <v>168</v>
@@ -8176,10 +8271,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>61</v>
@@ -8212,13 +8307,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D13" s="16">
         <v>193</v>
@@ -8248,13 +8343,13 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D14" s="33">
         <v>219</v>
@@ -8284,13 +8379,13 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D15" s="35">
         <v>229</v>
@@ -8310,7 +8405,7 @@
       </c>
       <c r="I15" s="34"/>
       <c r="J15" s="34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K15" s="34"/>
       <c r="L15">
@@ -8320,10 +8415,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C16" s="34"/>
       <c r="D16" s="35">
@@ -8344,7 +8439,7 @@
       </c>
       <c r="I16" s="34"/>
       <c r="J16" s="34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K16" s="34"/>
       <c r="L16">
@@ -8354,10 +8449,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C17" s="34"/>
       <c r="D17" s="35">
@@ -8378,7 +8473,7 @@
       </c>
       <c r="I17" s="34"/>
       <c r="J17" s="34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K17" s="34"/>
       <c r="L17">
@@ -8389,7 +8484,7 @@
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C24" s="39"/>
       <c r="D24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -8403,7 +8498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB77DDB-B6D9-4CBA-9145-50EF6FDCE517}">
   <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
     </sheetView>
@@ -8428,7 +8523,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>30</v>
@@ -8440,7 +8535,7 @@
         <v>14</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>20</v>
@@ -8452,25 +8547,25 @@
         <v>33</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>54</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N1" s="53" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O1" s="11" t="s">
         <v>11</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
@@ -8499,7 +8594,7 @@
         <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>55</v>
@@ -8540,7 +8635,7 @@
         <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>55</v>
@@ -8581,7 +8676,7 @@
         <v>59</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>55</v>
@@ -8622,7 +8717,7 @@
         <v>59</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>55</v>
@@ -8663,7 +8758,7 @@
         <v>59</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>55</v>
@@ -8704,7 +8799,7 @@
         <v>59</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>55</v>
@@ -8745,7 +8840,7 @@
         <v>92</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>55</v>
@@ -8786,7 +8881,7 @@
         <v>92</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>55</v>
@@ -8806,10 +8901,10 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C12" s="1">
         <f>D10+0.01</f>
@@ -8834,7 +8929,7 @@
         <v>89</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>55</v>
@@ -8848,10 +8943,10 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C13" s="1">
         <f>D12+0.01</f>
@@ -8876,7 +8971,7 @@
         <v>89</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>55</v>
@@ -8890,10 +8985,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -8914,7 +9009,7 @@
         <v>48</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>55</v>
@@ -8928,10 +9023,10 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C16" s="1">
         <f>D15+0.01</f>
@@ -8953,7 +9048,7 @@
         <v>48</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>55</v>
@@ -8967,10 +9062,10 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" ref="C17:C27" si="0">D16+0.01</f>
@@ -8992,7 +9087,7 @@
         <v>48</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>55</v>
@@ -9006,10 +9101,10 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="0"/>
@@ -9031,7 +9126,7 @@
         <v>48</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>55</v>
@@ -9045,10 +9140,10 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="0"/>
@@ -9070,7 +9165,7 @@
         <v>48</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>55</v>
@@ -9084,10 +9179,10 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="0"/>
@@ -9109,7 +9204,7 @@
         <v>48</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>55</v>
@@ -9123,10 +9218,10 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="0"/>
@@ -9148,7 +9243,7 @@
         <v>60</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>55</v>
@@ -9162,10 +9257,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="0"/>
@@ -9187,7 +9282,7 @@
         <v>60</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>55</v>
@@ -9201,10 +9296,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="0"/>
@@ -9226,7 +9321,7 @@
         <v>60</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>55</v>
@@ -9240,10 +9335,10 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="0"/>
@@ -9265,7 +9360,7 @@
         <v>60</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>55</v>
@@ -9279,10 +9374,10 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="0"/>
@@ -9304,7 +9399,7 @@
         <v>60</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>55</v>
@@ -9318,10 +9413,10 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="0"/>
@@ -9343,7 +9438,7 @@
         <v>60</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>55</v>
@@ -9357,10 +9452,10 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="0"/>
@@ -9382,7 +9477,7 @@
         <v>60</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>55</v>
@@ -9417,10 +9512,10 @@
         <v>22</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J30" s="1">
         <v>30</v>
@@ -9455,10 +9550,10 @@
         <v>22</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J31" s="1">
         <v>40</v>
@@ -9472,7 +9567,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>43</v>
@@ -9493,10 +9588,10 @@
         <v>22</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J32" s="1">
         <v>40</v>
@@ -9531,10 +9626,10 @@
         <v>22</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J33" s="1">
         <v>40</v>
@@ -9569,10 +9664,10 @@
         <v>22</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J34" s="1">
         <v>40</v>
@@ -9607,10 +9702,10 @@
         <v>22</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J35" s="1">
         <v>55</v>
@@ -9645,10 +9740,10 @@
         <v>22</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J36" s="1">
         <v>55</v>
@@ -9683,10 +9778,10 @@
         <v>22</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J37" s="1">
         <v>55</v>
@@ -9703,7 +9798,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>70</v>
@@ -9724,10 +9819,10 @@
         <v>22</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J39" s="1">
         <v>30</v>
@@ -9738,7 +9833,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>70</v>
@@ -9760,10 +9855,10 @@
         <v>22</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J40" s="1">
         <v>30</v>
@@ -9774,7 +9869,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>70</v>
@@ -9796,10 +9891,10 @@
         <v>22</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J41" s="1">
         <v>30</v>
@@ -9810,7 +9905,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>70</v>
@@ -9832,10 +9927,10 @@
         <v>22</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J42" s="1">
         <v>40</v>
@@ -9846,7 +9941,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>70</v>
@@ -9868,10 +9963,10 @@
         <v>22</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J43" s="1">
         <v>40</v>
@@ -9882,7 +9977,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>70</v>
@@ -9904,10 +9999,10 @@
         <v>22</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J44" s="1">
         <v>55</v>
@@ -9918,7 +10013,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>70</v>
@@ -9940,10 +10035,10 @@
         <v>22</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J45" s="1">
         <v>55</v>
@@ -9954,7 +10049,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>70</v>
@@ -9976,10 +10071,10 @@
         <v>22</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J46" s="1">
         <v>55</v>
@@ -9990,7 +10085,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>70</v>
@@ -10012,10 +10107,10 @@
         <v>22</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J47" s="1">
         <v>55</v>
@@ -10029,7 +10124,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>43</v>
@@ -10050,15 +10145,15 @@
         <v>22</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>43</v>
@@ -10079,15 +10174,15 @@
         <v>22</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>43</v>
@@ -10108,15 +10203,15 @@
         <v>22</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>43</v>
@@ -10137,10 +10232,10 @@
         <v>22</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.35">
@@ -10148,10 +10243,10 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C54" s="2">
         <v>0</v>
@@ -10166,7 +10261,7 @@
         <v>230</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J54" s="1">
         <v>25.4</v>
@@ -10177,10 +10272,10 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="C55" s="2">
         <v>15.01</v>
@@ -10195,7 +10290,7 @@
         <v>230</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J55" s="1">
         <v>25.4</v>
@@ -10206,10 +10301,10 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C56" s="2">
         <v>62.01</v>
@@ -10224,7 +10319,7 @@
         <v>230</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J56" s="1">
         <v>25.4</v>
@@ -10241,10 +10336,10 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C59" s="2">
         <v>0</v>
@@ -10260,13 +10355,13 @@
         <v>230</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J59" s="1">
         <v>25.4</v>
@@ -10283,10 +10378,10 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C60" s="2">
         <v>0</v>
@@ -10303,13 +10398,13 @@
         <v>415</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J60" s="1">
         <v>25.4</v>
@@ -10326,10 +10421,10 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C61" s="2">
         <f>D60+0.01</f>
@@ -10347,13 +10442,13 @@
         <v>415</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J61" s="1">
         <v>25.4</v>
@@ -10370,10 +10465,10 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C62" s="2">
         <f>D61+0.01</f>
@@ -10391,13 +10486,13 @@
         <v>415</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J62" s="1">
         <v>25.4</v>
@@ -10414,10 +10509,10 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C63" s="2">
         <f>D62+0.01</f>
@@ -10435,13 +10530,13 @@
         <v>415</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J63" s="1">
         <v>25.4</v>
@@ -10458,7 +10553,7 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B64"/>
       <c r="C64" s="2"/>
@@ -10467,7 +10562,7 @@
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B65"/>
       <c r="C65" s="2"/>
@@ -10476,10 +10571,10 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B66" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C66" s="2">
         <f>D63+0.01</f>
@@ -10497,13 +10592,13 @@
         <v>415</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J66" s="1">
         <v>25.4</v>
@@ -10520,10 +10615,10 @@
     </row>
     <row r="68" spans="1:18" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="67" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B68" s="67" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C68" s="68">
         <f t="shared" ref="C68:C69" si="2">D67+0.01</f>
@@ -10542,10 +10637,10 @@
         <v>22</v>
       </c>
       <c r="H68" s="68" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I68" s="68" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J68" s="68">
         <v>30</v>
@@ -10567,7 +10662,7 @@
         <v>38</v>
       </c>
       <c r="B69" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C69" s="1">
         <f t="shared" si="2"/>
@@ -10586,10 +10681,10 @@
         <v>22</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J69" s="1">
         <v>30</v>
@@ -10615,7 +10710,7 @@
         <v>39</v>
       </c>
       <c r="B70" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C70" s="1">
         <f>D69+0.01</f>
@@ -10634,10 +10729,10 @@
         <v>22</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J70" s="1">
         <v>30</v>
@@ -10663,7 +10758,7 @@
         <v>40</v>
       </c>
       <c r="B71" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C71" s="1">
         <f t="shared" ref="C71:C79" si="3">D70+0.01</f>
@@ -10682,10 +10777,10 @@
         <v>22</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J71" s="1">
         <v>40</v>
@@ -10711,7 +10806,7 @@
         <v>41</v>
       </c>
       <c r="B72" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C72" s="1">
         <f t="shared" si="3"/>
@@ -10730,10 +10825,10 @@
         <v>22</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J72" s="1">
         <v>40</v>
@@ -10756,7 +10851,7 @@
         <v>42</v>
       </c>
       <c r="B73" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C73" s="1">
         <f t="shared" si="3"/>
@@ -10775,10 +10870,10 @@
         <v>22</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J73" s="1">
         <v>40</v>
@@ -10798,10 +10893,10 @@
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B74" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C74" s="1">
         <f t="shared" si="3"/>
@@ -10820,10 +10915,10 @@
         <v>22</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J74" s="1">
         <v>40</v>
@@ -10840,10 +10935,10 @@
     </row>
     <row r="75" spans="1:18" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B75" s="69" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C75" s="68">
         <f t="shared" si="3"/>
@@ -10862,10 +10957,10 @@
         <v>22</v>
       </c>
       <c r="H75" s="68" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I75" s="68" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J75" s="68">
         <v>55</v>
@@ -10887,10 +10982,10 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B76" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C76" s="1">
         <f t="shared" si="3"/>
@@ -10909,10 +11004,10 @@
         <v>22</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J76" s="1">
         <v>55</v>
@@ -10929,7 +11024,7 @@
         <v>37</v>
       </c>
       <c r="B77" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C77" s="1">
         <f t="shared" si="3"/>
@@ -10948,10 +11043,10 @@
         <v>22</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J77" s="1">
         <v>55</v>
@@ -10971,10 +11066,10 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B78" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C78" s="1">
         <f t="shared" si="3"/>
@@ -10993,10 +11088,10 @@
         <v>22</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J78" s="1">
         <v>55</v>
@@ -11016,10 +11111,10 @@
     </row>
     <row r="79" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B79" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C79" s="78">
         <f t="shared" si="3"/>
@@ -11038,10 +11133,10 @@
         <v>22</v>
       </c>
       <c r="H79" s="78" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I79" s="78" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J79" s="78">
         <v>60</v>
@@ -11063,10 +11158,10 @@
     </row>
     <row r="80" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B80" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C80" s="78">
         <f t="shared" ref="C80:C83" si="4">D79+0.01</f>
@@ -11085,10 +11180,10 @@
         <v>22</v>
       </c>
       <c r="H80" s="78" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I80" s="78" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J80" s="78">
         <v>80</v>
@@ -11110,10 +11205,10 @@
     </row>
     <row r="81" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B81" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C81" s="78">
         <f t="shared" si="4"/>
@@ -11132,10 +11227,10 @@
         <v>22</v>
       </c>
       <c r="H81" s="78" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I81" s="78" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J81" s="78">
         <v>80</v>
@@ -11157,10 +11252,10 @@
     </row>
     <row r="82" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B82" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C82" s="78">
         <f t="shared" si="4"/>
@@ -11179,10 +11274,10 @@
         <v>22</v>
       </c>
       <c r="H82" s="78" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I82" s="78" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J82" s="78">
         <v>80</v>
@@ -11204,10 +11299,10 @@
     </row>
     <row r="83" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B83" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C83" s="78">
         <f t="shared" si="4"/>
@@ -11226,10 +11321,10 @@
         <v>22</v>
       </c>
       <c r="H83" s="78" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I83" s="78" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J83" s="78">
         <v>100</v>
@@ -11251,10 +11346,10 @@
     </row>
     <row r="84" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B84" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C84" s="78">
         <f t="shared" ref="C84" si="5">D83+0.01</f>
@@ -11273,10 +11368,10 @@
         <v>22</v>
       </c>
       <c r="H84" s="78" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I84" s="78" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J84" s="78">
         <v>101</v>
@@ -11298,10 +11393,10 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C87" s="1">
         <f>D85+0.01</f>
@@ -11320,10 +11415,10 @@
         <v>22</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J87" s="1">
         <v>30</v>
@@ -11343,10 +11438,10 @@
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C88" s="1">
         <f>D87+0.01</f>
@@ -11365,10 +11460,10 @@
         <v>22</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J88" s="1">
         <v>30</v>
@@ -11388,10 +11483,10 @@
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C89" s="1">
         <f>D88+0.01</f>
@@ -11410,10 +11505,10 @@
         <v>22</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J89" s="1">
         <v>30</v>
@@ -11430,10 +11525,10 @@
     </row>
     <row r="90" spans="1:18" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="67" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B90" s="67" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C90" s="68">
         <f>D89+0.01</f>
@@ -11452,10 +11547,10 @@
         <v>22</v>
       </c>
       <c r="H90" s="68" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I90" s="68" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J90" s="68">
         <v>40</v>
@@ -11502,45 +11597,45 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
         <v>88</v>
       </c>
-      <c r="C2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>89</v>
       </c>
-      <c r="E2" t="s">
-        <v>90</v>
-      </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
       </c>
       <c r="I2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" t="s">
         <v>115</v>
       </c>
-      <c r="J2" t="s">
-        <v>116</v>
-      </c>
       <c r="K2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B4">
         <v>12</v>
@@ -11553,7 +11648,7 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F4">
         <v>70</v>
@@ -11575,7 +11670,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B5">
         <v>15</v>
@@ -11607,7 +11702,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6">
         <v>19</v>
@@ -11639,7 +11734,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7">
         <v>12</v>
@@ -11671,7 +11766,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8">
         <v>15</v>
@@ -11703,7 +11798,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B9">
         <v>19</v>
@@ -11716,7 +11811,7 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F9">
         <v>70</v>
@@ -11738,7 +11833,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B11">
         <v>12</v>
@@ -11751,7 +11846,7 @@
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F11">
         <v>90</v>
@@ -11773,7 +11868,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B12">
         <v>15</v>
@@ -11805,7 +11900,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B13">
         <v>19</v>
@@ -11837,7 +11932,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B14">
         <v>12</v>
@@ -11869,7 +11964,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15">
         <v>15</v>
@@ -11901,7 +11996,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="84" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B16" s="84">
         <v>19</v>
@@ -11914,7 +12009,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F16" s="84">
         <v>90</v>
@@ -11936,7 +12031,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B18">
         <v>12</v>
@@ -11949,7 +12044,7 @@
         <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F18">
         <v>90</v>
@@ -11971,7 +12066,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B19">
         <v>15</v>
@@ -12003,7 +12098,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -12035,7 +12130,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="84" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B21" s="84">
         <v>12</v>
@@ -12068,7 +12163,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B22">
         <v>15</v>
@@ -12100,7 +12195,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B23">
         <v>19</v>
@@ -12113,7 +12208,7 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F23">
         <v>90</v>
@@ -12135,7 +12230,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B25">
         <v>12</v>
@@ -12148,7 +12243,7 @@
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F25">
         <v>140</v>
@@ -12170,7 +12265,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B26">
         <v>15</v>
@@ -12202,7 +12297,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B27">
         <v>19</v>
@@ -12234,7 +12329,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B28">
         <v>12</v>
@@ -12266,7 +12361,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B29">
         <v>15</v>
@@ -12298,7 +12393,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B30">
         <v>19</v>
@@ -12311,7 +12406,7 @@
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F30">
         <v>140</v>
@@ -12339,7 +12434,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B32">
         <v>12</v>
@@ -12352,7 +12447,7 @@
         <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F32">
         <v>150</v>
@@ -12374,7 +12469,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B33">
         <v>15</v>
@@ -12387,7 +12482,7 @@
         <v>3.2</v>
       </c>
       <c r="E33" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F33">
         <v>150</v>
@@ -12409,7 +12504,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B34">
         <v>19</v>
@@ -12441,7 +12536,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B35">
         <v>12</v>
@@ -12473,7 +12568,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B36">
         <v>15</v>
@@ -12505,7 +12600,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B37">
         <v>19</v>
@@ -12518,7 +12613,7 @@
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37">
         <v>150</v>
@@ -12537,7 +12632,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B39">
         <v>12</v>
@@ -12550,7 +12645,7 @@
         <v>4</v>
       </c>
       <c r="E39" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F39">
         <v>220</v>
@@ -12572,7 +12667,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B40">
         <v>15</v>
@@ -12604,7 +12699,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B41">
         <v>19</v>
@@ -12636,7 +12731,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B42">
         <v>12</v>
@@ -12668,7 +12763,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B43">
         <v>15</v>
@@ -12700,7 +12795,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B44">
         <v>19</v>
@@ -12713,7 +12808,7 @@
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F44">
         <v>220</v>
@@ -12763,36 +12858,36 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>234</v>
-      </c>
       <c r="G2" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="87">
         <v>15</v>
@@ -12823,7 +12918,7 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="87">
         <v>19</v>
@@ -12854,7 +12949,7 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="64" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C5" s="6">
         <v>12</v>
@@ -12866,7 +12961,7 @@
         <v>57</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G5" s="6">
         <v>22400</v>
@@ -12885,7 +12980,7 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6" s="64" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C6" s="6">
         <v>18</v>
@@ -12897,7 +12992,7 @@
         <v>57</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G6" s="6">
         <v>22400</v>
@@ -12916,7 +13011,7 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C7" s="6">
         <v>12</v>
@@ -12928,7 +13023,7 @@
         <v>57</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G7" s="6">
         <v>29000</v>
@@ -12947,7 +13042,7 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C8" s="6">
         <v>15</v>
@@ -12959,7 +13054,7 @@
         <v>57</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G8" s="6">
         <v>29000</v>
@@ -12978,7 +13073,7 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C9" s="6">
         <v>15</v>
@@ -12990,7 +13085,7 @@
         <v>57</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G9" s="6">
         <v>60000</v>
@@ -13008,7 +13103,7 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C10" s="6">
         <v>15</v>
@@ -13020,7 +13115,7 @@
         <v>57</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G10" s="6">
         <v>95000</v>

--- a/Calculations gfa.xlsx
+++ b/Calculations gfa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rob-h\OneDrive - Security Window Shutters Limited\SWS product dev\Projects\P190 - Industrial EVO\Calculators\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://securitywindowshutt-my.sharepoint.com/personal/rob_hyrons_swsuk_co_uk/Documents/SWS product dev/Projects/P190 - Industrial EVO/Calculators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA201A5-D078-4ADB-A563-7B8EA9522FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="13_ncr:1_{DBA201A5-D078-4ADB-A563-7B8EA9522FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03230E00-8B66-4F1E-B645-03F89116576B}"/>
   <bookViews>
-    <workbookView xWindow="490" yWindow="1840" windowWidth="29160" windowHeight="19090" tabRatio="758" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5220" yWindow="1350" windowWidth="32100" windowHeight="18720" tabRatio="859" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -19,18 +19,18 @@
     <sheet name="Endlock" sheetId="16" r:id="rId4"/>
     <sheet name="Bottom lath" sheetId="9" r:id="rId5"/>
     <sheet name="Guides" sheetId="12" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="18" r:id="rId7"/>
-    <sheet name="Axles" sheetId="6" r:id="rId8"/>
-    <sheet name="Motors" sheetId="5" r:id="rId9"/>
-    <sheet name="Chaindrive" sheetId="11" r:id="rId10"/>
-    <sheet name="Chain" sheetId="15" r:id="rId11"/>
-    <sheet name="Bearings" sheetId="10" r:id="rId12"/>
-    <sheet name="SafetyB" sheetId="8" r:id="rId13"/>
-    <sheet name="Endplate" sheetId="13" r:id="rId14"/>
-    <sheet name="Wicket doors" sheetId="14" r:id="rId15"/>
+    <sheet name="Axles" sheetId="6" r:id="rId7"/>
+    <sheet name="Motors" sheetId="5" r:id="rId8"/>
+    <sheet name="Chaindrive" sheetId="11" r:id="rId9"/>
+    <sheet name="Chain" sheetId="15" r:id="rId10"/>
+    <sheet name="Bearings" sheetId="10" r:id="rId11"/>
+    <sheet name="SafetyB" sheetId="8" r:id="rId12"/>
+    <sheet name="Endplate" sheetId="13" r:id="rId13"/>
+    <sheet name="Wicket doors" sheetId="14" r:id="rId14"/>
+    <sheet name="Sheet2" sheetId="18" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Motors!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Motors!$A$1:$P$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -278,7 +278,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Rob Hyrons:</t>
         </r>
@@ -287,7 +287,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This is the measurment from the opening edge of the guide to the back of the end lock, so the endlock thickness will effect he curtain cut width, endlock sizes are in the endlock tab.</t>
@@ -421,7 +421,7 @@
     <author>robert hyrons</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{EC1481A7-B545-49FC-A0C1-0473B7759E24}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{EC1481A7-B545-49FC-A0C1-0473B7759E24}">
       <text>
         <r>
           <rPr>
@@ -543,7 +543,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="452">
   <si>
     <t>Name</t>
   </si>
@@ -917,9 +917,6 @@
     <t>Ranger 90 1:3 - 3ph</t>
   </si>
   <si>
-    <t>Ranger 90 1:3 - 1ph</t>
-  </si>
-  <si>
     <t>GA75/15GD</t>
   </si>
   <si>
@@ -1073,9 +1070,6 @@
     <t>Euro door</t>
   </si>
   <si>
-    <t>Ranger140 1:4.75 3ph</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ranger220 1:4 3ph </t>
   </si>
   <si>
@@ -1148,9 +1142,6 @@
     <t>TA4 RD</t>
   </si>
   <si>
-    <t>77t with tripel chamber rubber</t>
-  </si>
-  <si>
     <t>75mm 22swg, Perforated 8.3kg/sqm</t>
   </si>
   <si>
@@ -1316,9 +1307,6 @@
     <t>Cycles Per Hour</t>
   </si>
   <si>
-    <t>Ranger150</t>
-  </si>
-  <si>
     <t>Ranger150 3ph</t>
   </si>
   <si>
@@ -1839,6 +1827,78 @@
   </si>
   <si>
     <t>Reveal offsets</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>qty</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>m/2</t>
+  </si>
+  <si>
+    <t>77t with triple chamber rubber</t>
+  </si>
+  <si>
+    <t>Product code</t>
+  </si>
+  <si>
+    <t>to add</t>
+  </si>
+  <si>
+    <t>remove</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Ranger 90 1ph 19-57 1/2"</t>
+  </si>
+  <si>
+    <t>Plate bore</t>
+  </si>
+  <si>
+    <t>Sprokcket bore</t>
+  </si>
+  <si>
+    <t>MT209M1</t>
+  </si>
+  <si>
+    <t>Ranger 90 3 Phase Kit (No Controls)</t>
+  </si>
+  <si>
+    <t>EACH</t>
+  </si>
+  <si>
+    <t>MT259M1</t>
+  </si>
+  <si>
+    <t>Ranger 70 1~ Phase Motor (70Nm/32RPM)</t>
+  </si>
+  <si>
+    <t>MT273M1</t>
+  </si>
+  <si>
+    <t>Ranger 150 3phase</t>
+  </si>
+  <si>
+    <t>MT280M8</t>
+  </si>
+  <si>
+    <t>Ranger Fi 140/80 240/415</t>
+  </si>
+  <si>
+    <t>Ranger150 3ph 12-57 1/2"</t>
   </si>
 </sst>
 </file>
@@ -1850,7 +1910,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1977,19 +2037,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos"/>
@@ -2008,8 +2055,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2076,8 +2129,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2111,13 +2176,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0D7E5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0D7E5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD0D7E5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0D7E5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2313,9 +2393,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2371,7 +2448,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2401,12 +2478,24 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4831,17 +4920,17 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B7" s="39" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.35">
@@ -4886,1272 +4975,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1E18F3-2DFA-476D-A4F8-F41E93C21C92}">
-  <dimension ref="A2:L44"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.81640625" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" customWidth="1"/>
-    <col min="6" max="6" width="11.54296875" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" customWidth="1"/>
-    <col min="9" max="9" width="15.1796875" customWidth="1"/>
-    <col min="11" max="11" width="12.26953125" customWidth="1"/>
-    <col min="12" max="12" width="18.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K2" t="s">
-        <v>239</v>
-      </c>
-      <c r="L2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>48</v>
-      </c>
-      <c r="D4">
-        <f>C4/B4</f>
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>230</v>
-      </c>
-      <c r="F4">
-        <v>70</v>
-      </c>
-      <c r="G4" s="25">
-        <f>F4*D4</f>
-        <v>280</v>
-      </c>
-      <c r="H4">
-        <v>32</v>
-      </c>
-      <c r="I4">
-        <f>H4/D4</f>
-        <v>8</v>
-      </c>
-      <c r="J4">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5">
-        <v>15</v>
-      </c>
-      <c r="C5">
-        <v>48</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ref="D5:D9" si="0">C5/B5</f>
-        <v>3.2</v>
-      </c>
-      <c r="F5">
-        <v>70</v>
-      </c>
-      <c r="G5" s="25">
-        <f t="shared" ref="G5:G9" si="1">F5*D5</f>
-        <v>224</v>
-      </c>
-      <c r="H5">
-        <v>32</v>
-      </c>
-      <c r="I5">
-        <f t="shared" ref="I5:I8" si="2">H5/D5</f>
-        <v>10</v>
-      </c>
-      <c r="J5">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6">
-        <v>19</v>
-      </c>
-      <c r="C6">
-        <v>48</v>
-      </c>
-      <c r="D6" s="36">
-        <f t="shared" si="0"/>
-        <v>2.5263157894736841</v>
-      </c>
-      <c r="F6">
-        <v>70</v>
-      </c>
-      <c r="G6" s="25">
-        <f t="shared" si="1"/>
-        <v>176.84210526315789</v>
-      </c>
-      <c r="H6">
-        <v>32</v>
-      </c>
-      <c r="I6" s="36">
-        <f t="shared" si="2"/>
-        <v>12.666666666666668</v>
-      </c>
-      <c r="J6">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>57</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>4.75</v>
-      </c>
-      <c r="F7">
-        <v>70</v>
-      </c>
-      <c r="G7" s="25">
-        <f t="shared" si="1"/>
-        <v>332.5</v>
-      </c>
-      <c r="H7">
-        <v>32</v>
-      </c>
-      <c r="I7" s="36">
-        <f t="shared" si="2"/>
-        <v>6.7368421052631575</v>
-      </c>
-      <c r="J7">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B8">
-        <v>15</v>
-      </c>
-      <c r="C8">
-        <v>57</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>3.8</v>
-      </c>
-      <c r="F8">
-        <v>70</v>
-      </c>
-      <c r="G8" s="25">
-        <f t="shared" si="1"/>
-        <v>266</v>
-      </c>
-      <c r="H8">
-        <v>32</v>
-      </c>
-      <c r="I8" s="36">
-        <f t="shared" si="2"/>
-        <v>8.4210526315789469</v>
-      </c>
-      <c r="J8">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9">
-        <v>19</v>
-      </c>
-      <c r="C9">
-        <v>57</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9">
-        <v>70</v>
-      </c>
-      <c r="G9" s="25">
-        <f t="shared" si="1"/>
-        <v>210</v>
-      </c>
-      <c r="H9">
-        <v>32</v>
-      </c>
-      <c r="I9" s="36">
-        <f>H9/D9</f>
-        <v>10.666666666666666</v>
-      </c>
-      <c r="J9">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>48</v>
-      </c>
-      <c r="D11">
-        <f>C11/B11</f>
-        <v>4</v>
-      </c>
-      <c r="E11" t="s">
-        <v>230</v>
-      </c>
-      <c r="F11">
-        <v>90</v>
-      </c>
-      <c r="G11" s="25">
-        <f>F11*D11</f>
-        <v>360</v>
-      </c>
-      <c r="H11">
-        <v>24</v>
-      </c>
-      <c r="I11">
-        <f t="shared" ref="I11:I16" si="3">H11/D11</f>
-        <v>6</v>
-      </c>
-      <c r="J11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12">
-        <v>15</v>
-      </c>
-      <c r="C12">
-        <v>48</v>
-      </c>
-      <c r="D12">
-        <f t="shared" ref="D12:D16" si="4">C12/B12</f>
-        <v>3.2</v>
-      </c>
-      <c r="F12">
-        <v>90</v>
-      </c>
-      <c r="G12" s="25">
-        <f t="shared" ref="G12:G16" si="5">F12*D12</f>
-        <v>288</v>
-      </c>
-      <c r="H12">
-        <v>24</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="3"/>
-        <v>7.5</v>
-      </c>
-      <c r="J12">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13">
-        <v>19</v>
-      </c>
-      <c r="C13">
-        <v>48</v>
-      </c>
-      <c r="D13" s="36">
-        <f t="shared" si="4"/>
-        <v>2.5263157894736841</v>
-      </c>
-      <c r="F13">
-        <v>90</v>
-      </c>
-      <c r="G13" s="25">
-        <f t="shared" si="5"/>
-        <v>227.36842105263156</v>
-      </c>
-      <c r="H13">
-        <v>24</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="3"/>
-        <v>9.5</v>
-      </c>
-      <c r="J13">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B14">
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <v>57</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="4"/>
-        <v>4.75</v>
-      </c>
-      <c r="F14">
-        <v>90</v>
-      </c>
-      <c r="G14" s="25">
-        <f t="shared" si="5"/>
-        <v>427.5</v>
-      </c>
-      <c r="H14">
-        <v>24</v>
-      </c>
-      <c r="I14" s="36">
-        <f t="shared" si="3"/>
-        <v>5.0526315789473681</v>
-      </c>
-      <c r="J14">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B15">
-        <v>15</v>
-      </c>
-      <c r="C15">
-        <v>57</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="4"/>
-        <v>3.8</v>
-      </c>
-      <c r="F15">
-        <v>90</v>
-      </c>
-      <c r="G15" s="25">
-        <f t="shared" si="5"/>
-        <v>342</v>
-      </c>
-      <c r="H15">
-        <v>24</v>
-      </c>
-      <c r="I15" s="36">
-        <f t="shared" si="3"/>
-        <v>6.3157894736842106</v>
-      </c>
-      <c r="J15">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="84" t="s">
-        <v>118</v>
-      </c>
-      <c r="B16" s="84">
-        <v>19</v>
-      </c>
-      <c r="C16" s="84">
-        <v>57</v>
-      </c>
-      <c r="D16" s="84">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="E16" s="84" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" s="84">
-        <v>90</v>
-      </c>
-      <c r="G16" s="85">
-        <f t="shared" si="5"/>
-        <v>270</v>
-      </c>
-      <c r="H16" s="84">
-        <v>24</v>
-      </c>
-      <c r="I16" s="84">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="J16" s="84">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>119</v>
-      </c>
-      <c r="B18">
-        <v>12</v>
-      </c>
-      <c r="C18">
-        <v>48</v>
-      </c>
-      <c r="D18">
-        <f>C18/B18</f>
-        <v>4</v>
-      </c>
-      <c r="E18" t="s">
-        <v>230</v>
-      </c>
-      <c r="F18">
-        <v>90</v>
-      </c>
-      <c r="G18" s="25">
-        <f>F18*D18</f>
-        <v>360</v>
-      </c>
-      <c r="H18">
-        <v>32</v>
-      </c>
-      <c r="I18">
-        <f t="shared" ref="I18" si="6">H18/D18</f>
-        <v>8</v>
-      </c>
-      <c r="J18">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19">
-        <v>15</v>
-      </c>
-      <c r="C19">
-        <v>48</v>
-      </c>
-      <c r="D19">
-        <f t="shared" ref="D19:D23" si="7">C19/B19</f>
-        <v>3.2</v>
-      </c>
-      <c r="F19">
-        <v>90</v>
-      </c>
-      <c r="G19" s="25">
-        <f t="shared" ref="G19:G23" si="8">F19*D19</f>
-        <v>288</v>
-      </c>
-      <c r="H19">
-        <v>32</v>
-      </c>
-      <c r="I19">
-        <f t="shared" ref="I19:I23" si="9">H19/D19</f>
-        <v>10</v>
-      </c>
-      <c r="J19">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>119</v>
-      </c>
-      <c r="B20">
-        <v>19</v>
-      </c>
-      <c r="C20">
-        <v>48</v>
-      </c>
-      <c r="D20" s="36">
-        <f t="shared" si="7"/>
-        <v>2.5263157894736841</v>
-      </c>
-      <c r="F20">
-        <v>90</v>
-      </c>
-      <c r="G20" s="25">
-        <f t="shared" si="8"/>
-        <v>227.36842105263156</v>
-      </c>
-      <c r="H20">
-        <v>32</v>
-      </c>
-      <c r="I20" s="36">
-        <f t="shared" si="9"/>
-        <v>12.666666666666668</v>
-      </c>
-      <c r="J20">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="B21" s="84">
-        <v>12</v>
-      </c>
-      <c r="C21" s="84">
-        <v>57</v>
-      </c>
-      <c r="D21" s="84">
-        <f t="shared" si="7"/>
-        <v>4.75</v>
-      </c>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84">
-        <v>90</v>
-      </c>
-      <c r="G21" s="85">
-        <f t="shared" si="8"/>
-        <v>427.5</v>
-      </c>
-      <c r="H21" s="84">
-        <v>32</v>
-      </c>
-      <c r="I21" s="86">
-        <f t="shared" si="9"/>
-        <v>6.7368421052631575</v>
-      </c>
-      <c r="J21" s="84">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>119</v>
-      </c>
-      <c r="B22">
-        <v>15</v>
-      </c>
-      <c r="C22">
-        <v>57</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="7"/>
-        <v>3.8</v>
-      </c>
-      <c r="F22">
-        <v>90</v>
-      </c>
-      <c r="G22" s="25">
-        <f t="shared" si="8"/>
-        <v>342</v>
-      </c>
-      <c r="H22">
-        <v>32</v>
-      </c>
-      <c r="I22" s="36">
-        <f t="shared" si="9"/>
-        <v>8.4210526315789469</v>
-      </c>
-      <c r="J22">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>119</v>
-      </c>
-      <c r="B23">
-        <v>19</v>
-      </c>
-      <c r="C23">
-        <v>57</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="E23" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23">
-        <v>90</v>
-      </c>
-      <c r="G23" s="25">
-        <f t="shared" si="8"/>
-        <v>270</v>
-      </c>
-      <c r="H23">
-        <v>32</v>
-      </c>
-      <c r="I23" s="36">
-        <f t="shared" si="9"/>
-        <v>10.666666666666666</v>
-      </c>
-      <c r="J23">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>120</v>
-      </c>
-      <c r="B25">
-        <v>12</v>
-      </c>
-      <c r="C25">
-        <v>48</v>
-      </c>
-      <c r="D25">
-        <f>C25/B25</f>
-        <v>4</v>
-      </c>
-      <c r="E25" t="s">
-        <v>230</v>
-      </c>
-      <c r="F25">
-        <v>140</v>
-      </c>
-      <c r="G25" s="25">
-        <f>F25*D25</f>
-        <v>560</v>
-      </c>
-      <c r="H25">
-        <v>22</v>
-      </c>
-      <c r="I25">
-        <f>H25/D25</f>
-        <v>5.5</v>
-      </c>
-      <c r="J25">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>120</v>
-      </c>
-      <c r="B26">
-        <v>15</v>
-      </c>
-      <c r="C26">
-        <v>48</v>
-      </c>
-      <c r="D26">
-        <f t="shared" ref="D26:D37" si="10">C26/B26</f>
-        <v>3.2</v>
-      </c>
-      <c r="F26">
-        <v>140</v>
-      </c>
-      <c r="G26" s="25">
-        <f t="shared" ref="G26:G31" si="11">F26*D26</f>
-        <v>448</v>
-      </c>
-      <c r="H26">
-        <v>22</v>
-      </c>
-      <c r="I26">
-        <f t="shared" ref="I26:I29" si="12">H26/D26</f>
-        <v>6.875</v>
-      </c>
-      <c r="J26">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>120</v>
-      </c>
-      <c r="B27">
-        <v>19</v>
-      </c>
-      <c r="C27">
-        <v>48</v>
-      </c>
-      <c r="D27" s="36">
-        <f t="shared" si="10"/>
-        <v>2.5263157894736841</v>
-      </c>
-      <c r="F27">
-        <v>140</v>
-      </c>
-      <c r="G27" s="25">
-        <f t="shared" si="11"/>
-        <v>353.68421052631578</v>
-      </c>
-      <c r="H27">
-        <v>22</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="12"/>
-        <v>8.7083333333333339</v>
-      </c>
-      <c r="J27">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>120</v>
-      </c>
-      <c r="B28">
-        <v>12</v>
-      </c>
-      <c r="C28">
-        <v>57</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="10"/>
-        <v>4.75</v>
-      </c>
-      <c r="F28">
-        <v>140</v>
-      </c>
-      <c r="G28" s="25">
-        <f t="shared" si="11"/>
-        <v>665</v>
-      </c>
-      <c r="H28">
-        <v>22</v>
-      </c>
-      <c r="I28" s="36">
-        <f t="shared" si="12"/>
-        <v>4.6315789473684212</v>
-      </c>
-      <c r="J28">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>120</v>
-      </c>
-      <c r="B29">
-        <v>15</v>
-      </c>
-      <c r="C29">
-        <v>57</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="10"/>
-        <v>3.8</v>
-      </c>
-      <c r="F29">
-        <v>140</v>
-      </c>
-      <c r="G29" s="25">
-        <f t="shared" si="11"/>
-        <v>532</v>
-      </c>
-      <c r="H29">
-        <v>22</v>
-      </c>
-      <c r="I29" s="36">
-        <f t="shared" si="12"/>
-        <v>5.7894736842105265</v>
-      </c>
-      <c r="J29">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>120</v>
-      </c>
-      <c r="B30">
-        <v>19</v>
-      </c>
-      <c r="C30">
-        <v>57</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="E30" t="s">
-        <v>90</v>
-      </c>
-      <c r="F30">
-        <v>140</v>
-      </c>
-      <c r="G30" s="25">
-        <f t="shared" si="11"/>
-        <v>420</v>
-      </c>
-      <c r="H30">
-        <v>22</v>
-      </c>
-      <c r="I30">
-        <f>H30/D30</f>
-        <v>7.333333333333333</v>
-      </c>
-      <c r="J30">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="G31" s="25">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>258</v>
-      </c>
-      <c r="B32">
-        <v>12</v>
-      </c>
-      <c r="C32">
-        <v>48</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="E32" t="s">
-        <v>230</v>
-      </c>
-      <c r="F32">
-        <v>150</v>
-      </c>
-      <c r="G32" s="25">
-        <f>F32*D32</f>
-        <v>600</v>
-      </c>
-      <c r="H32">
-        <v>48</v>
-      </c>
-      <c r="I32">
-        <f t="shared" ref="I32:I37" si="13">H32/D32</f>
-        <v>12</v>
-      </c>
-      <c r="J32">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>258</v>
-      </c>
-      <c r="B33">
-        <v>15</v>
-      </c>
-      <c r="C33">
-        <v>48</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="10"/>
-        <v>3.2</v>
-      </c>
-      <c r="E33" t="s">
-        <v>230</v>
-      </c>
-      <c r="F33">
-        <v>150</v>
-      </c>
-      <c r="G33" s="25">
-        <f t="shared" ref="G33:G37" si="14">F33*D33</f>
-        <v>480</v>
-      </c>
-      <c r="H33">
-        <v>48</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="13"/>
-        <v>15</v>
-      </c>
-      <c r="J33">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>258</v>
-      </c>
-      <c r="B34">
-        <v>19</v>
-      </c>
-      <c r="C34">
-        <v>48</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="10"/>
-        <v>2.5263157894736841</v>
-      </c>
-      <c r="F34">
-        <v>150</v>
-      </c>
-      <c r="G34" s="25">
-        <f t="shared" si="14"/>
-        <v>378.9473684210526</v>
-      </c>
-      <c r="H34">
-        <v>48</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="13"/>
-        <v>19</v>
-      </c>
-      <c r="J34">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>258</v>
-      </c>
-      <c r="B35">
-        <v>12</v>
-      </c>
-      <c r="C35">
-        <v>57</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="10"/>
-        <v>4.75</v>
-      </c>
-      <c r="F35">
-        <v>150</v>
-      </c>
-      <c r="G35" s="25">
-        <f t="shared" si="14"/>
-        <v>712.5</v>
-      </c>
-      <c r="H35">
-        <v>48</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="13"/>
-        <v>10.105263157894736</v>
-      </c>
-      <c r="J35">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>258</v>
-      </c>
-      <c r="B36">
-        <v>15</v>
-      </c>
-      <c r="C36">
-        <v>57</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="10"/>
-        <v>3.8</v>
-      </c>
-      <c r="F36">
-        <v>150</v>
-      </c>
-      <c r="G36" s="25">
-        <f t="shared" si="14"/>
-        <v>570</v>
-      </c>
-      <c r="H36">
-        <v>48</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="13"/>
-        <v>12.631578947368421</v>
-      </c>
-      <c r="J36">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>258</v>
-      </c>
-      <c r="B37">
-        <v>19</v>
-      </c>
-      <c r="C37">
-        <v>57</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="E37" t="s">
-        <v>90</v>
-      </c>
-      <c r="F37">
-        <v>150</v>
-      </c>
-      <c r="G37" s="25">
-        <f t="shared" si="14"/>
-        <v>450</v>
-      </c>
-      <c r="H37">
-        <v>48</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="13"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>121</v>
-      </c>
-      <c r="B39">
-        <v>12</v>
-      </c>
-      <c r="C39">
-        <v>48</v>
-      </c>
-      <c r="D39">
-        <f>C39/B39</f>
-        <v>4</v>
-      </c>
-      <c r="E39" t="s">
-        <v>230</v>
-      </c>
-      <c r="F39">
-        <v>220</v>
-      </c>
-      <c r="G39" s="25">
-        <f>F39*D39</f>
-        <v>880</v>
-      </c>
-      <c r="H39">
-        <v>24</v>
-      </c>
-      <c r="I39">
-        <f>H39/D39</f>
-        <v>6</v>
-      </c>
-      <c r="J39">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>121</v>
-      </c>
-      <c r="B40">
-        <v>15</v>
-      </c>
-      <c r="C40">
-        <v>48</v>
-      </c>
-      <c r="D40">
-        <f t="shared" ref="D40:D44" si="15">C40/B40</f>
-        <v>3.2</v>
-      </c>
-      <c r="F40">
-        <v>220</v>
-      </c>
-      <c r="G40" s="25">
-        <f t="shared" ref="G40:G44" si="16">F40*D40</f>
-        <v>704</v>
-      </c>
-      <c r="H40">
-        <v>24</v>
-      </c>
-      <c r="I40">
-        <f t="shared" ref="I40:I43" si="17">H40/D40</f>
-        <v>7.5</v>
-      </c>
-      <c r="J40">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>121</v>
-      </c>
-      <c r="B41">
-        <v>19</v>
-      </c>
-      <c r="C41">
-        <v>48</v>
-      </c>
-      <c r="D41" s="36">
-        <f t="shared" si="15"/>
-        <v>2.5263157894736841</v>
-      </c>
-      <c r="F41">
-        <v>220</v>
-      </c>
-      <c r="G41" s="25">
-        <f t="shared" si="16"/>
-        <v>555.78947368421052</v>
-      </c>
-      <c r="H41">
-        <v>24</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="17"/>
-        <v>9.5</v>
-      </c>
-      <c r="J41">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>121</v>
-      </c>
-      <c r="B42">
-        <v>12</v>
-      </c>
-      <c r="C42">
-        <v>57</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="15"/>
-        <v>4.75</v>
-      </c>
-      <c r="F42">
-        <v>220</v>
-      </c>
-      <c r="G42" s="25">
-        <f t="shared" si="16"/>
-        <v>1045</v>
-      </c>
-      <c r="H42">
-        <v>24</v>
-      </c>
-      <c r="I42" s="36">
-        <f t="shared" si="17"/>
-        <v>5.0526315789473681</v>
-      </c>
-      <c r="J42">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>121</v>
-      </c>
-      <c r="B43">
-        <v>15</v>
-      </c>
-      <c r="C43">
-        <v>57</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="15"/>
-        <v>3.8</v>
-      </c>
-      <c r="F43">
-        <v>220</v>
-      </c>
-      <c r="G43" s="25">
-        <f t="shared" si="16"/>
-        <v>836</v>
-      </c>
-      <c r="H43">
-        <v>24</v>
-      </c>
-      <c r="I43" s="36">
-        <f t="shared" si="17"/>
-        <v>6.3157894736842106</v>
-      </c>
-      <c r="J43">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>121</v>
-      </c>
-      <c r="B44">
-        <v>19</v>
-      </c>
-      <c r="C44">
-        <v>57</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="E44" t="s">
-        <v>90</v>
-      </c>
-      <c r="F44">
-        <v>220</v>
-      </c>
-      <c r="G44" s="25">
-        <f t="shared" si="16"/>
-        <v>660</v>
-      </c>
-      <c r="H44">
-        <v>24</v>
-      </c>
-      <c r="I44">
-        <f>H44/D44</f>
-        <v>8</v>
-      </c>
-      <c r="J44">
-        <v>415</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BBB0E4-3072-46AD-B687-93FC8399DD89}">
   <dimension ref="A2:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C4"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6170,38 +4998,38 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="9" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>231</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="87">
+      <c r="C3" s="86">
         <v>15</v>
       </c>
       <c r="D3" s="6">
@@ -6229,10 +5057,10 @@
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="87">
+      <c r="C4" s="86">
         <v>19</v>
       </c>
       <c r="D4" s="6">
@@ -6260,10 +5088,10 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B5" s="64" t="s">
-        <v>230</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="B5" s="105" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5" s="86">
         <v>12</v>
       </c>
       <c r="D5" s="6">
@@ -6273,12 +5101,12 @@
         <v>57</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G5" s="6">
         <v>22400</v>
       </c>
-      <c r="H5" s="70">
+      <c r="H5" s="69">
         <f>0.625*25.4</f>
         <v>15.875</v>
       </c>
@@ -6291,10 +5119,10 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B6" s="64" t="s">
-        <v>230</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="B6" s="105" t="s">
+        <v>227</v>
+      </c>
+      <c r="C6" s="86">
         <v>18</v>
       </c>
       <c r="D6" s="6">
@@ -6304,12 +5132,12 @@
         <v>57</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G6" s="6">
         <v>22400</v>
       </c>
-      <c r="H6" s="70">
+      <c r="H6" s="69">
         <f>0.625*25.4</f>
         <v>15.875</v>
       </c>
@@ -6323,7 +5151,7 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C7" s="6">
         <v>12</v>
@@ -6335,12 +5163,12 @@
         <v>57</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G7" s="6">
         <v>29000</v>
       </c>
-      <c r="H7" s="70">
+      <c r="H7" s="69">
         <f>0.75*25.4</f>
         <v>19.049999999999997</v>
       </c>
@@ -6354,7 +5182,7 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C8" s="6">
         <v>15</v>
@@ -6366,12 +5194,12 @@
         <v>57</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G8" s="6">
         <v>29000</v>
       </c>
-      <c r="H8" s="70">
+      <c r="H8" s="69">
         <f>0.75*25.4</f>
         <v>19.049999999999997</v>
       </c>
@@ -6385,7 +5213,7 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C9" s="6">
         <v>15</v>
@@ -6397,7 +5225,7 @@
         <v>57</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G9" s="6">
         <v>60000</v>
@@ -6415,7 +5243,7 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C10" s="6">
         <v>15</v>
@@ -6427,7 +5255,7 @@
         <v>57</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G10" s="6">
         <v>95000</v>
@@ -6445,10 +5273,10 @@
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B16" s="65"/>
+      <c r="B16" s="64"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B18" s="66"/>
+      <c r="B18" s="65"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6456,7 +5284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91673066-48CE-40A8-80D4-43FC435ADD39}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -6492,7 +5320,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B3" t="s">
         <v>74</v>
@@ -6510,7 +5338,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B4" t="s">
         <v>78</v>
@@ -6531,7 +5359,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B6" t="s">
         <v>74</v>
@@ -6549,7 +5377,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B7" t="s">
         <v>78</v>
@@ -6567,7 +5395,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B8" t="s">
         <v>79</v>
@@ -6585,10 +5413,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" t="s">
         <v>171</v>
-      </c>
-      <c r="B9" t="s">
-        <v>172</v>
       </c>
       <c r="C9">
         <v>32800</v>
@@ -6608,7 +5436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0484E2-9992-4491-920F-B8AE57D8A0EE}">
   <dimension ref="A1:J16"/>
   <sheetViews>
@@ -6650,10 +5478,10 @@
         <v>95</v>
       </c>
       <c r="H1" s="57" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I1" s="58" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J1" s="7"/>
     </row>
@@ -6674,7 +5502,7 @@
         <v>69</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -6697,7 +5525,7 @@
         <v>69</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -6705,7 +5533,7 @@
     </row>
     <row r="4" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B4" s="9">
         <v>332</v>
@@ -6731,7 +5559,7 @@
     </row>
     <row r="5" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B5" s="9">
         <v>552</v>
@@ -6754,7 +5582,7 @@
     </row>
     <row r="6" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B6" s="9">
         <v>599</v>
@@ -6777,7 +5605,7 @@
     </row>
     <row r="7" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B7" s="9">
         <v>1063</v>
@@ -6800,7 +5628,7 @@
     </row>
     <row r="8" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B8" s="9">
         <v>1943</v>
@@ -6823,7 +5651,7 @@
     </row>
     <row r="9" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B9" s="9">
         <v>3503</v>
@@ -6861,7 +5689,7 @@
         <v>43</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H10">
         <v>10</v>
@@ -6887,7 +5715,7 @@
         <v>200</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -7007,7 +5835,7 @@
         <v>200</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H16">
         <v>10</v>
@@ -7019,7 +5847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63386739-1836-4135-BDCC-F0CD02A919B6}">
   <dimension ref="A1:G21"/>
   <sheetViews>
@@ -7042,22 +5870,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>135</v>
-      </c>
       <c r="E1" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -7070,7 +5898,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" s="6">
         <v>300</v>
@@ -7079,7 +5907,7 @@
         <v>500</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E3" s="6">
         <v>3</v>
@@ -7092,7 +5920,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" s="6">
         <v>350</v>
@@ -7101,7 +5929,7 @@
         <v>450</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E4" s="6">
         <v>3</v>
@@ -7114,7 +5942,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B5" s="6">
         <v>400</v>
@@ -7123,7 +5951,7 @@
         <v>550</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E5" s="6">
         <v>4</v>
@@ -7136,7 +5964,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B6" s="6">
         <v>450</v>
@@ -7145,7 +5973,7 @@
         <v>550</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E6" s="6">
         <v>4</v>
@@ -7166,7 +5994,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="40" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B8" s="6">
         <v>300</v>
@@ -7175,7 +6003,7 @@
         <v>700</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E8" s="6">
         <v>6</v>
@@ -7188,7 +6016,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B9" s="6">
         <v>350</v>
@@ -7197,7 +6025,7 @@
         <v>650</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E9" s="6">
         <v>6</v>
@@ -7210,7 +6038,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B10" s="6">
         <v>400</v>
@@ -7219,7 +6047,7 @@
         <v>1200</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E10" s="6">
         <v>8</v>
@@ -7232,7 +6060,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" s="6">
         <v>450</v>
@@ -7241,7 +6069,7 @@
         <v>1100</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E11" s="6">
         <v>8</v>
@@ -7254,7 +6082,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B12" s="6">
         <v>500</v>
@@ -7263,7 +6091,7 @@
         <v>2500</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E12" s="6">
         <v>10</v>
@@ -7276,7 +6104,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B13" s="6">
         <v>550</v>
@@ -7285,7 +6113,7 @@
         <v>2350</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E13" s="6">
         <v>10</v>
@@ -7297,22 +6125,22 @@
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="B14" s="72">
+      <c r="A14" s="70" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="71">
         <v>600</v>
       </c>
-      <c r="C14" s="72">
+      <c r="C14" s="71">
         <v>2200</v>
       </c>
-      <c r="D14" s="72" t="s">
-        <v>138</v>
-      </c>
-      <c r="E14" s="72">
+      <c r="D14" s="71" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="71">
         <v>10</v>
       </c>
-      <c r="F14" s="72">
+      <c r="F14" s="71">
         <f t="shared" si="0"/>
         <v>550</v>
       </c>
@@ -7323,7 +6151,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="40" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B16" s="6">
         <v>135</v>
@@ -7332,7 +6160,7 @@
         <v>50</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E16" s="6">
         <v>10</v>
@@ -7344,7 +6172,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="40" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B17" s="6">
         <v>180</v>
@@ -7353,7 +6181,7 @@
         <v>50</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E17" s="6">
         <v>10</v>
@@ -7365,7 +6193,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="40" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B18" s="6">
         <v>205</v>
@@ -7374,7 +6202,7 @@
         <v>50</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E18" s="6">
         <v>10</v>
@@ -7386,7 +6214,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="40" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B19" s="6">
         <v>250</v>
@@ -7395,7 +6223,7 @@
         <v>50</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E19" s="6">
         <v>10</v>
@@ -7407,7 +6235,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="40" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B20" s="6">
         <v>300</v>
@@ -7416,7 +6244,7 @@
         <v>50</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E20" s="6">
         <v>10</v>
@@ -7428,7 +6256,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="40" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B21" s="6">
         <v>350</v>
@@ -7437,7 +6265,7 @@
         <v>50</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E21" s="6">
         <v>10</v>
@@ -7454,7 +6282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5897A5-8278-44A3-89B0-43E5A8B043EB}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -7473,15 +6301,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B2">
         <v>1650</v>
@@ -7492,13 +6320,121 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B3">
         <v>1875</v>
       </c>
       <c r="C3">
         <v>750</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F49EF18-5FAE-4BD6-950E-9492041AE84C}">
+  <dimension ref="A3:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D3" t="s">
+        <v>432</v>
+      </c>
+      <c r="E3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>1.02</v>
+      </c>
+      <c r="C4">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="D4">
+        <f>B4*C4</f>
+        <v>0.61812</v>
+      </c>
+      <c r="E4">
+        <v>7.26</v>
+      </c>
+      <c r="F4">
+        <f>E4/D4</f>
+        <v>11.74529217627645</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <f>B5*C5</f>
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f>F4</f>
+        <v>11.74529217627645</v>
+      </c>
+      <c r="F5">
+        <f>E5/0.9</f>
+        <v>13.050324640307167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <f>F5*0.7</f>
+        <v>9.135227248215017</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>1.02</v>
+      </c>
+      <c r="C17">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="D17">
+        <f>B17*C17</f>
+        <v>0.61812</v>
+      </c>
+      <c r="E17">
+        <v>7.52</v>
+      </c>
+      <c r="F17">
+        <f>E17/D17</f>
+        <v>12.1659224746004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F19">
+        <f>F17-F4</f>
+        <v>0.4206302983239496</v>
       </c>
     </row>
   </sheetData>
@@ -7508,11 +6444,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E91FF3-79AA-48A9-9F88-C48DFFEF60AE}">
-  <dimension ref="A1:P213"/>
+  <dimension ref="A1:Q213"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J37" sqref="J37"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7527,10 +6463,10 @@
     <col min="11" max="11" width="12.81640625" style="6" customWidth="1"/>
     <col min="13" max="14" width="8.7265625" style="6"/>
     <col min="15" max="15" width="10.08984375" style="6" customWidth="1"/>
-    <col min="16" max="16" width="10.7265625" style="76" customWidth="1"/>
+    <col min="16" max="16" width="10.7265625" style="75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -7541,10 +6477,10 @@
         <v>34</v>
       </c>
       <c r="D1" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="47" t="s">
         <v>156</v>
-      </c>
-      <c r="E1" s="47" t="s">
-        <v>157</v>
       </c>
       <c r="F1" s="47" t="s">
         <v>6</v>
@@ -7553,36 +6489,39 @@
         <v>7</v>
       </c>
       <c r="H1" s="52" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I1" s="61" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="J1" s="61" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K1" s="62" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L1" s="61" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="O1" s="73" t="s">
-        <v>311</v>
-      </c>
-      <c r="P1" s="74" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+      <c r="O1" s="72" t="s">
+        <v>307</v>
+      </c>
+      <c r="P1" s="73" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="43" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B2" s="5">
         <v>9.3000000000000007</v>
@@ -7616,18 +6555,18 @@
         <v>110</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="P2" s="75" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+        <v>308</v>
+      </c>
+      <c r="P2" s="74" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="49" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B3" s="23">
         <v>9.3000000000000007</v>
@@ -7657,18 +6596,18 @@
         <v>55</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="P3" s="75" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+        <v>308</v>
+      </c>
+      <c r="P3" s="74" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="43" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B4" s="5">
         <v>12.1</v>
@@ -7698,18 +6637,18 @@
         <v>110</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="P4" s="75" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+        <v>308</v>
+      </c>
+      <c r="P4" s="74" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="49" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B5" s="23">
         <v>12.1</v>
@@ -7739,18 +6678,18 @@
         <v>55</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="P5" s="75" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+        <v>308</v>
+      </c>
+      <c r="P5" s="74" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="43" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B6" s="4">
         <v>16</v>
@@ -7780,18 +6719,18 @@
         <v>110</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="P6" s="75" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+        <v>308</v>
+      </c>
+      <c r="P6" s="74" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="49" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B7" s="24">
         <v>16</v>
@@ -7821,16 +6760,16 @@
         <v>55</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="P7" s="75" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+        <v>308</v>
+      </c>
+      <c r="P7" s="74" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="43"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -7840,9 +6779,9 @@
       <c r="G8" s="44"/>
       <c r="H8" s="51"/>
     </row>
-    <row r="9" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="43" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B9" s="5">
         <v>8.3000000000000007</v>
@@ -7872,18 +6811,18 @@
         <v>110</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="P9" s="75" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+        <v>308</v>
+      </c>
+      <c r="P9" s="74" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="49" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B10" s="23">
         <v>8.3000000000000007</v>
@@ -7913,18 +6852,18 @@
         <v>55</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="P10" s="75" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+        <v>308</v>
+      </c>
+      <c r="P10" s="74" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="43" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B11" s="5">
         <v>10.5</v>
@@ -7954,18 +6893,18 @@
         <v>110</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="P11" s="75" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+        <v>308</v>
+      </c>
+      <c r="P11" s="74" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="49" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B12" s="23">
         <v>10.5</v>
@@ -7995,18 +6934,18 @@
         <v>55</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="P12" s="75" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+        <v>308</v>
+      </c>
+      <c r="P12" s="74" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="43" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B13" s="5">
         <v>14</v>
@@ -8036,18 +6975,18 @@
         <v>110</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="P13" s="75" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+        <v>308</v>
+      </c>
+      <c r="P13" s="74" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="49" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B14" s="23">
         <v>14</v>
@@ -8077,16 +7016,16 @@
         <v>55</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="P14" s="75" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+        <v>308</v>
+      </c>
+      <c r="P14" s="74" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="43"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -8099,9 +7038,9 @@
       <c r="J15" s="59"/>
       <c r="K15" s="59"/>
     </row>
-    <row r="16" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="43" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B16" s="5">
         <v>7.5</v>
@@ -8131,18 +7070,18 @@
         <v>110</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="P16" s="75" t="s">
-        <v>315</v>
+        <v>308</v>
+      </c>
+      <c r="P16" s="74" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="49" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B17" s="23">
         <v>7.5</v>
@@ -8172,18 +7111,18 @@
         <v>55</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="P17" s="75" t="s">
-        <v>315</v>
+        <v>308</v>
+      </c>
+      <c r="P17" s="74" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="43" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B18" s="5">
         <v>9.6999999999999993</v>
@@ -8213,18 +7152,18 @@
         <v>110</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="P18" s="75" t="s">
-        <v>315</v>
+        <v>308</v>
+      </c>
+      <c r="P18" s="74" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="49" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B19" s="23">
         <v>9.6999999999999993</v>
@@ -8254,35 +7193,35 @@
         <v>55</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="P19" s="75" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" s="93" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="95"/>
-      <c r="B20" s="98"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="92"/>
-      <c r="K20" s="92"/>
-      <c r="M20" s="92"/>
-      <c r="N20" s="92"/>
-      <c r="O20" s="92"/>
-      <c r="P20" s="94"/>
+        <v>308</v>
+      </c>
+      <c r="P19" s="74" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="92" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="94"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="91"/>
+      <c r="M20" s="91"/>
+      <c r="N20" s="91"/>
+      <c r="O20" s="91"/>
+      <c r="P20" s="93"/>
     </row>
     <row r="21" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="43" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B21" s="51">
         <v>11.4</v>
@@ -8310,35 +7249,35 @@
         <v>110</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="P21" s="75" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" s="93" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="90"/>
-      <c r="B22" s="91"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="92"/>
-      <c r="M22" s="92"/>
-      <c r="N22" s="92"/>
-      <c r="O22" s="92"/>
-      <c r="P22" s="94"/>
+        <v>309</v>
+      </c>
+      <c r="P21" s="74" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="92" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="89"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="91"/>
+      <c r="M22" s="91"/>
+      <c r="N22" s="91"/>
+      <c r="O22" s="91"/>
+      <c r="P22" s="93"/>
     </row>
     <row r="23" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="43" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B23" s="5">
         <v>11.9</v>
@@ -8354,7 +7293,7 @@
         <v>25</v>
       </c>
       <c r="G23" s="44">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H23" s="5">
         <v>9000</v>
@@ -8368,18 +7307,18 @@
         <v>110</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O23" s="6">
         <v>3.2</v>
       </c>
-      <c r="P23" s="75" t="s">
-        <v>315</v>
+      <c r="P23" s="74" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="43" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B24" s="5">
         <v>13.25</v>
@@ -8395,7 +7334,7 @@
         <v>25</v>
       </c>
       <c r="G24" s="44">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H24" s="5">
         <v>9000</v>
@@ -8409,18 +7348,18 @@
         <v>110</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O24" s="6">
         <v>3.2</v>
       </c>
-      <c r="P24" s="75" t="s">
-        <v>315</v>
+      <c r="P24" s="74" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="43" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B25" s="5">
         <v>12</v>
@@ -8436,7 +7375,7 @@
         <v>25</v>
       </c>
       <c r="G25" s="44">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H25" s="5">
         <v>9000</v>
@@ -8448,35 +7387,35 @@
         <v>110</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="P25" s="75" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" s="93" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="95"/>
-      <c r="B26" s="98"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="97"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="99"/>
-      <c r="J26" s="99"/>
-      <c r="K26" s="99"/>
-      <c r="M26" s="92"/>
-      <c r="N26" s="92"/>
-      <c r="O26" s="92"/>
-      <c r="P26" s="94"/>
+        <v>309</v>
+      </c>
+      <c r="P25" s="74" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="92" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="94"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="98"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="98"/>
+      <c r="M26" s="91"/>
+      <c r="N26" s="91"/>
+      <c r="O26" s="91"/>
+      <c r="P26" s="93"/>
     </row>
     <row r="27" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="43" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B27" s="5">
         <v>22</v>
@@ -8508,50 +7447,50 @@
         <v>110</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O27" s="6">
         <v>4.3</v>
       </c>
-      <c r="P27" s="75" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" s="93" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="95"/>
-      <c r="B28" s="96"/>
-      <c r="C28" s="96"/>
-      <c r="D28" s="96"/>
-      <c r="E28" s="96"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="97"/>
-      <c r="H28" s="91"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="92"/>
-      <c r="K28" s="92"/>
-      <c r="M28" s="92"/>
-      <c r="N28" s="92"/>
-      <c r="O28" s="92"/>
-      <c r="P28" s="94"/>
+      <c r="P27" s="74" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="94"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="91"/>
+      <c r="J28" s="91"/>
+      <c r="K28" s="91"/>
+      <c r="M28" s="91"/>
+      <c r="N28" s="91"/>
+      <c r="O28" s="91"/>
+      <c r="P28" s="93"/>
     </row>
     <row r="29" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="43" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B29" s="5">
         <v>4</v>
       </c>
       <c r="C29" s="5"/>
-      <c r="D29" s="81">
+      <c r="D29" s="80">
         <v>40</v>
       </c>
-      <c r="E29" s="81">
+      <c r="E29" s="80">
         <v>42</v>
       </c>
-      <c r="F29" s="81">
+      <c r="F29" s="80">
         <v>9</v>
       </c>
-      <c r="G29" s="83">
+      <c r="G29" s="82">
         <v>10</v>
       </c>
       <c r="H29" s="51">
@@ -8561,33 +7500,33 @@
         <v>110</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="P29" s="75" t="s">
-        <v>316</v>
+        <v>309</v>
+      </c>
+      <c r="P29" s="74" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="43" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B30" s="5">
         <v>8</v>
       </c>
       <c r="C30" s="5"/>
-      <c r="D30" s="81">
+      <c r="D30" s="80">
         <v>36</v>
       </c>
-      <c r="E30" s="81">
+      <c r="E30" s="80">
         <v>38</v>
       </c>
-      <c r="F30" s="81">
+      <c r="F30" s="80">
         <v>9</v>
       </c>
-      <c r="G30" s="83">
+      <c r="G30" s="82">
         <v>10</v>
       </c>
       <c r="H30" s="51">
@@ -8597,33 +7536,33 @@
         <v>110</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="P30" s="75" t="s">
-        <v>316</v>
+        <v>309</v>
+      </c>
+      <c r="P30" s="74" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="43" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B31" s="5">
         <v>6.5</v>
       </c>
       <c r="C31" s="5"/>
-      <c r="D31" s="81">
+      <c r="D31" s="80">
         <v>36</v>
       </c>
-      <c r="E31" s="81">
+      <c r="E31" s="80">
         <v>38</v>
       </c>
-      <c r="F31" s="81">
+      <c r="F31" s="80">
         <v>9</v>
       </c>
-      <c r="G31" s="83">
+      <c r="G31" s="82">
         <v>10</v>
       </c>
       <c r="H31" s="51">
@@ -8633,33 +7572,33 @@
         <v>110</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="P31" s="75" t="s">
-        <v>316</v>
+        <v>309</v>
+      </c>
+      <c r="P31" s="74" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="43" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B32" s="5">
         <v>6.5</v>
       </c>
       <c r="C32" s="5"/>
-      <c r="D32" s="81">
+      <c r="D32" s="80">
         <v>36</v>
       </c>
-      <c r="E32" s="81">
+      <c r="E32" s="80">
         <v>38</v>
       </c>
-      <c r="F32" s="81">
+      <c r="F32" s="80">
         <v>9</v>
       </c>
-      <c r="G32" s="83">
+      <c r="G32" s="82">
         <v>10</v>
       </c>
       <c r="H32" s="51">
@@ -8669,33 +7608,33 @@
         <v>110</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="P32" s="75" t="s">
-        <v>316</v>
+        <v>309</v>
+      </c>
+      <c r="P32" s="74" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="43" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B33" s="5">
         <v>7.5</v>
       </c>
       <c r="C33" s="5"/>
-      <c r="D33" s="81">
+      <c r="D33" s="80">
         <v>36</v>
       </c>
-      <c r="E33" s="81">
+      <c r="E33" s="80">
         <v>38</v>
       </c>
-      <c r="F33" s="81">
+      <c r="F33" s="80">
         <v>9</v>
       </c>
-      <c r="G33" s="83">
+      <c r="G33" s="82">
         <v>10</v>
       </c>
       <c r="H33" s="51">
@@ -8705,33 +7644,33 @@
         <v>110</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="P33" s="75" t="s">
-        <v>316</v>
+        <v>309</v>
+      </c>
+      <c r="P33" s="74" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="43" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B34" s="5">
         <v>9</v>
       </c>
       <c r="C34" s="5"/>
-      <c r="D34" s="81">
+      <c r="D34" s="80">
         <v>55</v>
       </c>
-      <c r="E34" s="81">
+      <c r="E34" s="80">
         <v>59</v>
       </c>
-      <c r="F34" s="81">
+      <c r="F34" s="80">
         <v>15</v>
       </c>
-      <c r="G34" s="83">
+      <c r="G34" s="82">
         <v>10</v>
       </c>
       <c r="H34" s="51">
@@ -8741,33 +7680,33 @@
         <v>110</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="P34" s="75" t="s">
-        <v>316</v>
+        <v>309</v>
+      </c>
+      <c r="P34" s="74" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="43" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B35" s="51">
         <v>9.25</v>
       </c>
       <c r="C35" s="13"/>
-      <c r="D35" s="82">
+      <c r="D35" s="81">
         <v>77.3</v>
       </c>
-      <c r="E35" s="82">
+      <c r="E35" s="81">
         <v>79</v>
       </c>
-      <c r="F35" s="82">
+      <c r="F35" s="81">
         <v>19</v>
       </c>
-      <c r="G35" s="82">
+      <c r="G35" s="81">
         <v>10</v>
       </c>
       <c r="H35" s="51">
@@ -8777,33 +7716,33 @@
         <v>110</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="P35" s="75" t="s">
-        <v>316</v>
+        <v>309</v>
+      </c>
+      <c r="P35" s="74" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="43" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B36" s="51">
         <v>7</v>
       </c>
       <c r="C36" s="13"/>
-      <c r="D36" s="82">
+      <c r="D36" s="81">
         <v>77.3</v>
       </c>
-      <c r="E36" s="82">
+      <c r="E36" s="81">
         <v>79</v>
       </c>
-      <c r="F36" s="82">
+      <c r="F36" s="81">
         <v>19</v>
       </c>
-      <c r="G36" s="82">
+      <c r="G36" s="81">
         <v>10</v>
       </c>
       <c r="H36" s="51">
@@ -8813,33 +7752,33 @@
         <v>110</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="P36" s="75" t="s">
-        <v>316</v>
+        <v>309</v>
+      </c>
+      <c r="P36" s="74" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="43" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B37" s="51">
         <v>8</v>
       </c>
       <c r="C37" s="13"/>
-      <c r="D37" s="82">
+      <c r="D37" s="81">
         <v>77.3</v>
       </c>
-      <c r="E37" s="82">
+      <c r="E37" s="81">
         <v>79</v>
       </c>
-      <c r="F37" s="82">
+      <c r="F37" s="81">
         <v>19</v>
       </c>
-      <c r="G37" s="82">
+      <c r="G37" s="81">
         <v>10</v>
       </c>
       <c r="H37" s="51">
@@ -8849,33 +7788,33 @@
         <v>110</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="P37" s="75" t="s">
-        <v>316</v>
+        <v>309</v>
+      </c>
+      <c r="P37" s="74" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="43" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B38" s="51">
         <v>7</v>
       </c>
       <c r="C38" s="13"/>
-      <c r="D38" s="82">
+      <c r="D38" s="81">
         <v>88</v>
       </c>
-      <c r="E38" s="82">
+      <c r="E38" s="81">
         <v>90</v>
       </c>
-      <c r="F38" s="82">
+      <c r="F38" s="81">
         <v>27</v>
       </c>
-      <c r="G38" s="82">
+      <c r="G38" s="81">
         <v>10</v>
       </c>
       <c r="H38" s="51">
@@ -8885,50 +7824,50 @@
         <v>110</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="O38" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="P38" s="75" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" s="93" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="90"/>
-      <c r="B39" s="91"/>
-      <c r="C39" s="90"/>
-      <c r="D39" s="90"/>
-      <c r="E39" s="90"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="90"/>
-      <c r="H39" s="91"/>
-      <c r="I39" s="92"/>
-      <c r="J39" s="92"/>
-      <c r="K39" s="92"/>
-      <c r="M39" s="92"/>
-      <c r="N39" s="92"/>
-      <c r="O39" s="92"/>
-      <c r="P39" s="94"/>
+      <c r="P38" s="74" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" s="92" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="89"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="89"/>
+      <c r="H39" s="90"/>
+      <c r="I39" s="91"/>
+      <c r="J39" s="91"/>
+      <c r="K39" s="91"/>
+      <c r="M39" s="91"/>
+      <c r="N39" s="91"/>
+      <c r="O39" s="91"/>
+      <c r="P39" s="93"/>
     </row>
     <row r="40" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="43" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B40" s="51">
         <v>5</v>
       </c>
       <c r="C40" s="13"/>
-      <c r="D40" s="82">
+      <c r="D40" s="81">
         <v>77</v>
       </c>
-      <c r="E40" s="82">
+      <c r="E40" s="81">
         <v>79</v>
       </c>
-      <c r="F40" s="82">
+      <c r="F40" s="81">
         <v>21</v>
       </c>
-      <c r="G40" s="82">
+      <c r="G40" s="81">
         <v>10</v>
       </c>
       <c r="H40" s="51">
@@ -8938,13 +7877,13 @@
         <v>110</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="O40" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="P40" s="74" t="s">
         <v>313</v>
-      </c>
-      <c r="P40" s="75" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9132,7 +8071,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9146,408 +8085,408 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="102" t="s">
-        <v>421</v>
-      </c>
-      <c r="B1" s="101" t="s">
-        <v>281</v>
-      </c>
-      <c r="C1" s="101"/>
+      <c r="A1" s="101" t="s">
+        <v>417</v>
+      </c>
+      <c r="B1" s="100" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1" s="100"/>
       <c r="D1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="99" t="s">
+        <v>411</v>
+      </c>
+      <c r="B2" s="99" t="s">
+        <v>416</v>
+      </c>
+      <c r="C2" s="99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="99" t="s">
+        <v>409</v>
+      </c>
+      <c r="B3" s="99" t="s">
         <v>415</v>
       </c>
-      <c r="B2" s="100" t="s">
-        <v>420</v>
-      </c>
-      <c r="C2" s="100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="100" t="s">
+      <c r="C3" s="99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="99" t="s">
+        <v>407</v>
+      </c>
+      <c r="B4" s="99" t="s">
+        <v>414</v>
+      </c>
+      <c r="C4" s="99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="99" t="s">
         <v>413</v>
       </c>
-      <c r="B3" s="100" t="s">
-        <v>419</v>
-      </c>
-      <c r="C3" s="100">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="100" t="s">
+      <c r="B5" s="99" t="s">
+        <v>412</v>
+      </c>
+      <c r="C5" s="99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="99" t="s">
         <v>411</v>
       </c>
-      <c r="B4" s="100" t="s">
-        <v>418</v>
-      </c>
-      <c r="C4" s="100">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="100" t="s">
-        <v>417</v>
-      </c>
-      <c r="B5" s="100" t="s">
-        <v>416</v>
-      </c>
-      <c r="C5" s="100">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="100" t="s">
+      <c r="B6" s="99" t="s">
+        <v>410</v>
+      </c>
+      <c r="C6" s="99">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="99" t="s">
+        <v>409</v>
+      </c>
+      <c r="B7" s="99" t="s">
+        <v>408</v>
+      </c>
+      <c r="C7" s="99">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.35">
+      <c r="A8" s="99" t="s">
+        <v>407</v>
+      </c>
+      <c r="B8" s="99" t="s">
+        <v>406</v>
+      </c>
+      <c r="C8" s="99">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="99" t="s">
+        <v>405</v>
+      </c>
+      <c r="B9" s="99" t="s">
+        <v>404</v>
+      </c>
+      <c r="C9" s="99">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.35">
+      <c r="A10" s="99" t="s">
+        <v>403</v>
+      </c>
+      <c r="B10" s="99" t="s">
+        <v>402</v>
+      </c>
+      <c r="C10" s="99">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="99" t="s">
+        <v>401</v>
+      </c>
+      <c r="B11" s="99" t="s">
+        <v>400</v>
+      </c>
+      <c r="C11" s="99">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.35">
+      <c r="A12" s="99" t="s">
+        <v>399</v>
+      </c>
+      <c r="B12" s="99" t="s">
+        <v>398</v>
+      </c>
+      <c r="C12" s="99">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.35">
+      <c r="A13" s="99" t="s">
+        <v>397</v>
+      </c>
+      <c r="B13" s="99" t="s">
+        <v>396</v>
+      </c>
+      <c r="C13" s="99">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="99" t="s">
+        <v>395</v>
+      </c>
+      <c r="B14" s="99" t="s">
+        <v>394</v>
+      </c>
+      <c r="C14" s="99">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.35">
+      <c r="A15" s="99" t="s">
+        <v>393</v>
+      </c>
+      <c r="B15" s="99" t="s">
+        <v>392</v>
+      </c>
+      <c r="C15" s="99">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="99" t="s">
+        <v>391</v>
+      </c>
+      <c r="B16" s="99" t="s">
+        <v>390</v>
+      </c>
+      <c r="C16" s="99">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.35">
+      <c r="A17" s="99" t="s">
+        <v>389</v>
+      </c>
+      <c r="B17" s="99" t="s">
+        <v>388</v>
+      </c>
+      <c r="C17" s="99">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="99" t="s">
+        <v>387</v>
+      </c>
+      <c r="B18" s="99" t="s">
+        <v>386</v>
+      </c>
+      <c r="C18" s="99">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.35">
+      <c r="A19" s="99" t="s">
+        <v>385</v>
+      </c>
+      <c r="B19" s="99" t="s">
+        <v>384</v>
+      </c>
+      <c r="C19" s="99">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.35">
+      <c r="A20" s="99" t="s">
+        <v>383</v>
+      </c>
+      <c r="B20" s="99" t="s">
+        <v>382</v>
+      </c>
+      <c r="C20" s="99">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="99" t="s">
+        <v>381</v>
+      </c>
+      <c r="B21" s="99" t="s">
+        <v>380</v>
+      </c>
+      <c r="C21" s="99">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.35">
+      <c r="A22" s="99" t="s">
+        <v>379</v>
+      </c>
+      <c r="B22" s="99" t="s">
+        <v>378</v>
+      </c>
+      <c r="C22" s="99">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.35">
+      <c r="A23" s="99" t="s">
+        <v>377</v>
+      </c>
+      <c r="B23" s="99" t="s">
+        <v>376</v>
+      </c>
+      <c r="C23" s="99">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.35">
+      <c r="A24" s="99" t="s">
+        <v>375</v>
+      </c>
+      <c r="B24" s="99" t="s">
+        <v>374</v>
+      </c>
+      <c r="C24" s="99">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.35">
+      <c r="A25" s="99" t="s">
+        <v>373</v>
+      </c>
+      <c r="B25" s="99" t="s">
+        <v>372</v>
+      </c>
+      <c r="C25" s="99">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.35">
+      <c r="A26" s="99" t="s">
+        <v>371</v>
+      </c>
+      <c r="B26" s="99" t="s">
+        <v>370</v>
+      </c>
+      <c r="C26" s="99">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.35">
+      <c r="A27" s="99" t="s">
+        <v>369</v>
+      </c>
+      <c r="B27" s="99" t="s">
+        <v>368</v>
+      </c>
+      <c r="C27" s="99">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.35">
+      <c r="A28" s="99" t="s">
+        <v>367</v>
+      </c>
+      <c r="B28" s="99" t="s">
+        <v>366</v>
+      </c>
+      <c r="C28" s="99">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.35">
+      <c r="A29" s="99" t="s">
+        <v>365</v>
+      </c>
+      <c r="B29" s="99" t="s">
+        <v>364</v>
+      </c>
+      <c r="C29" s="99">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.35">
+      <c r="A30" s="99" t="s">
+        <v>363</v>
+      </c>
+      <c r="B30" s="99" t="s">
+        <v>362</v>
+      </c>
+      <c r="C30" s="99">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="99" t="s">
+        <v>361</v>
+      </c>
+      <c r="B31" s="99" t="s">
+        <v>360</v>
+      </c>
+      <c r="C31" s="99">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="99" t="s">
+        <v>359</v>
+      </c>
+      <c r="B32" s="99" t="s">
+        <v>358</v>
+      </c>
+      <c r="C32" s="99">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.35">
+      <c r="A33" s="99" t="s">
+        <v>357</v>
+      </c>
+      <c r="B33" s="99" t="s">
+        <v>356</v>
+      </c>
+      <c r="C33" s="99">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.35">
+      <c r="A34" s="99" t="s">
+        <v>355</v>
+      </c>
+      <c r="B34" s="99" t="s">
+        <v>354</v>
+      </c>
+      <c r="C34" s="99">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.35">
+      <c r="A35" s="99" t="s">
+        <v>353</v>
+      </c>
+      <c r="B35" s="99" t="s">
+        <v>352</v>
+      </c>
+      <c r="C35" s="99">
         <v>415</v>
       </c>
-      <c r="B6" s="100" t="s">
-        <v>414</v>
-      </c>
-      <c r="C6" s="100">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="100" t="s">
-        <v>413</v>
-      </c>
-      <c r="B7" s="100" t="s">
-        <v>412</v>
-      </c>
-      <c r="C7" s="100">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.35">
-      <c r="A8" s="100" t="s">
-        <v>411</v>
-      </c>
-      <c r="B8" s="100" t="s">
-        <v>410</v>
-      </c>
-      <c r="C8" s="100">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="100" t="s">
-        <v>409</v>
-      </c>
-      <c r="B9" s="100" t="s">
-        <v>408</v>
-      </c>
-      <c r="C9" s="100">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.35">
-      <c r="A10" s="100" t="s">
-        <v>407</v>
-      </c>
-      <c r="B10" s="100" t="s">
-        <v>406</v>
-      </c>
-      <c r="C10" s="100">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="100" t="s">
-        <v>405</v>
-      </c>
-      <c r="B11" s="100" t="s">
-        <v>404</v>
-      </c>
-      <c r="C11" s="100">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.35">
-      <c r="A12" s="100" t="s">
-        <v>403</v>
-      </c>
-      <c r="B12" s="100" t="s">
-        <v>402</v>
-      </c>
-      <c r="C12" s="100">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.35">
-      <c r="A13" s="100" t="s">
-        <v>401</v>
-      </c>
-      <c r="B13" s="100" t="s">
-        <v>400</v>
-      </c>
-      <c r="C13" s="100">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="100" t="s">
-        <v>399</v>
-      </c>
-      <c r="B14" s="100" t="s">
-        <v>398</v>
-      </c>
-      <c r="C14" s="100">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.35">
-      <c r="A15" s="100" t="s">
-        <v>397</v>
-      </c>
-      <c r="B15" s="100" t="s">
-        <v>396</v>
-      </c>
-      <c r="C15" s="100">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="100" t="s">
-        <v>395</v>
-      </c>
-      <c r="B16" s="100" t="s">
-        <v>394</v>
-      </c>
-      <c r="C16" s="100">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.35">
-      <c r="A17" s="100" t="s">
-        <v>393</v>
-      </c>
-      <c r="B17" s="100" t="s">
-        <v>392</v>
-      </c>
-      <c r="C17" s="100">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="100" t="s">
-        <v>391</v>
-      </c>
-      <c r="B18" s="100" t="s">
-        <v>390</v>
-      </c>
-      <c r="C18" s="100">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.35">
-      <c r="A19" s="100" t="s">
-        <v>389</v>
-      </c>
-      <c r="B19" s="100" t="s">
-        <v>388</v>
-      </c>
-      <c r="C19" s="100">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.35">
-      <c r="A20" s="100" t="s">
-        <v>387</v>
-      </c>
-      <c r="B20" s="100" t="s">
-        <v>386</v>
-      </c>
-      <c r="C20" s="100">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="100" t="s">
-        <v>385</v>
-      </c>
-      <c r="B21" s="100" t="s">
-        <v>384</v>
-      </c>
-      <c r="C21" s="100">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.35">
-      <c r="A22" s="100" t="s">
-        <v>383</v>
-      </c>
-      <c r="B22" s="100" t="s">
-        <v>382</v>
-      </c>
-      <c r="C22" s="100">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.35">
-      <c r="A23" s="100" t="s">
-        <v>381</v>
-      </c>
-      <c r="B23" s="100" t="s">
-        <v>380</v>
-      </c>
-      <c r="C23" s="100">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.35">
-      <c r="A24" s="100" t="s">
-        <v>379</v>
-      </c>
-      <c r="B24" s="100" t="s">
-        <v>378</v>
-      </c>
-      <c r="C24" s="100">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.35">
-      <c r="A25" s="100" t="s">
-        <v>377</v>
-      </c>
-      <c r="B25" s="100" t="s">
-        <v>376</v>
-      </c>
-      <c r="C25" s="100">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.35">
-      <c r="A26" s="100" t="s">
-        <v>375</v>
-      </c>
-      <c r="B26" s="100" t="s">
-        <v>374</v>
-      </c>
-      <c r="C26" s="100">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.35">
-      <c r="A27" s="100" t="s">
-        <v>373</v>
-      </c>
-      <c r="B27" s="100" t="s">
-        <v>372</v>
-      </c>
-      <c r="C27" s="100">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.35">
-      <c r="A28" s="100" t="s">
-        <v>371</v>
-      </c>
-      <c r="B28" s="100" t="s">
-        <v>370</v>
-      </c>
-      <c r="C28" s="100">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.35">
-      <c r="A29" s="100" t="s">
-        <v>369</v>
-      </c>
-      <c r="B29" s="100" t="s">
-        <v>368</v>
-      </c>
-      <c r="C29" s="100">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.35">
-      <c r="A30" s="100" t="s">
-        <v>367</v>
-      </c>
-      <c r="B30" s="100" t="s">
-        <v>366</v>
-      </c>
-      <c r="C30" s="100">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="100" t="s">
-        <v>365</v>
-      </c>
-      <c r="B31" s="100" t="s">
-        <v>364</v>
-      </c>
-      <c r="C31" s="100">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="100" t="s">
-        <v>363</v>
-      </c>
-      <c r="B32" s="100" t="s">
-        <v>362</v>
-      </c>
-      <c r="C32" s="100">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.35">
-      <c r="A33" s="100" t="s">
-        <v>361</v>
-      </c>
-      <c r="B33" s="100" t="s">
-        <v>360</v>
-      </c>
-      <c r="C33" s="100">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.35">
-      <c r="A34" s="100" t="s">
-        <v>359</v>
-      </c>
-      <c r="B34" s="100" t="s">
-        <v>358</v>
-      </c>
-      <c r="C34" s="100">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.35">
-      <c r="A35" s="100" t="s">
-        <v>357</v>
-      </c>
-      <c r="B35" s="100" t="s">
-        <v>356</v>
-      </c>
-      <c r="C35" s="100">
-        <v>415</v>
-      </c>
     </row>
     <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.35">
-      <c r="A36" s="100" t="s">
-        <v>355</v>
-      </c>
-      <c r="B36" s="100" t="s">
-        <v>354</v>
-      </c>
-      <c r="C36" s="100">
+      <c r="A36" s="99" t="s">
+        <v>351</v>
+      </c>
+      <c r="B36" s="99" t="s">
+        <v>350</v>
+      </c>
+      <c r="C36" s="99">
         <v>416</v>
       </c>
     </row>
@@ -9575,33 +8514,33 @@
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E2" s="6">
         <v>20</v>
@@ -9610,18 +8549,18 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E3" s="6">
         <v>60</v>
@@ -9630,18 +8569,18 @@
         <v>7.5</v>
       </c>
       <c r="G3" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E4" s="6">
         <v>235</v>
@@ -9650,18 +8589,18 @@
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D5" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E5" s="6">
         <v>10</v>
@@ -9670,53 +8609,53 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C6" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D6" t="s">
-        <v>287</v>
-      </c>
-      <c r="E6" s="72">
+        <v>283</v>
+      </c>
+      <c r="E6" s="71">
         <v>20</v>
       </c>
-      <c r="F6" s="72">
+      <c r="F6" s="71">
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C7" t="s">
+        <v>291</v>
+      </c>
+      <c r="D7" t="s">
+        <v>283</v>
+      </c>
+      <c r="E7" s="71">
+        <v>30</v>
+      </c>
+      <c r="F7" s="71">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
         <v>295</v>
       </c>
-      <c r="C7" t="s">
-        <v>295</v>
-      </c>
-      <c r="D7" t="s">
-        <v>287</v>
-      </c>
-      <c r="E7" s="72">
-        <v>30</v>
-      </c>
-      <c r="F7" s="72">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>299</v>
-      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="E11" s="72"/>
+      <c r="E11" s="71"/>
       <c r="F11" s="6" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -9727,10 +8666,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB485315-044F-4FB0-A3DD-44B741CAB625}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9829,7 +8768,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
-        <v>201</v>
+        <v>433</v>
       </c>
       <c r="B8" s="27">
         <v>2</v>
@@ -9857,7 +8796,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="28" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B10" s="30">
         <f>0.82+0.72</f>
@@ -9871,8 +8810,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="76" t="s">
-        <v>320</v>
+      <c r="A12" s="75" t="s">
+        <v>316</v>
       </c>
       <c r="B12" s="39">
         <v>1</v>
@@ -9886,7 +8825,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B13" s="39">
         <v>1.5</v>
@@ -9900,7 +8839,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B14" s="39">
         <v>2.5</v>
@@ -9914,7 +8853,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B15" s="39">
         <v>2</v>
@@ -9926,9 +8865,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="16" x14ac:dyDescent="0.35">
-      <c r="B19" s="89" t="s">
-        <v>346</v>
+    <row r="19" spans="2:6" ht="16" x14ac:dyDescent="0.35">
+      <c r="B19" s="88" t="s">
+        <v>342</v>
       </c>
       <c r="C19">
         <v>0.5</v>
@@ -9941,9 +8880,9 @@
         <v>0.4587155963302752</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="16" x14ac:dyDescent="0.35">
-      <c r="B20" s="89" t="s">
-        <v>347</v>
+    <row r="20" spans="2:6" ht="16" x14ac:dyDescent="0.35">
+      <c r="B20" s="88" t="s">
+        <v>343</v>
       </c>
       <c r="C20">
         <v>5.38</v>
@@ -9956,9 +8895,9 @@
         <v>1.2932692307692306</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="16" x14ac:dyDescent="0.35">
-      <c r="B21" s="89" t="s">
-        <v>348</v>
+    <row r="21" spans="2:6" ht="16" x14ac:dyDescent="0.35">
+      <c r="B21" s="88" t="s">
+        <v>344</v>
       </c>
       <c r="C21">
         <v>3.38</v>
@@ -9971,19 +8910,23 @@
         <v>0.82620386213639685</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B22" s="88" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B23" s="88" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B24" s="88" t="s">
-        <v>353</v>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B22" s="87" t="s">
+        <v>347</v>
+      </c>
+      <c r="F22">
+        <f>1.64*6</f>
+        <v>9.84</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B23" s="87" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B24" s="87" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -10019,30 +8962,30 @@
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>129</v>
       </c>
-      <c r="G1" t="s">
-        <v>130</v>
-      </c>
       <c r="H1" s="6" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C3" s="6">
         <v>65</v>
@@ -10052,15 +8995,15 @@
         <v>60</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C4" s="6">
         <v>65</v>
@@ -10070,15 +9013,15 @@
         <v>60</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" s="6">
         <v>100</v>
@@ -10088,15 +9031,15 @@
         <v>95</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C6" s="6">
         <v>100</v>
@@ -10106,15 +9049,15 @@
         <v>95</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C7" s="6">
         <v>80</v>
@@ -10124,15 +9067,15 @@
         <v>75</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C10" s="6">
         <v>45</v>
@@ -10142,15 +9085,15 @@
         <v>12</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C11" s="6">
         <v>53</v>
@@ -10160,15 +9103,15 @@
         <v>20</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C12" s="6">
         <v>60</v>
@@ -10178,15 +9121,15 @@
         <v>24</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C13" s="6">
         <v>70</v>
@@ -10196,15 +9139,15 @@
         <v>37</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B14" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C14" s="6">
         <v>60</v>
@@ -10214,15 +9157,15 @@
         <v>27</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B15" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C15" s="6">
         <v>75</v>
@@ -10232,15 +9175,15 @@
         <v>32</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B16" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C16" s="6">
         <v>90</v>
@@ -10250,7 +9193,7 @@
         <v>47</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -10261,20 +9204,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F49EF18-5FAE-4BD6-950E-9492041AE84C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DB295D-7881-4D5C-8380-F1C84A7F5934}">
   <dimension ref="A1:L24"/>
   <sheetViews>
@@ -10298,7 +9227,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>57</v>
@@ -10319,27 +9248,27 @@
         <v>36</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="J1" s="15" t="s">
         <v>109</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="L1" s="63" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D2" s="15">
         <v>60</v>
@@ -10365,13 +9294,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B3" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>262</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>266</v>
       </c>
       <c r="D3" s="15">
         <v>70</v>
@@ -10397,13 +9326,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>262</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>266</v>
       </c>
       <c r="D4" s="15">
         <v>70</v>
@@ -10432,7 +9361,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>60</v>
@@ -10468,7 +9397,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>59</v>
@@ -10501,13 +9430,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D7" s="15">
         <v>127</v>
@@ -10537,13 +9466,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D8" s="34">
         <v>127</v>
@@ -10576,10 +9505,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D9" s="33">
         <v>139</v>
@@ -10609,10 +9538,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>58</v>
@@ -10645,13 +9574,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D11" s="33">
         <v>168</v>
@@ -10681,10 +9610,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="41" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>61</v>
@@ -10717,13 +9646,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D13" s="16">
         <v>193</v>
@@ -10756,7 +9685,7 @@
         <v>85</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>83</v>
@@ -10792,10 +9721,10 @@
         <v>84</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D15" s="35">
         <v>229</v>
@@ -10828,7 +9757,7 @@
         <v>106</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C16" s="34"/>
       <c r="D16" s="35">
@@ -10862,7 +9791,7 @@
         <v>107</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C17" s="34"/>
       <c r="D17" s="35">
@@ -10894,7 +9823,7 @@
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C24" s="39"/>
       <c r="D24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -10904,18 +9833,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB77DDB-B6D9-4CBA-9145-50EF6FDCE517}">
-  <dimension ref="A1:R90"/>
+  <dimension ref="A1:S89"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M60" sqref="M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="20.81640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="28.08984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="19.453125" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.453125" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.1796875" style="1" customWidth="1"/>
@@ -10926,14 +9856,16 @@
     <col min="11" max="13" width="19.453125" style="1" customWidth="1"/>
     <col min="14" max="14" width="10.54296875" customWidth="1"/>
     <col min="15" max="15" width="19.453125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
+    <col min="19" max="19" width="46.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="12" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="12" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>30</v>
@@ -10963,22 +9895,28 @@
         <v>54</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M1" s="11" t="s">
         <v>108</v>
       </c>
       <c r="N1" s="53" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O1" s="11" t="s">
         <v>11</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+        <v>237</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -11009,7 +9947,7 @@
       <c r="K3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="78">
+      <c r="M3" s="77">
         <v>3</v>
       </c>
       <c r="N3">
@@ -11019,7 +9957,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -11050,7 +9988,7 @@
       <c r="K4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M4" s="78">
+      <c r="M4" s="77">
         <v>3.3</v>
       </c>
       <c r="N4">
@@ -11060,7 +9998,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -11091,7 +10029,7 @@
       <c r="K5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M5" s="78">
+      <c r="M5" s="77">
         <v>5</v>
       </c>
       <c r="N5">
@@ -11101,7 +10039,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -11132,7 +10070,7 @@
       <c r="K6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M6" s="78">
+      <c r="M6" s="77">
         <v>5.2</v>
       </c>
       <c r="N6">
@@ -11142,7 +10080,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -11173,7 +10111,7 @@
       <c r="K7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M7" s="78">
+      <c r="M7" s="77">
         <v>8</v>
       </c>
       <c r="N7">
@@ -11183,7 +10121,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -11214,7 +10152,7 @@
       <c r="K8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M8" s="78">
+      <c r="M8" s="77">
         <v>8.3000000000000007</v>
       </c>
       <c r="N8">
@@ -11224,7 +10162,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -11255,7 +10193,7 @@
       <c r="K9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M9" s="78">
+      <c r="M9" s="77">
         <v>12</v>
       </c>
       <c r="N9">
@@ -11265,7 +10203,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -11296,7 +10234,7 @@
       <c r="K10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M10" s="78">
+      <c r="M10" s="77">
         <v>14</v>
       </c>
       <c r="N10">
@@ -11306,15 +10244,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="M11" s="78"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="M11" s="77"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C12" s="1">
         <f>D10+0.01</f>
@@ -11344,19 +10282,19 @@
       <c r="K12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M12" s="78">
+      <c r="M12" s="77">
         <v>16</v>
       </c>
       <c r="N12">
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C13" s="1">
         <f>D12+0.01</f>
@@ -11386,16 +10324,16 @@
       <c r="K13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M13" s="78">
+      <c r="M13" s="77">
         <v>19</v>
       </c>
       <c r="N13">
         <v>920</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>111</v>
@@ -11431,9 +10369,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>111</v>
@@ -11472,7 +10410,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>111</v>
@@ -11511,7 +10449,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>111</v>
@@ -11550,7 +10488,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>111</v>
@@ -11589,7 +10527,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>111</v>
@@ -11628,7 +10566,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>111</v>
@@ -11667,7 +10605,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>111</v>
@@ -11706,7 +10644,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>111</v>
@@ -11745,7 +10683,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>111</v>
@@ -11784,7 +10722,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>111</v>
@@ -11823,7 +10761,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>111</v>
@@ -11862,7 +10800,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>111</v>
@@ -11977,7 +10915,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>43</v>
@@ -12534,7 +11472,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>43</v>
@@ -12563,7 +11501,7 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>43</v>
@@ -12592,7 +11530,7 @@
     </row>
     <row r="51" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>43</v>
@@ -12621,7 +11559,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>43</v>
@@ -12653,10 +11591,10 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="C54" s="2">
         <v>0</v>
@@ -12682,10 +11620,10 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C55" s="2">
         <v>15.01</v>
@@ -12711,10 +11649,10 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C56" s="2">
         <v>62.01</v>
@@ -12745,8 +11683,9 @@
       <c r="C58" s="2"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A59" s="3" t="s">
-        <v>124</v>
+      <c r="A59" s="3" t="str">
+        <f>Chaindrive!A16</f>
+        <v>Ranger 90 1ph 19-57 1/2"</v>
       </c>
       <c r="B59" t="s">
         <v>96</v>
@@ -12797,11 +11736,11 @@
         <v>0</v>
       </c>
       <c r="D60" s="38">
-        <f>Chaindrive!G23</f>
+        <f>Chaindrive!I23</f>
         <v>270</v>
       </c>
       <c r="E60" s="37">
-        <f>Chaindrive!I23</f>
+        <f>Chaindrive!K23</f>
         <v>10.666666666666666</v>
       </c>
       <c r="F60" s="1">
@@ -12841,11 +11780,11 @@
         <v>270.01</v>
       </c>
       <c r="D61" s="38">
-        <f>Chaindrive!G22</f>
+        <f>Chaindrive!I22</f>
         <v>342</v>
       </c>
       <c r="E61" s="37">
-        <f>Chaindrive!I22</f>
+        <f>Chaindrive!K22</f>
         <v>8.4210526315789469</v>
       </c>
       <c r="F61" s="1">
@@ -12875,7 +11814,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B62" t="s">
         <v>96</v>
@@ -12885,11 +11824,11 @@
         <v>342.01</v>
       </c>
       <c r="D62" s="38">
-        <f>Chaindrive!G21</f>
+        <f>Chaindrive!I21</f>
         <v>427.5</v>
       </c>
       <c r="E62" s="2">
-        <f>Chaindrive!I21</f>
+        <f>Chaindrive!K21</f>
         <v>6.7368421052631575</v>
       </c>
       <c r="F62" s="1">
@@ -12918,23 +11857,21 @@
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>176</v>
+      <c r="A63" s="3" t="str">
+        <f>Chaindrive!A35</f>
+        <v>Ranger150 3ph 12-57 1/2"</v>
       </c>
       <c r="B63" t="s">
         <v>96</v>
       </c>
       <c r="C63" s="2">
-        <f>D62+0.01</f>
-        <v>427.51</v>
+        <v>428.01</v>
       </c>
       <c r="D63" s="38">
-        <f>Chaindrive!G28</f>
-        <v>665</v>
+        <v>713</v>
       </c>
       <c r="E63" s="2">
-        <f>Chaindrive!I28</f>
-        <v>4.6315789473684212</v>
+        <v>10</v>
       </c>
       <c r="F63" s="1">
         <v>415</v>
@@ -12949,21 +11886,15 @@
         <v>94</v>
       </c>
       <c r="J63" s="1">
-        <v>25.4</v>
+        <v>26.4</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="N63">
-        <v>450</v>
-      </c>
-      <c r="P63">
-        <v>40</v>
-      </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B64"/>
       <c r="C64" s="2"/>
@@ -12971,115 +11902,154 @@
       <c r="E64" s="2"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A65" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B65"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="38"/>
-      <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>177</v>
-      </c>
-      <c r="B66" t="s">
+      <c r="A65" t="s">
+        <v>175</v>
+      </c>
+      <c r="B65" t="s">
         <v>96</v>
       </c>
-      <c r="C66" s="2">
-        <f>D63+0.01</f>
-        <v>665.01</v>
-      </c>
-      <c r="D66" s="38">
-        <f>Chaindrive!G39</f>
+      <c r="C65" s="2" t="e">
+        <f>#REF!+0.01</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D65" s="38">
+        <f>Chaindrive!I39</f>
         <v>880</v>
       </c>
-      <c r="E66" s="1">
-        <f>Chaindrive!I39</f>
+      <c r="E65" s="1">
+        <f>Chaindrive!K39</f>
         <v>6</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F65" s="1">
         <v>415</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="G65" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="H65" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I66" s="1" t="s">
+      <c r="I65" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J66" s="1">
+      <c r="J65" s="1">
         <v>25.4</v>
       </c>
-      <c r="K66" s="1" t="s">
+      <c r="K65" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="N66">
+      <c r="N65">
         <v>450</v>
       </c>
-      <c r="P66">
+      <c r="P65">
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:18" s="69" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="67" t="s">
-        <v>248</v>
-      </c>
-      <c r="B68" s="67" t="s">
+    <row r="67" spans="1:18" s="68" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="66" t="s">
+        <v>245</v>
+      </c>
+      <c r="B67" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="C68" s="68">
-        <f t="shared" ref="C68:C69" si="2">D67+0.01</f>
+      <c r="C67" s="67">
+        <f t="shared" ref="C67:C68" si="2">D66+0.01</f>
         <v>0.01</v>
       </c>
-      <c r="D68" s="68">
+      <c r="D67" s="67">
         <v>100</v>
       </c>
-      <c r="E68" s="68">
+      <c r="E67" s="67">
         <v>15</v>
       </c>
-      <c r="F68" s="68">
+      <c r="F67" s="67">
         <v>415</v>
       </c>
-      <c r="G68" s="68" t="s">
+      <c r="G67" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="H68" s="68" t="s">
+      <c r="H67" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="I68" s="68" t="s">
+      <c r="I67" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="J68" s="68">
+      <c r="J67" s="67">
         <v>30</v>
       </c>
-      <c r="K68" s="68" t="s">
+      <c r="K67" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="L68" s="68">
+      <c r="L67" s="67">
         <v>8</v>
       </c>
-      <c r="M68" s="68"/>
-      <c r="O68" s="68"/>
+      <c r="M67" s="67"/>
+      <c r="O67" s="67"/>
+      <c r="R67" s="78">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68" t="s">
+        <v>96</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" si="2"/>
+        <v>100.01</v>
+      </c>
+      <c r="D68" s="6">
+        <v>170</v>
+      </c>
+      <c r="E68" s="6">
+        <v>15</v>
+      </c>
+      <c r="F68" s="1">
+        <v>415</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J68" s="1">
+        <v>30</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L68" s="1">
+        <v>8</v>
+      </c>
+      <c r="N68">
+        <v>400</v>
+      </c>
+      <c r="P68">
+        <v>20</v>
+      </c>
       <c r="R68" s="79">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B69" t="s">
         <v>96</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" si="2"/>
-        <v>100.01</v>
+        <f>D68+0.01</f>
+        <v>170.01</v>
       </c>
       <c r="D69" s="6">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="E69" s="6">
         <v>15</v>
@@ -13106,28 +12076,28 @@
         <v>8</v>
       </c>
       <c r="N69">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="P69">
         <v>20</v>
       </c>
-      <c r="R69" s="80">
-        <v>280</v>
+      <c r="R69" s="79">
+        <v>307</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B70" t="s">
         <v>96</v>
       </c>
       <c r="C70" s="1">
-        <f>D69+0.01</f>
-        <v>170.01</v>
+        <f t="shared" ref="C70:C78" si="3">D69+0.01</f>
+        <v>250.01</v>
       </c>
       <c r="D70" s="6">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="E70" s="6">
         <v>15</v>
@@ -13145,37 +12115,37 @@
         <v>94</v>
       </c>
       <c r="J70" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>56</v>
       </c>
       <c r="L70" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N70">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="P70">
         <v>20</v>
       </c>
-      <c r="R70" s="80">
-        <v>307</v>
+      <c r="R70" s="79">
+        <v>383</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B71" t="s">
         <v>96</v>
       </c>
       <c r="C71" s="1">
-        <f t="shared" ref="C71:C79" si="3">D70+0.01</f>
-        <v>250.01</v>
+        <f t="shared" si="3"/>
+        <v>350.01</v>
       </c>
       <c r="D71" s="6">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="E71" s="6">
         <v>15</v>
@@ -13202,28 +12172,25 @@
         <v>9</v>
       </c>
       <c r="N71">
-        <v>850</v>
+        <v>1100</v>
       </c>
       <c r="P71">
         <v>20</v>
       </c>
-      <c r="R71" s="80">
-        <v>383</v>
-      </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B72" t="s">
         <v>96</v>
       </c>
       <c r="C72" s="1">
         <f t="shared" si="3"/>
-        <v>350.01</v>
+        <v>450.01</v>
       </c>
       <c r="D72" s="6">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="E72" s="6">
         <v>15</v>
@@ -13258,17 +12225,17 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>42</v>
+        <v>246</v>
       </c>
       <c r="B73" t="s">
         <v>96</v>
       </c>
       <c r="C73" s="1">
         <f t="shared" si="3"/>
-        <v>450.01</v>
+        <v>550.01</v>
       </c>
       <c r="D73" s="6">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="E73" s="6">
         <v>15</v>
@@ -13294,115 +12261,109 @@
       <c r="L73" s="1">
         <v>9</v>
       </c>
-      <c r="N73">
-        <v>1100</v>
-      </c>
       <c r="P73">
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>249</v>
-      </c>
-      <c r="B74" t="s">
+    <row r="74" spans="1:18" s="68" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="B74" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="C74" s="1">
-        <f t="shared" si="3"/>
-        <v>550.01</v>
-      </c>
-      <c r="D74" s="6">
-        <v>650</v>
-      </c>
-      <c r="E74" s="6">
-        <v>15</v>
-      </c>
-      <c r="F74" s="1">
-        <v>415</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J74" s="1">
-        <v>40</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L74" s="1">
-        <v>9</v>
-      </c>
-      <c r="P74">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" s="69" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="B75" s="69" t="s">
-        <v>96</v>
-      </c>
-      <c r="C75" s="68">
+      <c r="C74" s="67">
         <f t="shared" si="3"/>
         <v>650.01</v>
       </c>
-      <c r="D75" s="77">
+      <c r="D74" s="76">
         <v>750</v>
       </c>
-      <c r="E75" s="77">
+      <c r="E74" s="76">
         <v>15</v>
       </c>
-      <c r="F75" s="68">
+      <c r="F74" s="67">
         <v>415</v>
       </c>
-      <c r="G75" s="68" t="s">
+      <c r="G74" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="H75" s="68" t="s">
+      <c r="H74" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="I75" s="68" t="s">
+      <c r="I74" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="J75" s="68">
+      <c r="J74" s="67">
         <v>55</v>
       </c>
-      <c r="K75" s="68" t="s">
+      <c r="K74" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="L75" s="68">
+      <c r="L74" s="67">
         <v>9</v>
       </c>
-      <c r="M75" s="68"/>
-      <c r="N75" s="69">
+      <c r="M74" s="67"/>
+      <c r="N74" s="68">
         <v>1100</v>
       </c>
-      <c r="O75" s="68"/>
-      <c r="P75" s="69">
+      <c r="O74" s="67"/>
+      <c r="P74" s="68">
         <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>247</v>
+      </c>
+      <c r="B75" t="s">
+        <v>96</v>
+      </c>
+      <c r="C75" s="1">
+        <f t="shared" si="3"/>
+        <v>750.01</v>
+      </c>
+      <c r="D75" s="6">
+        <v>850</v>
+      </c>
+      <c r="E75" s="6">
+        <v>10</v>
+      </c>
+      <c r="F75" s="1">
+        <v>415</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J75" s="1">
+        <v>55</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L75" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>250</v>
+        <v>37</v>
       </c>
       <c r="B76" t="s">
         <v>96</v>
       </c>
       <c r="C76" s="1">
         <f t="shared" si="3"/>
-        <v>750.01</v>
+        <v>850.01</v>
       </c>
       <c r="D76" s="6">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="E76" s="6">
         <v>10</v>
@@ -13428,23 +12389,29 @@
       <c r="L76" s="1">
         <v>7</v>
       </c>
+      <c r="N76">
+        <v>1300</v>
+      </c>
+      <c r="P76">
+        <v>20</v>
+      </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>37</v>
+        <v>248</v>
       </c>
       <c r="B77" t="s">
         <v>96</v>
       </c>
       <c r="C77" s="1">
         <f t="shared" si="3"/>
-        <v>850.01</v>
+        <v>1000.01</v>
       </c>
       <c r="D77" s="6">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="E77" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F77" s="1">
         <v>415</v>
@@ -13468,55 +12435,57 @@
         <v>7</v>
       </c>
       <c r="N77">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="P77">
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>251</v>
-      </c>
-      <c r="B78" t="s">
+    <row r="78" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="B78" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="77">
         <f t="shared" si="3"/>
-        <v>1000.01</v>
-      </c>
-      <c r="D78" s="6">
-        <v>1400</v>
-      </c>
-      <c r="E78" s="6">
+        <v>1400.01</v>
+      </c>
+      <c r="D78" s="71">
+        <v>1800</v>
+      </c>
+      <c r="E78" s="71">
+        <v>6</v>
+      </c>
+      <c r="F78" s="77">
+        <v>415</v>
+      </c>
+      <c r="G78" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="H78" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="I78" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="J78" s="77">
+        <v>60</v>
+      </c>
+      <c r="K78" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="L78" s="77">
         <v>7</v>
       </c>
-      <c r="F78" s="1">
-        <v>415</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J78" s="1">
-        <v>55</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L78" s="1">
-        <v>7</v>
-      </c>
-      <c r="N78">
-        <v>1100</v>
-      </c>
-      <c r="P78">
-        <v>20</v>
+      <c r="M78" s="77"/>
+      <c r="N78" s="39">
+        <v>1300</v>
+      </c>
+      <c r="O78" s="77"/>
+      <c r="P78" s="39">
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -13526,294 +12495,292 @@
       <c r="B79" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="C79" s="78">
-        <f t="shared" si="3"/>
-        <v>1400.01</v>
-      </c>
-      <c r="D79" s="72">
-        <v>1800</v>
-      </c>
-      <c r="E79" s="72">
-        <v>6</v>
-      </c>
-      <c r="F79" s="78">
+      <c r="C79" s="77">
+        <f t="shared" ref="C79:C82" si="4">D78+0.01</f>
+        <v>1800.01</v>
+      </c>
+      <c r="D79" s="77">
+        <v>2600</v>
+      </c>
+      <c r="E79" s="77">
+        <v>5</v>
+      </c>
+      <c r="F79" s="77">
         <v>415</v>
       </c>
-      <c r="G79" s="78" t="s">
+      <c r="G79" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="H79" s="78" t="s">
+      <c r="H79" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="I79" s="78" t="s">
+      <c r="I79" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="J79" s="78">
-        <v>60</v>
-      </c>
-      <c r="K79" s="78" t="s">
+      <c r="J79" s="77">
+        <v>80</v>
+      </c>
+      <c r="K79" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="L79" s="78">
-        <v>7</v>
-      </c>
-      <c r="M79" s="78"/>
+      <c r="L79" s="77">
+        <v>9</v>
+      </c>
+      <c r="M79" s="77"/>
       <c r="N79" s="39">
-        <v>1300</v>
-      </c>
-      <c r="O79" s="78"/>
+        <v>1500</v>
+      </c>
+      <c r="O79" s="77"/>
       <c r="P79" s="39">
         <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="39" t="s">
-        <v>127</v>
+        <v>176</v>
       </c>
       <c r="B80" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="C80" s="78">
-        <f t="shared" ref="C80:C83" si="4">D79+0.01</f>
-        <v>1800.01</v>
-      </c>
-      <c r="D80" s="78">
-        <v>2600</v>
-      </c>
-      <c r="E80" s="78">
+      <c r="C80" s="77">
+        <f t="shared" si="4"/>
+        <v>2600.0100000000002</v>
+      </c>
+      <c r="D80" s="77">
+        <v>3600</v>
+      </c>
+      <c r="E80" s="77">
         <v>5</v>
       </c>
-      <c r="F80" s="78">
+      <c r="F80" s="77">
         <v>415</v>
       </c>
-      <c r="G80" s="78" t="s">
+      <c r="G80" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="H80" s="78" t="s">
+      <c r="H80" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="I80" s="78" t="s">
+      <c r="I80" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="J80" s="78">
+      <c r="J80" s="77">
         <v>80</v>
       </c>
-      <c r="K80" s="78" t="s">
+      <c r="K80" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="L80" s="78">
+      <c r="L80" s="77">
         <v>9</v>
       </c>
-      <c r="M80" s="78"/>
+      <c r="M80" s="77"/>
       <c r="N80" s="39">
-        <v>1500</v>
-      </c>
-      <c r="O80" s="78"/>
+        <v>3000</v>
+      </c>
+      <c r="O80" s="77"/>
       <c r="P80" s="39">
         <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B81" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="C81" s="78">
+      <c r="C81" s="77">
         <f t="shared" si="4"/>
-        <v>2600.0100000000002</v>
-      </c>
-      <c r="D81" s="78">
+        <v>3600.01</v>
+      </c>
+      <c r="D81" s="77">
         <v>3600</v>
       </c>
-      <c r="E81" s="78">
-        <v>5</v>
-      </c>
-      <c r="F81" s="78">
+      <c r="E81" s="77">
+        <v>9</v>
+      </c>
+      <c r="F81" s="77">
         <v>415</v>
       </c>
-      <c r="G81" s="78" t="s">
+      <c r="G81" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="H81" s="78" t="s">
+      <c r="H81" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="I81" s="78" t="s">
+      <c r="I81" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="J81" s="78">
+      <c r="J81" s="77">
         <v>80</v>
       </c>
-      <c r="K81" s="78" t="s">
+      <c r="K81" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="L81" s="78">
+      <c r="L81" s="77">
         <v>9</v>
       </c>
-      <c r="M81" s="78"/>
+      <c r="M81" s="77"/>
       <c r="N81" s="39">
         <v>3000</v>
       </c>
-      <c r="O81" s="78"/>
+      <c r="O81" s="77"/>
       <c r="P81" s="39">
         <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B82" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="C82" s="78">
+      <c r="C82" s="77">
         <f t="shared" si="4"/>
         <v>3600.01</v>
       </c>
-      <c r="D82" s="78">
-        <v>3600</v>
-      </c>
-      <c r="E82" s="78">
+      <c r="D82" s="77">
+        <v>4800</v>
+      </c>
+      <c r="E82" s="77">
         <v>9</v>
       </c>
-      <c r="F82" s="78">
+      <c r="F82" s="77">
         <v>415</v>
       </c>
-      <c r="G82" s="78" t="s">
+      <c r="G82" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="H82" s="78" t="s">
+      <c r="H82" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="I82" s="78" t="s">
+      <c r="I82" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="J82" s="78">
-        <v>80</v>
-      </c>
-      <c r="K82" s="78" t="s">
+      <c r="J82" s="77">
+        <v>100</v>
+      </c>
+      <c r="K82" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="L82" s="78">
-        <v>9</v>
-      </c>
-      <c r="M82" s="78"/>
+      <c r="L82" s="77">
+        <v>10</v>
+      </c>
+      <c r="M82" s="77"/>
       <c r="N82" s="39">
         <v>3000</v>
       </c>
-      <c r="O82" s="78"/>
+      <c r="O82" s="77"/>
       <c r="P82" s="39">
         <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B83" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="C83" s="78">
-        <f t="shared" si="4"/>
-        <v>3600.01</v>
-      </c>
-      <c r="D83" s="78">
-        <v>4800</v>
-      </c>
-      <c r="E83" s="78">
+      <c r="C83" s="77">
+        <f t="shared" ref="C83" si="5">D82+0.01</f>
+        <v>4800.01</v>
+      </c>
+      <c r="D83" s="77">
+        <v>5000</v>
+      </c>
+      <c r="E83" s="77">
+        <v>5</v>
+      </c>
+      <c r="F83" s="77">
+        <v>415</v>
+      </c>
+      <c r="G83" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="H83" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="I83" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="J83" s="77">
+        <v>101</v>
+      </c>
+      <c r="K83" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="L83" s="77">
         <v>9</v>
       </c>
-      <c r="F83" s="78">
-        <v>415</v>
-      </c>
-      <c r="G83" s="78" t="s">
-        <v>22</v>
-      </c>
-      <c r="H83" s="78" t="s">
-        <v>94</v>
-      </c>
-      <c r="I83" s="78" t="s">
-        <v>94</v>
-      </c>
-      <c r="J83" s="78">
-        <v>100</v>
-      </c>
-      <c r="K83" s="78" t="s">
-        <v>56</v>
-      </c>
-      <c r="L83" s="78">
-        <v>10</v>
-      </c>
-      <c r="M83" s="78"/>
+      <c r="M83" s="77"/>
       <c r="N83" s="39">
-        <v>3000</v>
-      </c>
-      <c r="O83" s="78"/>
+        <v>2500</v>
+      </c>
+      <c r="O83" s="77"/>
       <c r="P83" s="39">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="B84" s="39" t="s">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A86" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C84" s="78">
-        <f t="shared" ref="C84" si="5">D83+0.01</f>
-        <v>4800.01</v>
-      </c>
-      <c r="D84" s="78">
-        <v>5000</v>
-      </c>
-      <c r="E84" s="78">
-        <v>5</v>
-      </c>
-      <c r="F84" s="78">
-        <v>415</v>
-      </c>
-      <c r="G84" s="78" t="s">
+      <c r="C86" s="1">
+        <f>D84+0.01</f>
+        <v>0.01</v>
+      </c>
+      <c r="D86" s="1">
+        <v>170</v>
+      </c>
+      <c r="E86" s="1">
+        <v>10</v>
+      </c>
+      <c r="F86" s="1">
+        <v>230</v>
+      </c>
+      <c r="G86" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H84" s="78" t="s">
+      <c r="H86" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I84" s="78" t="s">
+      <c r="I86" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J84" s="78">
-        <v>101</v>
-      </c>
-      <c r="K84" s="78" t="s">
+      <c r="J86" s="1">
+        <v>30</v>
+      </c>
+      <c r="K86" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L84" s="78">
-        <v>9</v>
-      </c>
-      <c r="M84" s="78"/>
-      <c r="N84" s="39">
-        <v>2500</v>
-      </c>
-      <c r="O84" s="78"/>
-      <c r="P84" s="39">
-        <v>10</v>
+      <c r="L86" s="1">
+        <v>8</v>
+      </c>
+      <c r="N86" s="1"/>
+      <c r="O86"/>
+      <c r="P86" s="1"/>
+      <c r="R86">
+        <v>418</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>96</v>
       </c>
       <c r="C87" s="1">
-        <f>D85+0.01</f>
-        <v>0.01</v>
+        <f>D86+0.01</f>
+        <v>170.01</v>
       </c>
       <c r="D87" s="1">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="E87" s="1">
         <v>10</v>
@@ -13843,25 +12810,25 @@
       <c r="O87"/>
       <c r="P87" s="1"/>
       <c r="R87">
-        <v>418</v>
+        <v>474</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>96</v>
       </c>
       <c r="C88" s="1">
         <f>D87+0.01</f>
-        <v>170.01</v>
+        <v>250.01</v>
       </c>
       <c r="D88" s="1">
         <v>250</v>
       </c>
       <c r="E88" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F88" s="1">
         <v>230</v>
@@ -13882,97 +12849,52 @@
         <v>56</v>
       </c>
       <c r="L88" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N88" s="1"/>
       <c r="O88"/>
       <c r="P88" s="1"/>
-      <c r="R88">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A89" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B89" s="3" t="s">
+    </row>
+    <row r="89" spans="1:18" s="68" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="66" t="s">
+        <v>252</v>
+      </c>
+      <c r="B89" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89" s="67">
         <f>D88+0.01</f>
         <v>250.01</v>
       </c>
-      <c r="D89" s="1">
-        <v>250</v>
-      </c>
-      <c r="E89" s="1">
-        <v>15</v>
-      </c>
-      <c r="F89" s="1">
+      <c r="D89" s="67">
+        <v>450</v>
+      </c>
+      <c r="E89" s="67">
+        <v>7</v>
+      </c>
+      <c r="F89" s="67">
         <v>230</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="G89" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="H89" s="1" t="s">
+      <c r="H89" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="I89" s="1" t="s">
+      <c r="I89" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="J89" s="1">
-        <v>30</v>
-      </c>
-      <c r="K89" s="1" t="s">
+      <c r="J89" s="67">
+        <v>40</v>
+      </c>
+      <c r="K89" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="L89" s="1">
-        <v>7</v>
-      </c>
-      <c r="N89" s="1"/>
-      <c r="O89"/>
-      <c r="P89" s="1"/>
-    </row>
-    <row r="90" spans="1:18" s="69" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="67" t="s">
-        <v>255</v>
-      </c>
-      <c r="B90" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="C90" s="68">
-        <f>D89+0.01</f>
-        <v>250.01</v>
-      </c>
-      <c r="D90" s="68">
-        <v>450</v>
-      </c>
-      <c r="E90" s="68">
-        <v>7</v>
-      </c>
-      <c r="F90" s="68">
-        <v>230</v>
-      </c>
-      <c r="G90" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="H90" s="68" t="s">
-        <v>94</v>
-      </c>
-      <c r="I90" s="68" t="s">
-        <v>94</v>
-      </c>
-      <c r="J90" s="68">
-        <v>40</v>
-      </c>
-      <c r="K90" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="L90" s="68">
+      <c r="L89" s="67">
         <v>5</v>
       </c>
-      <c r="M90" s="68"/>
-      <c r="O90" s="68"/>
+      <c r="M89" s="67"/>
+      <c r="O89" s="67"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:P1" xr:uid="{5FB77DDB-B6D9-4CBA-9145-50EF6FDCE517}"/>
@@ -13981,4 +12903,1372 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1E18F3-2DFA-476D-A4F8-F41E93C21C92}">
+  <dimension ref="A1:R44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I35" sqref="I35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.453125" customWidth="1"/>
+    <col min="2" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="5" width="11.54296875" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1796875" customWidth="1"/>
+    <col min="11" max="11" width="15.1796875" customWidth="1"/>
+    <col min="13" max="13" width="12.26953125" customWidth="1"/>
+    <col min="14" max="14" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
+        <v>440</v>
+      </c>
+      <c r="F1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1" t="s">
+        <v>236</v>
+      </c>
+      <c r="N1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>48</v>
+      </c>
+      <c r="F4">
+        <f>D4/B4</f>
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H4">
+        <v>70</v>
+      </c>
+      <c r="I4" s="25">
+        <f>H4*F4</f>
+        <v>280</v>
+      </c>
+      <c r="J4">
+        <v>32</v>
+      </c>
+      <c r="K4">
+        <f>J4/F4</f>
+        <v>8</v>
+      </c>
+      <c r="L4">
+        <v>240</v>
+      </c>
+      <c r="N4" s="106" t="s">
+        <v>442</v>
+      </c>
+      <c r="O4" s="106" t="s">
+        <v>443</v>
+      </c>
+      <c r="P4" s="107">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="106" t="s">
+        <v>444</v>
+      </c>
+      <c r="R4" s="107">
+        <v>179.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>48</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F9" si="0">D5/B5</f>
+        <v>3.2</v>
+      </c>
+      <c r="H5">
+        <v>70</v>
+      </c>
+      <c r="I5" s="25">
+        <f t="shared" ref="I5:I9" si="1">H5*F5</f>
+        <v>224</v>
+      </c>
+      <c r="J5">
+        <v>32</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5:K8" si="2">J5/F5</f>
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>240</v>
+      </c>
+      <c r="N5" s="106" t="s">
+        <v>445</v>
+      </c>
+      <c r="O5" s="106" t="s">
+        <v>446</v>
+      </c>
+      <c r="P5" s="107">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="106" t="s">
+        <v>444</v>
+      </c>
+      <c r="R5" s="107">
+        <v>300.41000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>48</v>
+      </c>
+      <c r="F6" s="36">
+        <f t="shared" si="0"/>
+        <v>2.5263157894736841</v>
+      </c>
+      <c r="H6">
+        <v>70</v>
+      </c>
+      <c r="I6" s="25">
+        <f t="shared" si="1"/>
+        <v>176.84210526315789</v>
+      </c>
+      <c r="J6">
+        <v>32</v>
+      </c>
+      <c r="K6" s="36">
+        <f t="shared" si="2"/>
+        <v>12.666666666666668</v>
+      </c>
+      <c r="L6">
+        <v>240</v>
+      </c>
+      <c r="N6" s="106" t="s">
+        <v>447</v>
+      </c>
+      <c r="O6" s="106" t="s">
+        <v>448</v>
+      </c>
+      <c r="P6" s="107">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="106" t="s">
+        <v>444</v>
+      </c>
+      <c r="R6" s="107">
+        <v>472.24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>57</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>4.75</v>
+      </c>
+      <c r="H7">
+        <v>70</v>
+      </c>
+      <c r="I7" s="25">
+        <f t="shared" si="1"/>
+        <v>332.5</v>
+      </c>
+      <c r="J7">
+        <v>32</v>
+      </c>
+      <c r="K7" s="36">
+        <f t="shared" si="2"/>
+        <v>6.7368421052631575</v>
+      </c>
+      <c r="L7">
+        <v>240</v>
+      </c>
+      <c r="N7" s="106" t="s">
+        <v>449</v>
+      </c>
+      <c r="O7" s="106" t="s">
+        <v>450</v>
+      </c>
+      <c r="P7" s="107">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="106" t="s">
+        <v>444</v>
+      </c>
+      <c r="R7" s="107">
+        <v>923.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>57</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>3.8</v>
+      </c>
+      <c r="H8">
+        <v>70</v>
+      </c>
+      <c r="I8" s="25">
+        <f t="shared" si="1"/>
+        <v>266</v>
+      </c>
+      <c r="J8">
+        <v>32</v>
+      </c>
+      <c r="K8" s="36">
+        <f t="shared" si="2"/>
+        <v>8.4210526315789469</v>
+      </c>
+      <c r="L8">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>57</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9">
+        <v>70</v>
+      </c>
+      <c r="I9" s="25">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="J9">
+        <v>32</v>
+      </c>
+      <c r="K9" s="36">
+        <f>J9/F9</f>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="L9">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>48</v>
+      </c>
+      <c r="F11">
+        <f>D11/B11</f>
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>227</v>
+      </c>
+      <c r="H11">
+        <v>90</v>
+      </c>
+      <c r="I11" s="25">
+        <f>H11*F11</f>
+        <v>360</v>
+      </c>
+      <c r="J11">
+        <v>24</v>
+      </c>
+      <c r="K11">
+        <f t="shared" ref="K11:K16" si="3">J11/F11</f>
+        <v>6</v>
+      </c>
+      <c r="L11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>48</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ref="F12:F16" si="4">D12/B12</f>
+        <v>3.2</v>
+      </c>
+      <c r="H12">
+        <v>90</v>
+      </c>
+      <c r="I12" s="25">
+        <f t="shared" ref="I12:I16" si="5">H12*F12</f>
+        <v>288</v>
+      </c>
+      <c r="J12">
+        <v>24</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>7.5</v>
+      </c>
+      <c r="L12">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13">
+        <v>19</v>
+      </c>
+      <c r="D13">
+        <v>48</v>
+      </c>
+      <c r="F13" s="36">
+        <f t="shared" si="4"/>
+        <v>2.5263157894736841</v>
+      </c>
+      <c r="H13">
+        <v>90</v>
+      </c>
+      <c r="I13" s="25">
+        <f t="shared" si="5"/>
+        <v>227.36842105263156</v>
+      </c>
+      <c r="J13">
+        <v>24</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>9.5</v>
+      </c>
+      <c r="L13">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A14" s="102" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="102">
+        <v>12</v>
+      </c>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102">
+        <v>57</v>
+      </c>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102">
+        <f t="shared" si="4"/>
+        <v>4.75</v>
+      </c>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102">
+        <v>90</v>
+      </c>
+      <c r="I14" s="103">
+        <f t="shared" si="5"/>
+        <v>427.5</v>
+      </c>
+      <c r="J14" s="102">
+        <v>24</v>
+      </c>
+      <c r="K14" s="104">
+        <f t="shared" si="3"/>
+        <v>5.0526315789473681</v>
+      </c>
+      <c r="L14" s="102">
+        <v>240</v>
+      </c>
+      <c r="O14" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>57</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="4"/>
+        <v>3.8</v>
+      </c>
+      <c r="H15">
+        <v>90</v>
+      </c>
+      <c r="I15" s="25">
+        <f t="shared" si="5"/>
+        <v>342</v>
+      </c>
+      <c r="J15">
+        <v>24</v>
+      </c>
+      <c r="K15" s="36">
+        <f t="shared" si="3"/>
+        <v>6.3157894736842106</v>
+      </c>
+      <c r="L15">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" s="83" t="s">
+        <v>439</v>
+      </c>
+      <c r="B16" s="83">
+        <v>19</v>
+      </c>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83">
+        <v>57</v>
+      </c>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G16" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="83">
+        <v>90</v>
+      </c>
+      <c r="I16" s="84">
+        <f t="shared" si="5"/>
+        <v>270</v>
+      </c>
+      <c r="J16" s="83">
+        <v>24</v>
+      </c>
+      <c r="K16" s="83">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="L16" s="83">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>48</v>
+      </c>
+      <c r="F18">
+        <f>D18/B18</f>
+        <v>4</v>
+      </c>
+      <c r="G18" t="s">
+        <v>227</v>
+      </c>
+      <c r="H18">
+        <v>90</v>
+      </c>
+      <c r="I18" s="25">
+        <f>H18*F18</f>
+        <v>360</v>
+      </c>
+      <c r="J18">
+        <v>32</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ref="K18" si="6">J18/F18</f>
+        <v>8</v>
+      </c>
+      <c r="L18">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>48</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ref="F19:F23" si="7">D19/B19</f>
+        <v>3.2</v>
+      </c>
+      <c r="H19">
+        <v>90</v>
+      </c>
+      <c r="I19" s="25">
+        <f t="shared" ref="I19:I23" si="8">H19*F19</f>
+        <v>288</v>
+      </c>
+      <c r="J19">
+        <v>32</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ref="K19:K23" si="9">J19/F19</f>
+        <v>10</v>
+      </c>
+      <c r="L19">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>48</v>
+      </c>
+      <c r="F20" s="36">
+        <f t="shared" si="7"/>
+        <v>2.5263157894736841</v>
+      </c>
+      <c r="H20">
+        <v>90</v>
+      </c>
+      <c r="I20" s="25">
+        <f t="shared" si="8"/>
+        <v>227.36842105263156</v>
+      </c>
+      <c r="J20">
+        <v>32</v>
+      </c>
+      <c r="K20" s="36">
+        <f t="shared" si="9"/>
+        <v>12.666666666666668</v>
+      </c>
+      <c r="L20">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A21" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="83">
+        <v>12</v>
+      </c>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83">
+        <v>57</v>
+      </c>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83">
+        <f t="shared" si="7"/>
+        <v>4.75</v>
+      </c>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83">
+        <v>90</v>
+      </c>
+      <c r="I21" s="84">
+        <f t="shared" si="8"/>
+        <v>427.5</v>
+      </c>
+      <c r="J21" s="83">
+        <v>32</v>
+      </c>
+      <c r="K21" s="85">
+        <f t="shared" si="9"/>
+        <v>6.7368421052631575</v>
+      </c>
+      <c r="L21" s="83">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>57</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="7"/>
+        <v>3.8</v>
+      </c>
+      <c r="H22">
+        <v>90</v>
+      </c>
+      <c r="I22" s="25">
+        <f t="shared" si="8"/>
+        <v>342</v>
+      </c>
+      <c r="J22">
+        <v>32</v>
+      </c>
+      <c r="K22" s="36">
+        <f t="shared" si="9"/>
+        <v>8.4210526315789469</v>
+      </c>
+      <c r="L22">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A23" s="102" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="102">
+        <v>19</v>
+      </c>
+      <c r="C23" s="102"/>
+      <c r="D23" s="102">
+        <v>57</v>
+      </c>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="G23" s="102" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23" s="102">
+        <v>90</v>
+      </c>
+      <c r="I23" s="103">
+        <f t="shared" si="8"/>
+        <v>270</v>
+      </c>
+      <c r="J23" s="102">
+        <v>32</v>
+      </c>
+      <c r="K23" s="104">
+        <f t="shared" si="9"/>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="L23" s="102">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25">
+        <v>12</v>
+      </c>
+      <c r="D25">
+        <v>48</v>
+      </c>
+      <c r="F25">
+        <f>D25/B25</f>
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>227</v>
+      </c>
+      <c r="H25">
+        <v>140</v>
+      </c>
+      <c r="I25" s="25">
+        <f>H25*F25</f>
+        <v>560</v>
+      </c>
+      <c r="J25">
+        <v>22</v>
+      </c>
+      <c r="K25">
+        <f>J25/F25</f>
+        <v>5.5</v>
+      </c>
+      <c r="L25">
+        <v>415</v>
+      </c>
+      <c r="O25" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26">
+        <v>15</v>
+      </c>
+      <c r="D26">
+        <v>48</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ref="F26:F37" si="10">D26/B26</f>
+        <v>3.2</v>
+      </c>
+      <c r="H26">
+        <v>140</v>
+      </c>
+      <c r="I26" s="25">
+        <f t="shared" ref="I26:I31" si="11">H26*F26</f>
+        <v>448</v>
+      </c>
+      <c r="J26">
+        <v>22</v>
+      </c>
+      <c r="K26">
+        <f t="shared" ref="K26:K29" si="12">J26/F26</f>
+        <v>6.875</v>
+      </c>
+      <c r="L26">
+        <v>415</v>
+      </c>
+      <c r="O26" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27">
+        <v>19</v>
+      </c>
+      <c r="D27">
+        <v>48</v>
+      </c>
+      <c r="F27" s="36">
+        <f t="shared" si="10"/>
+        <v>2.5263157894736841</v>
+      </c>
+      <c r="H27">
+        <v>140</v>
+      </c>
+      <c r="I27" s="25">
+        <f t="shared" si="11"/>
+        <v>353.68421052631578</v>
+      </c>
+      <c r="J27">
+        <v>22</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="12"/>
+        <v>8.7083333333333339</v>
+      </c>
+      <c r="L27">
+        <v>415</v>
+      </c>
+      <c r="O27" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A28" s="83" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="83">
+        <v>12</v>
+      </c>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83">
+        <v>57</v>
+      </c>
+      <c r="E28" s="83"/>
+      <c r="F28" s="83">
+        <f t="shared" si="10"/>
+        <v>4.75</v>
+      </c>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83">
+        <v>140</v>
+      </c>
+      <c r="I28" s="84">
+        <f t="shared" si="11"/>
+        <v>665</v>
+      </c>
+      <c r="J28" s="83">
+        <v>22</v>
+      </c>
+      <c r="K28" s="85">
+        <f t="shared" si="12"/>
+        <v>4.6315789473684212</v>
+      </c>
+      <c r="L28" s="83">
+        <v>415</v>
+      </c>
+      <c r="O28" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29">
+        <v>15</v>
+      </c>
+      <c r="D29">
+        <v>57</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="10"/>
+        <v>3.8</v>
+      </c>
+      <c r="H29">
+        <v>140</v>
+      </c>
+      <c r="I29" s="25">
+        <f t="shared" si="11"/>
+        <v>532</v>
+      </c>
+      <c r="J29">
+        <v>22</v>
+      </c>
+      <c r="K29" s="36">
+        <f t="shared" si="12"/>
+        <v>5.7894736842105265</v>
+      </c>
+      <c r="L29">
+        <v>415</v>
+      </c>
+      <c r="O29" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30">
+        <v>19</v>
+      </c>
+      <c r="D30">
+        <v>57</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="G30" t="s">
+        <v>90</v>
+      </c>
+      <c r="H30">
+        <v>140</v>
+      </c>
+      <c r="I30" s="25">
+        <f t="shared" si="11"/>
+        <v>420</v>
+      </c>
+      <c r="J30">
+        <v>22</v>
+      </c>
+      <c r="K30">
+        <f>J30/F30</f>
+        <v>7.333333333333333</v>
+      </c>
+      <c r="L30">
+        <v>415</v>
+      </c>
+      <c r="O30" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I31" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>254</v>
+      </c>
+      <c r="B32">
+        <v>12</v>
+      </c>
+      <c r="D32">
+        <v>48</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>227</v>
+      </c>
+      <c r="H32">
+        <v>150</v>
+      </c>
+      <c r="I32" s="25">
+        <f>H32*F32</f>
+        <v>600</v>
+      </c>
+      <c r="J32">
+        <v>48</v>
+      </c>
+      <c r="K32">
+        <f t="shared" ref="K32:K37" si="13">J32/F32</f>
+        <v>12</v>
+      </c>
+      <c r="L32">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>254</v>
+      </c>
+      <c r="B33">
+        <v>15</v>
+      </c>
+      <c r="D33">
+        <v>48</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="10"/>
+        <v>3.2</v>
+      </c>
+      <c r="G33" t="s">
+        <v>227</v>
+      </c>
+      <c r="H33">
+        <v>150</v>
+      </c>
+      <c r="I33" s="25">
+        <f t="shared" ref="I33:I37" si="14">H33*F33</f>
+        <v>480</v>
+      </c>
+      <c r="J33">
+        <v>48</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="13"/>
+        <v>15</v>
+      </c>
+      <c r="L33">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>254</v>
+      </c>
+      <c r="B34">
+        <v>19</v>
+      </c>
+      <c r="D34">
+        <v>48</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="10"/>
+        <v>2.5263157894736841</v>
+      </c>
+      <c r="H34">
+        <v>150</v>
+      </c>
+      <c r="I34" s="25">
+        <f t="shared" si="14"/>
+        <v>378.9473684210526</v>
+      </c>
+      <c r="J34">
+        <v>48</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="13"/>
+        <v>19</v>
+      </c>
+      <c r="L34">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="83" t="s">
+        <v>451</v>
+      </c>
+      <c r="B35" s="83">
+        <v>12</v>
+      </c>
+      <c r="C35" s="83"/>
+      <c r="D35" s="83">
+        <v>57</v>
+      </c>
+      <c r="E35" s="83"/>
+      <c r="F35" s="83">
+        <f t="shared" si="10"/>
+        <v>4.75</v>
+      </c>
+      <c r="G35" s="83"/>
+      <c r="H35" s="83">
+        <v>150</v>
+      </c>
+      <c r="I35" s="84">
+        <f t="shared" si="14"/>
+        <v>712.5</v>
+      </c>
+      <c r="J35" s="83">
+        <v>48</v>
+      </c>
+      <c r="K35" s="83">
+        <f t="shared" si="13"/>
+        <v>10.105263157894736</v>
+      </c>
+      <c r="L35" s="83">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>254</v>
+      </c>
+      <c r="B36">
+        <v>15</v>
+      </c>
+      <c r="D36">
+        <v>57</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="10"/>
+        <v>3.8</v>
+      </c>
+      <c r="H36">
+        <v>150</v>
+      </c>
+      <c r="I36" s="25">
+        <f t="shared" si="14"/>
+        <v>570</v>
+      </c>
+      <c r="J36">
+        <v>48</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="13"/>
+        <v>12.631578947368421</v>
+      </c>
+      <c r="L36">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>254</v>
+      </c>
+      <c r="B37">
+        <v>19</v>
+      </c>
+      <c r="D37">
+        <v>57</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="G37" t="s">
+        <v>90</v>
+      </c>
+      <c r="H37">
+        <v>150</v>
+      </c>
+      <c r="I37" s="25">
+        <f t="shared" si="14"/>
+        <v>450</v>
+      </c>
+      <c r="J37">
+        <v>48</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="13"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39">
+        <v>12</v>
+      </c>
+      <c r="D39">
+        <v>48</v>
+      </c>
+      <c r="F39">
+        <f>D39/B39</f>
+        <v>4</v>
+      </c>
+      <c r="G39" t="s">
+        <v>227</v>
+      </c>
+      <c r="H39">
+        <v>220</v>
+      </c>
+      <c r="I39" s="25">
+        <f>H39*F39</f>
+        <v>880</v>
+      </c>
+      <c r="J39">
+        <v>24</v>
+      </c>
+      <c r="K39">
+        <f>J39/F39</f>
+        <v>6</v>
+      </c>
+      <c r="L39">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40">
+        <v>15</v>
+      </c>
+      <c r="D40">
+        <v>48</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ref="F40:F44" si="15">D40/B40</f>
+        <v>3.2</v>
+      </c>
+      <c r="H40">
+        <v>220</v>
+      </c>
+      <c r="I40" s="25">
+        <f t="shared" ref="I40:I44" si="16">H40*F40</f>
+        <v>704</v>
+      </c>
+      <c r="J40">
+        <v>24</v>
+      </c>
+      <c r="K40">
+        <f t="shared" ref="K40:K43" si="17">J40/F40</f>
+        <v>7.5</v>
+      </c>
+      <c r="L40">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41">
+        <v>19</v>
+      </c>
+      <c r="D41">
+        <v>48</v>
+      </c>
+      <c r="F41" s="36">
+        <f t="shared" si="15"/>
+        <v>2.5263157894736841</v>
+      </c>
+      <c r="H41">
+        <v>220</v>
+      </c>
+      <c r="I41" s="25">
+        <f t="shared" si="16"/>
+        <v>555.78947368421052</v>
+      </c>
+      <c r="J41">
+        <v>24</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="17"/>
+        <v>9.5</v>
+      </c>
+      <c r="L41">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A42" s="102" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" s="102">
+        <v>12</v>
+      </c>
+      <c r="C42" s="102"/>
+      <c r="D42" s="102">
+        <v>57</v>
+      </c>
+      <c r="E42" s="102"/>
+      <c r="F42" s="102">
+        <f t="shared" si="15"/>
+        <v>4.75</v>
+      </c>
+      <c r="G42" s="102"/>
+      <c r="H42" s="102">
+        <v>220</v>
+      </c>
+      <c r="I42" s="103">
+        <f t="shared" si="16"/>
+        <v>1045</v>
+      </c>
+      <c r="J42" s="102">
+        <v>24</v>
+      </c>
+      <c r="K42" s="104">
+        <f t="shared" si="17"/>
+        <v>5.0526315789473681</v>
+      </c>
+      <c r="L42" s="102">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43">
+        <v>15</v>
+      </c>
+      <c r="D43">
+        <v>57</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="15"/>
+        <v>3.8</v>
+      </c>
+      <c r="H43">
+        <v>220</v>
+      </c>
+      <c r="I43" s="25">
+        <f t="shared" si="16"/>
+        <v>836</v>
+      </c>
+      <c r="J43">
+        <v>24</v>
+      </c>
+      <c r="K43" s="36">
+        <f t="shared" si="17"/>
+        <v>6.3157894736842106</v>
+      </c>
+      <c r="L43">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44">
+        <v>19</v>
+      </c>
+      <c r="D44">
+        <v>57</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="G44" t="s">
+        <v>90</v>
+      </c>
+      <c r="H44">
+        <v>220</v>
+      </c>
+      <c r="I44" s="25">
+        <f t="shared" si="16"/>
+        <v>660</v>
+      </c>
+      <c r="J44">
+        <v>24</v>
+      </c>
+      <c r="K44">
+        <f>J44/F44</f>
+        <v>8</v>
+      </c>
+      <c r="L44">
+        <v>415</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Calculations gfa.xlsx
+++ b/Calculations gfa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://securitywindowshutt-my.sharepoint.com/personal/rob_hyrons_swsuk_co_uk/Documents/SWS product dev/Projects/P190 - Industrial EVO/Calculators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="405" documentId="13_ncr:1_{DBA201A5-D078-4ADB-A563-7B8EA9522FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AC7630B-3A54-4B2E-ADE7-8E4D94DD6A88}"/>
+  <xr:revisionPtr revIDLastSave="414" documentId="13_ncr:1_{DBA201A5-D078-4ADB-A563-7B8EA9522FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E43160CA-04C2-46AE-8AE4-977C9A82183E}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="1940" windowWidth="32460" windowHeight="19160" tabRatio="859" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2520" yWindow="1650" windowWidth="32770" windowHeight="18650" tabRatio="859" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -374,7 +374,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Usage types:
 standard
@@ -386,7 +386,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -425,7 +425,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Thomas Booth:</t>
         </r>
@@ -434,7 +434,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Motor total length is the total length. For dimension which takes up the internal space of the axle, deduct the head offset.</t>
@@ -473,7 +473,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Thomas Booth:</t>
         </r>
@@ -482,7 +482,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Includes bracket.</t>
@@ -497,7 +497,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Thomas Booth:</t>
         </r>
@@ -506,7 +506,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Includes bracket.</t>
@@ -645,7 +645,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="503">
   <si>
     <t>Name</t>
   </si>
@@ -1007,12 +1007,6 @@
     <t>Ranger220 3ph</t>
   </si>
   <si>
-    <t>Ranger 90 1:3.8 - 3ph</t>
-  </si>
-  <si>
-    <t>Ranger 90 1:3 - 3ph</t>
-  </si>
-  <si>
     <t>GA75/15GD</t>
   </si>
   <si>
@@ -1136,9 +1130,6 @@
     <t>H40s</t>
   </si>
   <si>
-    <t>Ranger 90 1:4.75- 3ph</t>
-  </si>
-  <si>
     <t>max width</t>
   </si>
   <si>
@@ -2154,6 +2145,15 @@
   </si>
   <si>
     <t>min axle diameter</t>
+  </si>
+  <si>
+    <t>Ranger150 3ph 19-57 1/2"</t>
+  </si>
+  <si>
+    <t>Ranger 90 3ph 19-57 1/2"</t>
+  </si>
+  <si>
+    <t>Ranger 90 3ph 15-57 1/2"</t>
   </si>
 </sst>
 </file>
@@ -2165,7 +2165,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2315,19 +2315,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="13">
@@ -5249,17 +5236,17 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B7" s="38" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.35">
@@ -5328,36 +5315,36 @@
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.35">
       <c r="K1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B2" s="9" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>225</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.35">
@@ -5391,7 +5378,7 @@
         <v>3.8</v>
       </c>
       <c r="K3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.35">
@@ -5425,12 +5412,12 @@
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B5" s="100" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C5" s="6">
         <v>12</v>
@@ -5442,7 +5429,7 @@
         <v>57</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G5" s="6">
         <v>22400</v>
@@ -5459,12 +5446,12 @@
         <v>4.75</v>
       </c>
       <c r="K5" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B6" s="100" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C6" s="6">
         <v>18</v>
@@ -5476,7 +5463,7 @@
         <v>57</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G6" s="6">
         <v>22400</v>
@@ -5493,12 +5480,12 @@
         <v>3.1666666666666665</v>
       </c>
       <c r="K6" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C7" s="6">
         <v>12</v>
@@ -5510,7 +5497,7 @@
         <v>57</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G7" s="6">
         <v>29000</v>
@@ -5527,12 +5514,12 @@
         <v>4.75</v>
       </c>
       <c r="K7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C8" s="6">
         <v>15</v>
@@ -5544,7 +5531,7 @@
         <v>57</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G8" s="6">
         <v>29000</v>
@@ -5561,12 +5548,12 @@
         <v>3.8</v>
       </c>
       <c r="K8" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B9" s="70" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C9" s="70">
         <v>15</v>
@@ -5578,7 +5565,7 @@
         <v>57</v>
       </c>
       <c r="F9" s="70" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G9" s="70">
         <v>60000</v>
@@ -5597,7 +5584,7 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B10" s="70" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C10" s="70">
         <v>15</v>
@@ -5609,7 +5596,7 @@
         <v>57</v>
       </c>
       <c r="F10" s="70" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G10" s="70">
         <v>95000</v>
@@ -5675,7 +5662,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -5693,7 +5680,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
@@ -5714,7 +5701,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -5732,7 +5719,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
@@ -5750,7 +5737,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B8" t="s">
         <v>78</v>
@@ -5768,10 +5755,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C9">
         <v>32800</v>
@@ -5833,10 +5820,10 @@
         <v>94</v>
       </c>
       <c r="H1" s="56" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I1" s="57" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J1" s="7"/>
     </row>
@@ -5857,7 +5844,7 @@
         <v>68</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -5880,7 +5867,7 @@
         <v>68</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -5888,7 +5875,7 @@
     </row>
     <row r="4" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B4" s="9">
         <v>332</v>
@@ -5914,7 +5901,7 @@
     </row>
     <row r="5" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B5" s="9">
         <v>552</v>
@@ -5937,7 +5924,7 @@
     </row>
     <row r="6" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B6" s="9">
         <v>599</v>
@@ -5960,7 +5947,7 @@
     </row>
     <row r="7" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B7" s="9">
         <v>1063</v>
@@ -5983,7 +5970,7 @@
     </row>
     <row r="8" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B8" s="9">
         <v>1943</v>
@@ -6006,7 +5993,7 @@
     </row>
     <row r="9" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B9" s="9">
         <v>3503</v>
@@ -6044,7 +6031,7 @@
         <v>42</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H10">
         <v>10</v>
@@ -6070,7 +6057,7 @@
         <v>200</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -6190,7 +6177,7 @@
         <v>200</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H16">
         <v>10</v>
@@ -6225,22 +6212,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -6253,7 +6240,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="39" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B3" s="6">
         <v>300</v>
@@ -6262,7 +6249,7 @@
         <v>500</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E3" s="6">
         <v>3</v>
@@ -6275,7 +6262,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="39" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B4" s="6">
         <v>350</v>
@@ -6284,7 +6271,7 @@
         <v>450</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E4" s="6">
         <v>3</v>
@@ -6297,7 +6284,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="39" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B5" s="6">
         <v>400</v>
@@ -6306,7 +6293,7 @@
         <v>550</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E5" s="6">
         <v>4</v>
@@ -6319,7 +6306,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="39" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B6" s="6">
         <v>450</v>
@@ -6328,7 +6315,7 @@
         <v>550</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E6" s="6">
         <v>4</v>
@@ -6349,7 +6336,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="39" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B8" s="6">
         <v>300</v>
@@ -6358,7 +6345,7 @@
         <v>700</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E8" s="6">
         <v>6</v>
@@ -6371,7 +6358,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="39" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B9" s="6">
         <v>350</v>
@@ -6380,7 +6367,7 @@
         <v>650</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E9" s="6">
         <v>6</v>
@@ -6393,7 +6380,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="39" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B10" s="6">
         <v>400</v>
@@ -6402,7 +6389,7 @@
         <v>1200</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E10" s="6">
         <v>8</v>
@@ -6415,7 +6402,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="39" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B11" s="6">
         <v>450</v>
@@ -6424,7 +6411,7 @@
         <v>1100</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E11" s="6">
         <v>8</v>
@@ -6437,7 +6424,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="39" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B12" s="6">
         <v>500</v>
@@ -6446,7 +6433,7 @@
         <v>2500</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E12" s="6">
         <v>10</v>
@@ -6459,7 +6446,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="39" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B13" s="6">
         <v>550</v>
@@ -6468,7 +6455,7 @@
         <v>2350</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E13" s="6">
         <v>10</v>
@@ -6481,7 +6468,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="69" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B14" s="70">
         <v>600</v>
@@ -6490,7 +6477,7 @@
         <v>2200</v>
       </c>
       <c r="D14" s="70" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E14" s="70">
         <v>10</v>
@@ -6506,7 +6493,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="39" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B16" s="6">
         <v>135</v>
@@ -6515,7 +6502,7 @@
         <v>50</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E16" s="6">
         <v>10</v>
@@ -6527,7 +6514,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="39" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B17" s="6">
         <v>180</v>
@@ -6536,7 +6523,7 @@
         <v>50</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E17" s="6">
         <v>10</v>
@@ -6548,7 +6535,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="39" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B18" s="6">
         <v>205</v>
@@ -6557,7 +6544,7 @@
         <v>50</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E18" s="6">
         <v>10</v>
@@ -6569,7 +6556,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="39" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B19" s="6">
         <v>250</v>
@@ -6578,7 +6565,7 @@
         <v>50</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E19" s="6">
         <v>10</v>
@@ -6590,7 +6577,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="39" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B20" s="6">
         <v>300</v>
@@ -6599,7 +6586,7 @@
         <v>50</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E20" s="6">
         <v>10</v>
@@ -6611,7 +6598,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="39" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B21" s="6">
         <v>350</v>
@@ -6620,7 +6607,7 @@
         <v>50</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E21" s="6">
         <v>10</v>
@@ -6656,15 +6643,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B2">
         <v>1650</v>
@@ -6675,7 +6662,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B3">
         <v>1875</v>
@@ -6706,19 +6693,19 @@
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E3" t="s">
         <v>424</v>
-      </c>
-      <c r="C3" t="s">
-        <v>425</v>
-      </c>
-      <c r="D3" t="s">
-        <v>428</v>
-      </c>
-      <c r="E3" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -6793,13 +6780,13 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="O18" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="P18" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="Q18" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
@@ -6808,18 +6795,18 @@
         <v>0.4206302983239496</v>
       </c>
       <c r="O19" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="P19" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="O20" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="P20" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -6847,22 +6834,22 @@
   <sheetData>
     <row r="4" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
+        <v>466</v>
+      </c>
+      <c r="E4" t="s">
+        <v>467</v>
+      </c>
+      <c r="F4" t="s">
+        <v>468</v>
+      </c>
+      <c r="G4" t="s">
         <v>469</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>470</v>
       </c>
-      <c r="F4" t="s">
-        <v>471</v>
-      </c>
-      <c r="G4" t="s">
-        <v>472</v>
-      </c>
-      <c r="H4" t="s">
-        <v>473</v>
-      </c>
       <c r="I4" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" spans="4:9" x14ac:dyDescent="0.35">
@@ -6909,7 +6896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E91FF3-79AA-48A9-9F88-C48DFFEF60AE}">
   <dimension ref="A1:S213"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
@@ -6940,10 +6927,10 @@
         <v>33</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E1" s="46" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F1" s="46" t="s">
         <v>6</v>
@@ -6952,45 +6939,45 @@
         <v>7</v>
       </c>
       <c r="H1" s="51" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I1" s="60" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="J1" s="108" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="K1" s="60" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L1" s="60" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M1" s="61" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="N1" s="60" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Q1" s="71" t="s">
+        <v>300</v>
+      </c>
+      <c r="R1" s="72" t="s">
         <v>303</v>
       </c>
-      <c r="R1" s="72" t="s">
-        <v>306</v>
-      </c>
       <c r="S1" s="11" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="42" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B2" s="5">
         <v>9.3000000000000007</v>
@@ -7028,18 +7015,18 @@
         <v>109</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q2" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="R2" s="73" t="s">
         <v>304</v>
-      </c>
-      <c r="R2" s="73" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="48" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B3" s="23">
         <v>9.3000000000000007</v>
@@ -7073,18 +7060,18 @@
         <v>54</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q3" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="R3" s="73" t="s">
         <v>304</v>
-      </c>
-      <c r="R3" s="73" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="42" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B4" s="5">
         <v>12.1</v>
@@ -7118,18 +7105,18 @@
         <v>109</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q4" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="R4" s="73" t="s">
         <v>304</v>
-      </c>
-      <c r="R4" s="73" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="48" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B5" s="23">
         <v>12.1</v>
@@ -7163,18 +7150,18 @@
         <v>54</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q5" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="R5" s="73" t="s">
         <v>304</v>
-      </c>
-      <c r="R5" s="73" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="42" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B6" s="4">
         <v>16</v>
@@ -7208,18 +7195,18 @@
         <v>109</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q6" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="R6" s="73" t="s">
         <v>304</v>
-      </c>
-      <c r="R6" s="73" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="48" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B7" s="24">
         <v>16</v>
@@ -7253,13 +7240,13 @@
         <v>54</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="R7" s="73" t="s">
         <v>304</v>
-      </c>
-      <c r="R7" s="73" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.35">
@@ -7274,7 +7261,7 @@
     </row>
     <row r="9" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="42" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B9" s="5">
         <v>8.3000000000000007</v>
@@ -7308,18 +7295,18 @@
         <v>109</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q9" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="R9" s="73" t="s">
         <v>304</v>
-      </c>
-      <c r="R9" s="73" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="48" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B10" s="23">
         <v>8.3000000000000007</v>
@@ -7353,18 +7340,18 @@
         <v>54</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q10" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="R10" s="73" t="s">
         <v>304</v>
-      </c>
-      <c r="R10" s="73" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="42" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B11" s="5">
         <v>10.5</v>
@@ -7398,18 +7385,18 @@
         <v>109</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q11" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="R11" s="73" t="s">
         <v>304</v>
-      </c>
-      <c r="R11" s="73" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="48" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B12" s="23">
         <v>10.5</v>
@@ -7443,18 +7430,18 @@
         <v>54</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q12" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="R12" s="73" t="s">
         <v>304</v>
-      </c>
-      <c r="R12" s="73" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="42" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B13" s="5">
         <v>14</v>
@@ -7488,18 +7475,18 @@
         <v>109</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q13" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="R13" s="73" t="s">
         <v>304</v>
-      </c>
-      <c r="R13" s="73" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="48" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B14" s="23">
         <v>14</v>
@@ -7533,13 +7520,13 @@
         <v>54</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q14" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="R14" s="73" t="s">
         <v>304</v>
-      </c>
-      <c r="R14" s="73" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -7561,7 +7548,7 @@
     </row>
     <row r="16" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="42" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B16" s="5">
         <v>7.5</v>
@@ -7595,18 +7582,18 @@
         <v>109</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q16" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="R16" s="73" t="s">
         <v>304</v>
-      </c>
-      <c r="R16" s="73" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="48" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B17" s="23">
         <v>7.5</v>
@@ -7640,18 +7627,18 @@
         <v>54</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q17" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="R17" s="73" t="s">
         <v>304</v>
-      </c>
-      <c r="R17" s="73" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="42" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B18" s="5">
         <v>9.6999999999999993</v>
@@ -7685,18 +7672,18 @@
         <v>109</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q18" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="R18" s="73" t="s">
         <v>304</v>
-      </c>
-      <c r="R18" s="73" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="48" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B19" s="23">
         <v>9.6999999999999993</v>
@@ -7730,13 +7717,13 @@
         <v>54</v>
       </c>
       <c r="P19" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="R19" s="73" t="s">
         <v>304</v>
-      </c>
-      <c r="R19" s="73" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:18" s="88" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -7760,7 +7747,7 @@
     </row>
     <row r="21" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="42" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B21" s="50">
         <v>11.4</v>
@@ -7791,13 +7778,13 @@
         <v>109</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q21" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="R21" s="73" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="1:18" s="88" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
@@ -7821,7 +7808,7 @@
     </row>
     <row r="23" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="42" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B23" s="5">
         <v>11.9</v>
@@ -7855,18 +7842,18 @@
         <v>109</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q23" s="6">
         <v>3.2</v>
       </c>
       <c r="R23" s="73" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="42" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B24" s="5">
         <v>13.25</v>
@@ -7900,18 +7887,18 @@
         <v>109</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q24" s="6">
         <v>3.2</v>
       </c>
       <c r="R24" s="73" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="42" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B25" s="5">
         <v>12</v>
@@ -7943,13 +7930,13 @@
         <v>109</v>
       </c>
       <c r="P25" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="R25" s="73" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:18" s="88" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.35">
@@ -7973,7 +7960,7 @@
     </row>
     <row r="27" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="42" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B27" s="5">
         <v>22</v>
@@ -8009,13 +7996,13 @@
         <v>109</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q27" s="6">
         <v>4.3</v>
       </c>
       <c r="R27" s="73" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="1:18" s="88" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8039,7 +8026,7 @@
     </row>
     <row r="29" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="42" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B29" s="5">
         <v>4</v>
@@ -8067,18 +8054,18 @@
         <v>109</v>
       </c>
       <c r="P29" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Q29" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="R29" s="73" t="s">
         <v>305</v>
-      </c>
-      <c r="R29" s="73" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="42" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B30" s="5">
         <v>8</v>
@@ -8106,18 +8093,18 @@
         <v>109</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Q30" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="R30" s="73" t="s">
         <v>305</v>
-      </c>
-      <c r="R30" s="73" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="42" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B31" s="5">
         <v>6.5</v>
@@ -8145,18 +8132,18 @@
         <v>109</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Q31" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="R31" s="73" t="s">
         <v>305</v>
-      </c>
-      <c r="R31" s="73" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="42" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B32" s="5">
         <v>6.5</v>
@@ -8184,18 +8171,18 @@
         <v>109</v>
       </c>
       <c r="P32" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Q32" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="R32" s="73" t="s">
         <v>305</v>
-      </c>
-      <c r="R32" s="73" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="42" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B33" s="5">
         <v>7.5</v>
@@ -8223,18 +8210,18 @@
         <v>109</v>
       </c>
       <c r="P33" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Q33" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="R33" s="73" t="s">
         <v>305</v>
-      </c>
-      <c r="R33" s="73" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="42" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B34" s="5">
         <v>9</v>
@@ -8262,18 +8249,18 @@
         <v>109</v>
       </c>
       <c r="P34" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Q34" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="R34" s="73" t="s">
         <v>305</v>
-      </c>
-      <c r="R34" s="73" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="42" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B35" s="50">
         <v>9.25</v>
@@ -8301,18 +8288,18 @@
         <v>109</v>
       </c>
       <c r="P35" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Q35" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="R35" s="73" t="s">
         <v>305</v>
-      </c>
-      <c r="R35" s="73" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="42" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B36" s="50">
         <v>7</v>
@@ -8340,18 +8327,18 @@
         <v>109</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Q36" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="R36" s="73" t="s">
         <v>305</v>
-      </c>
-      <c r="R36" s="73" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="42" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B37" s="50">
         <v>8</v>
@@ -8379,18 +8366,18 @@
         <v>109</v>
       </c>
       <c r="P37" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Q37" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="R37" s="73" t="s">
         <v>305</v>
-      </c>
-      <c r="R37" s="73" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="42" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B38" s="50">
         <v>7</v>
@@ -8418,13 +8405,13 @@
         <v>109</v>
       </c>
       <c r="P38" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Q38" s="6" t="s">
         <v>55</v>
       </c>
       <c r="R38" s="73" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="39" spans="1:18" s="88" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8448,7 +8435,7 @@
     </row>
     <row r="40" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="42" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B40" s="50">
         <v>5</v>
@@ -8476,13 +8463,13 @@
         <v>109</v>
       </c>
       <c r="P40" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Q40" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="R40" s="73" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8685,31 +8672,31 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="97" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B1" s="96" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C1" s="96"/>
       <c r="D1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="95" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B2" s="95" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C2" s="95">
         <v>1</v>
@@ -8717,10 +8704,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="95" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B3" s="95" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C3" s="95">
         <v>2</v>
@@ -8728,10 +8715,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="95" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B4" s="95" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C4" s="95">
         <v>3</v>
@@ -8739,10 +8726,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="95" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B5" s="95" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C5" s="95">
         <v>5</v>
@@ -8750,10 +8737,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="95" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B6" s="95" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C6" s="95">
         <v>6</v>
@@ -8761,10 +8748,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="95" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B7" s="95" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C7" s="95">
         <v>7</v>
@@ -8772,10 +8759,10 @@
     </row>
     <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A8" s="95" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B8" s="95" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C8" s="95">
         <v>8</v>
@@ -8783,10 +8770,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="95" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B9" s="95" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C9" s="95">
         <v>9</v>
@@ -8794,10 +8781,10 @@
     </row>
     <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A10" s="95" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B10" s="95" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C10" s="95">
         <v>10</v>
@@ -8805,10 +8792,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="95" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B11" s="95" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C11" s="95">
         <v>11</v>
@@ -8816,10 +8803,10 @@
     </row>
     <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A12" s="95" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B12" s="95" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C12" s="95">
         <v>12</v>
@@ -8827,10 +8814,10 @@
     </row>
     <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A13" s="95" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B13" s="95" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C13" s="95">
         <v>13</v>
@@ -8838,10 +8825,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="95" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B14" s="95" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C14" s="95">
         <v>14</v>
@@ -8849,10 +8836,10 @@
     </row>
     <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A15" s="95" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B15" s="95" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C15" s="95">
         <v>15</v>
@@ -8860,10 +8847,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="95" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B16" s="95" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C16" s="95">
         <v>16</v>
@@ -8871,10 +8858,10 @@
     </row>
     <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.35">
       <c r="A17" s="95" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B17" s="95" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C17" s="95">
         <v>17</v>
@@ -8882,10 +8869,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="95" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B18" s="95" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C18" s="95">
         <v>18</v>
@@ -8893,10 +8880,10 @@
     </row>
     <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.35">
       <c r="A19" s="95" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B19" s="95" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C19" s="95">
         <v>19</v>
@@ -8904,10 +8891,10 @@
     </row>
     <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.35">
       <c r="A20" s="95" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B20" s="95" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C20" s="95">
         <v>20</v>
@@ -8915,10 +8902,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="95" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B21" s="95" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C21" s="95">
         <v>21</v>
@@ -8926,10 +8913,10 @@
     </row>
     <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.35">
       <c r="A22" s="95" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B22" s="95" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C22" s="95">
         <v>22</v>
@@ -8937,10 +8924,10 @@
     </row>
     <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.35">
       <c r="A23" s="95" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B23" s="95" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C23" s="95">
         <v>23</v>
@@ -8948,10 +8935,10 @@
     </row>
     <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.35">
       <c r="A24" s="95" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B24" s="95" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C24" s="95">
         <v>24</v>
@@ -8959,10 +8946,10 @@
     </row>
     <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.35">
       <c r="A25" s="95" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B25" s="95" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C25" s="95">
         <v>25</v>
@@ -8970,10 +8957,10 @@
     </row>
     <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.35">
       <c r="A26" s="95" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B26" s="95" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C26" s="95">
         <v>26</v>
@@ -8981,10 +8968,10 @@
     </row>
     <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.35">
       <c r="A27" s="95" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B27" s="95" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C27" s="95">
         <v>27</v>
@@ -8992,10 +8979,10 @@
     </row>
     <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.35">
       <c r="A28" s="95" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B28" s="95" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C28" s="95">
         <v>28</v>
@@ -9003,10 +8990,10 @@
     </row>
     <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.35">
       <c r="A29" s="95" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B29" s="95" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C29" s="95">
         <v>29</v>
@@ -9014,10 +9001,10 @@
     </row>
     <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.35">
       <c r="A30" s="95" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B30" s="95" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C30" s="95">
         <v>30</v>
@@ -9025,10 +9012,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="95" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B31" s="95" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C31" s="95">
         <v>79</v>
@@ -9036,10 +9023,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="95" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B32" s="95" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C32" s="95">
         <v>80</v>
@@ -9047,10 +9034,10 @@
     </row>
     <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.35">
       <c r="A33" s="95" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B33" s="95" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C33" s="95">
         <v>81</v>
@@ -9058,10 +9045,10 @@
     </row>
     <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.35">
       <c r="A34" s="95" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B34" s="95" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C34" s="95">
         <v>414</v>
@@ -9069,10 +9056,10 @@
     </row>
     <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.35">
       <c r="A35" s="95" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B35" s="95" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C35" s="95">
         <v>415</v>
@@ -9080,10 +9067,10 @@
     </row>
     <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.35">
       <c r="A36" s="95" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B36" s="95" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C36" s="95">
         <v>416</v>
@@ -9113,33 +9100,33 @@
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" t="s">
         <v>276</v>
-      </c>
-      <c r="C2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D2" t="s">
-        <v>279</v>
       </c>
       <c r="E2" s="6">
         <v>20</v>
@@ -9148,18 +9135,18 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3" t="s">
         <v>277</v>
-      </c>
-      <c r="D3" t="s">
-        <v>280</v>
       </c>
       <c r="E3" s="6">
         <v>60</v>
@@ -9168,18 +9155,18 @@
         <v>7.5</v>
       </c>
       <c r="G3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4" t="s">
         <v>277</v>
-      </c>
-      <c r="D4" t="s">
-        <v>280</v>
       </c>
       <c r="E4" s="6">
         <v>235</v>
@@ -9188,18 +9175,18 @@
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E5" s="6">
         <v>10</v>
@@ -9208,18 +9195,18 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E6" s="70">
         <v>20</v>
@@ -9228,18 +9215,18 @@
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E7" s="70">
         <v>30</v>
@@ -9248,13 +9235,13 @@
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E11" s="70"/>
       <c r="F11" s="6" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -9367,7 +9354,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B8" s="27">
         <v>2</v>
@@ -9395,7 +9382,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="28" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B10" s="30">
         <f>0.82+0.72</f>
@@ -9410,7 +9397,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="74" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B12" s="38">
         <v>1</v>
@@ -9424,7 +9411,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B13" s="38">
         <v>1.5</v>
@@ -9438,7 +9425,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B14" s="38">
         <v>2.5</v>
@@ -9452,7 +9439,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B15" s="38">
         <v>2</v>
@@ -9466,7 +9453,7 @@
     </row>
     <row r="19" spans="2:6" ht="16" x14ac:dyDescent="0.35">
       <c r="B19" s="84" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C19">
         <v>0.5</v>
@@ -9481,7 +9468,7 @@
     </row>
     <row r="20" spans="2:6" ht="16" x14ac:dyDescent="0.35">
       <c r="B20" s="84" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C20">
         <v>5.38</v>
@@ -9496,7 +9483,7 @@
     </row>
     <row r="21" spans="2:6" ht="16" x14ac:dyDescent="0.35">
       <c r="B21" s="84" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C21">
         <v>3.38</v>
@@ -9511,7 +9498,7 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="83" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F22">
         <f>1.64*6</f>
@@ -9520,12 +9507,12 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="83" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="83" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -9561,30 +9548,30 @@
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="F1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G1" t="s">
-        <v>127</v>
-      </c>
       <c r="H1" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C3" s="6">
         <v>65</v>
@@ -9594,15 +9581,15 @@
         <v>60</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C4" s="6">
         <v>65</v>
@@ -9612,15 +9599,15 @@
         <v>60</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C5" s="6">
         <v>100</v>
@@ -9630,15 +9617,15 @@
         <v>95</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="6">
         <v>100</v>
@@ -9648,15 +9635,15 @@
         <v>95</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C7" s="6">
         <v>80</v>
@@ -9666,15 +9653,15 @@
         <v>75</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C10" s="6">
         <v>45</v>
@@ -9684,15 +9671,15 @@
         <v>12</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C11" s="6">
         <v>53</v>
@@ -9702,15 +9689,15 @@
         <v>20</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C12" s="6">
         <v>60</v>
@@ -9720,15 +9707,15 @@
         <v>24</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C13" s="6">
         <v>70</v>
@@ -9738,15 +9725,15 @@
         <v>37</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B14" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C14" s="6">
         <v>60</v>
@@ -9756,15 +9743,15 @@
         <v>27</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B15" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C15" s="6">
         <v>75</v>
@@ -9774,15 +9761,15 @@
         <v>32</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C16" s="6">
         <v>90</v>
@@ -9792,7 +9779,7 @@
         <v>47</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -9826,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>56</v>
@@ -9847,27 +9834,27 @@
         <v>35</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J1" s="15" t="s">
         <v>108</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L1" s="62" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D2" s="15">
         <v>60</v>
@@ -9893,13 +9880,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D3" s="15">
         <v>70</v>
@@ -9925,13 +9912,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D4" s="15">
         <v>70</v>
@@ -9960,7 +9947,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>59</v>
@@ -9996,7 +9983,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>58</v>
@@ -10029,13 +10016,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D7" s="15">
         <v>127</v>
@@ -10065,13 +10052,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="34" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D8" s="34">
         <v>127</v>
@@ -10104,10 +10091,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D9" s="33">
         <v>139</v>
@@ -10137,10 +10124,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>57</v>
@@ -10173,13 +10160,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D11" s="33">
         <v>168</v>
@@ -10209,10 +10196,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="40" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C12" s="40" t="s">
         <v>60</v>
@@ -10245,13 +10232,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D13" s="16">
         <v>193</v>
@@ -10284,7 +10271,7 @@
         <v>84</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>82</v>
@@ -10320,10 +10307,10 @@
         <v>83</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D15" s="35">
         <v>229</v>
@@ -10356,7 +10343,7 @@
         <v>105</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C16" s="34"/>
       <c r="D16" s="35">
@@ -10390,7 +10377,7 @@
         <v>106</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C17" s="34"/>
       <c r="D17" s="35">
@@ -10422,7 +10409,7 @@
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C24" s="38"/>
       <c r="D24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -10436,9 +10423,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB77DDB-B6D9-4CBA-9145-50EF6FDCE517}">
   <dimension ref="A1:U90"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E86" sqref="E86"/>
+      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10464,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>29</v>
@@ -10473,7 +10460,7 @@
         <v>30</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>13</v>
@@ -10488,7 +10475,7 @@
         <v>31</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>32</v>
@@ -10500,25 +10487,25 @@
         <v>53</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O1" s="11" t="s">
         <v>107</v>
       </c>
       <c r="P1" s="52" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="Q1" s="71" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="U1" s="12" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
@@ -10535,7 +10522,7 @@
         <v>50</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F3" s="1">
         <v>12</v>
@@ -10585,7 +10572,7 @@
         <v>50</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F4" s="1">
         <v>12</v>
@@ -10635,7 +10622,7 @@
         <v>100</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F5" s="1">
         <v>12</v>
@@ -10679,7 +10666,7 @@
         <v>100</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F6" s="1">
         <v>12</v>
@@ -10723,7 +10710,7 @@
         <v>150</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F7" s="1">
         <v>10</v>
@@ -10767,7 +10754,7 @@
         <v>150</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F8" s="1">
         <v>10</v>
@@ -10811,7 +10798,7 @@
         <v>230</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F9" s="1">
         <v>6</v>
@@ -10855,7 +10842,7 @@
         <v>350</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F10" s="1">
         <v>7</v>
@@ -10890,10 +10877,10 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C12" s="1">
         <f>D10+0.01</f>
@@ -10903,7 +10890,7 @@
         <v>450</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F12" s="1">
         <v>8</v>
@@ -10935,10 +10922,10 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C13" s="1">
         <f>D12+0.01</f>
@@ -10948,7 +10935,7 @@
         <v>600</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F13" s="1">
         <v>9</v>
@@ -10980,7 +10967,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>110</v>
@@ -10992,7 +10979,7 @@
         <v>10</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F15" s="1">
         <v>17</v>
@@ -11021,7 +11008,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>110</v>
@@ -11034,7 +11021,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F16" s="1">
         <v>17</v>
@@ -11063,7 +11050,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>110</v>
@@ -11076,7 +11063,7 @@
         <v>25</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F17" s="1">
         <v>17</v>
@@ -11105,7 +11092,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>110</v>
@@ -11118,7 +11105,7 @@
         <v>35</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F18" s="1">
         <v>17</v>
@@ -11147,7 +11134,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>110</v>
@@ -11160,7 +11147,7 @@
         <v>40</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F19" s="1">
         <v>17</v>
@@ -11189,7 +11176,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>110</v>
@@ -11202,7 +11189,7 @@
         <v>50</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F20" s="1">
         <v>12</v>
@@ -11231,7 +11218,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>110</v>
@@ -11244,7 +11231,7 @@
         <v>55</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F21" s="1">
         <v>17</v>
@@ -11273,7 +11260,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>110</v>
@@ -11286,7 +11273,7 @@
         <v>60</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F22" s="1">
         <v>12</v>
@@ -11315,7 +11302,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>110</v>
@@ -11328,7 +11315,7 @@
         <v>70</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F23" s="1">
         <v>17</v>
@@ -11357,7 +11344,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>110</v>
@@ -11370,7 +11357,7 @@
         <v>80</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F24" s="1">
         <v>12</v>
@@ -11399,7 +11386,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>110</v>
@@ -11412,7 +11399,7 @@
         <v>85</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F25" s="1">
         <v>17</v>
@@ -11441,7 +11428,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>110</v>
@@ -11454,7 +11441,7 @@
         <v>100</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F26" s="1">
         <v>12</v>
@@ -11483,7 +11470,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>110</v>
@@ -11496,7 +11483,7 @@
         <v>120</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F27" s="1">
         <v>12</v>
@@ -11537,7 +11524,7 @@
         <v>170</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F30" s="1">
         <v>12</v>
@@ -11564,7 +11551,7 @@
         <v>900</v>
       </c>
       <c r="Q30" s="6" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
@@ -11581,7 +11568,7 @@
         <v>260</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F31" s="1">
         <v>12</v>
@@ -11608,12 +11595,12 @@
         <v>900</v>
       </c>
       <c r="Q31" s="6" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>42</v>
@@ -11625,7 +11612,7 @@
         <v>300</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F32" s="1">
         <v>12</v>
@@ -11652,7 +11639,7 @@
         <v>900</v>
       </c>
       <c r="Q32" s="6" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
@@ -11669,7 +11656,7 @@
         <v>350</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F33" s="1">
         <v>12</v>
@@ -11696,7 +11683,7 @@
         <v>900</v>
       </c>
       <c r="Q33" s="6" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
@@ -11713,7 +11700,7 @@
         <v>500</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F34" s="1">
         <v>12</v>
@@ -11740,7 +11727,7 @@
         <v>900</v>
       </c>
       <c r="Q34" s="6" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
@@ -11757,7 +11744,7 @@
         <v>650</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F35" s="1">
         <v>12</v>
@@ -11784,7 +11771,7 @@
         <v>1800</v>
       </c>
       <c r="Q35" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
@@ -11801,7 +11788,7 @@
         <v>750</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F36" s="1">
         <v>12</v>
@@ -11828,7 +11815,7 @@
         <v>1800</v>
       </c>
       <c r="Q36" s="6" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
@@ -11845,7 +11832,7 @@
         <v>1000</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F37" s="1">
         <v>9</v>
@@ -11872,7 +11859,7 @@
         <v>2500</v>
       </c>
       <c r="Q37" s="6" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
@@ -11892,7 +11879,7 @@
         <v>140</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F39" s="1">
         <v>12</v>
@@ -11931,7 +11918,7 @@
         <v>220</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F40" s="1">
         <v>12</v>
@@ -11970,7 +11957,7 @@
         <v>300</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F41" s="1">
         <v>12</v>
@@ -12009,7 +11996,7 @@
         <v>420</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F42" s="1">
         <v>12</v>
@@ -12048,7 +12035,7 @@
         <v>500</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F43" s="1">
         <v>12</v>
@@ -12087,7 +12074,7 @@
         <v>1000</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F44" s="1">
         <v>9</v>
@@ -12126,7 +12113,7 @@
         <v>1400</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F45" s="1">
         <v>9</v>
@@ -12165,7 +12152,7 @@
         <v>1650</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F46" s="1">
         <v>8</v>
@@ -12204,7 +12191,7 @@
         <v>2000</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F47" s="1">
         <v>8</v>
@@ -12233,7 +12220,7 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>69</v>
@@ -12245,7 +12232,7 @@
         <v>140</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F49" s="1">
         <v>12</v>
@@ -12265,7 +12252,7 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>69</v>
@@ -12277,7 +12264,7 @@
         <v>220</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F50" s="1">
         <v>12</v>
@@ -12297,7 +12284,7 @@
     </row>
     <row r="51" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>69</v>
@@ -12309,7 +12296,7 @@
         <v>280</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F51" s="1">
         <v>12</v>
@@ -12331,7 +12318,7 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>69</v>
@@ -12343,7 +12330,7 @@
         <v>380</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F52" s="1">
         <v>12</v>
@@ -12366,7 +12353,7 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>42</v>
@@ -12378,7 +12365,7 @@
         <v>15</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F54" s="1">
         <v>34</v>
@@ -12396,12 +12383,12 @@
         <v>54</v>
       </c>
       <c r="Q54" s="6" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>42</v>
@@ -12413,7 +12400,7 @@
         <v>62</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F55" s="1">
         <v>34</v>
@@ -12431,12 +12418,12 @@
         <v>54</v>
       </c>
       <c r="Q55" s="6" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>42</v>
@@ -12448,7 +12435,7 @@
         <v>95</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F56" s="1">
         <v>22</v>
@@ -12466,7 +12453,7 @@
         <v>54</v>
       </c>
       <c r="Q56" s="6" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.35">
@@ -12487,7 +12474,7 @@
         <v>210</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F58" s="1">
         <v>10.7</v>
@@ -12526,7 +12513,7 @@
         <v>270</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F59" s="1">
         <f>24/3</f>
@@ -12554,15 +12541,16 @@
         <v>450</v>
       </c>
       <c r="Q59" s="6" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="R59">
         <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A60" s="3" t="s">
-        <v>121</v>
+      <c r="A60" s="3" t="str">
+        <f>Chaindrive!A20</f>
+        <v>Ranger 90 3ph 19-57 1/2"</v>
       </c>
       <c r="B60" t="s">
         <v>95</v>
@@ -12575,7 +12563,7 @@
         <v>270</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F60" s="36">
         <f>Chaindrive!K20</f>
@@ -12603,15 +12591,16 @@
         <v>370</v>
       </c>
       <c r="Q60" s="6" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="R60">
         <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A61" s="3" t="s">
-        <v>120</v>
+      <c r="A61" s="3" t="str">
+        <f>Chaindrive!A21</f>
+        <v>Ranger 90 3ph 15-57 1/2"</v>
       </c>
       <c r="B61" t="s">
         <v>95</v>
@@ -12625,7 +12614,7 @@
         <v>342</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F61" s="36">
         <f>Chaindrive!K21</f>
@@ -12653,15 +12642,16 @@
         <v>370</v>
       </c>
       <c r="Q61" s="6" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="R61">
         <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>163</v>
+      <c r="A62" t="str">
+        <f>Chaindrive!A23</f>
+        <v>Ranger 90 3ph 12-57 1/2"</v>
       </c>
       <c r="B62" t="s">
         <v>95</v>
@@ -12675,7 +12665,7 @@
         <v>427.5</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F62" s="2">
         <f>Chaindrive!K23</f>
@@ -12703,7 +12693,7 @@
         <v>370</v>
       </c>
       <c r="Q62" s="6" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="R62">
         <v>40</v>
@@ -12724,7 +12714,7 @@
         <v>713</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F63" s="2">
         <v>10</v>
@@ -12748,7 +12738,7 @@
         <v>54</v>
       </c>
       <c r="Q63" s="6" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.35">
@@ -12767,7 +12757,7 @@
         <v>836</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F64" s="2">
         <f>Chaindrive!K35</f>
@@ -12795,7 +12785,7 @@
         <v>450</v>
       </c>
       <c r="Q64" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="R64">
         <v>40</v>
@@ -12817,7 +12807,7 @@
         <v>1045</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F65" s="2">
         <f>Chaindrive!K37</f>
@@ -12850,12 +12840,12 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.35">
       <c r="Q66" s="6" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="67" spans="1:20" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="65" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B67" s="65" t="s">
         <v>95</v>
@@ -12868,7 +12858,7 @@
         <v>100</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F67" s="66">
         <v>15</v>
@@ -12916,7 +12906,7 @@
         <v>170</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F68" s="6">
         <v>15</v>
@@ -12946,7 +12936,7 @@
         <v>400</v>
       </c>
       <c r="Q68" s="75" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="R68">
         <v>20</v>
@@ -12970,7 +12960,7 @@
         <v>250</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F69" s="6">
         <v>15</v>
@@ -13000,7 +12990,7 @@
         <v>750</v>
       </c>
       <c r="Q69" s="6" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="R69">
         <v>20</v>
@@ -13024,7 +13014,7 @@
         <v>350</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F70" s="6">
         <v>15</v>
@@ -13054,7 +13044,7 @@
         <v>850</v>
       </c>
       <c r="Q70" s="6" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="R70">
         <v>20</v>
@@ -13078,7 +13068,7 @@
         <v>450</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F71" s="6">
         <v>15</v>
@@ -13108,7 +13098,7 @@
         <v>1100</v>
       </c>
       <c r="Q71" s="6" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="R71">
         <v>20</v>
@@ -13129,7 +13119,7 @@
         <v>550</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F72" s="6">
         <v>15</v>
@@ -13159,7 +13149,7 @@
         <v>1100</v>
       </c>
       <c r="Q72" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="R72">
         <v>20</v>
@@ -13167,7 +13157,7 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B73" t="s">
         <v>95</v>
@@ -13180,7 +13170,7 @@
         <v>650</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F73" s="6">
         <v>15</v>
@@ -13207,7 +13197,7 @@
         <v>9</v>
       </c>
       <c r="Q73" s="6" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="R73">
         <v>20</v>
@@ -13215,7 +13205,7 @@
     </row>
     <row r="74" spans="1:20" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="67" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B74" s="67" t="s">
         <v>95</v>
@@ -13228,7 +13218,7 @@
         <v>750</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F74" s="75">
         <v>15</v>
@@ -13260,7 +13250,7 @@
         <v>1100</v>
       </c>
       <c r="Q74" s="6" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="R74" s="67">
         <v>20</v>
@@ -13268,7 +13258,7 @@
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B75" t="s">
         <v>95</v>
@@ -13281,7 +13271,7 @@
         <v>850</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F75" s="6">
         <v>10</v>
@@ -13308,7 +13298,7 @@
         <v>7</v>
       </c>
       <c r="Q75" s="75" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.35">
@@ -13326,7 +13316,7 @@
         <v>1000</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F76" s="6">
         <v>10</v>
@@ -13356,7 +13346,7 @@
         <v>1300</v>
       </c>
       <c r="Q76" s="6" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="R76">
         <v>20</v>
@@ -13364,7 +13354,7 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B77" t="s">
         <v>95</v>
@@ -13377,7 +13367,7 @@
         <v>1400</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F77" s="6">
         <v>7</v>
@@ -13407,7 +13397,7 @@
         <v>1100</v>
       </c>
       <c r="Q77" s="6" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="R77">
         <v>20</v>
@@ -13415,7 +13405,7 @@
     </row>
     <row r="78" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B78" s="38" t="s">
         <v>95</v>
@@ -13428,7 +13418,7 @@
         <v>1800</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F78" s="70">
         <v>6</v>
@@ -13460,7 +13450,7 @@
         <v>1300</v>
       </c>
       <c r="Q78" s="6" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="R78" s="38">
         <v>10</v>
@@ -13468,7 +13458,7 @@
     </row>
     <row r="79" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="38" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B79" s="38" t="s">
         <v>95</v>
@@ -13481,7 +13471,7 @@
         <v>2600</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F79" s="76">
         <v>5</v>
@@ -13519,7 +13509,7 @@
     </row>
     <row r="80" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="38" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B80" s="38" t="s">
         <v>95</v>
@@ -13532,7 +13522,7 @@
         <v>3600</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F80" s="76">
         <v>5</v>
@@ -13570,7 +13560,7 @@
     </row>
     <row r="81" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="38" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B81" s="38" t="s">
         <v>95</v>
@@ -13583,7 +13573,7 @@
         <v>3600</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F81" s="76">
         <v>9</v>
@@ -13621,7 +13611,7 @@
     </row>
     <row r="82" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="38" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B82" s="38" t="s">
         <v>95</v>
@@ -13634,7 +13624,7 @@
         <v>4800</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F82" s="76">
         <v>9</v>
@@ -13672,7 +13662,7 @@
     </row>
     <row r="83" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="38" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B83" s="38" t="s">
         <v>95</v>
@@ -13685,7 +13675,7 @@
         <v>5000</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F83" s="76">
         <v>5</v>
@@ -13726,7 +13716,7 @@
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>95</v>
@@ -13739,7 +13729,7 @@
         <v>170</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F86" s="1">
         <v>10</v>
@@ -13773,7 +13763,7 @@
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>95</v>
@@ -13786,7 +13776,7 @@
         <v>250</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F87" s="1">
         <v>10</v>
@@ -13814,7 +13804,7 @@
       </c>
       <c r="P87" s="1"/>
       <c r="Q87" s="6" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="R87" s="1"/>
       <c r="T87">
@@ -13823,7 +13813,7 @@
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>95</v>
@@ -13836,7 +13826,7 @@
         <v>250</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F88" s="1">
         <v>15</v>
@@ -13864,13 +13854,13 @@
       </c>
       <c r="P88" s="1"/>
       <c r="Q88" s="6" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="R88" s="1"/>
     </row>
     <row r="89" spans="1:20" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="65" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B89" s="65" t="s">
         <v>95</v>
@@ -13883,7 +13873,7 @@
         <v>450</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F89" s="66">
         <v>7</v>
@@ -13912,12 +13902,12 @@
       </c>
       <c r="O89" s="66"/>
       <c r="Q89" s="6" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.35">
       <c r="Q90" s="75" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -13936,7 +13926,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13968,13 +13958,13 @@
         <v>86</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D1" s="71" t="s">
         <v>85</v>
       </c>
       <c r="E1" s="71" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F1" s="71" t="s">
         <v>87</v>
@@ -13998,13 +13988,13 @@
         <v>114</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O1" s="101" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
@@ -14050,7 +14040,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="82" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B5" s="102">
         <v>19</v>
@@ -14356,7 +14346,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="82" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B13" s="102">
         <v>19</v>
@@ -14399,7 +14389,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B14" s="6">
         <v>15</v>
@@ -14620,37 +14610,39 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>118</v>
-      </c>
-      <c r="B20" s="6">
+      <c r="A20" s="82" t="s">
+        <v>501</v>
+      </c>
+      <c r="B20" s="102">
         <v>19</v>
       </c>
-      <c r="D20" s="6">
+      <c r="C20" s="102"/>
+      <c r="D20" s="102">
         <v>57</v>
       </c>
-      <c r="F20" s="105">
+      <c r="E20" s="102"/>
+      <c r="F20" s="106">
         <f>D20/B20</f>
         <v>3</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="102" t="s">
         <v>89</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="102">
         <v>90</v>
       </c>
-      <c r="I20" s="103">
+      <c r="I20" s="104">
         <f>H20*F20</f>
         <v>270</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="102">
         <v>32</v>
       </c>
-      <c r="K20" s="105">
+      <c r="K20" s="106">
         <f>J20/F20</f>
         <v>10.666666666666666</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="102">
         <v>415</v>
       </c>
       <c r="N20">
@@ -14661,37 +14653,39 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>118</v>
-      </c>
-      <c r="B21" s="6">
+      <c r="A21" s="82" t="s">
+        <v>502</v>
+      </c>
+      <c r="B21" s="102">
         <v>15</v>
       </c>
-      <c r="D21" s="6">
+      <c r="C21" s="102"/>
+      <c r="D21" s="102">
         <v>57</v>
       </c>
-      <c r="F21" s="105">
+      <c r="E21" s="102"/>
+      <c r="F21" s="106">
         <f t="shared" ref="F21" si="6">D21/B21</f>
         <v>3.8</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="102" t="s">
         <v>89</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="102">
         <v>90</v>
       </c>
-      <c r="I21" s="103">
+      <c r="I21" s="104">
         <f t="shared" ref="I21" si="7">H21*F21</f>
         <v>342</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="102">
         <v>32</v>
       </c>
-      <c r="K21" s="105">
+      <c r="K21" s="106">
         <f t="shared" ref="K21" si="8">J21/F21</f>
         <v>8.4210526315789469</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="102">
         <v>415</v>
       </c>
       <c r="N21">
@@ -14744,7 +14738,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="82" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B23" s="102">
         <v>12</v>
@@ -14804,7 +14798,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B25" s="6">
         <v>19</v>
@@ -14844,37 +14838,39 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>251</v>
-      </c>
-      <c r="B26" s="6">
+      <c r="A26" s="82" t="s">
+        <v>500</v>
+      </c>
+      <c r="B26" s="102">
         <v>19</v>
       </c>
-      <c r="D26" s="6">
+      <c r="C26" s="102"/>
+      <c r="D26" s="102">
         <v>57</v>
       </c>
-      <c r="F26" s="105">
+      <c r="E26" s="102"/>
+      <c r="F26" s="106">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="102" t="s">
         <v>89</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="102">
         <v>150</v>
       </c>
-      <c r="I26" s="103">
+      <c r="I26" s="104">
         <f>H26*F26</f>
         <v>450</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="102">
         <v>48</v>
       </c>
-      <c r="K26" s="105">
+      <c r="K26" s="106">
         <f>J26/F26</f>
         <v>16</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26" s="102">
         <v>415</v>
       </c>
       <c r="N26">
@@ -14886,7 +14882,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B27" s="6">
         <v>15</v>
@@ -14899,7 +14895,7 @@
         <v>3.2</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H27" s="6">
         <v>150</v>
@@ -14927,7 +14923,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B28" s="6">
         <v>15</v>
@@ -14940,7 +14936,7 @@
         <v>3.8</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H28" s="6">
         <v>150</v>
@@ -14968,7 +14964,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B29" s="6">
         <v>12</v>
@@ -14981,7 +14977,7 @@
         <v>4</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H29" s="6">
         <v>150</v>
@@ -15009,7 +15005,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="82" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B30" s="102">
         <v>12</v>
@@ -15024,7 +15020,7 @@
         <v>4.75</v>
       </c>
       <c r="G30" s="102" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H30" s="102">
         <v>150</v>
@@ -15082,7 +15078,7 @@
         <v>2.5263157894736841</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H32" s="6">
         <v>220</v>
@@ -15123,7 +15119,7 @@
         <v>3</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H33" s="6">
         <v>220</v>
@@ -15164,7 +15160,7 @@
         <v>3.2</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H34" s="6">
         <v>220</v>
@@ -15192,7 +15188,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="82" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B35" s="102">
         <v>15</v>
@@ -15207,7 +15203,7 @@
         <v>3.8</v>
       </c>
       <c r="G35" s="102" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H35" s="102">
         <v>220</v>
@@ -15248,7 +15244,7 @@
         <v>4</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H36" s="6">
         <v>220</v>
@@ -15276,7 +15272,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="82" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B37" s="102">
         <v>12</v>
@@ -15291,7 +15287,7 @@
         <v>4.75</v>
       </c>
       <c r="G37" s="102" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H37" s="102">
         <v>220</v>
@@ -15323,10 +15319,10 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>240</v>
       </c>
       <c r="C39" s="2">
         <v>0</v>
@@ -15346,10 +15342,10 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C40" s="2">
         <v>15.01</v>
@@ -15369,10 +15365,10 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C41" s="2">
         <v>62.01</v>
@@ -15453,7 +15449,7 @@
     <row r="57" spans="4:21" x14ac:dyDescent="0.35">
       <c r="F57" s="105"/>
       <c r="K57" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="L57" s="6">
         <v>122.5</v>
@@ -15461,10 +15457,10 @@
     </row>
     <row r="58" spans="4:21" x14ac:dyDescent="0.35">
       <c r="D58" s="6" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="L58" s="6">
         <v>101</v>
@@ -15472,23 +15468,23 @@
     </row>
     <row r="59" spans="4:21" x14ac:dyDescent="0.35">
       <c r="K59" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="L59" s="6">
         <f>((L57*9.81)*L58)/N4</f>
         <v>527.71402173913054</v>
       </c>
       <c r="Q59" s="98" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="R59" s="98" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="S59" s="99">
         <v>8</v>
       </c>
       <c r="T59" s="98" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="U59" s="99">
         <v>179.04</v>
@@ -15496,16 +15492,16 @@
     </row>
     <row r="60" spans="4:21" ht="29" x14ac:dyDescent="0.35">
       <c r="Q60" s="98" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="R60" s="98" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="S60" s="99">
         <v>3</v>
       </c>
       <c r="T60" s="98" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="U60" s="99">
         <v>300.41000000000003</v>
@@ -15513,16 +15509,16 @@
     </row>
     <row r="61" spans="4:21" x14ac:dyDescent="0.35">
       <c r="Q61" s="98" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="R61" s="98" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="S61" s="99">
         <v>1</v>
       </c>
       <c r="T61" s="98" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="U61" s="99">
         <v>472.24</v>
@@ -15530,16 +15526,16 @@
     </row>
     <row r="62" spans="4:21" x14ac:dyDescent="0.35">
       <c r="Q62" s="98" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="R62" s="98" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="S62" s="99">
         <v>1</v>
       </c>
       <c r="T62" s="98" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="U62" s="99">
         <v>923.01</v>

--- a/Calculations gfa.xlsx
+++ b/Calculations gfa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://securitywindowshutt-my.sharepoint.com/personal/rob_hyrons_swsuk_co_uk/Documents/SWS product dev/Projects/P190 - Industrial EVO/Calculators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="414" documentId="13_ncr:1_{DBA201A5-D078-4ADB-A563-7B8EA9522FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E43160CA-04C2-46AE-8AE4-977C9A82183E}"/>
+  <xr:revisionPtr revIDLastSave="417" documentId="13_ncr:1_{DBA201A5-D078-4ADB-A563-7B8EA9522FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{744AA604-3FFB-4432-A87D-6F27AC90340B}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="1650" windowWidth="32770" windowHeight="18650" tabRatio="859" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1640" yWindow="2280" windowWidth="36760" windowHeight="18840" tabRatio="859" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -2018,9 +2018,6 @@
     <t>max m2</t>
   </si>
   <si>
-    <t>Useage type</t>
-  </si>
-  <si>
     <t>Ranger 70 1ph 19-57 1/2"</t>
   </si>
   <si>
@@ -2154,6 +2151,9 @@
   </si>
   <si>
     <t>Ranger 90 3ph 15-57 1/2"</t>
+  </si>
+  <si>
+    <t>Usage type</t>
   </si>
 </sst>
 </file>
@@ -6780,13 +6780,13 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="O18" t="s">
+        <v>459</v>
+      </c>
+      <c r="P18" t="s">
         <v>460</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>461</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
@@ -6795,18 +6795,18 @@
         <v>0.4206302983239496</v>
       </c>
       <c r="O19" t="s">
+        <v>462</v>
+      </c>
+      <c r="P19" t="s">
         <v>463</v>
-      </c>
-      <c r="P19" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="O20" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="P20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -6834,22 +6834,22 @@
   <sheetData>
     <row r="4" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
+        <v>465</v>
+      </c>
+      <c r="E4" t="s">
         <v>466</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>467</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>468</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>469</v>
       </c>
-      <c r="H4" t="s">
-        <v>470</v>
-      </c>
       <c r="I4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="4:9" x14ac:dyDescent="0.35">
@@ -6942,7 +6942,7 @@
         <v>161</v>
       </c>
       <c r="I1" s="60" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J1" s="108" t="s">
         <v>456</v>
@@ -10421,11 +10421,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB77DDB-B6D9-4CBA-9145-50EF6FDCE517}">
-  <dimension ref="A1:U90"/>
+  <dimension ref="A1:U89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10460,7 +10460,7 @@
         <v>30</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>457</v>
+        <v>502</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>13</v>
@@ -10475,7 +10475,7 @@
         <v>31</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>32</v>
@@ -10496,7 +10496,7 @@
         <v>187</v>
       </c>
       <c r="Q1" s="71" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="R1" s="12" t="s">
         <v>231</v>
@@ -11551,7 +11551,7 @@
         <v>900</v>
       </c>
       <c r="Q30" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
@@ -11595,7 +11595,7 @@
         <v>900</v>
       </c>
       <c r="Q31" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
@@ -11639,7 +11639,7 @@
         <v>900</v>
       </c>
       <c r="Q32" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
@@ -11683,7 +11683,7 @@
         <v>900</v>
       </c>
       <c r="Q33" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
@@ -11727,7 +11727,7 @@
         <v>900</v>
       </c>
       <c r="Q34" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
@@ -11771,7 +11771,7 @@
         <v>1800</v>
       </c>
       <c r="Q35" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
@@ -11815,7 +11815,7 @@
         <v>1800</v>
       </c>
       <c r="Q36" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
@@ -11859,7 +11859,7 @@
         <v>2500</v>
       </c>
       <c r="Q37" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
@@ -12383,7 +12383,7 @@
         <v>54</v>
       </c>
       <c r="Q54" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.35">
@@ -12418,7 +12418,7 @@
         <v>54</v>
       </c>
       <c r="Q55" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.35">
@@ -12453,7 +12453,7 @@
         <v>54</v>
       </c>
       <c r="Q56" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.35">
@@ -12497,6 +12497,9 @@
       <c r="M58" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="Q58" s="6" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="str">
@@ -12541,7 +12544,7 @@
         <v>450</v>
       </c>
       <c r="Q59" s="6" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="R59">
         <v>40</v>
@@ -12693,7 +12696,7 @@
         <v>370</v>
       </c>
       <c r="Q62" s="6" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="R62">
         <v>40</v>
@@ -12738,7 +12741,7 @@
         <v>54</v>
       </c>
       <c r="Q63" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.35">
@@ -12784,9 +12787,6 @@
       <c r="P64">
         <v>450</v>
       </c>
-      <c r="Q64" s="6" t="s">
-        <v>438</v>
-      </c>
       <c r="R64">
         <v>40</v>
       </c>
@@ -12834,13 +12834,11 @@
       <c r="P65">
         <v>450</v>
       </c>
+      <c r="Q65" s="6" t="s">
+        <v>482</v>
+      </c>
       <c r="R65">
         <v>40</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="Q66" s="6" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="67" spans="1:20" s="67" customFormat="1" x14ac:dyDescent="0.35">
@@ -12886,7 +12884,9 @@
         <v>8</v>
       </c>
       <c r="O67" s="66"/>
-      <c r="Q67" s="6"/>
+      <c r="Q67" s="75" t="s">
+        <v>483</v>
+      </c>
       <c r="T67" s="77">
         <v>266</v>
       </c>
@@ -12935,7 +12935,7 @@
       <c r="P68">
         <v>400</v>
       </c>
-      <c r="Q68" s="75" t="s">
+      <c r="Q68" s="6" t="s">
         <v>484</v>
       </c>
       <c r="R68">
@@ -13249,7 +13249,7 @@
       <c r="P74" s="67">
         <v>1100</v>
       </c>
-      <c r="Q74" s="6" t="s">
+      <c r="Q74" s="75" t="s">
         <v>490</v>
       </c>
       <c r="R74" s="67">
@@ -13297,7 +13297,7 @@
       <c r="N75" s="1">
         <v>7</v>
       </c>
-      <c r="Q75" s="75" t="s">
+      <c r="Q75" s="6" t="s">
         <v>491</v>
       </c>
     </row>
@@ -13449,9 +13449,7 @@
       <c r="P78" s="38">
         <v>1300</v>
       </c>
-      <c r="Q78" s="6" t="s">
-        <v>494</v>
-      </c>
+      <c r="Q78" s="70"/>
       <c r="R78" s="38">
         <v>10</v>
       </c>
@@ -13711,9 +13709,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="Q84" s="70"/>
-    </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>243</v>
@@ -13756,6 +13751,9 @@
         <v>8</v>
       </c>
       <c r="P86" s="1"/>
+      <c r="Q86" s="6" t="s">
+        <v>494</v>
+      </c>
       <c r="R86" s="1"/>
       <c r="T86">
         <v>418</v>
@@ -13901,13 +13899,8 @@
         <v>5</v>
       </c>
       <c r="O89" s="66"/>
-      <c r="Q89" s="6" t="s">
+      <c r="Q89" s="75" t="s">
         <v>497</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="Q90" s="75" t="s">
-        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -14040,7 +14033,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="82" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B5" s="102">
         <v>19</v>
@@ -14611,7 +14604,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="82" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B20" s="102">
         <v>19</v>
@@ -14654,7 +14647,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="82" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B21" s="102">
         <v>15</v>
@@ -14839,7 +14832,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="82" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B26" s="102">
         <v>19</v>

--- a/Calculations gfa.xlsx
+++ b/Calculations gfa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://securitywindowshutt-my.sharepoint.com/personal/rob_hyrons_swsuk_co_uk/Documents/SWS product dev/Projects/P190 - Industrial EVO/Calculators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="417" documentId="13_ncr:1_{DBA201A5-D078-4ADB-A563-7B8EA9522FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{744AA604-3FFB-4432-A87D-6F27AC90340B}"/>
+  <xr:revisionPtr revIDLastSave="530" documentId="13_ncr:1_{DBA201A5-D078-4ADB-A563-7B8EA9522FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA3AF587-F5AA-4953-9E1F-5BFB2CC2EDB0}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1640" yWindow="2280" windowWidth="36760" windowHeight="18840" tabRatio="859" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1010" yWindow="2760" windowWidth="31540" windowHeight="18840" tabRatio="859" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -645,7 +645,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="522">
   <si>
     <t>Name</t>
   </si>
@@ -2154,6 +2154,63 @@
   </si>
   <si>
     <t>Usage type</t>
+  </si>
+  <si>
+    <t>Hi speed</t>
+  </si>
+  <si>
+    <t>SI 25V.80 FI</t>
+  </si>
+  <si>
+    <t>SI 40.40 FI</t>
+  </si>
+  <si>
+    <t>SI 45.60 FI</t>
+  </si>
+  <si>
+    <t>SI 50.80 FI</t>
+  </si>
+  <si>
+    <t>SI 55.20 FI</t>
+  </si>
+  <si>
+    <t>SI 55.40 FI</t>
+  </si>
+  <si>
+    <t>SI 75.20 FI</t>
+  </si>
+  <si>
+    <t>SI 75.45 FI</t>
+  </si>
+  <si>
+    <t>SI 100.30 FI</t>
+  </si>
+  <si>
+    <t>SI 140.20 FI</t>
+  </si>
+  <si>
+    <t>SI 25HC.15</t>
+  </si>
+  <si>
+    <t>Hi usage</t>
+  </si>
+  <si>
+    <t>SI 40HCV.15</t>
+  </si>
+  <si>
+    <t>SI 40.24</t>
+  </si>
+  <si>
+    <t>SI 55HCV.15</t>
+  </si>
+  <si>
+    <t>SI 60.24</t>
+  </si>
+  <si>
+    <t>SI 75.24</t>
+  </si>
+  <si>
+    <t>SI 100.24</t>
   </si>
 </sst>
 </file>
@@ -4206,15 +4263,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>142876</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>31749</xdr:rowOff>
+      <xdr:colOff>103190</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>183022</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>143336</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4237,8 +4294,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="142876" y="17772062"/>
-          <a:ext cx="7255334" cy="3944938"/>
+          <a:off x="103190" y="21907500"/>
+          <a:ext cx="7263271" cy="3944938"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10421,11 +10478,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB77DDB-B6D9-4CBA-9145-50EF6FDCE517}">
-  <dimension ref="A1:U89"/>
+  <dimension ref="A1:U116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H118" sqref="H118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13901,6 +13958,1109 @@
       <c r="O89" s="66"/>
       <c r="Q89" s="75" t="s">
         <v>497</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>504</v>
+      </c>
+      <c r="B91" t="s">
+        <v>95</v>
+      </c>
+      <c r="C91" s="1">
+        <f>D90+0.01</f>
+        <v>0.01</v>
+      </c>
+      <c r="D91" s="6">
+        <v>250</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F91" s="6">
+        <v>80</v>
+      </c>
+      <c r="G91" s="1">
+        <v>230</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L91" s="1">
+        <v>30</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N91" s="1">
+        <v>8</v>
+      </c>
+      <c r="P91">
+        <v>750</v>
+      </c>
+      <c r="R91">
+        <v>20</v>
+      </c>
+      <c r="T91" s="78"/>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>505</v>
+      </c>
+      <c r="B92" t="s">
+        <v>95</v>
+      </c>
+      <c r="C92" s="1">
+        <f>D91+0.01</f>
+        <v>250.01</v>
+      </c>
+      <c r="D92" s="6">
+        <v>400</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F92" s="6">
+        <v>40</v>
+      </c>
+      <c r="G92" s="1">
+        <v>230</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L92" s="1">
+        <v>40</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N92" s="1">
+        <v>8</v>
+      </c>
+      <c r="P92">
+        <v>750</v>
+      </c>
+      <c r="R92">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A93" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B93" t="s">
+        <v>95</v>
+      </c>
+      <c r="C93" s="1">
+        <f>D92+0.01</f>
+        <v>400.01</v>
+      </c>
+      <c r="D93" s="6">
+        <v>550</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F93" s="6">
+        <v>20</v>
+      </c>
+      <c r="G93" s="1">
+        <v>230</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L93" s="1">
+        <v>40</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N93" s="1">
+        <v>8</v>
+      </c>
+      <c r="P93">
+        <v>750</v>
+      </c>
+      <c r="R93">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A94" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B94" t="s">
+        <v>95</v>
+      </c>
+      <c r="C94" s="1">
+        <f>D93+0.01</f>
+        <v>550.01</v>
+      </c>
+      <c r="D94" s="6">
+        <v>750</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F94" s="6">
+        <v>20</v>
+      </c>
+      <c r="G94" s="1">
+        <v>230</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L94" s="1">
+        <v>55</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N94" s="1">
+        <v>8</v>
+      </c>
+      <c r="P94">
+        <v>750</v>
+      </c>
+      <c r="R94">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>504</v>
+      </c>
+      <c r="B96" t="s">
+        <v>95</v>
+      </c>
+      <c r="C96" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D96" s="6">
+        <v>250</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F96" s="6">
+        <v>80</v>
+      </c>
+      <c r="G96" s="1">
+        <v>415</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L96" s="1">
+        <v>40</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N96" s="1">
+        <v>8</v>
+      </c>
+      <c r="P96">
+        <v>750</v>
+      </c>
+      <c r="R96">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>505</v>
+      </c>
+      <c r="B97" t="s">
+        <v>95</v>
+      </c>
+      <c r="C97" s="1">
+        <f>D96+0.01</f>
+        <v>250.01</v>
+      </c>
+      <c r="D97" s="6">
+        <v>400</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F97" s="6">
+        <v>40</v>
+      </c>
+      <c r="G97" s="1">
+        <v>415</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L97" s="1">
+        <v>40</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N97" s="1">
+        <v>8</v>
+      </c>
+      <c r="P97">
+        <v>750</v>
+      </c>
+      <c r="R97">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>506</v>
+      </c>
+      <c r="B98" t="s">
+        <v>95</v>
+      </c>
+      <c r="C98" s="1">
+        <f>D97+0.01</f>
+        <v>400.01</v>
+      </c>
+      <c r="D98" s="6">
+        <v>450</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F98" s="6">
+        <v>60</v>
+      </c>
+      <c r="G98" s="1">
+        <v>415</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L98" s="1">
+        <v>40</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N98" s="1">
+        <v>8</v>
+      </c>
+      <c r="P98">
+        <v>750</v>
+      </c>
+      <c r="R98">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>507</v>
+      </c>
+      <c r="B99" t="s">
+        <v>95</v>
+      </c>
+      <c r="C99" s="1">
+        <f>D98+0.01</f>
+        <v>450.01</v>
+      </c>
+      <c r="D99" s="6">
+        <v>500</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F99" s="6">
+        <v>80</v>
+      </c>
+      <c r="G99" s="1">
+        <v>415</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L99" s="1">
+        <v>55</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N99" s="1">
+        <v>8</v>
+      </c>
+      <c r="P99">
+        <v>750</v>
+      </c>
+      <c r="R99">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A100" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B100" t="s">
+        <v>95</v>
+      </c>
+      <c r="C100" s="1">
+        <f>D99+0.01</f>
+        <v>500.01</v>
+      </c>
+      <c r="D100" s="6">
+        <v>550</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F100" s="6">
+        <v>20</v>
+      </c>
+      <c r="G100" s="1">
+        <v>415</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L100" s="1">
+        <v>40</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N100" s="1">
+        <v>8</v>
+      </c>
+      <c r="P100">
+        <v>750</v>
+      </c>
+      <c r="R100">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A101" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B101" t="s">
+        <v>95</v>
+      </c>
+      <c r="C101" s="1">
+        <f>D100+0.01</f>
+        <v>550.01</v>
+      </c>
+      <c r="D101" s="6">
+        <v>550</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F101" s="6">
+        <v>40</v>
+      </c>
+      <c r="G101" s="1">
+        <v>415</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L101" s="1">
+        <v>40</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N101" s="1">
+        <v>8</v>
+      </c>
+      <c r="P101">
+        <v>750</v>
+      </c>
+      <c r="R101">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A102" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B102" t="s">
+        <v>95</v>
+      </c>
+      <c r="C102" s="1">
+        <f>D101+0.01</f>
+        <v>550.01</v>
+      </c>
+      <c r="D102" s="6">
+        <v>750</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F102" s="6">
+        <v>20</v>
+      </c>
+      <c r="G102" s="1">
+        <v>415</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L102" s="1">
+        <v>55</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N102" s="1">
+        <v>8</v>
+      </c>
+      <c r="P102">
+        <v>750</v>
+      </c>
+      <c r="R102">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A103" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B103" t="s">
+        <v>95</v>
+      </c>
+      <c r="C103" s="1">
+        <f>D102+0.01</f>
+        <v>750.01</v>
+      </c>
+      <c r="D103" s="6">
+        <v>750</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F103" s="6">
+        <v>45</v>
+      </c>
+      <c r="G103" s="1">
+        <v>415</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L103" s="1">
+        <v>55</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N103" s="1">
+        <v>8</v>
+      </c>
+      <c r="P103">
+        <v>750</v>
+      </c>
+      <c r="R103">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A104" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B104" t="s">
+        <v>95</v>
+      </c>
+      <c r="C104" s="1">
+        <f>D103+0.01</f>
+        <v>750.01</v>
+      </c>
+      <c r="D104" s="6">
+        <v>1000</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F104" s="6">
+        <v>30</v>
+      </c>
+      <c r="G104" s="1">
+        <v>415</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L104" s="1">
+        <v>55</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N104" s="1">
+        <v>8</v>
+      </c>
+      <c r="P104">
+        <v>750</v>
+      </c>
+      <c r="R104">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A105" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="B105" t="s">
+        <v>95</v>
+      </c>
+      <c r="C105" s="1">
+        <f>D104+0.01</f>
+        <v>1000.01</v>
+      </c>
+      <c r="D105" s="6">
+        <v>1400</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F105" s="6">
+        <v>20</v>
+      </c>
+      <c r="G105" s="1">
+        <v>415</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L105" s="1">
+        <v>55</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N105" s="1">
+        <v>8</v>
+      </c>
+      <c r="P105">
+        <v>750</v>
+      </c>
+      <c r="R105">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A108" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="B108" t="s">
+        <v>95</v>
+      </c>
+      <c r="C108" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D108" s="6">
+        <v>250</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="F108" s="6">
+        <v>15</v>
+      </c>
+      <c r="G108" s="1">
+        <v>415</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L108" s="1">
+        <v>30</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N108" s="1">
+        <v>8</v>
+      </c>
+      <c r="P108">
+        <v>750</v>
+      </c>
+      <c r="R108">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A109" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="B109" t="s">
+        <v>95</v>
+      </c>
+      <c r="C109" s="1">
+        <f>D108+0.01</f>
+        <v>250.01</v>
+      </c>
+      <c r="D109" s="6">
+        <v>250</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="F109" s="6">
+        <v>24</v>
+      </c>
+      <c r="G109" s="1">
+        <v>415</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L109" s="1">
+        <v>30</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N109" s="1">
+        <v>8</v>
+      </c>
+      <c r="P109">
+        <v>750</v>
+      </c>
+      <c r="R109">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A110" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B110" t="s">
+        <v>95</v>
+      </c>
+      <c r="C110" s="1">
+        <f t="shared" ref="C110:C116" si="6">D109+0.01</f>
+        <v>250.01</v>
+      </c>
+      <c r="D110" s="6">
+        <v>400</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="F110" s="6">
+        <v>15</v>
+      </c>
+      <c r="G110" s="1">
+        <v>415</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L110" s="1">
+        <v>40</v>
+      </c>
+      <c r="M110" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N110" s="1">
+        <v>8</v>
+      </c>
+      <c r="P110">
+        <v>750</v>
+      </c>
+      <c r="R110">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A111" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B111" t="s">
+        <v>95</v>
+      </c>
+      <c r="C111" s="1">
+        <f t="shared" si="6"/>
+        <v>400.01</v>
+      </c>
+      <c r="D111" s="6">
+        <v>400</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="F111" s="6">
+        <v>24</v>
+      </c>
+      <c r="G111" s="1">
+        <v>415</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L111" s="1">
+        <v>40</v>
+      </c>
+      <c r="M111" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N111" s="1">
+        <v>8</v>
+      </c>
+      <c r="P111">
+        <v>750</v>
+      </c>
+      <c r="R111">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A112" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B112" t="s">
+        <v>95</v>
+      </c>
+      <c r="C112" s="1">
+        <f t="shared" si="6"/>
+        <v>400.01</v>
+      </c>
+      <c r="D112" s="6">
+        <v>550</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="F112" s="6">
+        <v>15</v>
+      </c>
+      <c r="G112" s="1">
+        <v>415</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L112" s="1">
+        <v>40</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N112" s="1">
+        <v>8</v>
+      </c>
+      <c r="P112">
+        <v>750</v>
+      </c>
+      <c r="R112">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A113" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B113" t="s">
+        <v>95</v>
+      </c>
+      <c r="C113" s="1">
+        <f t="shared" si="6"/>
+        <v>550.01</v>
+      </c>
+      <c r="D113" s="6">
+        <v>550</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="F113" s="6">
+        <v>24</v>
+      </c>
+      <c r="G113" s="1">
+        <v>415</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L113" s="1">
+        <v>55</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N113" s="1">
+        <v>8</v>
+      </c>
+      <c r="P113">
+        <v>750</v>
+      </c>
+      <c r="R113">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A114" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="B114" t="s">
+        <v>95</v>
+      </c>
+      <c r="C114" s="1">
+        <f t="shared" si="6"/>
+        <v>550.01</v>
+      </c>
+      <c r="D114" s="6">
+        <v>750</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="F114" s="6">
+        <v>24</v>
+      </c>
+      <c r="G114" s="1">
+        <v>415</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L114" s="1">
+        <v>55</v>
+      </c>
+      <c r="M114" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N114" s="1">
+        <v>8</v>
+      </c>
+      <c r="P114">
+        <v>750</v>
+      </c>
+      <c r="R114">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A115" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="B115" t="s">
+        <v>95</v>
+      </c>
+      <c r="C115" s="1">
+        <f t="shared" si="6"/>
+        <v>750.01</v>
+      </c>
+      <c r="D115" s="6">
+        <v>1000</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="F115" s="6">
+        <v>24</v>
+      </c>
+      <c r="G115" s="1">
+        <v>415</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L115" s="1">
+        <v>55</v>
+      </c>
+      <c r="M115" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N115" s="1">
+        <v>8</v>
+      </c>
+      <c r="P115">
+        <v>750</v>
+      </c>
+      <c r="R115">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A116" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="B116" t="s">
+        <v>95</v>
+      </c>
+      <c r="C116" s="1">
+        <f t="shared" si="6"/>
+        <v>1000.01</v>
+      </c>
+      <c r="D116" s="6">
+        <v>1200</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="F116" s="6">
+        <v>12</v>
+      </c>
+      <c r="G116" s="1">
+        <v>415</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L116" s="1">
+        <v>55</v>
+      </c>
+      <c r="M116" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N116" s="1">
+        <v>8</v>
+      </c>
+      <c r="P116">
+        <v>750</v>
+      </c>
+      <c r="R116">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Calculations gfa.xlsx
+++ b/Calculations gfa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://securitywindowshutt-my.sharepoint.com/personal/rob_hyrons_swsuk_co_uk/Documents/SWS product dev/Projects/P190 - Industrial EVO/Calculators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="672" documentId="13_ncr:1_{DBA201A5-D078-4ADB-A563-7B8EA9522FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F12DAFA3-0D2B-45B7-A225-6F8D8403C9BB}"/>
+  <xr:revisionPtr revIDLastSave="723" documentId="13_ncr:1_{DBA201A5-D078-4ADB-A563-7B8EA9522FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D6223AD-3CF5-4E57-B6C0-366A360F8362}"/>
   <bookViews>
-    <workbookView xWindow="9140" yWindow="380" windowWidth="28890" windowHeight="18710" tabRatio="859" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="460" windowWidth="25640" windowHeight="18110" tabRatio="859" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -645,7 +645,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="532">
   <si>
     <t>Name</t>
   </si>
@@ -2238,6 +2238,9 @@
   </si>
   <si>
     <t>77t with triple chamber rubber 2kg/m</t>
+  </si>
+  <si>
+    <t>Ranger 90 1ph 12-48 1/2"</t>
   </si>
 </sst>
 </file>
@@ -2531,7 +2534,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2844,12 +2847,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2865,6 +2862,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent1 2" xfId="1" xr:uid="{4B6C72F7-C4CA-450E-9C13-94CEF72F8B8D}"/>
@@ -4309,13 +4309,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>103190</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>143336</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6976,15 +6976,15 @@
       </c>
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D6" s="107">
+      <c r="D6" s="114">
         <f>SUM(D5:I5)+15</f>
         <v>587</v>
       </c>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9357,7 +9357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB485315-044F-4FB0-A3DD-44B741CAB625}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -10524,11 +10524,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB77DDB-B6D9-4CBA-9145-50EF6FDCE517}">
-  <dimension ref="A1:U114"/>
+  <dimension ref="A1:U118"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A68" sqref="A68:A69"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L60" sqref="L60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10546,7 +10546,7 @@
     <col min="16" max="16" width="10.54296875" customWidth="1"/>
     <col min="17" max="17" width="25.81640625" style="6" customWidth="1"/>
     <col min="18" max="18" width="12" customWidth="1"/>
-    <col min="20" max="20" width="10.54296875" style="112" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.54296875" style="110" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="46.453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10605,7 +10605,7 @@
       <c r="R1" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="T1" s="111" t="s">
+      <c r="T1" s="109" t="s">
         <v>525</v>
       </c>
       <c r="U1" s="12" t="s">
@@ -11126,7 +11126,7 @@
         <v>108</v>
       </c>
       <c r="C15" s="1">
-        <f>D14+0.01</f>
+        <f t="shared" ref="C15:C26" si="0">D14+0.01</f>
         <v>10.01</v>
       </c>
       <c r="D15" s="1">
@@ -11168,7 +11168,7 @@
         <v>108</v>
       </c>
       <c r="C16" s="1">
-        <f>D15+0.01</f>
+        <f t="shared" si="0"/>
         <v>20.010000000000002</v>
       </c>
       <c r="D16" s="1">
@@ -11210,7 +11210,7 @@
         <v>108</v>
       </c>
       <c r="C17" s="1">
-        <f>D16+0.01</f>
+        <f t="shared" si="0"/>
         <v>25.01</v>
       </c>
       <c r="D17" s="1">
@@ -11252,7 +11252,7 @@
         <v>108</v>
       </c>
       <c r="C18" s="1">
-        <f>D17+0.01</f>
+        <f t="shared" si="0"/>
         <v>35.01</v>
       </c>
       <c r="D18" s="1">
@@ -11294,7 +11294,7 @@
         <v>108</v>
       </c>
       <c r="C19" s="1">
-        <f>D18+0.01</f>
+        <f t="shared" si="0"/>
         <v>40.01</v>
       </c>
       <c r="D19" s="1">
@@ -11336,7 +11336,7 @@
         <v>108</v>
       </c>
       <c r="C20" s="1">
-        <f>D19+0.01</f>
+        <f t="shared" si="0"/>
         <v>50.01</v>
       </c>
       <c r="D20" s="1">
@@ -11378,7 +11378,7 @@
         <v>108</v>
       </c>
       <c r="C21" s="1">
-        <f>D20+0.01</f>
+        <f t="shared" si="0"/>
         <v>55.01</v>
       </c>
       <c r="D21" s="1">
@@ -11420,7 +11420,7 @@
         <v>108</v>
       </c>
       <c r="C22" s="1">
-        <f>D21+0.01</f>
+        <f t="shared" si="0"/>
         <v>60.01</v>
       </c>
       <c r="D22" s="1">
@@ -11462,7 +11462,7 @@
         <v>108</v>
       </c>
       <c r="C23" s="1">
-        <f>D22+0.01</f>
+        <f t="shared" si="0"/>
         <v>70.010000000000005</v>
       </c>
       <c r="D23" s="1">
@@ -11504,7 +11504,7 @@
         <v>108</v>
       </c>
       <c r="C24" s="1">
-        <f>D23+0.01</f>
+        <f t="shared" si="0"/>
         <v>80.010000000000005</v>
       </c>
       <c r="D24" s="1">
@@ -11546,7 +11546,7 @@
         <v>108</v>
       </c>
       <c r="C25" s="1">
-        <f>D24+0.01</f>
+        <f t="shared" si="0"/>
         <v>85.01</v>
       </c>
       <c r="D25" s="1">
@@ -11588,7 +11588,7 @@
         <v>108</v>
       </c>
       <c r="C26" s="1">
-        <f>D25+0.01</f>
+        <f t="shared" si="0"/>
         <v>100.01</v>
       </c>
       <c r="D26" s="1">
@@ -11628,16 +11628,16 @@
       </c>
     </row>
     <row r="28" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="109" t="s">
+      <c r="A28" s="107" t="s">
         <v>186</v>
       </c>
-      <c r="B28" s="109" t="s">
+      <c r="B28" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="110">
+      <c r="C28" s="108">
         <v>0</v>
       </c>
-      <c r="D28" s="110">
+      <c r="D28" s="108">
         <v>300</v>
       </c>
       <c r="E28" s="76" t="s">
@@ -11673,7 +11673,7 @@
       <c r="Q28" s="70" t="s">
         <v>468</v>
       </c>
-      <c r="T28" s="113"/>
+      <c r="T28" s="111"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -12041,7 +12041,7 @@
         <v>69</v>
       </c>
       <c r="C39" s="2">
-        <f t="shared" ref="C39:C46" si="0">D38+0.01</f>
+        <f t="shared" ref="C39:C46" si="1">D38+0.01</f>
         <v>140.01</v>
       </c>
       <c r="D39" s="1">
@@ -12080,7 +12080,7 @@
         <v>69</v>
       </c>
       <c r="C40" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>220.01</v>
       </c>
       <c r="D40" s="1">
@@ -12112,14 +12112,14 @@
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A41" s="109" t="s">
+      <c r="A41" s="107" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="109" t="s">
+      <c r="B41" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="110">
-        <f t="shared" si="0"/>
+      <c r="C41" s="108">
+        <f t="shared" si="1"/>
         <v>300.01</v>
       </c>
       <c r="D41" s="76">
@@ -12159,7 +12159,7 @@
         <v>69</v>
       </c>
       <c r="C42" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>420.01</v>
       </c>
       <c r="D42" s="1">
@@ -12198,7 +12198,7 @@
         <v>69</v>
       </c>
       <c r="C43" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>500.01</v>
       </c>
       <c r="D43" s="1">
@@ -12237,7 +12237,7 @@
         <v>69</v>
       </c>
       <c r="C44" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1000.01</v>
       </c>
       <c r="D44" s="1">
@@ -12276,7 +12276,7 @@
         <v>69</v>
       </c>
       <c r="C45" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1400.01</v>
       </c>
       <c r="D45" s="1">
@@ -12315,7 +12315,7 @@
         <v>69</v>
       </c>
       <c r="C46" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1650.01</v>
       </c>
       <c r="D46" s="1">
@@ -12467,7 +12467,7 @@
         <v>55</v>
       </c>
       <c r="Q50" s="1"/>
-      <c r="T50" s="114"/>
+      <c r="T50" s="112"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
@@ -12514,8 +12514,9 @@
       <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A53" s="3" t="s">
-        <v>232</v>
+      <c r="A53" s="3" t="str">
+        <f>Chaindrive!A40</f>
+        <v>JM200</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>42</v>
@@ -12524,15 +12525,15 @@
         <v>0</v>
       </c>
       <c r="D53" s="1">
-        <f>Chaindrive!I39</f>
-        <v>0</v>
+        <f>Chaindrive!I40</f>
+        <v>110.90909090909092</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>166</v>
       </c>
       <c r="F53" s="1">
-        <f>Chaindrive!K39</f>
-        <v>0</v>
+        <f>Chaindrive!K40</f>
+        <v>6.1311475409836058</v>
       </c>
       <c r="G53" s="1">
         <v>415</v>
@@ -12551,6 +12552,9 @@
       </c>
       <c r="M53" s="1" t="s">
         <v>54</v>
+      </c>
+      <c r="P53">
+        <v>90</v>
       </c>
       <c r="Q53" s="6" t="s">
         <v>474</v>
@@ -12568,14 +12572,14 @@
       </c>
       <c r="D54" s="1">
         <f>Chaindrive!I41</f>
-        <v>186</v>
+        <v>344.44444444444446</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>166</v>
       </c>
       <c r="F54" s="1">
         <f>Chaindrive!K41</f>
-        <v>11.333333333333334</v>
+        <v>6.12</v>
       </c>
       <c r="G54" s="1">
         <v>415</v>
@@ -12594,6 +12598,9 @@
       </c>
       <c r="M54" s="1" t="s">
         <v>54</v>
+      </c>
+      <c r="P54">
+        <v>120</v>
       </c>
       <c r="Q54" s="6" t="s">
         <v>475</v>
@@ -12611,14 +12618,14 @@
       </c>
       <c r="D55" s="1">
         <f>Chaindrive!I42</f>
-        <v>285</v>
+        <v>608</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>166</v>
       </c>
       <c r="F55" s="1">
         <f>Chaindrive!K42</f>
-        <v>7.333333333333333</v>
+        <v>3.4375</v>
       </c>
       <c r="G55" s="1">
         <v>415</v>
@@ -12643,541 +12650,437 @@
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B56" s="3" t="s">
-        <v>527</v>
-      </c>
       <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A57" s="3" t="str">
-        <f>Chaindrive!A5</f>
-        <v>Ranger 70 1ph 19-57 1/2"</v>
-      </c>
-      <c r="B57" t="s">
-        <v>93</v>
-      </c>
-      <c r="C57" s="2">
-        <v>0</v>
-      </c>
-      <c r="D57" s="1">
-        <v>210</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F57" s="1">
-        <v>10.7</v>
-      </c>
-      <c r="G57" s="1">
-        <v>230</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L57" s="1">
-        <v>25.4</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P57">
-        <v>450</v>
-      </c>
-      <c r="Q57" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="T57" s="112">
-        <v>300.41000000000003</v>
-      </c>
+      <c r="C57" s="2"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A58" s="3" t="str">
-        <f>Chaindrive!A13</f>
-        <v>Ranger 90 1ph 19-57 1/2"</v>
-      </c>
-      <c r="B58" t="s">
-        <v>93</v>
-      </c>
-      <c r="C58" s="2">
-        <v>0</v>
-      </c>
-      <c r="D58" s="1">
-        <v>270</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F58" s="1">
-        <f>24/3</f>
-        <v>8</v>
-      </c>
-      <c r="G58" s="1">
-        <v>230</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L58" s="1">
-        <v>25.4</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P58">
-        <v>450</v>
-      </c>
-      <c r="Q58" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="R58">
-        <v>40</v>
-      </c>
+      <c r="C58" s="2"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B59" s="3" t="s">
         <v>527</v>
       </c>
+      <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="str">
+        <f>Chaindrive!A5</f>
+        <v>Ranger 70 1ph 19-57 1/2"</v>
+      </c>
+      <c r="B60" t="s">
+        <v>93</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0</v>
+      </c>
+      <c r="D60" s="37">
+        <v>210</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F60" s="1">
+        <v>10.7</v>
+      </c>
+      <c r="G60" s="1">
+        <v>230</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L60" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P60">
+        <v>450</v>
+      </c>
+      <c r="Q60" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="T60" s="110">
+        <v>300.41000000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="str">
+        <f>Chaindrive!A13</f>
+        <v>Ranger 90 1ph 19-57 1/2"</v>
+      </c>
+      <c r="B61" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61" s="2">
+        <f>D60+0.01</f>
+        <v>210.01</v>
+      </c>
+      <c r="D61" s="37">
+        <f>Chaindrive!I13</f>
+        <v>270</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F61" s="1">
+        <f>24/3</f>
+        <v>8</v>
+      </c>
+      <c r="G61" s="1">
+        <v>230</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L61" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P61">
+        <v>450</v>
+      </c>
+      <c r="Q61" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="R61">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="str">
+        <f>Chaindrive!A15</f>
+        <v>Ranger 90 1ph 12-48 1/2"</v>
+      </c>
+      <c r="B62" t="s">
+        <v>93</v>
+      </c>
+      <c r="C62" s="2">
+        <f>D61+0.01</f>
+        <v>270.01</v>
+      </c>
+      <c r="D62" s="37">
+        <f>Chaindrive!I15</f>
+        <v>360</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F62" s="1">
+        <f>Chaindrive!K15</f>
+        <v>6</v>
+      </c>
+      <c r="G62" s="1">
+        <v>230</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L62" s="1">
+        <v>26.4</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B63" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="str">
         <f>Chaindrive!A20</f>
         <v>Ranger 90 3ph 19-57 1/2"</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B64" t="s">
         <v>93</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C64" s="2">
         <v>0</v>
       </c>
-      <c r="D60" s="37">
+      <c r="D64" s="37">
         <f>Chaindrive!I20</f>
         <v>270</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F60" s="36">
+      <c r="F64" s="36">
         <f>Chaindrive!K20</f>
         <v>10.666666666666666</v>
       </c>
-      <c r="G60" s="1">
+      <c r="G64" s="1">
         <v>415</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="H64" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I60" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L60" s="1">
+      <c r="I64" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L64" s="1">
         <v>25.4</v>
       </c>
-      <c r="M60" s="1" t="s">
+      <c r="M64" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="P60">
+      <c r="P64">
         <v>370</v>
       </c>
-      <c r="Q60" s="6" t="s">
+      <c r="Q64" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="R60">
+      <c r="R64">
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A61" s="3" t="str">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A65" s="3" t="str">
         <f>Chaindrive!A21</f>
         <v>Ranger 90 3ph 15-57 1/2"</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B65" t="s">
         <v>93</v>
       </c>
-      <c r="C61" s="2">
-        <f>D60+0.01</f>
+      <c r="C65" s="2">
+        <f>D64+0.01</f>
         <v>270.01</v>
       </c>
-      <c r="D61" s="37">
+      <c r="D65" s="37">
         <f>Chaindrive!I21</f>
         <v>342</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F61" s="36">
+      <c r="F65" s="36">
         <f>Chaindrive!K21</f>
         <v>8.4210526315789469</v>
       </c>
-      <c r="G61" s="1">
+      <c r="G65" s="1">
         <v>415</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="H65" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I61" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L61" s="1">
+      <c r="I65" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L65" s="1">
         <v>25.4</v>
       </c>
-      <c r="M61" s="1" t="s">
+      <c r="M65" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="P61">
+      <c r="P65">
         <v>370</v>
       </c>
-      <c r="Q61" s="6" t="s">
+      <c r="Q65" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="R61">
+      <c r="R65">
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A62" t="str">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A66" t="str">
         <f>Chaindrive!A23</f>
         <v>Ranger 90 3ph 12-57 1/2"</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B66" t="s">
         <v>93</v>
       </c>
-      <c r="C62" s="2">
-        <f>D61+0.01</f>
+      <c r="C66" s="2">
+        <f>D65+0.01</f>
         <v>342.01</v>
       </c>
-      <c r="D62" s="37">
+      <c r="D66" s="37">
         <f>Chaindrive!I23</f>
         <v>427.5</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F66" s="2">
         <f>Chaindrive!K23</f>
         <v>6.7368421052631575</v>
       </c>
-      <c r="G62" s="1">
+      <c r="G66" s="1">
         <v>415</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="H66" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I62" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L62" s="1">
+      <c r="I66" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L66" s="1">
         <v>25.4</v>
       </c>
-      <c r="M62" s="1" t="s">
+      <c r="M66" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="P62">
+      <c r="P66">
         <v>370</v>
       </c>
-      <c r="Q62" s="6" t="s">
+      <c r="Q66" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="R62">
+      <c r="R66">
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A63" s="3" t="str">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A67" s="3" t="str">
         <f>Chaindrive!A30</f>
         <v>Ranger150 3ph 12-57 5/8"</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B67" t="s">
         <v>93</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C67" s="2">
         <v>428.01</v>
       </c>
-      <c r="D63" s="37">
+      <c r="D67" s="37">
         <v>713</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F67" s="2">
         <v>10</v>
       </c>
-      <c r="G63" s="1">
+      <c r="G67" s="1">
         <v>415</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="H67" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I63" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L63" s="1">
+      <c r="I67" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L67" s="1">
         <v>25.4</v>
       </c>
-      <c r="M63" s="1" t="s">
+      <c r="M67" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q63" s="6" t="s">
+      <c r="Q67" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="T63" s="112">
+      <c r="T67" s="110">
         <v>472.24</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A64" s="3" t="str">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A68" s="3" t="str">
         <f>Chaindrive!A35</f>
         <v>Ranger220 3ph 15-57 5/8"</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B68" t="s">
         <v>93</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C68" s="2">
         <v>713.01</v>
       </c>
-      <c r="D64" s="37">
+      <c r="D68" s="37">
         <f>Chaindrive!I35</f>
         <v>836</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F68" s="2">
         <f>Chaindrive!K35</f>
         <v>6.3157894736842106</v>
       </c>
-      <c r="G64" s="1">
+      <c r="G68" s="1">
         <v>415</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="H68" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I64" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L64" s="1">
+      <c r="I68" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L68" s="1">
         <v>30</v>
       </c>
-      <c r="M64" s="1" t="s">
+      <c r="M68" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="P64">
+      <c r="P68">
         <v>450</v>
       </c>
-      <c r="R64">
+      <c r="R68">
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A65" s="3" t="str">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="str">
         <f>Chaindrive!A37</f>
         <v>Ranger220 3ph 12-57 5/8"</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B69" t="s">
         <v>93</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C69" s="2">
         <v>836.01</v>
       </c>
-      <c r="D65" s="37">
+      <c r="D69" s="37">
         <f>Chaindrive!I37</f>
         <v>1045</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F69" s="2">
         <f>Chaindrive!K37</f>
         <v>5.0526315789473681</v>
       </c>
-      <c r="G65" s="1">
-        <v>415</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L65" s="1">
-        <v>30</v>
-      </c>
-      <c r="M65" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P65">
-        <v>450</v>
-      </c>
-      <c r="Q65" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="R65">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B66" s="3" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" s="67" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="65" t="s">
-        <v>236</v>
-      </c>
-      <c r="B67" s="65" t="s">
-        <v>93</v>
-      </c>
-      <c r="C67" s="66">
-        <f t="shared" ref="C67:C68" si="1">D66+0.01</f>
-        <v>0.01</v>
-      </c>
-      <c r="D67" s="66">
-        <v>100</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F67" s="66">
-        <v>15</v>
-      </c>
-      <c r="G67" s="66">
-        <v>415</v>
-      </c>
-      <c r="H67" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="I67" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="J67" s="66"/>
-      <c r="K67" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="L67" s="66">
-        <v>30</v>
-      </c>
-      <c r="M67" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="N67" s="66">
-        <v>8</v>
-      </c>
-      <c r="O67" s="66"/>
-      <c r="Q67" s="75" t="s">
-        <v>478</v>
-      </c>
-      <c r="T67" s="115">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>37</v>
-      </c>
-      <c r="B68" t="s">
-        <v>93</v>
-      </c>
-      <c r="C68" s="1">
-        <f t="shared" si="1"/>
-        <v>100.01</v>
-      </c>
-      <c r="D68" s="6">
-        <v>170</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F68" s="6">
-        <v>15</v>
-      </c>
-      <c r="G68" s="1">
-        <v>415</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L68" s="1">
-        <v>30</v>
-      </c>
-      <c r="M68" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N68" s="1">
-        <v>8</v>
-      </c>
-      <c r="P68">
-        <v>400</v>
-      </c>
-      <c r="Q68" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="R68">
-        <v>20</v>
-      </c>
-      <c r="T68" s="112">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>38</v>
-      </c>
-      <c r="B69" t="s">
-        <v>93</v>
-      </c>
-      <c r="C69" s="1">
-        <f>D68+0.01</f>
-        <v>170.01</v>
-      </c>
-      <c r="D69" s="6">
-        <v>250</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F69" s="6">
-        <v>15</v>
-      </c>
       <c r="G69" s="1">
         <v>415</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>91</v>
@@ -13189,142 +13092,86 @@
         <v>30</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N69" s="1">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="P69">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="Q69" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="R69">
-        <v>20</v>
-      </c>
-      <c r="T69" s="112">
-        <v>307</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>39</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="B70" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" s="67" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="65" t="s">
+        <v>236</v>
+      </c>
+      <c r="B71" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="C70" s="1">
-        <f t="shared" ref="C70:C78" si="2">D69+0.01</f>
-        <v>250.01</v>
-      </c>
-      <c r="D70" s="6">
-        <v>350</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F70" s="6">
-        <v>15</v>
-      </c>
-      <c r="G70" s="1">
-        <v>415</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L70" s="1">
-        <v>40</v>
-      </c>
-      <c r="M70" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N70" s="1">
-        <v>9</v>
-      </c>
-      <c r="P70">
-        <v>850</v>
-      </c>
-      <c r="Q70" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="R70">
-        <v>20</v>
-      </c>
-      <c r="T70" s="112">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>40</v>
-      </c>
-      <c r="B71" t="s">
-        <v>93</v>
-      </c>
-      <c r="C71" s="1">
-        <f t="shared" si="2"/>
-        <v>350.01</v>
-      </c>
-      <c r="D71" s="6">
-        <v>450</v>
+      <c r="C71" s="66">
+        <f t="shared" ref="C71:C72" si="2">D70+0.01</f>
+        <v>0.01</v>
+      </c>
+      <c r="D71" s="66">
+        <v>100</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F71" s="6">
+      <c r="F71" s="66">
         <v>15</v>
       </c>
-      <c r="G71" s="1">
+      <c r="G71" s="66">
         <v>415</v>
       </c>
-      <c r="H71" s="1" t="s">
+      <c r="H71" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="I71" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L71" s="1">
-        <v>40</v>
-      </c>
-      <c r="M71" s="1" t="s">
+      <c r="I71" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="J71" s="66"/>
+      <c r="K71" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="L71" s="66">
+        <v>30</v>
+      </c>
+      <c r="M71" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="N71" s="1">
-        <v>9</v>
-      </c>
-      <c r="P71">
-        <v>1100</v>
-      </c>
-      <c r="Q71" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="R71">
-        <v>20</v>
+      <c r="N71" s="66">
+        <v>8</v>
+      </c>
+      <c r="O71" s="66"/>
+      <c r="Q71" s="75" t="s">
+        <v>478</v>
+      </c>
+      <c r="T71" s="113">
+        <v>266</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B72" t="s">
         <v>93</v>
       </c>
       <c r="C72" s="1">
         <f t="shared" si="2"/>
-        <v>450.01</v>
+        <v>100.01</v>
       </c>
       <c r="D72" s="6">
-        <v>550</v>
+        <v>170</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>166</v>
@@ -13345,37 +13192,40 @@
         <v>91</v>
       </c>
       <c r="L72" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M72" s="1" t="s">
         <v>55</v>
       </c>
       <c r="N72" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P72">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="Q72" s="6" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="R72">
         <v>20</v>
       </c>
+      <c r="T72" s="110">
+        <v>280</v>
+      </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>237</v>
+        <v>38</v>
       </c>
       <c r="B73" t="s">
         <v>93</v>
       </c>
       <c r="C73" s="1">
-        <f t="shared" si="2"/>
-        <v>550.01</v>
+        <f>D72+0.01</f>
+        <v>170.01</v>
       </c>
       <c r="D73" s="6">
-        <v>650</v>
+        <v>250</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>166</v>
@@ -13396,94 +13246,100 @@
         <v>91</v>
       </c>
       <c r="L73" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M73" s="1" t="s">
         <v>55</v>
       </c>
       <c r="N73" s="1">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="P73">
+        <v>750</v>
       </c>
       <c r="Q73" s="6" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="R73">
         <v>20</v>
       </c>
-    </row>
-    <row r="74" spans="1:20" s="67" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="67" t="s">
-        <v>118</v>
-      </c>
-      <c r="B74" s="67" t="s">
+      <c r="T73" s="110">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>39</v>
+      </c>
+      <c r="B74" t="s">
         <v>93</v>
       </c>
-      <c r="C74" s="66">
-        <f t="shared" si="2"/>
-        <v>650.01</v>
-      </c>
-      <c r="D74" s="75">
-        <v>750</v>
+      <c r="C74" s="1">
+        <f t="shared" ref="C74:C82" si="3">D73+0.01</f>
+        <v>250.01</v>
+      </c>
+      <c r="D74" s="6">
+        <v>350</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F74" s="75">
+      <c r="F74" s="6">
         <v>15</v>
       </c>
-      <c r="G74" s="66">
+      <c r="G74" s="1">
         <v>415</v>
       </c>
-      <c r="H74" s="66" t="s">
+      <c r="H74" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I74" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="J74" s="66"/>
-      <c r="K74" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="L74" s="66">
+      <c r="I74" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L74" s="1">
+        <v>40</v>
+      </c>
+      <c r="M74" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M74" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="N74" s="66">
+      <c r="N74" s="1">
         <v>9</v>
       </c>
-      <c r="O74" s="66"/>
-      <c r="P74" s="67">
-        <v>1100</v>
-      </c>
-      <c r="Q74" s="75" t="s">
-        <v>485</v>
-      </c>
-      <c r="R74" s="67">
+      <c r="P74">
+        <v>850</v>
+      </c>
+      <c r="Q74" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="R74">
         <v>20</v>
       </c>
-      <c r="T74" s="115"/>
+      <c r="T74" s="110">
+        <v>383</v>
+      </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>238</v>
+        <v>40</v>
       </c>
       <c r="B75" t="s">
         <v>93</v>
       </c>
       <c r="C75" s="1">
-        <f t="shared" si="2"/>
-        <v>750.01</v>
+        <f t="shared" si="3"/>
+        <v>350.01</v>
       </c>
       <c r="D75" s="6">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>166</v>
       </c>
       <c r="F75" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G75" s="1">
         <v>415</v>
@@ -13498,37 +13354,43 @@
         <v>91</v>
       </c>
       <c r="L75" s="1">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M75" s="1" t="s">
         <v>55</v>
       </c>
       <c r="N75" s="1">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="P75">
+        <v>1100</v>
       </c>
       <c r="Q75" s="6" t="s">
-        <v>486</v>
+        <v>482</v>
+      </c>
+      <c r="R75">
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B76" t="s">
         <v>93</v>
       </c>
       <c r="C76" s="1">
-        <f t="shared" si="2"/>
-        <v>850.01</v>
+        <f t="shared" si="3"/>
+        <v>450.01</v>
       </c>
       <c r="D76" s="6">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>166</v>
       </c>
       <c r="F76" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G76" s="1">
         <v>415</v>
@@ -13543,19 +13405,19 @@
         <v>91</v>
       </c>
       <c r="L76" s="1">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M76" s="1" t="s">
         <v>55</v>
       </c>
       <c r="N76" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P76">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="Q76" s="6" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="R76">
         <v>20</v>
@@ -13563,23 +13425,23 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B77" t="s">
         <v>93</v>
       </c>
       <c r="C77" s="1">
-        <f t="shared" si="2"/>
-        <v>1000.01</v>
+        <f t="shared" si="3"/>
+        <v>550.01</v>
       </c>
       <c r="D77" s="6">
-        <v>1400</v>
+        <v>650</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>166</v>
       </c>
       <c r="F77" s="6">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G77" s="1">
         <v>415</v>
@@ -13594,251 +13456,241 @@
         <v>91</v>
       </c>
       <c r="L77" s="1">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M77" s="1" t="s">
         <v>55</v>
       </c>
       <c r="N77" s="1">
-        <v>7</v>
-      </c>
-      <c r="P77">
-        <v>1100</v>
+        <v>9</v>
       </c>
       <c r="Q77" s="6" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="R77">
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="B78" s="38" t="s">
+    <row r="78" spans="1:20" s="67" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="B78" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="C78" s="76">
-        <f t="shared" si="2"/>
-        <v>1400.01</v>
-      </c>
-      <c r="D78" s="70">
-        <v>1800</v>
-      </c>
-      <c r="E78" s="76" t="s">
+      <c r="C78" s="66">
+        <f t="shared" si="3"/>
+        <v>650.01</v>
+      </c>
+      <c r="D78" s="75">
+        <v>750</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F78" s="70">
-        <v>6</v>
-      </c>
-      <c r="G78" s="76">
+      <c r="F78" s="75">
+        <v>15</v>
+      </c>
+      <c r="G78" s="66">
         <v>415</v>
       </c>
-      <c r="H78" s="76" t="s">
+      <c r="H78" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="I78" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="J78" s="76"/>
-      <c r="K78" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="L78" s="76">
-        <v>60</v>
-      </c>
-      <c r="M78" s="76" t="s">
+      <c r="I78" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="J78" s="66"/>
+      <c r="K78" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="L78" s="66">
         <v>55</v>
       </c>
-      <c r="N78" s="76">
+      <c r="M78" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="N78" s="66">
+        <v>9</v>
+      </c>
+      <c r="O78" s="66"/>
+      <c r="P78" s="67">
+        <v>1100</v>
+      </c>
+      <c r="Q78" s="75" t="s">
+        <v>485</v>
+      </c>
+      <c r="R78" s="67">
+        <v>20</v>
+      </c>
+      <c r="T78" s="113"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>238</v>
+      </c>
+      <c r="B79" t="s">
+        <v>93</v>
+      </c>
+      <c r="C79" s="1">
+        <f t="shared" si="3"/>
+        <v>750.01</v>
+      </c>
+      <c r="D79" s="6">
+        <v>850</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F79" s="6">
+        <v>10</v>
+      </c>
+      <c r="G79" s="1">
+        <v>415</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L79" s="1">
+        <v>55</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N79" s="1">
         <v>7</v>
       </c>
-      <c r="O78" s="76"/>
-      <c r="P78" s="38">
+      <c r="Q79" s="6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>36</v>
+      </c>
+      <c r="B80" t="s">
+        <v>93</v>
+      </c>
+      <c r="C80" s="1">
+        <f t="shared" si="3"/>
+        <v>850.01</v>
+      </c>
+      <c r="D80" s="6">
+        <v>1000</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F80" s="6">
+        <v>10</v>
+      </c>
+      <c r="G80" s="1">
+        <v>415</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L80" s="1">
+        <v>55</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N80" s="1">
+        <v>7</v>
+      </c>
+      <c r="P80">
         <v>1300</v>
       </c>
-      <c r="Q78" s="70"/>
-      <c r="R78" s="38">
-        <v>10</v>
-      </c>
-      <c r="T78" s="113"/>
-    </row>
-    <row r="79" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="B79" s="38" t="s">
+      <c r="Q80" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="R80">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>239</v>
+      </c>
+      <c r="B81" t="s">
         <v>93</v>
       </c>
-      <c r="C79" s="76">
-        <f t="shared" ref="C79:C82" si="3">D78+0.01</f>
-        <v>1800.01</v>
-      </c>
-      <c r="D79" s="76">
-        <v>2600</v>
-      </c>
-      <c r="E79" s="76" t="s">
+      <c r="C81" s="1">
+        <f t="shared" si="3"/>
+        <v>1000.01</v>
+      </c>
+      <c r="D81" s="6">
+        <v>1400</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F79" s="76">
-        <v>5</v>
-      </c>
-      <c r="G79" s="76">
+      <c r="F81" s="6">
+        <v>7</v>
+      </c>
+      <c r="G81" s="1">
         <v>415</v>
       </c>
-      <c r="H79" s="76" t="s">
+      <c r="H81" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I79" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="J79" s="76"/>
-      <c r="K79" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="L79" s="76">
-        <v>80</v>
-      </c>
-      <c r="M79" s="76" t="s">
+      <c r="I81" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L81" s="1">
         <v>55</v>
       </c>
-      <c r="N79" s="76">
-        <v>9</v>
-      </c>
-      <c r="O79" s="76"/>
-      <c r="P79" s="38">
-        <v>1500</v>
-      </c>
-      <c r="Q79" s="70"/>
-      <c r="R79" s="38">
-        <v>10</v>
-      </c>
-      <c r="T79" s="113"/>
-    </row>
-    <row r="80" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="B80" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="C80" s="76">
-        <f t="shared" si="3"/>
-        <v>2600.0100000000002</v>
-      </c>
-      <c r="D80" s="76">
-        <v>3600</v>
-      </c>
-      <c r="E80" s="76" t="s">
-        <v>166</v>
-      </c>
-      <c r="F80" s="76">
-        <v>5</v>
-      </c>
-      <c r="G80" s="76">
-        <v>415</v>
-      </c>
-      <c r="H80" s="76" t="s">
-        <v>21</v>
-      </c>
-      <c r="I80" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="J80" s="76"/>
-      <c r="K80" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="L80" s="76">
-        <v>80</v>
-      </c>
-      <c r="M80" s="76" t="s">
+      <c r="M81" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="N80" s="76">
-        <v>9</v>
-      </c>
-      <c r="O80" s="76"/>
-      <c r="P80" s="38">
-        <v>3000</v>
-      </c>
-      <c r="Q80" s="70"/>
-      <c r="R80" s="38">
-        <v>10</v>
-      </c>
-      <c r="T80" s="113"/>
-    </row>
-    <row r="81" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="B81" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="C81" s="76">
-        <f t="shared" si="3"/>
-        <v>3600.01</v>
-      </c>
-      <c r="D81" s="76">
-        <v>3600</v>
-      </c>
-      <c r="E81" s="76" t="s">
-        <v>166</v>
-      </c>
-      <c r="F81" s="76">
-        <v>9</v>
-      </c>
-      <c r="G81" s="76">
-        <v>415</v>
-      </c>
-      <c r="H81" s="76" t="s">
-        <v>21</v>
-      </c>
-      <c r="I81" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="J81" s="76"/>
-      <c r="K81" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="L81" s="76">
-        <v>80</v>
-      </c>
-      <c r="M81" s="76" t="s">
-        <v>55</v>
-      </c>
-      <c r="N81" s="76">
-        <v>9</v>
-      </c>
-      <c r="O81" s="76"/>
-      <c r="P81" s="38">
-        <v>3000</v>
-      </c>
-      <c r="Q81" s="70"/>
-      <c r="R81" s="38">
-        <v>10</v>
-      </c>
-      <c r="T81" s="113"/>
+      <c r="N81" s="1">
+        <v>7</v>
+      </c>
+      <c r="P81">
+        <v>1100</v>
+      </c>
+      <c r="Q81" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="R81">
+        <v>20</v>
+      </c>
     </row>
     <row r="82" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="38" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="B82" s="38" t="s">
         <v>93</v>
       </c>
       <c r="C82" s="76">
         <f t="shared" si="3"/>
-        <v>3600.01</v>
-      </c>
-      <c r="D82" s="76">
-        <v>4800</v>
+        <v>1400.01</v>
+      </c>
+      <c r="D82" s="70">
+        <v>1800</v>
       </c>
       <c r="E82" s="76" t="s">
         <v>166</v>
       </c>
-      <c r="F82" s="76">
-        <v>9</v>
+      <c r="F82" s="70">
+        <v>6</v>
       </c>
       <c r="G82" s="76">
         <v>415</v>
@@ -13854,37 +13706,37 @@
         <v>91</v>
       </c>
       <c r="L82" s="76">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="M82" s="76" t="s">
         <v>55</v>
       </c>
       <c r="N82" s="76">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O82" s="76"/>
       <c r="P82" s="38">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="Q82" s="70"/>
       <c r="R82" s="38">
         <v>10</v>
       </c>
-      <c r="T82" s="113"/>
+      <c r="T82" s="111"/>
     </row>
     <row r="83" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="38" t="s">
-        <v>171</v>
+        <v>120</v>
       </c>
       <c r="B83" s="38" t="s">
         <v>93</v>
       </c>
       <c r="C83" s="76">
-        <f t="shared" ref="C83" si="4">D82+0.01</f>
-        <v>4800.01</v>
+        <f t="shared" ref="C83:C86" si="4">D82+0.01</f>
+        <v>1800.01</v>
       </c>
       <c r="D83" s="76">
-        <v>5000</v>
+        <v>2600</v>
       </c>
       <c r="E83" s="76" t="s">
         <v>166</v>
@@ -13906,7 +13758,7 @@
         <v>91</v>
       </c>
       <c r="L83" s="76">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="M83" s="76" t="s">
         <v>55</v>
@@ -13916,238 +13768,296 @@
       </c>
       <c r="O83" s="76"/>
       <c r="P83" s="38">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="Q83" s="70"/>
       <c r="R83" s="38">
         <v>10</v>
       </c>
-      <c r="T83" s="113"/>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B84" s="3" t="s">
+      <c r="T83" s="111"/>
+    </row>
+    <row r="84" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="B84" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C84" s="76">
+        <f t="shared" si="4"/>
+        <v>2600.0100000000002</v>
+      </c>
+      <c r="D84" s="76">
+        <v>3600</v>
+      </c>
+      <c r="E84" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" s="76">
+        <v>5</v>
+      </c>
+      <c r="G84" s="76">
+        <v>415</v>
+      </c>
+      <c r="H84" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="I84" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="J84" s="76"/>
+      <c r="K84" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="L84" s="76">
+        <v>80</v>
+      </c>
+      <c r="M84" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="N84" s="76">
+        <v>9</v>
+      </c>
+      <c r="O84" s="76"/>
+      <c r="P84" s="38">
+        <v>3000</v>
+      </c>
+      <c r="Q84" s="70"/>
+      <c r="R84" s="38">
+        <v>10</v>
+      </c>
+      <c r="T84" s="111"/>
+    </row>
+    <row r="85" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="B85" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C85" s="76">
+        <f t="shared" si="4"/>
+        <v>3600.01</v>
+      </c>
+      <c r="D85" s="76">
+        <v>3600</v>
+      </c>
+      <c r="E85" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" s="76">
+        <v>9</v>
+      </c>
+      <c r="G85" s="76">
+        <v>415</v>
+      </c>
+      <c r="H85" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="I85" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="J85" s="76"/>
+      <c r="K85" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="L85" s="76">
+        <v>80</v>
+      </c>
+      <c r="M85" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="N85" s="76">
+        <v>9</v>
+      </c>
+      <c r="O85" s="76"/>
+      <c r="P85" s="38">
+        <v>3000</v>
+      </c>
+      <c r="Q85" s="70"/>
+      <c r="R85" s="38">
+        <v>10</v>
+      </c>
+      <c r="T85" s="111"/>
+    </row>
+    <row r="86" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C86" s="76">
+        <f t="shared" si="4"/>
+        <v>3600.01</v>
+      </c>
+      <c r="D86" s="76">
+        <v>4800</v>
+      </c>
+      <c r="E86" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="F86" s="76">
+        <v>9</v>
+      </c>
+      <c r="G86" s="76">
+        <v>415</v>
+      </c>
+      <c r="H86" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="I86" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="J86" s="76"/>
+      <c r="K86" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="L86" s="76">
+        <v>100</v>
+      </c>
+      <c r="M86" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="N86" s="76">
+        <v>10</v>
+      </c>
+      <c r="O86" s="76"/>
+      <c r="P86" s="38">
+        <v>3000</v>
+      </c>
+      <c r="Q86" s="70"/>
+      <c r="R86" s="38">
+        <v>10</v>
+      </c>
+      <c r="T86" s="111"/>
+    </row>
+    <row r="87" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="B87" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C87" s="76">
+        <f t="shared" ref="C87" si="5">D86+0.01</f>
+        <v>4800.01</v>
+      </c>
+      <c r="D87" s="76">
+        <v>5000</v>
+      </c>
+      <c r="E87" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="F87" s="76">
+        <v>5</v>
+      </c>
+      <c r="G87" s="76">
+        <v>415</v>
+      </c>
+      <c r="H87" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="I87" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="J87" s="76"/>
+      <c r="K87" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="L87" s="76">
+        <v>101</v>
+      </c>
+      <c r="M87" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="N87" s="76">
+        <v>9</v>
+      </c>
+      <c r="O87" s="76"/>
+      <c r="P87" s="38">
+        <v>2500</v>
+      </c>
+      <c r="Q87" s="70"/>
+      <c r="R87" s="38">
+        <v>10</v>
+      </c>
+      <c r="T87" s="111"/>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B88" s="3" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A85" s="3" t="s">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A89" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B89" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C85" s="1">
-        <f>D84+0.01</f>
+      <c r="C89" s="1">
+        <f>D88+0.01</f>
         <v>0.01</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D89" s="1">
         <v>170</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F85" s="1">
+      <c r="F89" s="1">
         <v>10</v>
       </c>
-      <c r="G85" s="1">
+      <c r="G89" s="1">
         <v>230</v>
       </c>
-      <c r="H85" s="1" t="s">
+      <c r="H89" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I85" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K85" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L85" s="1">
+      <c r="I89" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L89" s="1">
         <v>30</v>
       </c>
-      <c r="M85" s="1" t="s">
+      <c r="M89" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="N85" s="1">
+      <c r="N89" s="1">
         <v>8</v>
       </c>
-      <c r="P85" s="1"/>
-      <c r="Q85" s="6" t="s">
+      <c r="P89" s="1"/>
+      <c r="Q89" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="R85" s="1"/>
-      <c r="T85" s="112">
+      <c r="R89" s="1"/>
+      <c r="T89" s="110">
         <v>418</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A86" s="3" t="s">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A90" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C86" s="1">
-        <f>D85+0.01</f>
-        <v>170.01</v>
-      </c>
-      <c r="D86" s="1">
-        <v>250</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F86" s="1">
-        <v>10</v>
-      </c>
-      <c r="G86" s="1">
-        <v>230</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K86" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L86" s="1">
-        <v>30</v>
-      </c>
-      <c r="M86" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N86" s="1">
-        <v>8</v>
-      </c>
-      <c r="P86" s="1"/>
-      <c r="Q86" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="R86" s="1"/>
-      <c r="T86" s="112">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A87" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C87" s="1">
-        <f>D86+0.01</f>
-        <v>250.01</v>
-      </c>
-      <c r="D87" s="1">
-        <v>250</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F87" s="1">
-        <v>15</v>
-      </c>
-      <c r="G87" s="1">
-        <v>230</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K87" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L87" s="1">
-        <v>30</v>
-      </c>
-      <c r="M87" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N87" s="1">
-        <v>7</v>
-      </c>
-      <c r="P87" s="1"/>
-      <c r="Q87" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="R87" s="1"/>
-    </row>
-    <row r="88" spans="1:20" s="67" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="65" t="s">
-        <v>243</v>
-      </c>
-      <c r="B88" s="65" t="s">
-        <v>93</v>
-      </c>
-      <c r="C88" s="66">
-        <f>D87+0.01</f>
-        <v>250.01</v>
-      </c>
-      <c r="D88" s="66">
-        <v>450</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F88" s="66">
-        <v>7</v>
-      </c>
-      <c r="G88" s="66">
-        <v>230</v>
-      </c>
-      <c r="H88" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="I88" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="J88" s="66"/>
-      <c r="K88" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="L88" s="66">
-        <v>40</v>
-      </c>
-      <c r="M88" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="N88" s="66">
-        <v>5</v>
-      </c>
-      <c r="O88" s="66"/>
-      <c r="Q88" s="75" t="s">
-        <v>492</v>
-      </c>
-      <c r="T88" s="115"/>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B89" s="3" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>499</v>
-      </c>
-      <c r="B90" t="s">
+      <c r="B90" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C90" s="1">
         <f>D89+0.01</f>
-        <v>0.01</v>
-      </c>
-      <c r="D90" s="6">
+        <v>170.01</v>
+      </c>
+      <c r="D90" s="1">
         <v>250</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="F90" s="6">
-        <v>80</v>
+        <v>166</v>
+      </c>
+      <c r="F90" s="1">
+        <v>10</v>
       </c>
       <c r="G90" s="1">
         <v>230</v>
@@ -14170,32 +14080,34 @@
       <c r="N90" s="1">
         <v>8</v>
       </c>
-      <c r="P90">
-        <v>750</v>
-      </c>
-      <c r="R90">
-        <v>20</v>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="R90" s="1"/>
+      <c r="T90" s="110">
+        <v>474</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>500</v>
-      </c>
-      <c r="B91" t="s">
+      <c r="A91" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C91" s="1">
         <f>D90+0.01</f>
         <v>250.01</v>
       </c>
-      <c r="D91" s="6">
-        <v>400</v>
+      <c r="D91" s="1">
+        <v>250</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="F91" s="6">
-        <v>40</v>
+        <v>166</v>
+      </c>
+      <c r="F91" s="1">
+        <v>15</v>
       </c>
       <c r="G91" s="1">
         <v>230</v>
@@ -14210,149 +14122,143 @@
         <v>91</v>
       </c>
       <c r="L91" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M91" s="1" t="s">
         <v>55</v>
       </c>
       <c r="N91" s="1">
+        <v>7</v>
+      </c>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="R91" s="1"/>
+    </row>
+    <row r="92" spans="1:20" s="67" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="65" t="s">
+        <v>243</v>
+      </c>
+      <c r="B92" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="C92" s="66">
+        <f>D91+0.01</f>
+        <v>250.01</v>
+      </c>
+      <c r="D92" s="66">
+        <v>450</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F92" s="66">
+        <v>7</v>
+      </c>
+      <c r="G92" s="66">
+        <v>230</v>
+      </c>
+      <c r="H92" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="I92" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="J92" s="66"/>
+      <c r="K92" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="L92" s="66">
+        <v>40</v>
+      </c>
+      <c r="M92" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="N92" s="66">
+        <v>5</v>
+      </c>
+      <c r="O92" s="66"/>
+      <c r="Q92" s="75" t="s">
+        <v>492</v>
+      </c>
+      <c r="T92" s="113"/>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B93" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>499</v>
+      </c>
+      <c r="B94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C94" s="1">
+        <f>D93+0.01</f>
+        <v>0.01</v>
+      </c>
+      <c r="D94" s="6">
+        <v>250</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="F94" s="6">
+        <v>80</v>
+      </c>
+      <c r="G94" s="1">
+        <v>230</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L94" s="1">
+        <v>30</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N94" s="1">
         <v>8</v>
       </c>
-      <c r="P91">
+      <c r="P94">
         <v>750</v>
       </c>
-      <c r="Q91" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="R91">
+      <c r="R94">
         <v>20</v>
-      </c>
-      <c r="T91" s="112">
-        <v>1481.78</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A92" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="B92" t="s">
-        <v>93</v>
-      </c>
-      <c r="C92" s="1">
-        <f>D91+0.01</f>
-        <v>400.01</v>
-      </c>
-      <c r="D92" s="6">
-        <v>550</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="F92" s="6">
-        <v>20</v>
-      </c>
-      <c r="G92" s="1">
-        <v>230</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K92" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L92" s="1">
-        <v>40</v>
-      </c>
-      <c r="M92" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N92" s="1">
-        <v>8</v>
-      </c>
-      <c r="P92">
-        <v>750</v>
-      </c>
-      <c r="R92">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A93" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="B93" t="s">
-        <v>93</v>
-      </c>
-      <c r="C93" s="1">
-        <f>D92+0.01</f>
-        <v>550.01</v>
-      </c>
-      <c r="D93" s="6">
-        <v>750</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="F93" s="6">
-        <v>20</v>
-      </c>
-      <c r="G93" s="1">
-        <v>230</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K93" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L93" s="1">
-        <v>55</v>
-      </c>
-      <c r="M93" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N93" s="1">
-        <v>8</v>
-      </c>
-      <c r="P93">
-        <v>750</v>
-      </c>
-      <c r="R93">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B94" s="3" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B95" t="s">
         <v>93</v>
       </c>
       <c r="C95" s="1">
-        <v>0.01</v>
+        <f>D94+0.01</f>
+        <v>250.01</v>
       </c>
       <c r="D95" s="6">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>498</v>
       </c>
       <c r="F95" s="6">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G95" s="1">
-        <v>415</v>
+        <v>230</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>21</v>
@@ -14375,32 +14281,38 @@
       <c r="P95">
         <v>750</v>
       </c>
+      <c r="Q95" s="6" t="s">
+        <v>524</v>
+      </c>
       <c r="R95">
         <v>20</v>
       </c>
+      <c r="T95" s="110">
+        <v>1481.78</v>
+      </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>500</v>
+      <c r="A96" s="3" t="s">
+        <v>503</v>
       </c>
       <c r="B96" t="s">
         <v>93</v>
       </c>
       <c r="C96" s="1">
-        <f t="shared" ref="C96:C104" si="5">D95+0.01</f>
-        <v>250.01</v>
+        <f>D95+0.01</f>
+        <v>400.01</v>
       </c>
       <c r="D96" s="6">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>498</v>
       </c>
       <c r="F96" s="6">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G96" s="1">
-        <v>415</v>
+        <v>230</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>21</v>
@@ -14428,27 +14340,27 @@
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>501</v>
+      <c r="A97" s="3" t="s">
+        <v>505</v>
       </c>
       <c r="B97" t="s">
         <v>93</v>
       </c>
       <c r="C97" s="1">
-        <f t="shared" si="5"/>
-        <v>400.01</v>
+        <f>D96+0.01</f>
+        <v>550.01</v>
       </c>
       <c r="D97" s="6">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>498</v>
       </c>
       <c r="F97" s="6">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G97" s="1">
-        <v>415</v>
+        <v>230</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>21</v>
@@ -14460,7 +14372,7 @@
         <v>91</v>
       </c>
       <c r="L97" s="1">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="M97" s="1" t="s">
         <v>55</v>
@@ -14476,72 +14388,28 @@
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>502</v>
-      </c>
-      <c r="B98" t="s">
-        <v>93</v>
-      </c>
-      <c r="C98" s="1">
-        <f t="shared" si="5"/>
-        <v>450.01</v>
-      </c>
-      <c r="D98" s="6">
-        <v>500</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="F98" s="6">
-        <v>80</v>
-      </c>
-      <c r="G98" s="1">
-        <v>415</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K98" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L98" s="1">
-        <v>55</v>
-      </c>
-      <c r="M98" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N98" s="1">
-        <v>8</v>
-      </c>
-      <c r="P98">
-        <v>750</v>
-      </c>
-      <c r="R98">
-        <v>20</v>
+      <c r="B98" s="3" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A99" s="3" t="s">
-        <v>503</v>
+      <c r="A99" t="s">
+        <v>499</v>
       </c>
       <c r="B99" t="s">
         <v>93</v>
       </c>
       <c r="C99" s="1">
-        <f t="shared" si="5"/>
-        <v>500.01</v>
+        <v>0.01</v>
       </c>
       <c r="D99" s="6">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>498</v>
       </c>
       <c r="F99" s="6">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G99" s="1">
         <v>415</v>
@@ -14572,18 +14440,18 @@
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A100" s="3" t="s">
-        <v>504</v>
+      <c r="A100" t="s">
+        <v>500</v>
       </c>
       <c r="B100" t="s">
         <v>93</v>
       </c>
       <c r="C100" s="1">
-        <f t="shared" si="5"/>
-        <v>550.01</v>
+        <f t="shared" ref="C100:C108" si="6">D99+0.01</f>
+        <v>250.01</v>
       </c>
       <c r="D100" s="6">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>498</v>
@@ -14620,24 +14488,24 @@
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A101" s="3" t="s">
-        <v>505</v>
+      <c r="A101" t="s">
+        <v>501</v>
       </c>
       <c r="B101" t="s">
         <v>93</v>
       </c>
       <c r="C101" s="1">
-        <f t="shared" si="5"/>
-        <v>550.01</v>
+        <f t="shared" si="6"/>
+        <v>400.01</v>
       </c>
       <c r="D101" s="6">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>498</v>
       </c>
       <c r="F101" s="6">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G101" s="1">
         <v>415</v>
@@ -14652,7 +14520,7 @@
         <v>91</v>
       </c>
       <c r="L101" s="1">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M101" s="1" t="s">
         <v>55</v>
@@ -14668,24 +14536,24 @@
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A102" s="3" t="s">
-        <v>506</v>
+      <c r="A102" t="s">
+        <v>502</v>
       </c>
       <c r="B102" t="s">
         <v>93</v>
       </c>
       <c r="C102" s="1">
-        <f t="shared" si="5"/>
-        <v>750.01</v>
+        <f t="shared" si="6"/>
+        <v>450.01</v>
       </c>
       <c r="D102" s="6">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>498</v>
       </c>
       <c r="F102" s="6">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="G102" s="1">
         <v>415</v>
@@ -14717,23 +14585,23 @@
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B103" t="s">
         <v>93</v>
       </c>
       <c r="C103" s="1">
-        <f t="shared" si="5"/>
-        <v>750.01</v>
+        <f t="shared" si="6"/>
+        <v>500.01</v>
       </c>
       <c r="D103" s="6">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>498</v>
       </c>
       <c r="F103" s="6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G103" s="1">
         <v>415</v>
@@ -14748,7 +14616,7 @@
         <v>91</v>
       </c>
       <c r="L103" s="1">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M103" s="1" t="s">
         <v>55</v>
@@ -14765,23 +14633,23 @@
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B104" t="s">
         <v>93</v>
       </c>
       <c r="C104" s="1">
-        <f t="shared" si="5"/>
-        <v>1000.01</v>
+        <f t="shared" si="6"/>
+        <v>550.01</v>
       </c>
       <c r="D104" s="6">
-        <v>1400</v>
+        <v>550</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>498</v>
       </c>
       <c r="F104" s="6">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G104" s="1">
         <v>415</v>
@@ -14796,7 +14664,7 @@
         <v>91</v>
       </c>
       <c r="L104" s="1">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M104" s="1" t="s">
         <v>55</v>
@@ -14812,28 +14680,72 @@
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B105" s="3" t="s">
-        <v>527</v>
+      <c r="A105" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="B105" t="s">
+        <v>93</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="6"/>
+        <v>550.01</v>
+      </c>
+      <c r="D105" s="6">
+        <v>750</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="F105" s="6">
+        <v>20</v>
+      </c>
+      <c r="G105" s="1">
+        <v>415</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L105" s="1">
+        <v>55</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N105" s="1">
+        <v>8</v>
+      </c>
+      <c r="P105">
+        <v>750</v>
+      </c>
+      <c r="R105">
+        <v>20</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B106" t="s">
         <v>93</v>
       </c>
       <c r="C106" s="1">
-        <v>0.01</v>
+        <f t="shared" si="6"/>
+        <v>750.01</v>
       </c>
       <c r="D106" s="6">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="F106" s="6">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="G106" s="1">
         <v>415</v>
@@ -14848,7 +14760,7 @@
         <v>91</v>
       </c>
       <c r="L106" s="1">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="M106" s="1" t="s">
         <v>55</v>
@@ -14859,35 +14771,29 @@
       <c r="P106">
         <v>750</v>
       </c>
-      <c r="Q106" s="6" t="s">
-        <v>523</v>
-      </c>
       <c r="R106">
         <v>20</v>
       </c>
-      <c r="T106" s="112">
-        <v>624.37</v>
-      </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B107" t="s">
         <v>93</v>
       </c>
       <c r="C107" s="1">
-        <f>D106+0.01</f>
-        <v>250.01</v>
+        <f t="shared" si="6"/>
+        <v>750.01</v>
       </c>
       <c r="D107" s="6">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="F107" s="6">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G107" s="1">
         <v>415</v>
@@ -14902,7 +14808,7 @@
         <v>91</v>
       </c>
       <c r="L107" s="1">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="M107" s="1" t="s">
         <v>55</v>
@@ -14919,23 +14825,23 @@
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B108" t="s">
         <v>93</v>
       </c>
       <c r="C108" s="1">
-        <f t="shared" ref="C108:C114" si="6">D107+0.01</f>
-        <v>250.01</v>
+        <f t="shared" si="6"/>
+        <v>1000.01</v>
       </c>
       <c r="D108" s="6">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="F108" s="6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G108" s="1">
         <v>415</v>
@@ -14950,7 +14856,7 @@
         <v>91</v>
       </c>
       <c r="L108" s="1">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="M108" s="1" t="s">
         <v>55</v>
@@ -14966,66 +14872,22 @@
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A109" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="B109" t="s">
-        <v>93</v>
-      </c>
-      <c r="C109" s="1">
-        <f t="shared" si="6"/>
-        <v>400.01</v>
-      </c>
-      <c r="D109" s="6">
-        <v>400</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="F109" s="6">
-        <v>24</v>
-      </c>
-      <c r="G109" s="1">
-        <v>415</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K109" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L109" s="1">
-        <v>40</v>
-      </c>
-      <c r="M109" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N109" s="1">
-        <v>8</v>
-      </c>
-      <c r="P109">
-        <v>750</v>
-      </c>
-      <c r="R109">
-        <v>20</v>
+      <c r="B109" s="3" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B110" t="s">
         <v>93</v>
       </c>
       <c r="C110" s="1">
-        <f t="shared" si="6"/>
-        <v>400.01</v>
+        <v>0.01</v>
       </c>
       <c r="D110" s="6">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>510</v>
@@ -15046,7 +14908,7 @@
         <v>91</v>
       </c>
       <c r="L110" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M110" s="1" t="s">
         <v>55</v>
@@ -15057,23 +14919,29 @@
       <c r="P110">
         <v>750</v>
       </c>
+      <c r="Q110" s="6" t="s">
+        <v>523</v>
+      </c>
       <c r="R110">
         <v>20</v>
       </c>
+      <c r="T110" s="110">
+        <v>624.37</v>
+      </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B111" t="s">
         <v>93</v>
       </c>
       <c r="C111" s="1">
-        <f t="shared" si="6"/>
-        <v>550.01</v>
+        <f>D110+0.01</f>
+        <v>250.01</v>
       </c>
       <c r="D111" s="6">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>510</v>
@@ -15094,7 +14962,7 @@
         <v>91</v>
       </c>
       <c r="L111" s="1">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="M111" s="1" t="s">
         <v>55</v>
@@ -15111,23 +14979,23 @@
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B112" t="s">
         <v>93</v>
       </c>
       <c r="C112" s="1">
-        <f t="shared" si="6"/>
-        <v>550.01</v>
+        <f t="shared" ref="C112:C118" si="7">D111+0.01</f>
+        <v>250.01</v>
       </c>
       <c r="D112" s="6">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>510</v>
       </c>
       <c r="F112" s="6">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G112" s="1">
         <v>415</v>
@@ -15142,7 +15010,7 @@
         <v>91</v>
       </c>
       <c r="L112" s="1">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M112" s="1" t="s">
         <v>55</v>
@@ -15159,17 +15027,17 @@
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B113" t="s">
         <v>93</v>
       </c>
       <c r="C113" s="1">
-        <f t="shared" si="6"/>
-        <v>750.01</v>
+        <f t="shared" si="7"/>
+        <v>400.01</v>
       </c>
       <c r="D113" s="6">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>510</v>
@@ -15190,7 +15058,7 @@
         <v>91</v>
       </c>
       <c r="L113" s="1">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M113" s="1" t="s">
         <v>55</v>
@@ -15207,23 +15075,23 @@
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B114" t="s">
         <v>93</v>
       </c>
       <c r="C114" s="1">
-        <f t="shared" si="6"/>
-        <v>1000.01</v>
+        <f t="shared" si="7"/>
+        <v>400.01</v>
       </c>
       <c r="D114" s="6">
-        <v>1200</v>
+        <v>550</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>510</v>
       </c>
       <c r="F114" s="6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G114" s="1">
         <v>415</v>
@@ -15238,7 +15106,7 @@
         <v>91</v>
       </c>
       <c r="L114" s="1">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M114" s="1" t="s">
         <v>55</v>
@@ -15250,6 +15118,198 @@
         <v>750</v>
       </c>
       <c r="R114">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A115" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="B115" t="s">
+        <v>93</v>
+      </c>
+      <c r="C115" s="1">
+        <f t="shared" si="7"/>
+        <v>550.01</v>
+      </c>
+      <c r="D115" s="6">
+        <v>550</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="F115" s="6">
+        <v>24</v>
+      </c>
+      <c r="G115" s="1">
+        <v>415</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L115" s="1">
+        <v>55</v>
+      </c>
+      <c r="M115" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N115" s="1">
+        <v>8</v>
+      </c>
+      <c r="P115">
+        <v>750</v>
+      </c>
+      <c r="R115">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A116" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B116" t="s">
+        <v>93</v>
+      </c>
+      <c r="C116" s="1">
+        <f t="shared" si="7"/>
+        <v>550.01</v>
+      </c>
+      <c r="D116" s="6">
+        <v>750</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="F116" s="6">
+        <v>24</v>
+      </c>
+      <c r="G116" s="1">
+        <v>415</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L116" s="1">
+        <v>55</v>
+      </c>
+      <c r="M116" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N116" s="1">
+        <v>8</v>
+      </c>
+      <c r="P116">
+        <v>750</v>
+      </c>
+      <c r="R116">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A117" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B117" t="s">
+        <v>93</v>
+      </c>
+      <c r="C117" s="1">
+        <f t="shared" si="7"/>
+        <v>750.01</v>
+      </c>
+      <c r="D117" s="6">
+        <v>1000</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="F117" s="6">
+        <v>24</v>
+      </c>
+      <c r="G117" s="1">
+        <v>415</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L117" s="1">
+        <v>55</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N117" s="1">
+        <v>8</v>
+      </c>
+      <c r="P117">
+        <v>750</v>
+      </c>
+      <c r="R117">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A118" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B118" t="s">
+        <v>93</v>
+      </c>
+      <c r="C118" s="1">
+        <f t="shared" si="7"/>
+        <v>1000.01</v>
+      </c>
+      <c r="D118" s="6">
+        <v>1200</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="F118" s="6">
+        <v>12</v>
+      </c>
+      <c r="G118" s="1">
+        <v>415</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L118" s="1">
+        <v>55</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N118" s="1">
+        <v>8</v>
+      </c>
+      <c r="P118">
+        <v>750</v>
+      </c>
+      <c r="R118">
         <v>20</v>
       </c>
     </row>
@@ -15269,7 +15329,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15772,37 +15832,39 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" s="6">
+      <c r="A15" s="80" t="s">
+        <v>531</v>
+      </c>
+      <c r="B15" s="100">
         <v>12</v>
       </c>
-      <c r="D15" s="6">
+      <c r="C15" s="100"/>
+      <c r="D15" s="100">
         <v>48</v>
       </c>
-      <c r="F15" s="103">
+      <c r="E15" s="100"/>
+      <c r="F15" s="104">
         <f>D15/B15</f>
         <v>4</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="100" t="s">
         <v>87</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="100">
         <v>90</v>
       </c>
-      <c r="I15" s="101">
+      <c r="I15" s="102">
         <f>H15*F15</f>
         <v>360</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="100">
         <v>24</v>
       </c>
-      <c r="K15" s="103">
+      <c r="K15" s="104">
         <f>J15/F15</f>
         <v>6</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="100">
         <v>230</v>
       </c>
       <c r="N15">
@@ -16658,28 +16720,28 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="F38" s="103"/>
-      <c r="K38" s="108"/>
+      <c r="K38" s="103"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
-      <c r="K39" s="108"/>
+      <c r="K39" s="103"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>517</v>
       </c>
       <c r="B40" s="6">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D40" s="6">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F40" s="6">
         <f>D40/B40</f>
-        <v>3</v>
+        <v>5.5454545454545459</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>87</v>
@@ -16689,14 +16751,14 @@
       </c>
       <c r="I40" s="1">
         <f>H40*F40</f>
-        <v>60</v>
+        <v>110.90909090909092</v>
       </c>
       <c r="J40" s="1">
         <v>34</v>
       </c>
-      <c r="K40" s="108">
+      <c r="K40" s="103">
         <f t="shared" ref="K40:K45" si="16">J40/F40</f>
-        <v>11.333333333333334</v>
+        <v>6.1311475409836058</v>
       </c>
       <c r="L40" s="6">
         <v>415</v>
@@ -16707,31 +16769,31 @@
         <v>233</v>
       </c>
       <c r="B41" s="6">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D41" s="6">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F41" s="6">
         <f t="shared" ref="F41:F42" si="17">D41/B41</f>
-        <v>3</v>
+        <v>5.5555555555555554</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>87</v>
+        <v>219</v>
       </c>
       <c r="H41" s="1">
         <v>62</v>
       </c>
       <c r="I41" s="1">
         <f t="shared" ref="I41:I44" si="18">H41*F41</f>
-        <v>186</v>
+        <v>344.44444444444446</v>
       </c>
       <c r="J41" s="1">
         <v>34</v>
       </c>
-      <c r="K41" s="108">
+      <c r="K41" s="103">
         <f t="shared" si="16"/>
-        <v>11.333333333333334</v>
+        <v>6.12</v>
       </c>
       <c r="L41" s="6">
         <v>415</v>
@@ -16742,31 +16804,31 @@
         <v>234</v>
       </c>
       <c r="B42" s="6">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D42" s="6">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F42" s="6">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>6.4</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>87</v>
+        <v>219</v>
       </c>
       <c r="H42" s="1">
         <v>95</v>
       </c>
       <c r="I42" s="1">
         <f t="shared" si="18"/>
-        <v>285</v>
+        <v>608</v>
       </c>
       <c r="J42" s="1">
         <v>22</v>
       </c>
-      <c r="K42" s="108">
+      <c r="K42" s="103">
         <f t="shared" si="16"/>
-        <v>7.333333333333333</v>
+        <v>3.4375</v>
       </c>
       <c r="L42" s="6">
         <v>415</v>
@@ -16777,31 +16839,31 @@
         <v>518</v>
       </c>
       <c r="B43" s="6">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D43" s="6">
         <v>57</v>
       </c>
       <c r="F43" s="6">
         <f t="shared" ref="F43:F45" si="19">D43/B43</f>
-        <v>3</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>87</v>
+        <v>222</v>
       </c>
       <c r="H43" s="6">
         <v>128</v>
       </c>
       <c r="I43" s="1">
         <f>H43*F43</f>
-        <v>384</v>
+        <v>810.66666666666663</v>
       </c>
       <c r="J43" s="6">
         <v>22</v>
       </c>
-      <c r="K43" s="108">
-        <f t="shared" si="16"/>
-        <v>7.333333333333333</v>
+      <c r="K43" s="103">
+        <f>J43/F43</f>
+        <v>3.4736842105263159</v>
       </c>
       <c r="L43" s="6">
         <v>415</v>
@@ -16812,31 +16874,31 @@
         <v>519</v>
       </c>
       <c r="B44" s="6">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D44" s="6">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F44" s="6">
         <f t="shared" si="19"/>
-        <v>3</v>
+        <v>4.3636363636363633</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>87</v>
+        <v>224</v>
       </c>
       <c r="H44" s="6">
         <v>369</v>
       </c>
       <c r="I44" s="1">
         <f t="shared" si="18"/>
-        <v>1107</v>
+        <v>1610.181818181818</v>
       </c>
       <c r="J44" s="6">
         <v>15</v>
       </c>
-      <c r="K44" s="108">
+      <c r="K44" s="103">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>3.4375000000000004</v>
       </c>
       <c r="L44" s="6">
         <v>415</v>
@@ -16847,14 +16909,14 @@
         <v>520</v>
       </c>
       <c r="B45" s="6">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D45" s="6">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="F45" s="6">
         <f t="shared" si="19"/>
-        <v>3</v>
+        <v>5.1428571428571432</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>87</v>
@@ -16864,14 +16926,14 @@
       </c>
       <c r="I45" s="1">
         <f>H45*F45</f>
-        <v>1284</v>
+        <v>2201.1428571428573</v>
       </c>
       <c r="J45" s="6">
         <v>16.5</v>
       </c>
-      <c r="K45" s="108">
+      <c r="K45" s="103">
         <f t="shared" si="16"/>
-        <v>5.5</v>
+        <v>3.208333333333333</v>
       </c>
       <c r="L45" s="6">
         <v>415</v>
@@ -16904,7 +16966,7 @@
       <c r="J47" s="1">
         <v>34</v>
       </c>
-      <c r="K47" s="108">
+      <c r="K47" s="103">
         <f>J47/F47</f>
         <v>11.333333333333334</v>
       </c>
@@ -16939,7 +17001,7 @@
       <c r="J48" s="1">
         <v>34</v>
       </c>
-      <c r="K48" s="108">
+      <c r="K48" s="103">
         <f>J48/F48</f>
         <v>11.333333333333334</v>
       </c>
@@ -16974,7 +17036,7 @@
       <c r="J49" s="1">
         <v>22</v>
       </c>
-      <c r="K49" s="108">
+      <c r="K49" s="103">
         <f t="shared" ref="K49" si="22">J49/F49</f>
         <v>7.333333333333333</v>
       </c>
@@ -17013,7 +17075,7 @@
       <c r="J51" s="1">
         <v>28</v>
       </c>
-      <c r="K51" s="108">
+      <c r="K51" s="103">
         <f t="shared" ref="K51" si="24">J51/F51</f>
         <v>9.3333333333333339</v>
       </c>
@@ -17048,7 +17110,7 @@
       <c r="J52" s="1">
         <v>28</v>
       </c>
-      <c r="K52" s="108">
+      <c r="K52" s="103">
         <f t="shared" ref="K52" si="26">J52/F52</f>
         <v>7.3684210526315796</v>
       </c>
@@ -17087,7 +17149,7 @@
       <c r="J54" s="1">
         <v>28</v>
       </c>
-      <c r="K54" s="108">
+      <c r="K54" s="103">
         <f t="shared" ref="K54" si="27">J54/F54</f>
         <v>9.3333333333333339</v>
       </c>
@@ -17098,7 +17160,7 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="Q54" s="6"/>
-      <c r="T54" s="112"/>
+      <c r="T54" s="110"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.35">
       <c r="F55" s="103"/>
